--- a/Supplements/homework-02-final-grade.xlsx
+++ b/Supplements/homework-02-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C38C0D-D20C-0347-BB03-BDC3DDB7A637}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFD6BA5-074D-2D41-9C7F-F1DF25181B77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,23 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序运行后长时间无响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行出错，Error: hw2_cuda.cu:110, code:2, reason: out of memory</t>
-  </si>
-  <si>
     <t>输出全0</t>
-  </si>
-  <si>
-    <t>编译失败,可能是字符编码错误</t>
   </si>
   <si>
     <t>编译失败</t>
@@ -52,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大于75us</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,9 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交的压缩文件中仅有一个文件且无法打开</t>
-  </si>
-  <si>
     <t>MD5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +445,45 @@
   </si>
   <si>
     <t>总分-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原正确性为10分，更正后为30分，扣除5分复查分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分原为16分，更改参数后为30分，扣除5分复查分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1a955c91078bc8ca96bc549df907c4a</t>
+  </si>
+  <si>
+    <t>原为22分，更正后为82分，扣除5分复查分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果全为0。原因：程序输入参数应有两个（data.bin和卷积核大小s），但是你的程序卷积核大小s的参数需要进入程序后才能输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果全为0。原因：虽然程序在20*20的样例数据中运行正确，但是测试数据为重新生成的100*100数据，程序输出结果为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原为28分，更正后为68分，扣除5分复查分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出结果为："0 0"，无其它输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出结果错误，卷积计算结果完全错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1410,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26841186" y="946678"/>
+              <a:off x="27692086" y="946678"/>
               <a:ext cx="9753864" cy="6729413"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2500,7 +2522,7 @@
   <dimension ref="A1:IW121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -2520,28 +2542,28 @@
   <sheetData>
     <row r="1" spans="1:257" ht="44">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -2551,23 +2573,23 @@
     </row>
     <row r="2" spans="1:257" ht="25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="7">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9995</v>
+        <v>85</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9958</v>
       </c>
       <c r="E2" s="15">
         <f>IF(D2/10000*30&gt;=29.7, 30,D2/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F2" s="5">
-        <v>667.09</v>
+        <v>463.43</v>
       </c>
       <c r="G2" s="11">
         <f>IF(F2&gt;0, IF(F2&lt;25, 30, IF(F2&gt;75, 10, (1-(F2-25)/(75-25))*20+10)), 0)</f>
@@ -2575,7 +2597,7 @@
       </c>
       <c r="H2" s="12">
         <f>B2+C2+E2+G2</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6"/>
       <c r="IV2" s="3"/>
@@ -2583,31 +2605,31 @@
     </row>
     <row r="3" spans="1:257" ht="25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>9593</v>
+        <v>9999</v>
       </c>
       <c r="E3" s="15">
         <f>IF(D3/10000*30&gt;=29.7, 30,D3/10000*30)</f>
-        <v>28.779</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5">
-        <v>10.08</v>
+        <v>198.27</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;0, IF(F3&lt;25, 30, IF(F3&gt;75, 10, (1-(F3-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3" s="12">
         <f>B3+C3+E3+G3</f>
-        <v>90.778999999999996</v>
+        <v>65</v>
       </c>
       <c r="I3" s="6"/>
       <c r="IV3" s="3"/>
@@ -2615,31 +2637,31 @@
     </row>
     <row r="4" spans="1:257" ht="25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9975</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="7">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9987</v>
       </c>
       <c r="E4" s="15">
         <f>IF(D4/10000*30&gt;=29.7, 30,D4/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>42.369</v>
+        <v>120.07</v>
       </c>
       <c r="G4" s="11">
         <f>IF(F4&gt;0, IF(F4&lt;25, 30, IF(F4&gt;75, 10, (1-(F4-25)/(75-25))*20+10)), 0)</f>
-        <v>23.052399999999999</v>
+        <v>10</v>
       </c>
       <c r="H4" s="12">
         <f>B4+C4+E4+G4</f>
-        <v>82.052400000000006</v>
+        <v>71</v>
       </c>
       <c r="I4" s="6"/>
       <c r="IV4" s="3"/>
@@ -2647,23 +2669,23 @@
     </row>
     <row r="5" spans="1:257" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>9958</v>
+        <v>9988</v>
       </c>
       <c r="E5" s="15">
         <f>IF(D5/10000*30&gt;=29.7, 30,D5/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F5" s="5">
-        <v>463.43</v>
+        <v>153.41</v>
       </c>
       <c r="G5" s="11">
         <f>IF(F5&gt;0, IF(F5&lt;25, 30, IF(F5&gt;75, 10, (1-(F5-25)/(75-25))*20+10)), 0)</f>
@@ -2671,7 +2693,7 @@
       </c>
       <c r="H5" s="12">
         <f>B5+C5+E5+G5</f>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I5" s="6"/>
       <c r="IV5" s="3"/>
@@ -2679,31 +2701,31 @@
     </row>
     <row r="6" spans="1:257" ht="25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="7">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>9987</v>
+        <v>9995</v>
       </c>
       <c r="E6" s="15">
         <f>IF(D6/10000*30&gt;=29.7, 30,D6/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F6" s="5">
-        <v>120.07</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="G6" s="11">
         <f>IF(F6&gt;0, IF(F6&lt;25, 30, IF(F6&gt;75, 10, (1-(F6-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="12">
         <f>B6+C6+E6+G6</f>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I6" s="6"/>
       <c r="IV6" s="3"/>
@@ -2711,86 +2733,86 @@
     </row>
     <row r="7" spans="1:257" ht="25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>9995</v>
+        <v>9994</v>
       </c>
       <c r="E7" s="15">
         <f>IF(D7/10000*30&gt;=29.7, 30,D7/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F7" s="5">
-        <v>36.351999999999997</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G7" s="11">
         <f>IF(F7&gt;0, IF(F7&lt;25, 30, IF(F7&gt;75, 10, (1-(F7-25)/(75-25))*20+10)), 0)</f>
-        <v>25.459200000000003</v>
+        <v>30</v>
       </c>
       <c r="H7" s="12">
         <f>B7+C7+E7+G7</f>
-        <v>80.45920000000001</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="IV7" s="3"/>
       <c r="IW7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="2">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9989</v>
+        <v>70</v>
+      </c>
+      <c r="B8" s="7">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9996</v>
       </c>
       <c r="E8" s="15">
         <f>IF(D8/10000*30&gt;=29.7, 30,D8/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>148.26</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="G8" s="11">
         <f>IF(F8&gt;0, IF(F8&lt;25, 30, IF(F8&gt;75, 10, (1-(F8-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H8" s="12">
         <f>B8+C8+E8+G8</f>
-        <v>65</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>89</v>
+      </c>
       <c r="IV8" s="3"/>
       <c r="IW8" s="3"/>
     </row>
     <row r="9" spans="1:257" ht="25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>9996</v>
+        <v>9984</v>
       </c>
       <c r="E9" s="15">
         <f>IF(D9/10000*30&gt;=29.7, 30,D9/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F9" s="5">
-        <v>24.928000000000001</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G9" s="11">
         <f>IF(F9&gt;0, IF(F9&lt;25, 30, IF(F9&gt;75, 10, (1-(F9-25)/(75-25))*20+10)), 0)</f>
@@ -2798,38 +2820,38 @@
       </c>
       <c r="H9" s="12">
         <f>B9+C9+E9+G9</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="IV9" s="3"/>
       <c r="IW9" s="3"/>
     </row>
     <row r="10" spans="1:257" ht="25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
-        <v>9982</v>
+      <c r="D10" s="2">
+        <v>9955</v>
       </c>
       <c r="E10" s="15">
         <f>IF(D10/10000*30&gt;=29.7, 30,D10/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F10" s="5">
-        <v>20.096</v>
+        <v>56.512999999999998</v>
       </c>
       <c r="G10" s="11">
         <f>IF(F10&gt;0, IF(F10&lt;25, 30, IF(F10&gt;75, 10, (1-(F10-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.394800000000004</v>
       </c>
       <c r="H10" s="12">
         <f>B10+C10+E10+G10</f>
-        <v>100</v>
+        <v>72.394800000000004</v>
       </c>
       <c r="I10" s="6"/>
       <c r="IV10" s="3"/>
@@ -2837,15 +2859,15 @@
     </row>
     <row r="11" spans="1:257" ht="25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
         <v>9997</v>
       </c>
       <c r="E11" s="15">
@@ -2853,15 +2875,15 @@
         <v>30</v>
       </c>
       <c r="F11" s="5">
-        <v>64.384</v>
+        <v>81.506</v>
       </c>
       <c r="G11" s="11">
         <f>IF(F11&gt;0, IF(F11&lt;25, 30, IF(F11&gt;75, 10, (1-(F11-25)/(75-25))*20+10)), 0)</f>
-        <v>14.2464</v>
+        <v>10</v>
       </c>
       <c r="H11" s="12">
         <f>B11+C11+E11+G11</f>
-        <v>69.246399999999994</v>
+        <v>70</v>
       </c>
       <c r="I11" s="6"/>
       <c r="IV11" s="3"/>
@@ -2869,31 +2891,31 @@
     </row>
     <row r="12" spans="1:257" ht="25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9992</v>
+        <v>41</v>
+      </c>
+      <c r="B12" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9985</v>
       </c>
       <c r="E12" s="15">
         <f>IF(D12/10000*30&gt;=29.7, 30,D12/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F12" s="5">
-        <v>25.888000000000002</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="G12" s="11">
         <f>IF(F12&gt;0, IF(F12&lt;25, 30, IF(F12&gt;75, 10, (1-(F12-25)/(75-25))*20+10)), 0)</f>
-        <v>29.6448</v>
+        <v>16.831600000000002</v>
       </c>
       <c r="H12" s="12">
         <f>B12+C12+E12+G12</f>
-        <v>93.644800000000004</v>
+        <v>84.831600000000009</v>
       </c>
       <c r="I12" s="6"/>
       <c r="IV12" s="3"/>
@@ -2901,23 +2923,23 @@
     </row>
     <row r="13" spans="1:257" ht="25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>9995</v>
+        <v>9784</v>
       </c>
       <c r="E13" s="15">
         <f>IF(D13/10000*30&gt;=29.7, 30,D13/10000*30)</f>
-        <v>30</v>
+        <v>29.352</v>
       </c>
       <c r="F13" s="5">
-        <v>18.975999999999999</v>
+        <v>23.36</v>
       </c>
       <c r="G13" s="11">
         <f>IF(F13&gt;0, IF(F13&lt;25, 30, IF(F13&gt;75, 10, (1-(F13-25)/(75-25))*20+10)), 0)</f>
@@ -2925,7 +2947,7 @@
       </c>
       <c r="H13" s="12">
         <f>B13+C13+E13+G13</f>
-        <v>86</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="I13" s="6"/>
       <c r="IV13" s="3"/>
@@ -2933,15 +2955,15 @@
     </row>
     <row r="14" spans="1:257" ht="25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="2">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
         <v>9995</v>
       </c>
       <c r="E14" s="15">
@@ -2949,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="5">
-        <v>16.32</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G14" s="11">
         <f>IF(F14&gt;0, IF(F14&lt;25, 30, IF(F14&gt;75, 10, (1-(F14-25)/(75-25))*20+10)), 0)</f>
@@ -2957,7 +2979,7 @@
       </c>
       <c r="H14" s="12">
         <f>B14+C14+E14+G14</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="6"/>
       <c r="IV14" s="3"/>
@@ -2965,31 +2987,31 @@
     </row>
     <row r="15" spans="1:257" ht="25" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B15" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>9990</v>
+        <v>9385</v>
       </c>
       <c r="E15" s="15">
         <f>IF(D15/10000*30&gt;=29.7, 30,D15/10000*30)</f>
-        <v>30</v>
+        <v>28.155000000000001</v>
       </c>
       <c r="F15" s="5">
-        <v>39.073</v>
+        <v>26.401</v>
       </c>
       <c r="G15" s="11">
         <f>IF(F15&gt;0, IF(F15&lt;25, 30, IF(F15&gt;75, 10, (1-(F15-25)/(75-25))*20+10)), 0)</f>
-        <v>24.370799999999999</v>
+        <v>29.439599999999999</v>
       </c>
       <c r="H15" s="12">
         <f>B15+C15+E15+G15</f>
-        <v>92.370800000000003</v>
+        <v>89.5946</v>
       </c>
       <c r="I15" s="6"/>
       <c r="IV15" s="3"/>
@@ -2997,96 +3019,97 @@
     </row>
     <row r="16" spans="1:257" ht="25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="7">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14">
-        <v>9991</v>
+        <v>103</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9993</v>
       </c>
       <c r="E16" s="15">
-        <v>25</v>
+        <f>IF(D16/10000*30&gt;=29.7, 30,D16/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F16" s="5">
-        <v>47.488999999999997</v>
+        <v>38.753</v>
       </c>
       <c r="G16" s="11">
         <f>IF(F16&gt;0, IF(F16&lt;25, 30, IF(F16&gt;75, 10, (1-(F16-25)/(75-25))*20+10)), 0)</f>
-        <v>21.0044</v>
+        <v>24.498799999999999</v>
       </c>
       <c r="H16" s="12">
         <f>B16+C16+E16+G16</f>
-        <v>73.004400000000004</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>90.498800000000003</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="IV16" s="3"/>
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257" ht="25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="2">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9993</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
       </c>
       <c r="E17" s="15">
         <f>IF(D17/10000*30&gt;=29.7, 30,D17/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>38.753</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <f>IF(F17&gt;0, IF(F17&lt;25, 30, IF(F17&gt;75, 10, (1-(F17-25)/(75-25))*20+10)), 0)</f>
-        <v>24.498799999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>B17+C17+E17+G17</f>
-        <v>90.498800000000003</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="IV17" s="3"/>
       <c r="IW17" s="3"/>
     </row>
     <row r="18" spans="1:257" ht="25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9994</v>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8803</v>
       </c>
       <c r="E18" s="15">
         <f>IF(D18/10000*30&gt;=29.7, 30,D18/10000*30)</f>
-        <v>30</v>
+        <v>26.408999999999999</v>
       </c>
       <c r="F18" s="5">
-        <v>5.8879999999999999</v>
+        <v>27.552</v>
       </c>
       <c r="G18" s="11">
         <f>IF(F18&gt;0, IF(F18&lt;25, 30, IF(F18&gt;75, 10, (1-(F18-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>28.979199999999999</v>
       </c>
       <c r="H18" s="12">
         <f>B18+C18+E18+G18</f>
-        <v>94</v>
+        <v>89.388199999999998</v>
       </c>
       <c r="I18" s="6"/>
       <c r="IV18" s="3"/>
@@ -3094,10 +3117,10 @@
     </row>
     <row r="19" spans="1:257" ht="25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="7">
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -3110,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>21.44</v>
+        <v>20.16</v>
       </c>
       <c r="G19" s="11">
         <f>IF(F19&gt;0, IF(F19&lt;25, 30, IF(F19&gt;75, 10, (1-(F19-25)/(75-25))*20+10)), 0)</f>
@@ -3118,9 +3141,8 @@
       </c>
       <c r="H19" s="12">
         <f>B19+C19+E19+G19</f>
-        <v>88</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>95</v>
+      </c>
       <c r="IV19" s="3"/>
       <c r="IW19" s="3"/>
     </row>
@@ -3129,28 +3151,28 @@
         <v>125</v>
       </c>
       <c r="B20" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>8803</v>
+        <v>9999</v>
       </c>
       <c r="E20" s="15">
         <f>IF(D20/10000*30&gt;=29.7, 30,D20/10000*30)</f>
-        <v>26.408999999999999</v>
+        <v>30</v>
       </c>
       <c r="F20" s="5">
-        <v>27.552</v>
+        <v>118.91</v>
       </c>
       <c r="G20" s="11">
         <f>IF(F20&gt;0, IF(F20&lt;25, 30, IF(F20&gt;75, 10, (1-(F20-25)/(75-25))*20+10)), 0)</f>
-        <v>28.979199999999999</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12">
         <f>B20+C20+E20+G20</f>
-        <v>89.388199999999998</v>
+        <v>68</v>
       </c>
       <c r="I20" s="6"/>
       <c r="IV20" s="3"/>
@@ -3158,31 +3180,31 @@
     </row>
     <row r="21" spans="1:257" ht="25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="14">
-        <v>10000</v>
+        <v>96</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9987</v>
       </c>
       <c r="E21" s="15">
         <f>IF(D21/10000*30&gt;=29.7, 30,D21/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F21" s="5">
-        <v>755.91</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G21" s="11">
         <f>IF(F21&gt;0, IF(F21&lt;25, 30, IF(F21&gt;75, 10, (1-(F21-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>20.223599999999998</v>
       </c>
       <c r="H21" s="12">
         <f>B21+C21+E21+G21</f>
-        <v>70</v>
+        <v>80.223600000000005</v>
       </c>
       <c r="I21" s="6"/>
       <c r="IV21" s="3"/>
@@ -3190,63 +3212,62 @@
     </row>
     <row r="22" spans="1:257" ht="25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9993</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9972</v>
       </c>
       <c r="E22" s="15">
         <f>IF(D22/10000*30&gt;=29.7, 30,D22/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>65.025000000000006</v>
+        <v>29.888999999999999</v>
       </c>
       <c r="G22" s="11">
         <f>IF(F22&gt;0, IF(F22&lt;25, 30, IF(F22&gt;75, 10, (1-(F22-25)/(75-25))*20+10)), 0)</f>
-        <v>13.989999999999998</v>
+        <v>28.0444</v>
       </c>
       <c r="H22" s="12">
         <f>B22+C22+E22+G22</f>
-        <v>74.989999999999995</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>87.044399999999996</v>
+      </c>
       <c r="IV22" s="3"/>
       <c r="IW22" s="3"/>
     </row>
     <row r="23" spans="1:257" ht="25" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>9955</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9992</v>
       </c>
       <c r="E23" s="15">
         <f>IF(D23/10000*30&gt;=29.7, 30,D23/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>56.512999999999998</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="G23" s="11">
         <f>IF(F23&gt;0, IF(F23&lt;25, 30, IF(F23&gt;75, 10, (1-(F23-25)/(75-25))*20+10)), 0)</f>
-        <v>17.394800000000004</v>
+        <v>25.202799999999996</v>
       </c>
       <c r="H23" s="12">
         <f>B23+C23+E23+G23</f>
-        <v>72.394800000000004</v>
+        <v>87.202799999999996</v>
       </c>
       <c r="I23" s="6"/>
       <c r="IV23" s="3"/>
@@ -3254,65 +3275,62 @@
     </row>
     <row r="24" spans="1:257" ht="25" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9995</v>
       </c>
       <c r="E24" s="15">
         <f>IF(D24/10000*30&gt;=29.7, 30,D24/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>36.351999999999997</v>
       </c>
       <c r="G24" s="11">
         <f>IF(F24&gt;0, IF(F24&lt;25, 30, IF(F24&gt;75, 10, (1-(F24-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>25.459200000000003</v>
       </c>
       <c r="H24" s="12">
         <f>B24+C24+E24+G24</f>
-        <v>38</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>14</v>
+        <v>80.45920000000001</v>
       </c>
       <c r="IV24" s="3"/>
       <c r="IW24" s="3"/>
     </row>
     <row r="25" spans="1:257" ht="25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>9997</v>
+        <v>9992</v>
       </c>
       <c r="E25" s="15">
         <f>IF(D25/10000*30&gt;=29.7, 30,D25/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F25" s="5">
-        <v>81.506</v>
+        <v>18.753</v>
       </c>
       <c r="G25" s="11">
         <f>IF(F25&gt;0, IF(F25&lt;25, 30, IF(F25&gt;75, 10, (1-(F25-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H25" s="12">
         <f>B25+C25+E25+G25</f>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I25" s="6"/>
       <c r="IV25" s="3"/>
@@ -3320,47 +3338,45 @@
     </row>
     <row r="26" spans="1:257" ht="25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="15">
         <f>IF(D26/10000*30&gt;=29.7, 30,D26/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="G26" s="11">
         <f>IF(F26&gt;0, IF(F26&lt;25, 30, IF(F26&gt;75, 10, (1-(F26-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>15.590000000000002</v>
       </c>
       <c r="H26" s="12">
         <f>B26+C26+E26+G26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>72.59</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="IV26" s="3"/>
       <c r="IW26" s="3"/>
     </row>
     <row r="27" spans="1:257" ht="25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>9992</v>
@@ -3370,15 +3386,15 @@
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>48.095999999999997</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="G27" s="11">
         <f>IF(F27&gt;0, IF(F27&lt;25, 30, IF(F27&gt;75, 10, (1-(F27-25)/(75-25))*20+10)), 0)</f>
-        <v>20.761600000000001</v>
+        <v>17.1004</v>
       </c>
       <c r="H27" s="12">
         <f>B27+C27+E27+G27</f>
-        <v>68.761600000000001</v>
+        <v>82.100400000000008</v>
       </c>
       <c r="I27" s="6"/>
       <c r="IV27" s="3"/>
@@ -3386,94 +3402,97 @@
     </row>
     <row r="28" spans="1:257" ht="25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="7">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>9972</v>
+        <v>81</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9990</v>
       </c>
       <c r="E28" s="15">
         <f>IF(D28/10000*30&gt;=29.7, 30,D28/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F28" s="5">
-        <v>29.888999999999999</v>
+        <v>335.08</v>
       </c>
       <c r="G28" s="11">
         <f>IF(F28&gt;0, IF(F28&lt;25, 30, IF(F28&gt;75, 10, (1-(F28-25)/(75-25))*20+10)), 0)</f>
-        <v>28.0444</v>
+        <v>10</v>
       </c>
       <c r="H28" s="12">
         <f>B28+C28+E28+G28</f>
-        <v>87.044399999999996</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I28" s="6"/>
       <c r="IV28" s="3"/>
       <c r="IW28" s="3"/>
     </row>
     <row r="29" spans="1:257" ht="25" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B29" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29" s="1">
-        <v>9991</v>
+      <c r="D29" s="14">
+        <v>0</v>
       </c>
       <c r="E29" s="15">
         <f>IF(D29/10000*30&gt;=29.7, 30,D29/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>149.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="G29" s="11">
         <f>IF(F29&gt;0, IF(F29&lt;25, 30, IF(F29&gt;75, 10, (1-(F29-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
         <f>B29+C29+E29+G29</f>
-        <v>72</v>
-      </c>
-      <c r="I29" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="IV29" s="3"/>
       <c r="IW29" s="3"/>
     </row>
     <row r="30" spans="1:257" ht="25" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B30" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>9992</v>
+        <v>9981</v>
       </c>
       <c r="E30" s="15">
         <f>IF(D30/10000*30&gt;=29.7, 30,D30/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F30" s="5">
-        <v>15.456</v>
+        <v>273.89</v>
       </c>
       <c r="G30" s="11">
         <f>IF(F30&gt;0, IF(F30&lt;25, 30, IF(F30&gt;75, 10, (1-(F30-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12">
         <f>B30+C30+E30+G30</f>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I30" s="6"/>
       <c r="IV30" s="3"/>
@@ -3481,31 +3500,31 @@
     </row>
     <row r="31" spans="1:257" ht="25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>9957</v>
+        <v>9992</v>
       </c>
       <c r="E31" s="15">
         <f>IF(D31/10000*30&gt;=29.7, 30,D31/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F31" s="5">
-        <v>67.584999999999994</v>
+        <v>61.664000000000001</v>
       </c>
       <c r="G31" s="11">
         <f>IF(F31&gt;0, IF(F31&lt;25, 30, IF(F31&gt;75, 10, (1-(F31-25)/(75-25))*20+10)), 0)</f>
-        <v>12.966000000000001</v>
+        <v>15.334399999999999</v>
       </c>
       <c r="H31" s="12">
         <f>B31+C31+E31+G31</f>
-        <v>62.966000000000001</v>
+        <v>69.334400000000002</v>
       </c>
       <c r="I31" s="6"/>
       <c r="IV31" s="3"/>
@@ -3513,31 +3532,31 @@
     </row>
     <row r="32" spans="1:257" ht="25" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10000</v>
+        <v>119</v>
+      </c>
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9990</v>
       </c>
       <c r="E32" s="15">
         <f>IF(D32/10000*30&gt;=29.7, 30,D32/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>27.937000000000001</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="G32" s="11">
         <f>IF(F32&gt;0, IF(F32&lt;25, 30, IF(F32&gt;75, 10, (1-(F32-25)/(75-25))*20+10)), 0)</f>
-        <v>28.825199999999999</v>
+        <v>29.414400000000001</v>
       </c>
       <c r="H32" s="12">
         <f>B32+C32+E32+G32</f>
-        <v>85.825199999999995</v>
+        <v>83.414400000000001</v>
       </c>
       <c r="I32" s="6"/>
       <c r="IV32" s="3"/>
@@ -3545,88 +3564,89 @@
     </row>
     <row r="33" spans="1:257" ht="25" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B33" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
-        <v>9989</v>
+      <c r="D33" s="14">
+        <v>0</v>
       </c>
       <c r="E33" s="15">
         <f>IF(D33/10000*30&gt;=29.7, 30,D33/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>16.928000000000001</v>
+        <v>0</v>
       </c>
       <c r="G33" s="11">
         <f>IF(F33&gt;0, IF(F33&lt;25, 30, IF(F33&gt;75, 10, (1-(F33-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f>B33+C33+E33+G33</f>
-        <v>98</v>
-      </c>
-      <c r="I33" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="IV33" s="3"/>
       <c r="IW33" s="3"/>
     </row>
     <row r="34" spans="1:257" ht="25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B34" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9991</v>
       </c>
       <c r="E34" s="15">
-        <v>0</v>
+        <f>IF(D34/10000*30&gt;=29.7, 30,D34/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;0, IF(F34&lt;25, 30, IF(F34&gt;75, 10, (1-(F34-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="12">
         <f>B34+C34+E34+G34</f>
-        <v>26</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I34" s="6"/>
       <c r="IV34" s="3"/>
       <c r="IW34" s="3"/>
     </row>
     <row r="35" spans="1:257" ht="25" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>9988</v>
+        <v>9995</v>
       </c>
       <c r="E35" s="15">
         <f>IF(D35/10000*30&gt;=29.7, 30,D35/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F35" s="5">
-        <v>23.744</v>
+        <v>16.32</v>
       </c>
       <c r="G35" s="11">
         <f>IF(F35&gt;0, IF(F35&lt;25, 30, IF(F35&gt;75, 10, (1-(F35-25)/(75-25))*20+10)), 0)</f>
@@ -3634,7 +3654,7 @@
       </c>
       <c r="H35" s="12">
         <f>B35+C35+E35+G35</f>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I35" s="6"/>
       <c r="IV35" s="3"/>
@@ -3642,31 +3662,31 @@
     </row>
     <row r="36" spans="1:257" ht="25" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B36" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
       </c>
       <c r="D36" s="2">
-        <v>9999</v>
+        <v>9997</v>
       </c>
       <c r="E36" s="15">
         <f>IF(D36/10000*30&gt;=29.7, 30,D36/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F36" s="5">
-        <v>118.91</v>
+        <v>64.384</v>
       </c>
       <c r="G36" s="11">
         <f>IF(F36&gt;0, IF(F36&lt;25, 30, IF(F36&gt;75, 10, (1-(F36-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>14.2464</v>
       </c>
       <c r="H36" s="12">
         <f>B36+C36+E36+G36</f>
-        <v>68</v>
+        <v>69.246399999999994</v>
       </c>
       <c r="I36" s="6"/>
       <c r="IV36" s="3"/>
@@ -3674,57 +3694,56 @@
     </row>
     <row r="37" spans="1:257" ht="25" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B37" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37" s="14">
-        <v>0</v>
+        <v>9995</v>
       </c>
       <c r="E37" s="15">
         <f>IF(D37/10000*30&gt;=29.7, 30,D37/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>92.45</v>
       </c>
       <c r="G37" s="11">
         <f>IF(F37&gt;0, IF(F37&lt;25, 30, IF(F37&gt;75, 10, (1-(F37-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="12">
-        <f>B37+C37+E37+G37</f>
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="IV37" s="3"/>
       <c r="IW37" s="3"/>
     </row>
     <row r="38" spans="1:257" ht="25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>3419</v>
+        <v>9999</v>
       </c>
       <c r="E38" s="15">
         <f>IF(D38/10000*30&gt;=29.7, 30,D38/10000*30)</f>
-        <v>10.257</v>
+        <v>30</v>
       </c>
       <c r="F38" s="5">
-        <v>23.616</v>
+        <v>9.8239999999999998</v>
       </c>
       <c r="G38" s="11">
         <f>IF(F38&gt;0, IF(F38&lt;25, 30, IF(F38&gt;75, 10, (1-(F38-25)/(75-25))*20+10)), 0)</f>
@@ -3732,7 +3751,7 @@
       </c>
       <c r="H38" s="12">
         <f>B38+C38+E38+G38</f>
-        <v>67.257000000000005</v>
+        <v>88</v>
       </c>
       <c r="I38" s="6"/>
       <c r="IV38" s="3"/>
@@ -3740,86 +3759,88 @@
     </row>
     <row r="39" spans="1:257" ht="25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9984</v>
+        <v>19</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0</v>
       </c>
       <c r="E39" s="15">
         <f>IF(D39/10000*30&gt;=29.7, 30,D39/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>16.608000000000001</v>
+        <v>0</v>
       </c>
       <c r="G39" s="11">
         <f>IF(F39&gt;0, IF(F39&lt;25, 30, IF(F39&gt;75, 10, (1-(F39-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
         <f>B39+C39+E39+G39</f>
-        <v>92</v>
+        <v>27</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="IV39" s="3"/>
       <c r="IW39" s="3"/>
     </row>
     <row r="40" spans="1:257" ht="25" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="1">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9992</v>
-      </c>
-      <c r="E40" s="15">
+        <v>137</v>
+      </c>
+      <c r="B40" s="2">
+        <v>26</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9989</v>
+      </c>
+      <c r="E40" s="16">
         <f>IF(D40/10000*30&gt;=29.7, 30,D40/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F40" s="5">
-        <v>36.993000000000002</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="10">
+        <v>14.816000000000001</v>
+      </c>
+      <c r="G40" s="12">
         <f>IF(F40&gt;0, IF(F40&lt;25, 30, IF(F40&gt;75, 10, (1-(F40-25)/(75-25))*20+10)), 0)</f>
-        <v>25.202799999999996</v>
+        <v>30</v>
       </c>
       <c r="H40" s="12">
         <f>B40+C40+E40+G40</f>
-        <v>87.202799999999996</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>94</v>
+      </c>
       <c r="IV40" s="3"/>
       <c r="IW40" s="3"/>
     </row>
     <row r="41" spans="1:257" ht="25" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B41" s="7">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1">
+        <v>17</v>
+      </c>
+      <c r="C41" s="9">
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>9784</v>
+        <v>9992</v>
       </c>
       <c r="E41" s="15">
         <f>IF(D41/10000*30&gt;=29.7, 30,D41/10000*30)</f>
-        <v>29.352</v>
+        <v>30</v>
       </c>
       <c r="F41" s="5">
-        <v>23.36</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="G41" s="11">
         <f>IF(F41&gt;0, IF(F41&lt;25, 30, IF(F41&gt;75, 10, (1-(F41-25)/(75-25))*20+10)), 0)</f>
@@ -3827,31 +3848,30 @@
       </c>
       <c r="H41" s="12">
         <f>B41+C41+E41+G41</f>
-        <v>99.352000000000004</v>
-      </c>
-      <c r="I41" s="6"/>
+        <v>87</v>
+      </c>
       <c r="IV41" s="3"/>
       <c r="IW41" s="3"/>
     </row>
     <row r="42" spans="1:257" ht="25" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="2">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2">
-        <v>9997</v>
+        <v>73</v>
+      </c>
+      <c r="B42" s="7">
+        <v>10</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9940</v>
       </c>
       <c r="E42" s="15">
         <f>IF(D42/10000*30&gt;=29.7, 30,D42/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F42" s="5">
-        <v>9.2479999999999993</v>
+        <v>19.488</v>
       </c>
       <c r="G42" s="11">
         <f>IF(F42&gt;0, IF(F42&lt;25, 30, IF(F42&gt;75, 10, (1-(F42-25)/(75-25))*20+10)), 0)</f>
@@ -3859,39 +3879,38 @@
       </c>
       <c r="H42" s="12">
         <f>B42+C42+E42+G42</f>
-        <v>90</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>80</v>
+      </c>
       <c r="IV42" s="3"/>
       <c r="IW42" s="3"/>
     </row>
     <row r="43" spans="1:257" ht="25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2">
         <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>9992</v>
+        <v>9997</v>
       </c>
       <c r="E43" s="15">
         <f>IF(D43/10000*30&gt;=29.7, 30,D43/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F43" s="5">
-        <v>57.249000000000002</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="G43" s="11">
         <f>IF(F43&gt;0, IF(F43&lt;25, 30, IF(F43&gt;75, 10, (1-(F43-25)/(75-25))*20+10)), 0)</f>
-        <v>17.1004</v>
+        <v>30</v>
       </c>
       <c r="H43" s="12">
         <f>B43+C43+E43+G43</f>
-        <v>82.100400000000008</v>
+        <v>90</v>
       </c>
       <c r="I43" s="6"/>
       <c r="IV43" s="3"/>
@@ -3899,13 +3918,13 @@
     </row>
     <row r="44" spans="1:257" ht="25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2">
         <v>10000</v>
@@ -3915,15 +3934,15 @@
         <v>30</v>
       </c>
       <c r="F44" s="5">
-        <v>24.416</v>
+        <v>36.064</v>
       </c>
       <c r="G44" s="11">
         <f>IF(F44&gt;0, IF(F44&lt;25, 30, IF(F44&gt;75, 10, (1-(F44-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.574399999999997</v>
       </c>
       <c r="H44" s="12">
         <f>B44+C44+E44+G44</f>
-        <v>96</v>
+        <v>79.574399999999997</v>
       </c>
       <c r="I44" s="6"/>
       <c r="IV44" s="3"/>
@@ -3931,31 +3950,31 @@
     </row>
     <row r="45" spans="1:257" ht="25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2">
-        <v>10000</v>
+        <v>24</v>
+      </c>
+      <c r="B45" s="7">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9992</v>
       </c>
       <c r="E45" s="15">
         <f>IF(D45/10000*30&gt;=29.7, 30,D45/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F45" s="5">
-        <v>36.064</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="G45" s="11">
         <f>IF(F45&gt;0, IF(F45&lt;25, 30, IF(F45&gt;75, 10, (1-(F45-25)/(75-25))*20+10)), 0)</f>
-        <v>25.574399999999997</v>
+        <v>25.484399999999997</v>
       </c>
       <c r="H45" s="12">
         <f>B45+C45+E45+G45</f>
-        <v>79.574399999999997</v>
+        <v>88.484399999999994</v>
       </c>
       <c r="I45" s="6"/>
       <c r="IV45" s="3"/>
@@ -3963,23 +3982,23 @@
     </row>
     <row r="46" spans="1:257" ht="25" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B46" s="7">
-        <v>10</v>
-      </c>
-      <c r="C46" s="9">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
         <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>9940</v>
+        <v>9992</v>
       </c>
       <c r="E46" s="15">
         <f>IF(D46/10000*30&gt;=29.7, 30,D46/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F46" s="5">
-        <v>19.488</v>
+        <v>15.456</v>
       </c>
       <c r="G46" s="11">
         <f>IF(F46&gt;0, IF(F46&lt;25, 30, IF(F46&gt;75, 10, (1-(F46-25)/(75-25))*20+10)), 0)</f>
@@ -3987,51 +4006,53 @@
       </c>
       <c r="H46" s="12">
         <f>B46+C46+E46+G46</f>
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I46" s="6"/>
       <c r="IV46" s="3"/>
       <c r="IW46" s="3"/>
     </row>
     <row r="47" spans="1:257" ht="25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="7">
-        <v>19</v>
-      </c>
-      <c r="C47" s="9">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9988</v>
+        <v>102</v>
+      </c>
+      <c r="B47" s="2">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9993</v>
       </c>
       <c r="E47" s="15">
         <f>IF(D47/10000*30&gt;=29.7, 30,D47/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F47" s="5">
-        <v>1.1431</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G47" s="11">
         <f>IF(F47&gt;0, IF(F47&lt;25, 30, IF(F47&gt;75, 10, (1-(F47-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>13.989999999999998</v>
       </c>
       <c r="H47" s="12">
         <f>B47+C47+E47+G47</f>
-        <v>87</v>
-      </c>
+        <v>74.989999999999995</v>
+      </c>
+      <c r="I47" s="6"/>
       <c r="IV47" s="3"/>
       <c r="IW47" s="3"/>
     </row>
     <row r="48" spans="1:257" ht="25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>9990</v>
@@ -4041,15 +4062,15 @@
         <v>30</v>
       </c>
       <c r="F48" s="5">
-        <v>335.08</v>
+        <v>32.031999999999996</v>
       </c>
       <c r="G48" s="11">
         <f>IF(F48&gt;0, IF(F48&lt;25, 30, IF(F48&gt;75, 10, (1-(F48-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>27.187200000000004</v>
       </c>
       <c r="H48" s="12">
         <f>B48+C48+E48+G48</f>
-        <v>69</v>
+        <v>95.187200000000004</v>
       </c>
       <c r="I48" s="6"/>
       <c r="IV48" s="3"/>
@@ -4057,23 +4078,22 @@
     </row>
     <row r="49" spans="1:257" ht="25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2">
-        <v>9990</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="17">
+        <v>10000</v>
       </c>
       <c r="E49" s="15">
-        <f>IF(D49/10000*30&gt;=29.7, 30,D49/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F49" s="5">
-        <v>15.135999999999999</v>
+        <v>17.376000000000001</v>
       </c>
       <c r="G49" s="11">
         <f>IF(F49&gt;0, IF(F49&lt;25, 30, IF(F49&gt;75, 10, (1-(F49-25)/(75-25))*20+10)), 0)</f>
@@ -4081,39 +4101,41 @@
       </c>
       <c r="H49" s="12">
         <f>B49+C49+E49+G49</f>
-        <v>86</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
     <row r="50" spans="1:257" ht="25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B50" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>9994</v>
+        <v>9986</v>
       </c>
       <c r="E50" s="15">
         <f>IF(D50/10000*30&gt;=29.7, 30,D50/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>16.576000000000001</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="G50" s="11">
         <f>IF(F50&gt;0, IF(F50&lt;25, 30, IF(F50&gt;75, 10, (1-(F50-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.701999999999998</v>
       </c>
       <c r="H50" s="12">
         <f>B50+C50+E50+G50</f>
-        <v>93</v>
+        <v>74.701999999999998</v>
       </c>
       <c r="I50" s="6"/>
       <c r="IV50" s="3"/>
@@ -4121,31 +4143,31 @@
     </row>
     <row r="51" spans="1:257" ht="25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B51" s="7">
-        <v>23</v>
-      </c>
-      <c r="C51" s="1">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2">
         <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>9989</v>
+        <v>9982</v>
       </c>
       <c r="E51" s="15">
         <f>IF(D51/10000*30&gt;=29.7, 30,D51/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F51" s="5">
-        <v>42.145000000000003</v>
+        <v>20.096</v>
       </c>
       <c r="G51" s="11">
         <f>IF(F51&gt;0, IF(F51&lt;25, 30, IF(F51&gt;75, 10, (1-(F51-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>30</v>
       </c>
       <c r="H51" s="12">
         <f>B51+C51+E51+G51</f>
-        <v>86.141999999999996</v>
+        <v>100</v>
       </c>
       <c r="I51" s="6"/>
       <c r="IV51" s="3"/>
@@ -4153,31 +4175,31 @@
     </row>
     <row r="52" spans="1:257" ht="25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2">
-        <v>10000</v>
+        <v>9992</v>
       </c>
       <c r="E52" s="15">
         <f>IF(D52/10000*30&gt;=29.7, 30,D52/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F52" s="5">
-        <v>61.024999999999999</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="G52" s="11">
         <f>IF(F52&gt;0, IF(F52&lt;25, 30, IF(F52&gt;75, 10, (1-(F52-25)/(75-25))*20+10)), 0)</f>
-        <v>15.590000000000002</v>
+        <v>20.761600000000001</v>
       </c>
       <c r="H52" s="12">
         <f>B52+C52+E52+G52</f>
-        <v>72.59</v>
+        <v>68.761600000000001</v>
       </c>
       <c r="I52" s="6"/>
       <c r="IV52" s="3"/>
@@ -4185,19 +4207,18 @@
     </row>
     <row r="53" spans="1:257" ht="25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="2">
-        <v>25</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
+        <v>23</v>
+      </c>
+      <c r="B53" s="7">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6</v>
+      </c>
+      <c r="D53" s="14">
         <v>0</v>
       </c>
       <c r="E53" s="15">
-        <f>IF(D53/10000*30&gt;=29.7, 30,D53/10000*30)</f>
         <v>0</v>
       </c>
       <c r="F53" s="5">
@@ -4209,316 +4230,312 @@
       </c>
       <c r="H53" s="12">
         <f>B53+C53+E53+G53</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="IV53" s="3"/>
       <c r="IW53" s="3"/>
     </row>
     <row r="54" spans="1:257" ht="25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
-        <v>9981</v>
+        <v>3419</v>
       </c>
       <c r="E54" s="15">
         <f>IF(D54/10000*30&gt;=29.7, 30,D54/10000*30)</f>
-        <v>30</v>
+        <v>10.257</v>
       </c>
       <c r="F54" s="5">
-        <v>42.145000000000003</v>
+        <v>23.616</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;0, IF(F54&lt;25, 30, IF(F54&gt;75, 10, (1-(F54-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>30</v>
       </c>
       <c r="H54" s="12">
         <f>B54+C54+E54+G54</f>
-        <v>78.141999999999996</v>
+        <v>67.257000000000005</v>
       </c>
       <c r="I54" s="6"/>
       <c r="IV54" s="3"/>
     </row>
     <row r="55" spans="1:257" ht="25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>9988</v>
+        <v>10000</v>
       </c>
       <c r="E55" s="15">
         <f>IF(D55/10000*30&gt;=29.7, 30,D55/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F55" s="5">
-        <v>37.697000000000003</v>
+        <v>122.27</v>
       </c>
       <c r="G55" s="11">
         <f>IF(F55&gt;0, IF(F55&lt;25, 30, IF(F55&gt;75, 10, (1-(F55-25)/(75-25))*20+10)), 0)</f>
-        <v>24.921199999999999</v>
+        <v>10</v>
       </c>
       <c r="H55" s="12">
         <f>B55+C55+E55+G55</f>
-        <v>92.921199999999999</v>
+        <v>69</v>
       </c>
       <c r="I55" s="6"/>
       <c r="IV55" s="3"/>
     </row>
     <row r="56" spans="1:257" ht="25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B56" s="7">
-        <v>30</v>
-      </c>
-      <c r="C56" s="2">
-        <v>10</v>
-      </c>
-      <c r="D56" s="14">
-        <v>9991</v>
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9985</v>
       </c>
       <c r="E56" s="15">
         <f>IF(D56/10000*30&gt;=29.7, 30,D56/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F56" s="5">
-        <v>23.36</v>
+        <v>47.872999999999998</v>
       </c>
       <c r="G56" s="11">
         <f>IF(F56&gt;0, IF(F56&lt;25, 30, IF(F56&gt;75, 10, (1-(F56-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.8508</v>
       </c>
       <c r="H56" s="12">
         <f>B56+C56+E56+G56</f>
-        <v>100</v>
+        <v>65.850799999999992</v>
       </c>
       <c r="I56" s="6"/>
       <c r="IV56" s="3"/>
     </row>
     <row r="57" spans="1:257" ht="25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="2">
-        <v>28</v>
-      </c>
-      <c r="C57" s="2">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2">
-        <v>9993</v>
+        <v>34</v>
+      </c>
+      <c r="B57" s="7">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9994</v>
       </c>
       <c r="E57" s="15">
         <f>IF(D57/10000*30&gt;=29.7, 30,D57/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F57" s="5">
-        <v>61.569000000000003</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="G57" s="11">
         <f>IF(F57&gt;0, IF(F57&lt;25, 30, IF(F57&gt;75, 10, (1-(F57-25)/(75-25))*20+10)), 0)</f>
-        <v>15.372399999999999</v>
+        <v>30</v>
       </c>
       <c r="H57" s="12">
         <f>B57+C57+E57+G57</f>
-        <v>82.372399999999999</v>
+        <v>88</v>
       </c>
       <c r="I57" s="6"/>
       <c r="IV57" s="3"/>
     </row>
     <row r="58" spans="1:257" ht="25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B58" s="7">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1">
-        <v>9985</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10</v>
+      </c>
+      <c r="D58" s="14">
+        <v>9991</v>
       </c>
       <c r="E58" s="15">
         <f>IF(D58/10000*30&gt;=29.7, 30,D58/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F58" s="5">
-        <v>47.872999999999998</v>
+        <v>23.36</v>
       </c>
       <c r="G58" s="11">
         <f>IF(F58&gt;0, IF(F58&lt;25, 30, IF(F58&gt;75, 10, (1-(F58-25)/(75-25))*20+10)), 0)</f>
-        <v>20.8508</v>
+        <v>30</v>
       </c>
       <c r="H58" s="12">
         <f>B58+C58+E58+G58</f>
-        <v>65.850799999999992</v>
+        <v>100</v>
       </c>
       <c r="I58" s="6"/>
       <c r="IV58" s="3"/>
     </row>
     <row r="59" spans="1:257" ht="25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="7">
-        <v>30</v>
-      </c>
-      <c r="C59" s="1">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9993</v>
+        <v>108</v>
+      </c>
+      <c r="B59" s="2">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9975</v>
       </c>
       <c r="E59" s="15">
         <f>IF(D59/10000*30&gt;=29.7, 30,D59/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F59" s="5">
-        <v>33.984000000000002</v>
+        <v>42.369</v>
       </c>
       <c r="G59" s="11">
         <f>IF(F59&gt;0, IF(F59&lt;25, 30, IF(F59&gt;75, 10, (1-(F59-25)/(75-25))*20+10)), 0)</f>
-        <v>26.406399999999998</v>
+        <v>23.052399999999999</v>
       </c>
       <c r="H59" s="12">
         <f>B59+C59+E59+G59</f>
-        <v>96.406399999999991</v>
+        <v>82.052400000000006</v>
       </c>
       <c r="I59" s="6"/>
       <c r="IV59" s="3"/>
     </row>
     <row r="60" spans="1:257" ht="25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="7">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B60" s="1">
+        <v>17</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
       </c>
-      <c r="D60" s="14">
-        <v>0</v>
+      <c r="D60" s="1">
+        <v>10000</v>
       </c>
       <c r="E60" s="15">
         <f>IF(D60/10000*30&gt;=29.7, 30,D60/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="G60" s="11">
         <f>IF(F60&gt;0, IF(F60&lt;25, 30, IF(F60&gt;75, 10, (1-(F60-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>28.825199999999999</v>
       </c>
       <c r="H60" s="12">
         <f>B60+C60+E60+G60</f>
-        <v>30</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>85.825199999999995</v>
+      </c>
+      <c r="I60" s="6"/>
       <c r="IV60" s="3"/>
     </row>
     <row r="61" spans="1:257" ht="25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="7">
-        <v>29</v>
-      </c>
-      <c r="C61" s="1">
-        <v>10</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1997</v>
+        <v>117</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9989</v>
       </c>
       <c r="E61" s="15">
         <f>IF(D61/10000*30&gt;=29.7, 30,D61/10000*30)</f>
-        <v>5.9909999999999997</v>
+        <v>30</v>
       </c>
       <c r="F61" s="5">
-        <v>18.207999999999998</v>
+        <v>245.38</v>
       </c>
       <c r="G61" s="11">
         <f>IF(F61&gt;0, IF(F61&lt;25, 30, IF(F61&gt;75, 10, (1-(F61-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H61" s="12">
         <f>B61+C61+E61+G61</f>
-        <v>74.991</v>
+        <v>57</v>
       </c>
       <c r="I61" s="6"/>
       <c r="IV61" s="3"/>
     </row>
     <row r="62" spans="1:257" ht="25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
+        <v>9991</v>
       </c>
       <c r="E62" s="15">
         <f>IF(D62/10000*30&gt;=29.7, 30,D62/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F62" s="5">
-        <v>0</v>
+        <v>21.600999999999999</v>
       </c>
       <c r="G62" s="11">
         <f>IF(F62&gt;0, IF(F62&lt;25, 30, IF(F62&gt;75, 10, (1-(F62-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H62" s="12">
         <f>B62+C62+E62+G62</f>
-        <v>17</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I62" s="6"/>
       <c r="IV62" s="3"/>
     </row>
     <row r="63" spans="1:257" ht="25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="7">
-        <v>17</v>
-      </c>
-      <c r="C63" s="1">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1">
-        <v>9998</v>
+        <v>109</v>
+      </c>
+      <c r="B63" s="2">
+        <v>21</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>9990</v>
       </c>
       <c r="E63" s="15">
         <f>IF(D63/10000*30&gt;=29.7, 30,D63/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F63" s="5">
-        <v>11.904999999999999</v>
+        <v>24.544</v>
       </c>
       <c r="G63" s="11">
         <f>IF(F63&gt;0, IF(F63&lt;25, 30, IF(F63&gt;75, 10, (1-(F63-25)/(75-25))*20+10)), 0)</f>
@@ -4526,89 +4543,90 @@
       </c>
       <c r="H63" s="12">
         <f>B63+C63+E63+G63</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:257" ht="25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B64" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>9981</v>
+        <v>9999</v>
       </c>
       <c r="E64" s="15">
-        <f>IF(D64/10000*30&gt;=29.7, 30,D64/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F64" s="5">
-        <v>273.89</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="G64" s="11">
         <f>IF(F64&gt;0, IF(F64&lt;25, 30, IF(F64&gt;75, 10, (1-(F64-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H64" s="12">
         <f>B64+C64+E64+G64</f>
-        <v>58</v>
-      </c>
-      <c r="I64" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="7">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>9994</v>
+        <v>111</v>
+      </c>
+      <c r="B65" s="2">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2">
+        <v>9992</v>
       </c>
       <c r="E65" s="15">
         <f>IF(D65/10000*30&gt;=29.7, 30,D65/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F65" s="5">
-        <v>48.128999999999998</v>
+        <v>32.737000000000002</v>
       </c>
       <c r="G65" s="11">
         <f>IF(F65&gt;0, IF(F65&lt;25, 30, IF(F65&gt;75, 10, (1-(F65-25)/(75-25))*20+10)), 0)</f>
-        <v>20.7484</v>
+        <v>26.905199999999997</v>
       </c>
       <c r="H65" s="12">
         <f>B65+C65+E65+G65</f>
-        <v>60.748400000000004</v>
+        <v>85.905199999999994</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B66" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1">
         <v>10</v>
       </c>
       <c r="D66" s="1">
-        <v>9990</v>
+        <v>9989</v>
       </c>
       <c r="E66" s="15">
         <f>IF(D66/10000*30&gt;=29.7, 30,D66/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F66" s="5">
-        <v>14.945</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G66" s="11">
         <f>IF(F66&gt;0, IF(F66&lt;25, 30, IF(F66&gt;75, 10, (1-(F66-25)/(75-25))*20+10)), 0)</f>
@@ -4616,522 +4634,519 @@
       </c>
       <c r="H66" s="12">
         <f>B66+C66+E66+G66</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B67" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2">
         <v>10</v>
       </c>
-      <c r="D67" s="14">
-        <v>0</v>
+      <c r="D67" s="1">
+        <v>9996</v>
       </c>
       <c r="E67" s="15">
         <f>IF(D67/10000*30&gt;=29.7, 30,D67/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>0</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="G67" s="11">
         <f>IF(F67&gt;0, IF(F67&lt;25, 30, IF(F67&gt;75, 10, (1-(F67-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H67" s="12">
         <f>B67+C67+E67+G67</f>
-        <v>38</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="2">
-        <v>15</v>
-      </c>
-      <c r="C68" s="2">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2">
-        <v>9990</v>
+        <v>32</v>
+      </c>
+      <c r="B68" s="7">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9809</v>
       </c>
       <c r="E68" s="15">
         <f>IF(D68/10000*30&gt;=29.7, 30,D68/10000*30)</f>
-        <v>30</v>
+        <v>29.427</v>
       </c>
       <c r="F68" s="5">
-        <v>26.463999999999999</v>
+        <v>16.161000000000001</v>
       </c>
       <c r="G68" s="11">
         <f>IF(F68&gt;0, IF(F68&lt;25, 30, IF(F68&gt;75, 10, (1-(F68-25)/(75-25))*20+10)), 0)</f>
-        <v>29.414400000000001</v>
+        <v>30</v>
       </c>
       <c r="H68" s="12">
         <f>B68+C68+E68+G68</f>
-        <v>83.414400000000001</v>
+        <v>99.426999999999992</v>
       </c>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="7">
-        <v>8</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>9991</v>
+        <v>116</v>
+      </c>
+      <c r="B69" s="2">
+        <v>25</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9998</v>
       </c>
       <c r="E69" s="15">
         <f>IF(D69/10000*30&gt;=29.7, 30,D69/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F69" s="5">
-        <v>47.713000000000001</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G69" s="11">
         <f>IF(F69&gt;0, IF(F69&lt;25, 30, IF(F69&gt;75, 10, (1-(F69-25)/(75-25))*20+10)), 0)</f>
-        <v>20.9148</v>
+        <v>30</v>
       </c>
       <c r="H69" s="12">
         <f>B69+C69+E69+G69</f>
-        <v>63.9148</v>
+        <v>94</v>
       </c>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="2">
-        <v>25</v>
-      </c>
-      <c r="C70" s="2">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2">
-        <v>9998</v>
+        <v>39</v>
+      </c>
+      <c r="B70" s="7">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9990</v>
       </c>
       <c r="E70" s="15">
         <f>IF(D70/10000*30&gt;=29.7, 30,D70/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F70" s="5">
-        <v>6.4329999999999998</v>
+        <v>39.073</v>
       </c>
       <c r="G70" s="11">
         <f>IF(F70&gt;0, IF(F70&lt;25, 30, IF(F70&gt;75, 10, (1-(F70-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.370799999999999</v>
       </c>
       <c r="H70" s="12">
         <f>B70+C70+E70+G70</f>
-        <v>94</v>
+        <v>92.370800000000003</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="7">
-        <v>8</v>
-      </c>
-      <c r="C71" s="1">
-        <v>10</v>
-      </c>
-      <c r="D71" s="14">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="B71" s="2">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9989</v>
       </c>
       <c r="E71" s="15">
         <f>IF(D71/10000*30&gt;=29.7, 30,D71/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F71" s="5">
-        <v>0</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="G71" s="11">
         <f>IF(F71&gt;0, IF(F71&lt;25, 30, IF(F71&gt;75, 10, (1-(F71-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H71" s="12">
         <f>B71+C71+E71+G71</f>
-        <v>18</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="2">
-        <v>12</v>
-      </c>
-      <c r="C72" s="2">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B72" s="7">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9994</v>
       </c>
       <c r="E72" s="15">
         <f>IF(D72/10000*30&gt;=29.7, 30,D72/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F72" s="5">
-        <v>0</v>
+        <v>48.128999999999998</v>
       </c>
       <c r="G72" s="11">
         <f>IF(F72&gt;0, IF(F72&lt;25, 30, IF(F72&gt;75, 10, (1-(F72-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>20.7484</v>
       </c>
       <c r="H72" s="12">
         <f>B72+C72+E72+G72</f>
-        <v>22</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>60.748400000000004</v>
+      </c>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B73" s="7">
         <v>22</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="9">
         <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>9385</v>
+        <v>9984</v>
       </c>
       <c r="E73" s="15">
         <f>IF(D73/10000*30&gt;=29.7, 30,D73/10000*30)</f>
-        <v>28.155000000000001</v>
+        <v>30</v>
       </c>
       <c r="F73" s="5">
-        <v>26.401</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="G73" s="11">
         <f>IF(F73&gt;0, IF(F73&lt;25, 30, IF(F73&gt;75, 10, (1-(F73-25)/(75-25))*20+10)), 0)</f>
-        <v>29.439599999999999</v>
+        <v>30</v>
       </c>
       <c r="H73" s="12">
         <f>B73+C73+E73+G73</f>
-        <v>89.5946</v>
-      </c>
-      <c r="I73" s="6"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="25" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="7">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B74" s="1">
+        <v>27</v>
       </c>
       <c r="C74" s="1">
         <v>10</v>
       </c>
       <c r="D74" s="1">
-        <v>9992</v>
+        <v>9988</v>
       </c>
       <c r="E74" s="15">
         <f>IF(D74/10000*30&gt;=29.7, 30,D74/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F74" s="5">
-        <v>20.16</v>
+        <v>57.953000000000003</v>
       </c>
       <c r="G74" s="11">
         <f>IF(F74&gt;0, IF(F74&lt;25, 30, IF(F74&gt;75, 10, (1-(F74-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.818799999999996</v>
       </c>
       <c r="H74" s="12">
         <f>B74+C74+E74+G74</f>
-        <v>95</v>
-      </c>
+        <v>83.818799999999996</v>
+      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B75" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>9992</v>
+        <v>9989</v>
       </c>
       <c r="E75" s="15">
         <f>IF(D75/10000*30&gt;=29.7, 30,D75/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F75" s="5">
-        <v>15.456</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G75" s="11">
         <f>IF(F75&gt;0, IF(F75&lt;25, 30, IF(F75&gt;75, 10, (1-(F75-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H75" s="12">
         <f>B75+C75+E75+G75</f>
-        <v>95</v>
+        <v>86.141999999999996</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="2">
-        <v>15</v>
-      </c>
-      <c r="C76" s="2">
-        <v>9</v>
-      </c>
-      <c r="D76" s="17">
-        <v>10000</v>
+        <v>26</v>
+      </c>
+      <c r="B76" s="7">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>9993</v>
       </c>
       <c r="E76" s="15">
-        <v>25</v>
+        <f>IF(D76/10000*30&gt;=29.7, 30,D76/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F76" s="5">
-        <v>17.376000000000001</v>
+        <v>33.984000000000002</v>
       </c>
       <c r="G76" s="11">
         <f>IF(F76&gt;0, IF(F76&lt;25, 30, IF(F76&gt;75, 10, (1-(F76-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>26.406399999999998</v>
       </c>
       <c r="H76" s="12">
         <f>B76+C76+E76+G76</f>
-        <v>79</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>133</v>
-      </c>
+        <v>96.406399999999991</v>
+      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B77" s="7">
-        <v>18</v>
-      </c>
-      <c r="C77" s="2">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1">
-        <v>9996</v>
+        <v>17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="14">
+        <v>9991</v>
       </c>
       <c r="E77" s="15">
-        <f>IF(D77/10000*30&gt;=29.7, 30,D77/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F77" s="5">
-        <v>22.751999999999999</v>
+        <v>47.488999999999997</v>
       </c>
       <c r="G77" s="11">
         <f>IF(F77&gt;0, IF(F77&lt;25, 30, IF(F77&gt;75, 10, (1-(F77-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>21.0044</v>
       </c>
       <c r="H77" s="12">
         <f>B77+C77+E77+G77</f>
-        <v>88</v>
-      </c>
-      <c r="I77" s="6"/>
+        <v>73.004400000000004</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="2">
-        <v>18</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2">
-        <v>9989</v>
+        <v>59</v>
+      </c>
+      <c r="B78" s="7">
+        <v>17</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9998</v>
       </c>
       <c r="E78" s="15">
         <f>IF(D78/10000*30&gt;=29.7, 30,D78/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F78" s="5">
-        <v>133.94999999999999</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="G78" s="11">
         <f>IF(F78&gt;0, IF(F78&lt;25, 30, IF(F78&gt;75, 10, (1-(F78-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H78" s="12">
         <f>B78+C78+E78+G78</f>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B79" s="2">
-        <v>19</v>
-      </c>
-      <c r="C79" s="2">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2">
-        <v>9992</v>
+        <v>47</v>
+      </c>
+      <c r="B79" s="7">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9995</v>
       </c>
       <c r="E79" s="15">
         <f>IF(D79/10000*30&gt;=29.7, 30,D79/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F79" s="5">
-        <v>32.737000000000002</v>
+        <v>667.09</v>
       </c>
       <c r="G79" s="11">
         <f>IF(F79&gt;0, IF(F79&lt;25, 30, IF(F79&gt;75, 10, (1-(F79-25)/(75-25))*20+10)), 0)</f>
-        <v>26.905199999999997</v>
+        <v>10</v>
       </c>
       <c r="H79" s="12">
         <f>B79+C79+E79+G79</f>
-        <v>85.905199999999994</v>
+        <v>65</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B80" s="7">
-        <v>25</v>
-      </c>
-      <c r="C80" s="9">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1">
-        <v>9984</v>
+        <v>28</v>
+      </c>
+      <c r="C80" s="1">
+        <v>10</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
       </c>
       <c r="E80" s="15">
         <f>IF(D80/10000*30&gt;=29.7, 30,D80/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F80" s="5">
-        <v>18.975999999999999</v>
+        <v>0</v>
       </c>
       <c r="G80" s="11">
         <f>IF(F80&gt;0, IF(F80&lt;25, 30, IF(F80&gt;75, 10, (1-(F80-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H80" s="12">
         <f>B80+C80+E80+G80</f>
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>9991</v>
+        <v>9993</v>
       </c>
       <c r="E81" s="15">
         <f>IF(D81/10000*30&gt;=29.7, 30,D81/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F81" s="5">
-        <v>30.367999999999999</v>
+        <v>61.569000000000003</v>
       </c>
       <c r="G81" s="11">
         <f>IF(F81&gt;0, IF(F81&lt;25, 30, IF(F81&gt;75, 10, (1-(F81-25)/(75-25))*20+10)), 0)</f>
-        <v>27.852799999999998</v>
+        <v>15.372399999999999</v>
       </c>
       <c r="H81" s="12">
         <f>B81+C81+E81+G81</f>
-        <v>96.852800000000002</v>
+        <v>82.372399999999999</v>
       </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="2">
-        <v>9992</v>
+        <v>9989</v>
       </c>
       <c r="E82" s="15">
         <f>IF(D82/10000*30&gt;=29.7, 30,D82/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F82" s="5">
-        <v>61.664000000000001</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="G82" s="11">
         <f>IF(F82&gt;0, IF(F82&lt;25, 30, IF(F82&gt;75, 10, (1-(F82-25)/(75-25))*20+10)), 0)</f>
-        <v>15.334399999999999</v>
+        <v>10</v>
       </c>
       <c r="H82" s="12">
         <f>B82+C82+E82+G82</f>
-        <v>69.334400000000002</v>
+        <v>65</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="7">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
       </c>
       <c r="C83" s="1">
         <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>9996</v>
+        <v>9987</v>
       </c>
       <c r="E83" s="15">
         <f>IF(D83/10000*30&gt;=29.7, 30,D83/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F83" s="5">
-        <v>60.865000000000002</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="G83" s="11">
         <f>IF(F83&gt;0, IF(F83&lt;25, 30, IF(F83&gt;75, 10, (1-(F83-25)/(75-25))*20+10)), 0)</f>
-        <v>15.654</v>
+        <v>30</v>
       </c>
       <c r="H83" s="12">
         <f>B83+C83+E83+G83</f>
-        <v>81.653999999999996</v>
+        <v>100</v>
       </c>
       <c r="I83" s="6"/>
     </row>
@@ -5140,34 +5155,36 @@
         <v>126</v>
       </c>
       <c r="B84" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C84" s="2">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>9988</v>
+        <v>0</v>
       </c>
       <c r="E84" s="15">
         <f>IF(D84/10000*30&gt;=29.7, 30,D84/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F84" s="5">
-        <v>153.41</v>
+        <v>0</v>
       </c>
       <c r="G84" s="11">
         <f>IF(F84&gt;0, IF(F84&lt;25, 30, IF(F84&gt;75, 10, (1-(F84-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H84" s="12">
         <f>B84+C84+E84+G84</f>
-        <v>70</v>
-      </c>
-      <c r="I84" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2">
         <v>19</v>
@@ -5197,52 +5214,53 @@
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B86" s="7">
-        <v>17</v>
-      </c>
-      <c r="C86" s="9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
       </c>
       <c r="D86" s="1">
-        <v>9992</v>
+        <v>9991</v>
       </c>
       <c r="E86" s="15">
         <f>IF(D86/10000*30&gt;=29.7, 30,D86/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F86" s="5">
-        <v>21.696000000000002</v>
+        <v>47.713000000000001</v>
       </c>
       <c r="G86" s="11">
         <f>IF(F86&gt;0, IF(F86&lt;25, 30, IF(F86&gt;75, 10, (1-(F86-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.9148</v>
       </c>
       <c r="H86" s="12">
         <f>B86+C86+E86+G86</f>
-        <v>87</v>
-      </c>
+        <v>63.9148</v>
+      </c>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="7">
-        <v>20</v>
-      </c>
-      <c r="C87" s="1">
-        <v>10</v>
-      </c>
-      <c r="D87" s="14">
-        <v>9990</v>
+        <v>78</v>
+      </c>
+      <c r="B87" s="2">
+        <v>26</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2">
+        <v>10000</v>
       </c>
       <c r="E87" s="15">
         <f>IF(D87/10000*30&gt;=29.7, 30,D87/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F87" s="5">
-        <v>21.696999999999999</v>
+        <v>24.416</v>
       </c>
       <c r="G87" s="11">
         <f>IF(F87&gt;0, IF(F87&lt;25, 30, IF(F87&gt;75, 10, (1-(F87-25)/(75-25))*20+10)), 0)</f>
@@ -5250,43 +5268,43 @@
       </c>
       <c r="H87" s="12">
         <f>B87+C87+E87+G87</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="7">
-        <v>26</v>
-      </c>
-      <c r="C88" s="1">
-        <v>10</v>
-      </c>
-      <c r="D88" s="1">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="B88" s="2">
+        <v>29</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2">
+        <v>9991</v>
       </c>
       <c r="E88" s="15">
         <f>IF(D88/10000*30&gt;=29.7, 30,D88/10000*30)</f>
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="F88" s="5">
-        <v>25.440999999999999</v>
+        <v>30.367999999999999</v>
       </c>
       <c r="G88" s="11">
         <f>IF(F88&gt;0, IF(F88&lt;25, 30, IF(F88&gt;75, 10, (1-(F88-25)/(75-25))*20+10)), 0)</f>
-        <v>29.823600000000003</v>
+        <v>27.852799999999998</v>
       </c>
       <c r="H88" s="12">
         <f>B88+C88+E88+G88</f>
-        <v>66.123599999999996</v>
+        <v>96.852800000000002</v>
       </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2">
         <v>18</v>
@@ -5313,28 +5331,28 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C90" s="2">
         <v>10</v>
       </c>
       <c r="D90" s="2">
-        <v>9999</v>
+        <v>9990</v>
       </c>
       <c r="E90" s="15">
         <f>IF(D90/10000*30&gt;=29.7, 30,D90/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F90" s="5">
-        <v>9.8239999999999998</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="G90" s="11">
         <f>IF(F90&gt;0, IF(F90&lt;25, 30, IF(F90&gt;75, 10, (1-(F90-25)/(75-25))*20+10)), 0)</f>
@@ -5342,108 +5360,109 @@
       </c>
       <c r="H90" s="12">
         <f>B90+C90+E90+G90</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B91" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>9985</v>
+        <v>9990</v>
       </c>
       <c r="E91" s="15">
         <f>IF(D91/10000*30&gt;=29.7, 30,D91/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F91" s="5">
-        <v>57.920999999999999</v>
+        <v>14.945</v>
       </c>
       <c r="G91" s="11">
         <f>IF(F91&gt;0, IF(F91&lt;25, 30, IF(F91&gt;75, 10, (1-(F91-25)/(75-25))*20+10)), 0)</f>
-        <v>16.831600000000002</v>
+        <v>30</v>
       </c>
       <c r="H91" s="12">
         <f>B91+C91+E91+G91</f>
-        <v>84.831600000000009</v>
+        <v>100</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="1">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B92" s="7">
+        <v>26</v>
       </c>
       <c r="C92" s="1">
         <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>9995</v>
+        <v>100</v>
       </c>
       <c r="E92" s="15">
         <f>IF(D92/10000*30&gt;=29.7, 30,D92/10000*30)</f>
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="F92" s="5">
-        <v>7.9039999999999999</v>
+        <v>25.440999999999999</v>
       </c>
       <c r="G92" s="11">
         <f>IF(F92&gt;0, IF(F92&lt;25, 30, IF(F92&gt;75, 10, (1-(F92-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.823600000000003</v>
       </c>
       <c r="H92" s="12">
         <f>B92+C92+E92+G92</f>
-        <v>100</v>
+        <v>66.123599999999996</v>
       </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B93" s="1">
-        <v>30</v>
-      </c>
-      <c r="C93" s="1">
-        <v>10</v>
-      </c>
-      <c r="D93" s="1">
-        <v>9987</v>
+        <v>118</v>
+      </c>
+      <c r="B93" s="2">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2">
+        <v>9994</v>
       </c>
       <c r="E93" s="15">
         <f>IF(D93/10000*30&gt;=29.7, 30,D93/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F93" s="5">
-        <v>16.864000000000001</v>
+        <v>26.113</v>
       </c>
       <c r="G93" s="11">
         <f>IF(F93&gt;0, IF(F93&lt;25, 30, IF(F93&gt;75, 10, (1-(F93-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.5548</v>
       </c>
       <c r="H93" s="12">
-        <f>B93+C93+E93+G93</f>
-        <v>100</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B94" s="7">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2">
         <v>10</v>
       </c>
       <c r="D94" s="14">
@@ -5462,153 +5481,152 @@
       </c>
       <c r="H94" s="12">
         <f>B94+C94+E94+G94</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C95" s="2">
         <v>10</v>
       </c>
       <c r="D95" s="2">
-        <v>6641</v>
+        <v>9988</v>
       </c>
       <c r="E95" s="15">
         <f>IF(D95/10000*30&gt;=29.7, 30,D95/10000*30)</f>
-        <v>19.923000000000002</v>
+        <v>30</v>
       </c>
       <c r="F95" s="5">
-        <v>16.128</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G95" s="11">
         <f>IF(F95&gt;0, IF(F95&lt;25, 30, IF(F95&gt;75, 10, (1-(F95-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.921199999999999</v>
       </c>
       <c r="H95" s="12">
         <f>B95+C95+E95+G95</f>
-        <v>77.923000000000002</v>
+        <v>92.921199999999999</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2">
-        <v>9989</v>
+        <v>0</v>
       </c>
       <c r="E96" s="15">
         <f>IF(D96/10000*30&gt;=29.7, 30,D96/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>14.784000000000001</v>
+        <v>0</v>
       </c>
       <c r="G96" s="11">
         <f>IF(F96&gt;0, IF(F96&lt;25, 30, IF(F96&gt;75, 10, (1-(F96-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H96" s="12">
         <f>B96+C96+E96+G96</f>
-        <v>95</v>
-      </c>
-      <c r="I96" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B97" s="7">
         <v>19</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="9">
         <v>8</v>
       </c>
-      <c r="D97" s="17">
-        <v>0</v>
+      <c r="D97" s="1">
+        <v>9988</v>
       </c>
       <c r="E97" s="15">
         <f>IF(D97/10000*30&gt;=29.7, 30,D97/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <v>1.1431</v>
       </c>
       <c r="G97" s="11">
         <f>IF(F97&gt;0, IF(F97&lt;25, 30, IF(F97&gt;75, 10, (1-(F97-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H97" s="12">
         <f>B97+C97+E97+G97</f>
-        <v>27</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="7">
-        <v>19</v>
-      </c>
-      <c r="C98" s="1">
-        <v>10</v>
-      </c>
-      <c r="D98" s="1">
-        <v>9992</v>
+        <v>107</v>
+      </c>
+      <c r="B98" s="2">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>9981</v>
       </c>
       <c r="E98" s="15">
         <f>IF(D98/10000*30&gt;=29.7, 30,D98/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F98" s="5">
-        <v>666.16</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G98" s="11">
         <f>IF(F98&gt;0, IF(F98&lt;25, 30, IF(F98&gt;75, 10, (1-(F98-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H98" s="12">
         <f>B98+C98+E98+G98</f>
-        <v>69</v>
+        <v>78.141999999999996</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="1">
-        <v>30</v>
-      </c>
-      <c r="C99" s="1">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1">
-        <v>9993</v>
+        <v>80</v>
+      </c>
+      <c r="B99" s="2">
+        <v>18</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6641</v>
       </c>
       <c r="E99" s="15">
         <f>IF(D99/10000*30&gt;=29.7, 30,D99/10000*30)</f>
-        <v>30</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="F99" s="5">
-        <v>18.369</v>
+        <v>16.128</v>
       </c>
       <c r="G99" s="11">
         <f>IF(F99&gt;0, IF(F99&lt;25, 30, IF(F99&gt;75, 10, (1-(F99-25)/(75-25))*20+10)), 0)</f>
@@ -5616,29 +5634,29 @@
       </c>
       <c r="H99" s="12">
         <f>B99+C99+E99+G99</f>
-        <v>100</v>
+        <v>77.923000000000002</v>
       </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="2">
-        <v>12</v>
-      </c>
-      <c r="C100" s="2">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2">
-        <v>9992</v>
+        <v>27</v>
+      </c>
+      <c r="B100" s="7">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9989</v>
       </c>
       <c r="E100" s="15">
         <f>IF(D100/10000*30&gt;=29.7, 30,D100/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F100" s="5">
-        <v>20.288</v>
+        <v>19.841000000000001</v>
       </c>
       <c r="G100" s="11">
         <f>IF(F100&gt;0, IF(F100&lt;25, 30, IF(F100&gt;75, 10, (1-(F100-25)/(75-25))*20+10)), 0)</f>
@@ -5646,21 +5664,21 @@
       </c>
       <c r="H100" s="12">
         <f>B100+C100+E100+G100</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="2">
-        <v>21</v>
-      </c>
-      <c r="C101" s="2">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2">
+        <v>68</v>
+      </c>
+      <c r="B101" s="7">
+        <v>28</v>
+      </c>
+      <c r="C101" s="9">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
         <v>9987</v>
       </c>
       <c r="E101" s="15">
@@ -5668,37 +5686,36 @@
         <v>30</v>
       </c>
       <c r="F101" s="5">
-        <v>49.441000000000003</v>
+        <v>35.616</v>
       </c>
       <c r="G101" s="11">
         <f>IF(F101&gt;0, IF(F101&lt;25, 30, IF(F101&gt;75, 10, (1-(F101-25)/(75-25))*20+10)), 0)</f>
-        <v>20.223599999999998</v>
+        <v>25.753599999999999</v>
       </c>
       <c r="H101" s="12">
         <f>B101+C101+E101+G101</f>
-        <v>80.223600000000005</v>
-      </c>
-      <c r="I101" s="6"/>
+        <v>93.753600000000006</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B102" s="7">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B102" s="1">
+        <v>30</v>
       </c>
       <c r="C102" s="1">
         <v>10</v>
       </c>
       <c r="D102" s="1">
-        <v>9994</v>
+        <v>9993</v>
       </c>
       <c r="E102" s="15">
         <f>IF(D102/10000*30&gt;=29.7, 30,D102/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F102" s="5">
-        <v>24.417000000000002</v>
+        <v>18.369</v>
       </c>
       <c r="G102" s="11">
         <f>IF(F102&gt;0, IF(F102&lt;25, 30, IF(F102&gt;75, 10, (1-(F102-25)/(75-25))*20+10)), 0)</f>
@@ -5706,151 +5723,149 @@
       </c>
       <c r="H102" s="12">
         <f>B102+C102+E102+G102</f>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" s="2">
-        <v>15</v>
-      </c>
-      <c r="C103" s="2">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B103" s="7">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1">
+        <v>10</v>
+      </c>
+      <c r="D103" s="14">
+        <v>10000</v>
       </c>
       <c r="E103" s="15">
         <f>IF(D103/10000*30&gt;=29.7, 30,D103/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F103" s="5">
-        <v>0</v>
+        <v>755.91</v>
       </c>
       <c r="G103" s="11">
         <f>IF(F103&gt;0, IF(F103&lt;25, 30, IF(F103&gt;75, 10, (1-(F103-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H103" s="12">
         <f>B103+C103+E103+G103</f>
-        <v>24</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="1">
-        <v>20</v>
-      </c>
-      <c r="C104" s="1">
-        <v>10</v>
-      </c>
-      <c r="D104" s="1">
-        <v>9995</v>
+        <v>86</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9957</v>
       </c>
       <c r="E104" s="15">
         <f>IF(D104/10000*30&gt;=29.7, 30,D104/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F104" s="5">
-        <v>8.5440000000000005</v>
+        <v>67.584999999999994</v>
       </c>
       <c r="G104" s="11">
         <f>IF(F104&gt;0, IF(F104&lt;25, 30, IF(F104&gt;75, 10, (1-(F104-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>12.966000000000001</v>
       </c>
       <c r="H104" s="12">
         <f>B104+C104+E104+G104</f>
-        <v>90</v>
+        <v>62.966000000000001</v>
       </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="1">
-        <v>27</v>
-      </c>
-      <c r="C105" s="1">
-        <v>10</v>
-      </c>
-      <c r="D105" s="1">
-        <v>9988</v>
+        <v>88</v>
+      </c>
+      <c r="B105" s="2">
+        <v>15</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10</v>
+      </c>
+      <c r="D105" s="2">
+        <v>9989</v>
       </c>
       <c r="E105" s="15">
         <f>IF(D105/10000*30&gt;=29.7, 30,D105/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F105" s="5">
-        <v>57.953000000000003</v>
+        <v>148.26</v>
       </c>
       <c r="G105" s="11">
         <f>IF(F105&gt;0, IF(F105&lt;25, 30, IF(F105&gt;75, 10, (1-(F105-25)/(75-25))*20+10)), 0)</f>
-        <v>16.818799999999996</v>
+        <v>10</v>
       </c>
       <c r="H105" s="12">
         <f>B105+C105+E105+G105</f>
-        <v>83.818799999999996</v>
+        <v>65</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" s="2">
-        <v>10</v>
-      </c>
-      <c r="C106" s="2">
-        <v>7</v>
-      </c>
-      <c r="D106" s="2">
-        <v>9989</v>
+        <v>21</v>
+      </c>
+      <c r="B106" s="1">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>9992</v>
       </c>
       <c r="E106" s="15">
         <f>IF(D106/10000*30&gt;=29.7, 30,D106/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F106" s="5">
-        <v>245.38</v>
+        <v>21.44</v>
       </c>
       <c r="G106" s="11">
         <f>IF(F106&gt;0, IF(F106&lt;25, 30, IF(F106&gt;75, 10, (1-(F106-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H106" s="12">
         <f>B106+C106+E106+G106</f>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B107" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C107" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D107" s="1">
-        <v>9989</v>
+        <v>9992</v>
       </c>
       <c r="E107" s="15">
         <f>IF(D107/10000*30&gt;=29.7, 30,D107/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F107" s="5">
-        <v>19.841000000000001</v>
+        <v>15.456</v>
       </c>
       <c r="G107" s="11">
         <f>IF(F107&gt;0, IF(F107&lt;25, 30, IF(F107&gt;75, 10, (1-(F107-25)/(75-25))*20+10)), 0)</f>
@@ -5858,59 +5873,59 @@
       </c>
       <c r="H107" s="12">
         <f>B107+C107+E107+G107</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2">
         <v>9</v>
       </c>
       <c r="D108" s="2">
-        <v>10000</v>
+        <v>9593</v>
       </c>
       <c r="E108" s="15">
         <f>IF(D108/10000*30&gt;=29.7, 30,D108/10000*30)</f>
-        <v>30</v>
+        <v>28.779</v>
       </c>
       <c r="F108" s="5">
-        <v>122.27</v>
+        <v>10.08</v>
       </c>
       <c r="G108" s="11">
         <f>IF(F108&gt;0, IF(F108&lt;25, 30, IF(F108&gt;75, 10, (1-(F108-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H108" s="12">
         <f>B108+C108+E108+G108</f>
-        <v>69</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="7">
-        <v>24</v>
-      </c>
-      <c r="C109" s="1">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1">
-        <v>9992</v>
+        <v>95</v>
+      </c>
+      <c r="B109" s="2">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9994</v>
       </c>
       <c r="E109" s="15">
         <f>IF(D109/10000*30&gt;=29.7, 30,D109/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F109" s="5">
-        <v>18.753</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="G109" s="11">
         <f>IF(F109&gt;0, IF(F109&lt;25, 30, IF(F109&gt;75, 10, (1-(F109-25)/(75-25))*20+10)), 0)</f>
@@ -5918,110 +5933,111 @@
       </c>
       <c r="H109" s="12">
         <f>B109+C109+E109+G109</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C110" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
-        <v>9986</v>
+        <v>9992</v>
       </c>
       <c r="E110" s="15">
         <f>IF(D110/10000*30&gt;=29.7, 30,D110/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F110" s="5">
-        <v>55.744999999999997</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="G110" s="11">
         <f>IF(F110&gt;0, IF(F110&lt;25, 30, IF(F110&gt;75, 10, (1-(F110-25)/(75-25))*20+10)), 0)</f>
-        <v>17.701999999999998</v>
+        <v>29.6448</v>
       </c>
       <c r="H110" s="12">
         <f>B110+C110+E110+G110</f>
-        <v>74.701999999999998</v>
+        <v>93.644800000000004</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B111" s="7">
-        <v>28</v>
-      </c>
-      <c r="C111" s="9">
-        <v>10</v>
-      </c>
-      <c r="D111" s="1">
-        <v>9987</v>
+        <v>101</v>
+      </c>
+      <c r="B111" s="2">
+        <v>26</v>
+      </c>
+      <c r="C111" s="2">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2">
+        <v>9988</v>
       </c>
       <c r="E111" s="15">
         <f>IF(D111/10000*30&gt;=29.7, 30,D111/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F111" s="5">
-        <v>35.616</v>
+        <v>23.744</v>
       </c>
       <c r="G111" s="11">
         <f>IF(F111&gt;0, IF(F111&lt;25, 30, IF(F111&gt;75, 10, (1-(F111-25)/(75-25))*20+10)), 0)</f>
-        <v>25.753599999999999</v>
+        <v>30</v>
       </c>
       <c r="H111" s="12">
         <f>B111+C111+E111+G111</f>
-        <v>93.753600000000006</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" s="2">
-        <v>16</v>
-      </c>
-      <c r="C112" s="2">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2">
-        <v>9999</v>
+        <v>57</v>
+      </c>
+      <c r="B112" s="7">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10</v>
+      </c>
+      <c r="D112" s="14">
+        <v>9990</v>
       </c>
       <c r="E112" s="15">
         <f>IF(D112/10000*30&gt;=29.7, 30,D112/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F112" s="5">
-        <v>198.27</v>
+        <v>21.696999999999999</v>
       </c>
       <c r="G112" s="11">
         <f>IF(F112&gt;0, IF(F112&lt;25, 30, IF(F112&gt;75, 10, (1-(F112-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H112" s="12">
         <f>B112+C112+E112+G112</f>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="7">
-        <v>23</v>
-      </c>
-      <c r="C113" s="1">
-        <v>10</v>
-      </c>
-      <c r="D113" s="1">
+        <v>89</v>
+      </c>
+      <c r="B113" s="2">
+        <v>12</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10</v>
+      </c>
+      <c r="D113" s="2">
         <v>9992</v>
       </c>
       <c r="E113" s="15">
@@ -6029,37 +6045,37 @@
         <v>30</v>
       </c>
       <c r="F113" s="5">
-        <v>36.289000000000001</v>
+        <v>20.288</v>
       </c>
       <c r="G113" s="11">
         <f>IF(F113&gt;0, IF(F113&lt;25, 30, IF(F113&gt;75, 10, (1-(F113-25)/(75-25))*20+10)), 0)</f>
-        <v>25.484399999999997</v>
+        <v>30</v>
       </c>
       <c r="H113" s="12">
         <f>B113+C113+E113+G113</f>
-        <v>88.484399999999994</v>
+        <v>82</v>
       </c>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="7">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1">
         <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>9809</v>
+        <v>9995</v>
       </c>
       <c r="E114" s="15">
         <f>IF(D114/10000*30&gt;=29.7, 30,D114/10000*30)</f>
-        <v>29.427</v>
+        <v>30</v>
       </c>
       <c r="F114" s="5">
-        <v>16.161000000000001</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="G114" s="11">
         <f>IF(F114&gt;0, IF(F114&lt;25, 30, IF(F114&gt;75, 10, (1-(F114-25)/(75-25))*20+10)), 0)</f>
@@ -6067,52 +6083,83 @@
       </c>
       <c r="H114" s="12">
         <f>B114+C114+E114+G114</f>
-        <v>99.426999999999992</v>
+        <v>100</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>21</v>
-      </c>
-      <c r="C115" s="2">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2">
-        <v>9990</v>
+        <v>44</v>
+      </c>
+      <c r="B115" s="7">
+        <v>19</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1">
+        <v>9992</v>
       </c>
       <c r="E115" s="15">
         <f>IF(D115/10000*30&gt;=29.7, 30,D115/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F115" s="5">
-        <v>24.544</v>
+        <v>666.16</v>
       </c>
       <c r="G115" s="11">
         <f>IF(F115&gt;0, IF(F115&lt;25, 30, IF(F115&gt;75, 10, (1-(F115-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H115" s="12">
         <f>B115+C115+E115+G115</f>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" ht="25" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="7">
+        <v>26</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9996</v>
+      </c>
+      <c r="E116" s="15">
+        <f>IF(D116/10000*30&gt;=29.7, 30,D116/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F116" s="5">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="G116" s="11">
+        <v>25</v>
+      </c>
+      <c r="H116" s="12">
+        <f>B116+C116+E116+G116</f>
+        <v>91</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1">
       <c r="E118" s="2" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="F118" s="10">
-        <f>AVERAGE(F2:F115)</f>
-        <v>62.420527192982441</v>
+        <f>AVERAGE(F2:F116)</f>
+        <v>63.167513913043486</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="25" customHeight="1">
       <c r="E119" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F119" s="10">
         <v>30</v>
@@ -6120,7 +6167,7 @@
     </row>
     <row r="120" spans="1:9" ht="25" customHeight="1">
       <c r="E120" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F120" s="10">
         <v>10</v>
@@ -6128,10 +6175,10 @@
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1">
       <c r="E121" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Supplements/homework-02-final-grade.xlsx
+++ b/Supplements/homework-02-final-grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFD6BA5-074D-2D41-9C7F-F1DF25181B77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC36AAA-9702-5640-9433-8E83AE616DD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1980" windowWidth="29040" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - hw2-grade-william" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输出结果全为0。原因：程序输入参数应有两个（data.bin和卷积核大小s），但是你的程序卷积核大小s的参数需要进入程序后才能输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输出结果全为0。原因：虽然程序在20*20的样例数据中运行正确，但是测试数据为重新生成的100*100数据，程序输出结果为0。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,7 +479,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序输出结果错误，卷积计算结果完全错误</t>
+    <t>复查扣5分</t>
+  </si>
+  <si>
+    <t>复查扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F224C6637C2EFEA74E70BA004443BC56</t>
+  </si>
+  <si>
+    <t>BCB3394FD061765DF70A2DF028DA4846</t>
+  </si>
+  <si>
+    <t>编译错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +505,7 @@
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -518,6 +527,17 @@
     <font>
       <sz val="16"/>
       <color indexed="8"/>
+      <name val="等线 Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="等线 Regular"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="等线 Regular"/>
       <charset val="134"/>
     </font>
@@ -559,7 +579,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -613,6 +633,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,7 +1457,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="27692086" y="946678"/>
+              <a:off x="26930086" y="946678"/>
               <a:ext cx="9753864" cy="6729413"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2519,10 +2566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW121"/>
+  <dimension ref="A1:IW123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -2573,31 +2620,31 @@
     </row>
     <row r="2" spans="1:257" ht="25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="E2" s="15">
         <f>IF(D2/10000*30&gt;=29.7, 30,D2/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F2" s="5">
-        <v>463.43</v>
+        <v>67.584999999999994</v>
       </c>
       <c r="G2" s="11">
         <f>IF(F2&gt;0, IF(F2&lt;25, 30, IF(F2&gt;75, 10, (1-(F2-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>12.966000000000001</v>
       </c>
       <c r="H2" s="12">
         <f>B2+C2+E2+G2</f>
-        <v>59</v>
+        <v>62.966000000000001</v>
       </c>
       <c r="I2" s="6"/>
       <c r="IV2" s="3"/>
@@ -2605,31 +2652,31 @@
     </row>
     <row r="3" spans="1:257" ht="25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9999</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9809</v>
       </c>
       <c r="E3" s="15">
         <f>IF(D3/10000*30&gt;=29.7, 30,D3/10000*30)</f>
-        <v>30</v>
+        <v>29.427</v>
       </c>
       <c r="F3" s="5">
-        <v>198.27</v>
+        <v>16.161000000000001</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;0, IF(F3&lt;25, 30, IF(F3&gt;75, 10, (1-(F3-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" s="12">
         <f>B3+C3+E3+G3</f>
-        <v>65</v>
+        <v>99.426999999999992</v>
       </c>
       <c r="I3" s="6"/>
       <c r="IV3" s="3"/>
@@ -2637,31 +2684,31 @@
     </row>
     <row r="4" spans="1:257" ht="25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9987</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9988</v>
       </c>
       <c r="E4" s="15">
         <f>IF(D4/10000*30&gt;=29.7, 30,D4/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>120.07</v>
+        <v>23.744</v>
       </c>
       <c r="G4" s="11">
         <f>IF(F4&gt;0, IF(F4&lt;25, 30, IF(F4&gt;75, 10, (1-(F4-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H4" s="12">
         <f>B4+C4+E4+G4</f>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="I4" s="6"/>
       <c r="IV4" s="3"/>
@@ -2669,31 +2716,31 @@
     </row>
     <row r="5" spans="1:257" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9988</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9992</v>
       </c>
       <c r="E5" s="15">
         <f>IF(D5/10000*30&gt;=29.7, 30,D5/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F5" s="5">
-        <v>153.41</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="G5" s="11">
         <f>IF(F5&gt;0, IF(F5&lt;25, 30, IF(F5&gt;75, 10, (1-(F5-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25.202799999999996</v>
       </c>
       <c r="H5" s="12">
         <f>B5+C5+E5+G5</f>
-        <v>70</v>
+        <v>87.202799999999996</v>
       </c>
       <c r="I5" s="6"/>
       <c r="IV5" s="3"/>
@@ -2701,31 +2748,31 @@
     </row>
     <row r="6" spans="1:257" ht="25" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9995</v>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000</v>
       </c>
       <c r="E6" s="15">
         <f>IF(D6/10000*30&gt;=29.7, 30,D6/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F6" s="5">
-        <v>8.5440000000000005</v>
+        <v>122.27</v>
       </c>
       <c r="G6" s="11">
         <f>IF(F6&gt;0, IF(F6&lt;25, 30, IF(F6&gt;75, 10, (1-(F6-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12">
         <f>B6+C6+E6+G6</f>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I6" s="6"/>
       <c r="IV6" s="3"/>
@@ -2733,31 +2780,31 @@
     </row>
     <row r="7" spans="1:257" ht="25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="7">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9994</v>
+        <v>94</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9992</v>
       </c>
       <c r="E7" s="15">
         <f>IF(D7/10000*30&gt;=29.7, 30,D7/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F7" s="5">
-        <v>5.8879999999999999</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="G7" s="11">
         <f>IF(F7&gt;0, IF(F7&lt;25, 30, IF(F7&gt;75, 10, (1-(F7-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.1004</v>
       </c>
       <c r="H7" s="12">
         <f>B7+C7+E7+G7</f>
-        <v>94</v>
+        <v>82.100400000000008</v>
       </c>
       <c r="I7" s="6"/>
       <c r="IV7" s="3"/>
@@ -2765,93 +2812,95 @@
     </row>
     <row r="8" spans="1:257" ht="25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9996</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9992</v>
       </c>
       <c r="E8" s="15">
         <f>IF(D8/10000*30&gt;=29.7, 30,D8/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>24.928000000000001</v>
+        <v>61.664000000000001</v>
       </c>
       <c r="G8" s="11">
         <f>IF(F8&gt;0, IF(F8&lt;25, 30, IF(F8&gt;75, 10, (1-(F8-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.334399999999999</v>
       </c>
       <c r="H8" s="12">
         <f>B8+C8+E8+G8</f>
-        <v>89</v>
-      </c>
+        <v>69.334400000000002</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="IV8" s="3"/>
       <c r="IW8" s="3"/>
     </row>
     <row r="9" spans="1:257" ht="25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="7">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9984</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="2">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9993</v>
       </c>
       <c r="E9" s="15">
         <f>IF(D9/10000*30&gt;=29.7, 30,D9/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F9" s="5">
-        <v>18.975999999999999</v>
+        <v>38.753</v>
       </c>
       <c r="G9" s="11">
         <f>IF(F9&gt;0, IF(F9&lt;25, 30, IF(F9&gt;75, 10, (1-(F9-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.498799999999999</v>
       </c>
       <c r="H9" s="12">
         <f>B9+C9+E9+G9</f>
-        <v>95</v>
-      </c>
+        <v>90.498800000000003</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="IV9" s="3"/>
       <c r="IW9" s="3"/>
     </row>
     <row r="10" spans="1:257" ht="25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="2">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9955</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9990</v>
       </c>
       <c r="E10" s="15">
         <f>IF(D10/10000*30&gt;=29.7, 30,D10/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F10" s="5">
-        <v>56.512999999999998</v>
+        <v>14.945</v>
       </c>
       <c r="G10" s="11">
         <f>IF(F10&gt;0, IF(F10&lt;25, 30, IF(F10&gt;75, 10, (1-(F10-25)/(75-25))*20+10)), 0)</f>
-        <v>17.394800000000004</v>
+        <v>30</v>
       </c>
       <c r="H10" s="12">
         <f>B10+C10+E10+G10</f>
-        <v>72.394800000000004</v>
+        <v>100</v>
       </c>
       <c r="I10" s="6"/>
       <c r="IV10" s="3"/>
@@ -2859,63 +2908,65 @@
     </row>
     <row r="11" spans="1:257" ht="25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
-        <v>9997</v>
+      <c r="D11" s="14">
+        <v>0</v>
       </c>
       <c r="E11" s="15">
         <f>IF(D11/10000*30&gt;=29.7, 30,D11/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>81.506</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <f>IF(F11&gt;0, IF(F11&lt;25, 30, IF(F11&gt;75, 10, (1-(F11-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <f>B11+C11+E11+G11</f>
-        <v>70</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="IV11" s="3"/>
       <c r="IW11" s="3"/>
     </row>
     <row r="12" spans="1:257" ht="25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>9985</v>
+        <v>9989</v>
       </c>
       <c r="E12" s="15">
         <f>IF(D12/10000*30&gt;=29.7, 30,D12/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F12" s="5">
-        <v>57.920999999999999</v>
+        <v>19.841000000000001</v>
       </c>
       <c r="G12" s="11">
         <f>IF(F12&gt;0, IF(F12&lt;25, 30, IF(F12&gt;75, 10, (1-(F12-25)/(75-25))*20+10)), 0)</f>
-        <v>16.831600000000002</v>
+        <v>30</v>
       </c>
       <c r="H12" s="12">
         <f>B12+C12+E12+G12</f>
-        <v>84.831600000000009</v>
+        <v>94</v>
       </c>
       <c r="I12" s="6"/>
       <c r="IV12" s="3"/>
@@ -2923,31 +2974,31 @@
     </row>
     <row r="13" spans="1:257" ht="25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>9784</v>
+        <v>9994</v>
       </c>
       <c r="E13" s="15">
         <f>IF(D13/10000*30&gt;=29.7, 30,D13/10000*30)</f>
-        <v>29.352</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>23.36</v>
+        <v>48.128999999999998</v>
       </c>
       <c r="G13" s="11">
         <f>IF(F13&gt;0, IF(F13&lt;25, 30, IF(F13&gt;75, 10, (1-(F13-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.7484</v>
       </c>
       <c r="H13" s="12">
         <f>B13+C13+E13+G13</f>
-        <v>99.352000000000004</v>
+        <v>60.748400000000004</v>
       </c>
       <c r="I13" s="6"/>
       <c r="IV13" s="3"/>
@@ -2955,63 +3006,62 @@
     </row>
     <row r="14" spans="1:257" ht="25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9995</v>
-      </c>
-      <c r="E14" s="15">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9989</v>
+      </c>
+      <c r="E14" s="16">
         <f>IF(D14/10000*30&gt;=29.7, 30,D14/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F14" s="5">
-        <v>18.975999999999999</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="10">
+        <v>14.816000000000001</v>
+      </c>
+      <c r="G14" s="12">
         <f>IF(F14&gt;0, IF(F14&lt;25, 30, IF(F14&gt;75, 10, (1-(F14-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H14" s="12">
         <f>B14+C14+E14+G14</f>
-        <v>86</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>94</v>
+      </c>
       <c r="IV14" s="3"/>
       <c r="IW14" s="3"/>
     </row>
     <row r="15" spans="1:257" ht="25" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="7">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9385</v>
+        <v>80</v>
+      </c>
+      <c r="B15" s="2">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6641</v>
       </c>
       <c r="E15" s="15">
         <f>IF(D15/10000*30&gt;=29.7, 30,D15/10000*30)</f>
-        <v>28.155000000000001</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="F15" s="5">
-        <v>26.401</v>
+        <v>16.128</v>
       </c>
       <c r="G15" s="11">
         <f>IF(F15&gt;0, IF(F15&lt;25, 30, IF(F15&gt;75, 10, (1-(F15-25)/(75-25))*20+10)), 0)</f>
-        <v>29.439599999999999</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12">
         <f>B15+C15+E15+G15</f>
-        <v>89.5946</v>
+        <v>77.923000000000002</v>
       </c>
       <c r="I15" s="6"/>
       <c r="IV15" s="3"/>
@@ -3019,97 +3069,96 @@
     </row>
     <row r="16" spans="1:257" ht="25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7">
         <v>26</v>
       </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9993</v>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9996</v>
       </c>
       <c r="E16" s="15">
         <f>IF(D16/10000*30&gt;=29.7, 30,D16/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F16" s="5">
-        <v>38.753</v>
+        <v>17.920999999999999</v>
       </c>
       <c r="G16" s="11">
-        <f>IF(F16&gt;0, IF(F16&lt;25, 30, IF(F16&gt;75, 10, (1-(F16-25)/(75-25))*20+10)), 0)</f>
-        <v>24.498799999999999</v>
+        <v>25</v>
       </c>
       <c r="H16" s="12">
         <f>B16+C16+E16+G16</f>
-        <v>90.498800000000003</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="IV16" s="3"/>
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257" ht="25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B17" s="2">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9991</v>
       </c>
       <c r="E17" s="15">
         <f>IF(D17/10000*30&gt;=29.7, 30,D17/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>30.367999999999999</v>
       </c>
       <c r="G17" s="11">
         <f>IF(F17&gt;0, IF(F17&lt;25, 30, IF(F17&gt;75, 10, (1-(F17-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>27.852799999999998</v>
       </c>
       <c r="H17" s="12">
         <f>B17+C17+E17+G17</f>
-        <v>22</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>96.852800000000002</v>
+      </c>
+      <c r="I17" s="6"/>
       <c r="IV17" s="3"/>
       <c r="IW17" s="3"/>
     </row>
     <row r="18" spans="1:257" ht="25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>8803</v>
+        <v>3419</v>
       </c>
       <c r="E18" s="15">
         <f>IF(D18/10000*30&gt;=29.7, 30,D18/10000*30)</f>
-        <v>26.408999999999999</v>
+        <v>10.257</v>
       </c>
       <c r="F18" s="5">
-        <v>27.552</v>
+        <v>23.616</v>
       </c>
       <c r="G18" s="11">
         <f>IF(F18&gt;0, IF(F18&lt;25, 30, IF(F18&gt;75, 10, (1-(F18-25)/(75-25))*20+10)), 0)</f>
-        <v>28.979199999999999</v>
+        <v>30</v>
       </c>
       <c r="H18" s="12">
         <f>B18+C18+E18+G18</f>
-        <v>89.388199999999998</v>
+        <v>67.257000000000005</v>
       </c>
       <c r="I18" s="6"/>
       <c r="IV18" s="3"/>
@@ -3117,62 +3166,63 @@
     </row>
     <row r="19" spans="1:257" ht="25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9992</v>
+        <v>88</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9989</v>
       </c>
       <c r="E19" s="15">
         <f>IF(D19/10000*30&gt;=29.7, 30,D19/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>20.16</v>
+        <v>148.26</v>
       </c>
       <c r="G19" s="11">
         <f>IF(F19&gt;0, IF(F19&lt;25, 30, IF(F19&gt;75, 10, (1-(F19-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H19" s="12">
         <f>B19+C19+E19+G19</f>
-        <v>95</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I19" s="6"/>
       <c r="IV19" s="3"/>
       <c r="IW19" s="3"/>
     </row>
     <row r="20" spans="1:257" ht="25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>9999</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="7">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9989</v>
       </c>
       <c r="E20" s="15">
         <f>IF(D20/10000*30&gt;=29.7, 30,D20/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F20" s="5">
-        <v>118.91</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G20" s="11">
         <f>IF(F20&gt;0, IF(F20&lt;25, 30, IF(F20&gt;75, 10, (1-(F20-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H20" s="12">
         <f>B20+C20+E20+G20</f>
-        <v>68</v>
+        <v>86.141999999999996</v>
       </c>
       <c r="I20" s="6"/>
       <c r="IV20" s="3"/>
@@ -3180,189 +3230,195 @@
     </row>
     <row r="21" spans="1:257" ht="25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9987</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
       </c>
       <c r="E21" s="15">
         <f>IF(D21/10000*30&gt;=29.7, 30,D21/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>49.441000000000003</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
         <f>IF(F21&gt;0, IF(F21&lt;25, 30, IF(F21&gt;75, 10, (1-(F21-25)/(75-25))*20+10)), 0)</f>
-        <v>20.223599999999998</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <f>B21+C21+E21+G21</f>
-        <v>80.223600000000005</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="IV21" s="3"/>
       <c r="IW21" s="3"/>
     </row>
     <row r="22" spans="1:257" ht="25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="7">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9972</v>
+        <v>106</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9989</v>
       </c>
       <c r="E22" s="15">
         <f>IF(D22/10000*30&gt;=29.7, 30,D22/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>29.888999999999999</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="G22" s="11">
         <f>IF(F22&gt;0, IF(F22&lt;25, 30, IF(F22&gt;75, 10, (1-(F22-25)/(75-25))*20+10)), 0)</f>
-        <v>28.0444</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12">
         <f>B22+C22+E22+G22</f>
-        <v>87.044399999999996</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I22" s="6"/>
       <c r="IV22" s="3"/>
       <c r="IW22" s="3"/>
     </row>
     <row r="23" spans="1:257" ht="25" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9">
+        <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>9992</v>
+        <v>9988</v>
       </c>
       <c r="E23" s="15">
         <f>IF(D23/10000*30&gt;=29.7, 30,D23/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>36.993000000000002</v>
+        <v>1.1431</v>
       </c>
       <c r="G23" s="11">
         <f>IF(F23&gt;0, IF(F23&lt;25, 30, IF(F23&gt;75, 10, (1-(F23-25)/(75-25))*20+10)), 0)</f>
-        <v>25.202799999999996</v>
+        <v>30</v>
       </c>
       <c r="H23" s="12">
         <f>B23+C23+E23+G23</f>
-        <v>87.202799999999996</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>87</v>
+      </c>
       <c r="IV23" s="3"/>
       <c r="IW23" s="3"/>
     </row>
     <row r="24" spans="1:257" ht="25" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="7">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9995</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17">
+        <v>10000</v>
       </c>
       <c r="E24" s="15">
-        <f>IF(D24/10000*30&gt;=29.7, 30,D24/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5">
-        <v>36.351999999999997</v>
+        <v>17.376000000000001</v>
       </c>
       <c r="G24" s="11">
         <f>IF(F24&gt;0, IF(F24&lt;25, 30, IF(F24&gt;75, 10, (1-(F24-25)/(75-25))*20+10)), 0)</f>
-        <v>25.459200000000003</v>
+        <v>30</v>
       </c>
       <c r="H24" s="12">
         <f>B24+C24+E24+G24</f>
-        <v>80.45920000000001</v>
+        <v>79</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="IV24" s="3"/>
       <c r="IW24" s="3"/>
     </row>
     <row r="25" spans="1:257" ht="25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="7">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>9992</v>
+        <v>126</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
       </c>
       <c r="E25" s="15">
         <f>IF(D25/10000*30&gt;=29.7, 30,D25/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>18.753</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <f>IF(F25&gt;0, IF(F25&lt;25, 30, IF(F25&gt;75, 10, (1-(F25-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
         <f>B25+C25+E25+G25</f>
-        <v>94</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="IV25" s="3"/>
       <c r="IW25" s="3"/>
     </row>
     <row r="26" spans="1:257" ht="25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>10000</v>
+        <v>9990</v>
       </c>
       <c r="E26" s="15">
         <f>IF(D26/10000*30&gt;=29.7, 30,D26/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F26" s="5">
-        <v>61.024999999999999</v>
+        <v>335.08</v>
       </c>
       <c r="G26" s="11">
         <f>IF(F26&gt;0, IF(F26&lt;25, 30, IF(F26&gt;75, 10, (1-(F26-25)/(75-25))*20+10)), 0)</f>
-        <v>15.590000000000002</v>
+        <v>10</v>
       </c>
       <c r="H26" s="12">
         <f>B26+C26+E26+G26</f>
-        <v>72.59</v>
+        <v>69</v>
       </c>
       <c r="I26" s="6"/>
       <c r="IV26" s="3"/>
@@ -3370,63 +3426,62 @@
     </row>
     <row r="27" spans="1:257" ht="25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9992</v>
+        <v>73</v>
+      </c>
+      <c r="B27" s="7">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9940</v>
       </c>
       <c r="E27" s="15">
         <f>IF(D27/10000*30&gt;=29.7, 30,D27/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>57.249000000000002</v>
+        <v>19.488</v>
       </c>
       <c r="G27" s="11">
         <f>IF(F27&gt;0, IF(F27&lt;25, 30, IF(F27&gt;75, 10, (1-(F27-25)/(75-25))*20+10)), 0)</f>
-        <v>17.1004</v>
+        <v>30</v>
       </c>
       <c r="H27" s="12">
         <f>B27+C27+E27+G27</f>
-        <v>82.100400000000008</v>
-      </c>
-      <c r="I27" s="6"/>
+        <v>80</v>
+      </c>
       <c r="IV27" s="3"/>
       <c r="IW27" s="3"/>
     </row>
     <row r="28" spans="1:257" ht="25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>9990</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="15">
         <f>IF(D28/10000*30&gt;=29.7, 30,D28/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F28" s="5">
-        <v>335.08</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="G28" s="11">
         <f>IF(F28&gt;0, IF(F28&lt;25, 30, IF(F28&gt;75, 10, (1-(F28-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>15.590000000000002</v>
       </c>
       <c r="H28" s="12">
         <f>B28+C28+E28+G28</f>
-        <v>69</v>
+        <v>72.59</v>
       </c>
       <c r="I28" s="6"/>
       <c r="IV28" s="3"/>
@@ -3434,97 +3489,97 @@
     </row>
     <row r="29" spans="1:257" ht="25" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8803</v>
       </c>
       <c r="E29" s="15">
         <f>IF(D29/10000*30&gt;=29.7, 30,D29/10000*30)</f>
-        <v>0</v>
+        <v>26.408999999999999</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>27.552</v>
       </c>
       <c r="G29" s="11">
         <f>IF(F29&gt;0, IF(F29&lt;25, 30, IF(F29&gt;75, 10, (1-(F29-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>28.979199999999999</v>
       </c>
       <c r="H29" s="12">
         <f>B29+C29+E29+G29</f>
-        <v>30</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>89.388199999999998</v>
+      </c>
+      <c r="I29" s="6"/>
       <c r="IV29" s="3"/>
       <c r="IW29" s="3"/>
     </row>
     <row r="30" spans="1:257" ht="25" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="7">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
         <v>8</v>
       </c>
-      <c r="D30" s="1">
-        <v>9981</v>
+      <c r="D30" s="17">
+        <v>0</v>
       </c>
       <c r="E30" s="15">
         <f>IF(D30/10000*30&gt;=29.7, 30,D30/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>273.89</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <f>IF(F30&gt;0, IF(F30&lt;25, 30, IF(F30&gt;75, 10, (1-(F30-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
         <f>B30+C30+E30+G30</f>
-        <v>58</v>
-      </c>
-      <c r="I30" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="IV30" s="3"/>
       <c r="IW30" s="3"/>
     </row>
     <row r="31" spans="1:257" ht="25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>9992</v>
+        <v>9995</v>
       </c>
       <c r="E31" s="15">
         <f>IF(D31/10000*30&gt;=29.7, 30,D31/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F31" s="5">
-        <v>61.664000000000001</v>
+        <v>16.32</v>
       </c>
       <c r="G31" s="11">
         <f>IF(F31&gt;0, IF(F31&lt;25, 30, IF(F31&gt;75, 10, (1-(F31-25)/(75-25))*20+10)), 0)</f>
-        <v>15.334399999999999</v>
+        <v>30</v>
       </c>
       <c r="H31" s="12">
         <f>B31+C31+E31+G31</f>
-        <v>69.334400000000002</v>
+        <v>87</v>
       </c>
       <c r="I31" s="6"/>
       <c r="IV31" s="3"/>
@@ -3532,31 +3587,31 @@
     </row>
     <row r="32" spans="1:257" ht="25" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="2">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>9990</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10000</v>
       </c>
       <c r="E32" s="15">
         <f>IF(D32/10000*30&gt;=29.7, 30,D32/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>26.463999999999999</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="G32" s="11">
         <f>IF(F32&gt;0, IF(F32&lt;25, 30, IF(F32&gt;75, 10, (1-(F32-25)/(75-25))*20+10)), 0)</f>
-        <v>29.414400000000001</v>
+        <v>28.825199999999999</v>
       </c>
       <c r="H32" s="12">
         <f>B32+C32+E32+G32</f>
-        <v>83.414400000000001</v>
+        <v>85.825199999999995</v>
       </c>
       <c r="I32" s="6"/>
       <c r="IV32" s="3"/>
@@ -3564,65 +3619,62 @@
     </row>
     <row r="33" spans="1:257" ht="25" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B33" s="7">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
-      </c>
-      <c r="D33" s="14">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9996</v>
       </c>
       <c r="E33" s="15">
         <f>IF(D33/10000*30&gt;=29.7, 30,D33/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="G33" s="11">
         <f>IF(F33&gt;0, IF(F33&lt;25, 30, IF(F33&gt;75, 10, (1-(F33-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H33" s="12">
         <f>B33+C33+E33+G33</f>
-        <v>18</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="IV33" s="3"/>
       <c r="IW33" s="3"/>
     </row>
     <row r="34" spans="1:257" ht="25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="7">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>9991</v>
+        <v>9995</v>
       </c>
       <c r="E34" s="15">
         <f>IF(D34/10000*30&gt;=29.7, 30,D34/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F34" s="5">
-        <v>149.83000000000001</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;0, IF(F34&lt;25, 30, IF(F34&gt;75, 10, (1-(F34-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H34" s="12">
         <f>B34+C34+E34+G34</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I34" s="6"/>
       <c r="IV34" s="3"/>
@@ -3630,23 +3682,22 @@
     </row>
     <row r="35" spans="1:257" ht="25" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="2">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2">
-        <v>9995</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="7">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9999</v>
       </c>
       <c r="E35" s="15">
-        <f>IF(D35/10000*30&gt;=29.7, 30,D35/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5">
-        <v>16.32</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="G35" s="11">
         <f>IF(F35&gt;0, IF(F35&lt;25, 30, IF(F35&gt;75, 10, (1-(F35-25)/(75-25))*20+10)), 0)</f>
@@ -3654,104 +3705,106 @@
       </c>
       <c r="H35" s="12">
         <f>B35+C35+E35+G35</f>
-        <v>87</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="IV35" s="3"/>
       <c r="IW35" s="3"/>
     </row>
     <row r="36" spans="1:257" ht="25" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="2">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9997</v>
+        <v>61</v>
+      </c>
+      <c r="B36" s="7">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="14">
+        <v>9991</v>
       </c>
       <c r="E36" s="15">
-        <f>IF(D36/10000*30&gt;=29.7, 30,D36/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5">
-        <v>64.384</v>
+        <v>47.488999999999997</v>
       </c>
       <c r="G36" s="11">
         <f>IF(F36&gt;0, IF(F36&lt;25, 30, IF(F36&gt;75, 10, (1-(F36-25)/(75-25))*20+10)), 0)</f>
-        <v>14.2464</v>
+        <v>21.0044</v>
       </c>
       <c r="H36" s="12">
         <f>B36+C36+E36+G36</f>
-        <v>69.246399999999994</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>73.004400000000004</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="IV36" s="3"/>
       <c r="IW36" s="3"/>
     </row>
     <row r="37" spans="1:257" ht="25" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
-      <c r="D37" s="14">
-        <v>9995</v>
+      <c r="D37" s="1">
+        <v>100</v>
       </c>
       <c r="E37" s="15">
         <f>IF(D37/10000*30&gt;=29.7, 30,D37/10000*30)</f>
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="F37" s="5">
-        <v>92.45</v>
+        <v>25.440999999999999</v>
       </c>
       <c r="G37" s="11">
         <f>IF(F37&gt;0, IF(F37&lt;25, 30, IF(F37&gt;75, 10, (1-(F37-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>29.823600000000003</v>
       </c>
       <c r="H37" s="12">
-        <v>63</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>142</v>
-      </c>
+        <f>B37+C37+E37+G37</f>
+        <v>66.123599999999996</v>
+      </c>
+      <c r="I37" s="6"/>
       <c r="IV37" s="3"/>
       <c r="IW37" s="3"/>
     </row>
     <row r="38" spans="1:257" ht="25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="2">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2">
-        <v>9999</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="7">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9990</v>
       </c>
       <c r="E38" s="15">
         <f>IF(D38/10000*30&gt;=29.7, 30,D38/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F38" s="5">
-        <v>9.8239999999999998</v>
+        <v>39.073</v>
       </c>
       <c r="G38" s="11">
         <f>IF(F38&gt;0, IF(F38&lt;25, 30, IF(F38&gt;75, 10, (1-(F38-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.370799999999999</v>
       </c>
       <c r="H38" s="12">
         <f>B38+C38+E38+G38</f>
-        <v>88</v>
+        <v>92.370800000000003</v>
       </c>
       <c r="I38" s="6"/>
       <c r="IV38" s="3"/>
@@ -3759,77 +3812,76 @@
     </row>
     <row r="39" spans="1:257" ht="25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7">
-        <v>19</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="14">
+        <v>10000</v>
       </c>
       <c r="E39" s="15">
         <f>IF(D39/10000*30&gt;=29.7, 30,D39/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>755.91</v>
       </c>
       <c r="G39" s="11">
         <f>IF(F39&gt;0, IF(F39&lt;25, 30, IF(F39&gt;75, 10, (1-(F39-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="12">
         <f>B39+C39+E39+G39</f>
-        <v>27</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I39" s="6"/>
       <c r="IV39" s="3"/>
       <c r="IW39" s="3"/>
     </row>
     <row r="40" spans="1:257" ht="25" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>9989</v>
-      </c>
-      <c r="E40" s="16">
+        <v>9958</v>
+      </c>
+      <c r="E40" s="15">
         <f>IF(D40/10000*30&gt;=29.7, 30,D40/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F40" s="10">
-        <v>14.816000000000001</v>
-      </c>
-      <c r="G40" s="12">
+      <c r="F40" s="5">
+        <v>463.43</v>
+      </c>
+      <c r="G40" s="11">
         <f>IF(F40&gt;0, IF(F40&lt;25, 30, IF(F40&gt;75, 10, (1-(F40-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H40" s="12">
         <f>B40+C40+E40+G40</f>
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I40" s="6"/>
       <c r="IV40" s="3"/>
       <c r="IW40" s="3"/>
     </row>
     <row r="41" spans="1:257" ht="25" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B41" s="7">
-        <v>17</v>
-      </c>
-      <c r="C41" s="9">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
         <v>10</v>
       </c>
       <c r="D41" s="1">
@@ -3840,7 +3892,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="5">
-        <v>21.696000000000002</v>
+        <v>15.456</v>
       </c>
       <c r="G41" s="11">
         <f>IF(F41&gt;0, IF(F41&lt;25, 30, IF(F41&gt;75, 10, (1-(F41-25)/(75-25))*20+10)), 0)</f>
@@ -3848,83 +3900,86 @@
       </c>
       <c r="H41" s="12">
         <f>B41+C41+E41+G41</f>
-        <v>87</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I41" s="6"/>
       <c r="IV41" s="3"/>
       <c r="IW41" s="3"/>
     </row>
     <row r="42" spans="1:257" ht="25" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="7">
-        <v>10</v>
-      </c>
-      <c r="C42" s="9">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1">
-        <v>9940</v>
+        <v>108</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9975</v>
       </c>
       <c r="E42" s="15">
         <f>IF(D42/10000*30&gt;=29.7, 30,D42/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F42" s="5">
-        <v>19.488</v>
+        <v>42.369</v>
       </c>
       <c r="G42" s="11">
         <f>IF(F42&gt;0, IF(F42&lt;25, 30, IF(F42&gt;75, 10, (1-(F42-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>23.052399999999999</v>
       </c>
       <c r="H42" s="12">
         <f>B42+C42+E42+G42</f>
-        <v>80</v>
-      </c>
+        <v>82.052400000000006</v>
+      </c>
+      <c r="I42" s="6"/>
       <c r="IV42" s="3"/>
       <c r="IW42" s="3"/>
     </row>
     <row r="43" spans="1:257" ht="25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="2">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2">
-        <v>9997</v>
+        <v>25</v>
+      </c>
+      <c r="B43" s="7">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="20">
+        <v>9979</v>
       </c>
       <c r="E43" s="15">
         <f>IF(D43/10000*30&gt;=29.7, 30,D43/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F43" s="5">
-        <v>9.2479999999999993</v>
+      <c r="F43" s="19">
+        <v>19.969000000000001</v>
       </c>
       <c r="G43" s="11">
         <f>IF(F43&gt;0, IF(F43&lt;25, 30, IF(F43&gt;75, 10, (1-(F43-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H43" s="12">
-        <f>B43+C43+E43+G43</f>
-        <v>90</v>
-      </c>
-      <c r="I43" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="IV43" s="3"/>
       <c r="IW43" s="3"/>
     </row>
     <row r="44" spans="1:257" ht="25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>10000</v>
@@ -3934,15 +3989,15 @@
         <v>30</v>
       </c>
       <c r="F44" s="5">
-        <v>36.064</v>
+        <v>24.416</v>
       </c>
       <c r="G44" s="11">
         <f>IF(F44&gt;0, IF(F44&lt;25, 30, IF(F44&gt;75, 10, (1-(F44-25)/(75-25))*20+10)), 0)</f>
-        <v>25.574399999999997</v>
+        <v>30</v>
       </c>
       <c r="H44" s="12">
         <f>B44+C44+E44+G44</f>
-        <v>79.574399999999997</v>
+        <v>96</v>
       </c>
       <c r="I44" s="6"/>
       <c r="IV44" s="3"/>
@@ -3950,31 +4005,31 @@
     </row>
     <row r="45" spans="1:257" ht="25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>9992</v>
+        <v>9995</v>
       </c>
       <c r="E45" s="15">
         <f>IF(D45/10000*30&gt;=29.7, 30,D45/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F45" s="5">
-        <v>36.289000000000001</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="G45" s="11">
         <f>IF(F45&gt;0, IF(F45&lt;25, 30, IF(F45&gt;75, 10, (1-(F45-25)/(75-25))*20+10)), 0)</f>
-        <v>25.484399999999997</v>
+        <v>30</v>
       </c>
       <c r="H45" s="12">
         <f>B45+C45+E45+G45</f>
-        <v>88.484399999999994</v>
+        <v>100</v>
       </c>
       <c r="I45" s="6"/>
       <c r="IV45" s="3"/>
@@ -3982,15 +4037,15 @@
     </row>
     <row r="46" spans="1:257" ht="25" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="7">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1">
+        <v>111</v>
+      </c>
+      <c r="B46" s="2">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
         <v>9992</v>
       </c>
       <c r="E46" s="15">
@@ -3998,15 +4053,15 @@
         <v>30</v>
       </c>
       <c r="F46" s="5">
-        <v>15.456</v>
+        <v>32.737000000000002</v>
       </c>
       <c r="G46" s="11">
         <f>IF(F46&gt;0, IF(F46&lt;25, 30, IF(F46&gt;75, 10, (1-(F46-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>26.905199999999997</v>
       </c>
       <c r="H46" s="12">
         <f>B46+C46+E46+G46</f>
-        <v>95</v>
+        <v>85.905199999999994</v>
       </c>
       <c r="I46" s="6"/>
       <c r="IV46" s="3"/>
@@ -4014,63 +4069,62 @@
     </row>
     <row r="47" spans="1:257" ht="25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="2">
-        <v>21</v>
-      </c>
-      <c r="C47" s="2">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2">
-        <v>9993</v>
+        <v>67</v>
+      </c>
+      <c r="B47" s="7">
+        <v>18</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9995</v>
       </c>
       <c r="E47" s="15">
         <f>IF(D47/10000*30&gt;=29.7, 30,D47/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F47" s="5">
-        <v>65.025000000000006</v>
+        <v>36.351999999999997</v>
       </c>
       <c r="G47" s="11">
         <f>IF(F47&gt;0, IF(F47&lt;25, 30, IF(F47&gt;75, 10, (1-(F47-25)/(75-25))*20+10)), 0)</f>
-        <v>13.989999999999998</v>
+        <v>25.459200000000003</v>
       </c>
       <c r="H47" s="12">
         <f>B47+C47+E47+G47</f>
-        <v>74.989999999999995</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>80.45920000000001</v>
+      </c>
       <c r="IV47" s="3"/>
       <c r="IW47" s="3"/>
     </row>
     <row r="48" spans="1:257" ht="25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B48" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2">
-        <v>9990</v>
+        <v>9988</v>
       </c>
       <c r="E48" s="15">
         <f>IF(D48/10000*30&gt;=29.7, 30,D48/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F48" s="5">
-        <v>32.031999999999996</v>
+        <v>153.41</v>
       </c>
       <c r="G48" s="11">
         <f>IF(F48&gt;0, IF(F48&lt;25, 30, IF(F48&gt;75, 10, (1-(F48-25)/(75-25))*20+10)), 0)</f>
-        <v>27.187200000000004</v>
+        <v>10</v>
       </c>
       <c r="H48" s="12">
         <f>B48+C48+E48+G48</f>
-        <v>95.187200000000004</v>
+        <v>70</v>
       </c>
       <c r="I48" s="6"/>
       <c r="IV48" s="3"/>
@@ -4078,64 +4132,63 @@
     </row>
     <row r="49" spans="1:257" ht="25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="2">
-        <v>15</v>
-      </c>
-      <c r="C49" s="2">
-        <v>9</v>
-      </c>
-      <c r="D49" s="17">
-        <v>10000</v>
+        <v>37</v>
+      </c>
+      <c r="B49" s="7">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9991</v>
       </c>
       <c r="E49" s="15">
-        <v>25</v>
+        <f>IF(D49/10000*30&gt;=29.7, 30,D49/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F49" s="5">
-        <v>17.376000000000001</v>
+        <v>47.713000000000001</v>
       </c>
       <c r="G49" s="11">
         <f>IF(F49&gt;0, IF(F49&lt;25, 30, IF(F49&gt;75, 10, (1-(F49-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.9148</v>
       </c>
       <c r="H49" s="12">
         <f>B49+C49+E49+G49</f>
-        <v>79</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>63.9148</v>
+      </c>
+      <c r="I49" s="6"/>
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
     <row r="50" spans="1:257" ht="25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="2">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2">
-        <v>9986</v>
+        <v>33</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9985</v>
       </c>
       <c r="E50" s="15">
         <f>IF(D50/10000*30&gt;=29.7, 30,D50/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>55.744999999999997</v>
+        <v>47.872999999999998</v>
       </c>
       <c r="G50" s="11">
         <f>IF(F50&gt;0, IF(F50&lt;25, 30, IF(F50&gt;75, 10, (1-(F50-25)/(75-25))*20+10)), 0)</f>
-        <v>17.701999999999998</v>
+        <v>20.8508</v>
       </c>
       <c r="H50" s="12">
         <f>B50+C50+E50+G50</f>
-        <v>74.701999999999998</v>
+        <v>65.850799999999992</v>
       </c>
       <c r="I50" s="6"/>
       <c r="IV50" s="3"/>
@@ -4143,23 +4196,23 @@
     </row>
     <row r="51" spans="1:257" ht="25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="7">
-        <v>30</v>
-      </c>
-      <c r="C51" s="2">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1">
         <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>9982</v>
+        <v>9992</v>
       </c>
       <c r="E51" s="15">
         <f>IF(D51/10000*30&gt;=29.7, 30,D51/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F51" s="5">
-        <v>20.096</v>
+        <v>21.44</v>
       </c>
       <c r="G51" s="11">
         <f>IF(F51&gt;0, IF(F51&lt;25, 30, IF(F51&gt;75, 10, (1-(F51-25)/(75-25))*20+10)), 0)</f>
@@ -4167,7 +4220,7 @@
       </c>
       <c r="H51" s="12">
         <f>B51+C51+E51+G51</f>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I51" s="6"/>
       <c r="IV51" s="3"/>
@@ -4175,119 +4228,117 @@
     </row>
     <row r="52" spans="1:257" ht="25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2">
-        <v>9992</v>
+        <v>71</v>
+      </c>
+      <c r="B52" s="7">
+        <v>25</v>
+      </c>
+      <c r="C52" s="9">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9984</v>
       </c>
       <c r="E52" s="15">
         <f>IF(D52/10000*30&gt;=29.7, 30,D52/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F52" s="5">
-        <v>48.095999999999997</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G52" s="11">
         <f>IF(F52&gt;0, IF(F52&lt;25, 30, IF(F52&gt;75, 10, (1-(F52-25)/(75-25))*20+10)), 0)</f>
-        <v>20.761600000000001</v>
+        <v>30</v>
       </c>
       <c r="H52" s="12">
         <f>B52+C52+E52+G52</f>
-        <v>68.761600000000001</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>95</v>
+      </c>
       <c r="IV52" s="3"/>
       <c r="IW52" s="3"/>
     </row>
     <row r="53" spans="1:257" ht="25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="7">
-        <v>20</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B53" s="2">
+        <v>24</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9992</v>
       </c>
       <c r="E53" s="15">
-        <v>0</v>
+        <f>IF(D53/10000*30&gt;=29.7, 30,D53/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="G53" s="11">
         <f>IF(F53&gt;0, IF(F53&lt;25, 30, IF(F53&gt;75, 10, (1-(F53-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>29.6448</v>
       </c>
       <c r="H53" s="12">
         <f>B53+C53+E53+G53</f>
-        <v>26</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>93.644800000000004</v>
+      </c>
+      <c r="I53" s="6"/>
       <c r="IV53" s="3"/>
       <c r="IW53" s="3"/>
     </row>
     <row r="54" spans="1:257" ht="25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
       </c>
       <c r="D54" s="2">
-        <v>3419</v>
+        <v>9993</v>
       </c>
       <c r="E54" s="15">
         <f>IF(D54/10000*30&gt;=29.7, 30,D54/10000*30)</f>
-        <v>10.257</v>
+        <v>30</v>
       </c>
       <c r="F54" s="5">
-        <v>23.616</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;0, IF(F54&lt;25, 30, IF(F54&gt;75, 10, (1-(F54-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>13.989999999999998</v>
       </c>
       <c r="H54" s="12">
         <f>B54+C54+E54+G54</f>
-        <v>67.257000000000005</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="I54" s="6"/>
       <c r="IV54" s="3"/>
     </row>
     <row r="55" spans="1:257" ht="25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>10000</v>
+        <v>9999</v>
       </c>
       <c r="E55" s="15">
         <f>IF(D55/10000*30&gt;=29.7, 30,D55/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F55" s="5">
-        <v>122.27</v>
+        <v>118.91</v>
       </c>
       <c r="G55" s="11">
         <f>IF(F55&gt;0, IF(F55&lt;25, 30, IF(F55&gt;75, 10, (1-(F55-25)/(75-25))*20+10)), 0)</f>
@@ -4295,61 +4346,61 @@
       </c>
       <c r="H55" s="12">
         <f>B55+C55+E55+G55</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I55" s="6"/>
       <c r="IV55" s="3"/>
     </row>
     <row r="56" spans="1:257" ht="25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B56" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
         <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>9985</v>
+        <v>9994</v>
       </c>
       <c r="E56" s="15">
         <f>IF(D56/10000*30&gt;=29.7, 30,D56/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F56" s="5">
-        <v>47.872999999999998</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G56" s="11">
         <f>IF(F56&gt;0, IF(F56&lt;25, 30, IF(F56&gt;75, 10, (1-(F56-25)/(75-25))*20+10)), 0)</f>
-        <v>20.8508</v>
+        <v>30</v>
       </c>
       <c r="H56" s="12">
         <f>B56+C56+E56+G56</f>
-        <v>65.850799999999992</v>
+        <v>94</v>
       </c>
       <c r="I56" s="6"/>
       <c r="IV56" s="3"/>
     </row>
     <row r="57" spans="1:257" ht="25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B57" s="7">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9">
         <v>10</v>
       </c>
       <c r="D57" s="1">
-        <v>9994</v>
+        <v>9984</v>
       </c>
       <c r="E57" s="15">
         <f>IF(D57/10000*30&gt;=29.7, 30,D57/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F57" s="5">
-        <v>24.417000000000002</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="G57" s="11">
         <f>IF(F57&gt;0, IF(F57&lt;25, 30, IF(F57&gt;75, 10, (1-(F57-25)/(75-25))*20+10)), 0)</f>
@@ -4357,154 +4408,155 @@
       </c>
       <c r="H57" s="12">
         <f>B57+C57+E57+G57</f>
-        <v>88</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>92</v>
+      </c>
       <c r="IV57" s="3"/>
     </row>
     <row r="58" spans="1:257" ht="25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7">
-        <v>30</v>
+        <v>118</v>
+      </c>
+      <c r="B58" s="2">
+        <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>10</v>
       </c>
-      <c r="D58" s="14">
-        <v>9991</v>
+      <c r="D58" s="2">
+        <v>9994</v>
       </c>
       <c r="E58" s="15">
         <f>IF(D58/10000*30&gt;=29.7, 30,D58/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F58" s="5">
-        <v>23.36</v>
+        <v>26.113</v>
       </c>
       <c r="G58" s="11">
         <f>IF(F58&gt;0, IF(F58&lt;25, 30, IF(F58&gt;75, 10, (1-(F58-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.5548</v>
       </c>
       <c r="H58" s="12">
-        <f>B58+C58+E58+G58</f>
-        <v>100</v>
-      </c>
-      <c r="I58" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="IV58" s="3"/>
     </row>
     <row r="59" spans="1:257" ht="25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2">
-        <v>20</v>
-      </c>
-      <c r="C59" s="2">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2">
-        <v>9975</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="7">
+        <v>17</v>
+      </c>
+      <c r="C59" s="9">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9992</v>
       </c>
       <c r="E59" s="15">
         <f>IF(D59/10000*30&gt;=29.7, 30,D59/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F59" s="5">
-        <v>42.369</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="G59" s="11">
         <f>IF(F59&gt;0, IF(F59&lt;25, 30, IF(F59&gt;75, 10, (1-(F59-25)/(75-25))*20+10)), 0)</f>
-        <v>23.052399999999999</v>
+        <v>30</v>
       </c>
       <c r="H59" s="12">
         <f>B59+C59+E59+G59</f>
-        <v>82.052400000000006</v>
-      </c>
-      <c r="I59" s="6"/>
+        <v>87</v>
+      </c>
       <c r="IV59" s="3"/>
     </row>
     <row r="60" spans="1:257" ht="25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="1">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B60" s="7">
+        <v>28</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
       </c>
       <c r="D60" s="1">
-        <v>10000</v>
+        <v>9989</v>
       </c>
       <c r="E60" s="15">
         <f>IF(D60/10000*30&gt;=29.7, 30,D60/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F60" s="5">
-        <v>27.937000000000001</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G60" s="11">
         <f>IF(F60&gt;0, IF(F60&lt;25, 30, IF(F60&gt;75, 10, (1-(F60-25)/(75-25))*20+10)), 0)</f>
-        <v>28.825199999999999</v>
+        <v>30</v>
       </c>
       <c r="H60" s="12">
         <f>B60+C60+E60+G60</f>
-        <v>85.825199999999995</v>
+        <v>98</v>
       </c>
       <c r="I60" s="6"/>
       <c r="IV60" s="3"/>
     </row>
     <row r="61" spans="1:257" ht="25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="2">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B61" s="7">
+        <v>28</v>
       </c>
       <c r="C61" s="2">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2">
-        <v>9989</v>
+        <v>10</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
       </c>
       <c r="E61" s="15">
         <f>IF(D61/10000*30&gt;=29.7, 30,D61/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <v>245.38</v>
+        <v>0</v>
       </c>
       <c r="G61" s="11">
         <f>IF(F61&gt;0, IF(F61&lt;25, 30, IF(F61&gt;75, 10, (1-(F61-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H61" s="12">
         <f>B61+C61+E61+G61</f>
-        <v>57</v>
-      </c>
-      <c r="I61" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="IV61" s="3"/>
     </row>
     <row r="62" spans="1:257" ht="25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="2">
+        <v>66</v>
+      </c>
+      <c r="B62" s="7">
         <v>25</v>
       </c>
-      <c r="C62" s="2">
-        <v>10</v>
-      </c>
-      <c r="D62" s="2">
-        <v>9991</v>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9992</v>
       </c>
       <c r="E62" s="15">
         <f>IF(D62/10000*30&gt;=29.7, 30,D62/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F62" s="5">
-        <v>21.600999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="G62" s="11">
         <f>IF(F62&gt;0, IF(F62&lt;25, 30, IF(F62&gt;75, 10, (1-(F62-25)/(75-25))*20+10)), 0)</f>
@@ -4514,15 +4566,14 @@
         <f>B62+C62+E62+G62</f>
         <v>95</v>
       </c>
-      <c r="I62" s="6"/>
       <c r="IV62" s="3"/>
     </row>
     <row r="63" spans="1:257" ht="25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
         <v>9</v>
@@ -4535,36 +4586,37 @@
         <v>30</v>
       </c>
       <c r="F63" s="5">
-        <v>24.544</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="G63" s="11">
         <f>IF(F63&gt;0, IF(F63&lt;25, 30, IF(F63&gt;75, 10, (1-(F63-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.414400000000001</v>
       </c>
       <c r="H63" s="12">
         <f>B63+C63+E63+G63</f>
-        <v>90</v>
+        <v>83.414400000000001</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:257" ht="25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="7">
-        <v>29</v>
-      </c>
-      <c r="C64" s="1">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1">
-        <v>9999</v>
+        <v>104</v>
+      </c>
+      <c r="B64" s="2">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2">
+        <v>9989</v>
       </c>
       <c r="E64" s="15">
-        <v>25</v>
+        <f>IF(D64/10000*30&gt;=29.7, 30,D64/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F64" s="5">
-        <v>22.463999999999999</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="G64" s="11">
         <f>IF(F64&gt;0, IF(F64&lt;25, 30, IF(F64&gt;75, 10, (1-(F64-25)/(75-25))*20+10)), 0)</f>
@@ -4572,61 +4624,59 @@
       </c>
       <c r="H64" s="12">
         <f>B64+C64+E64+G64</f>
-        <v>94</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="2">
-        <v>19</v>
-      </c>
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2">
-        <v>9992</v>
+        <v>47</v>
+      </c>
+      <c r="B65" s="7">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>9995</v>
       </c>
       <c r="E65" s="15">
         <f>IF(D65/10000*30&gt;=29.7, 30,D65/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F65" s="5">
-        <v>32.737000000000002</v>
+        <v>667.09</v>
       </c>
       <c r="G65" s="11">
         <f>IF(F65&gt;0, IF(F65&lt;25, 30, IF(F65&gt;75, 10, (1-(F65-25)/(75-25))*20+10)), 0)</f>
-        <v>26.905199999999997</v>
+        <v>10</v>
       </c>
       <c r="H65" s="12">
         <f>B65+C65+E65+G65</f>
-        <v>85.905199999999994</v>
+        <v>65</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="7">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9989</v>
+        <v>110</v>
+      </c>
+      <c r="B66" s="2">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9997</v>
       </c>
       <c r="E66" s="15">
         <f>IF(D66/10000*30&gt;=29.7, 30,D66/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F66" s="5">
-        <v>16.928000000000001</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="G66" s="11">
         <f>IF(F66&gt;0, IF(F66&lt;25, 30, IF(F66&gt;75, 10, (1-(F66-25)/(75-25))*20+10)), 0)</f>
@@ -4634,209 +4684,210 @@
       </c>
       <c r="H66" s="12">
         <f>B66+C66+E66+G66</f>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="7">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="B67" s="2">
+        <v>16</v>
       </c>
       <c r="C67" s="2">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1">
-        <v>9996</v>
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
+        <v>9981</v>
       </c>
       <c r="E67" s="15">
         <f>IF(D67/10000*30&gt;=29.7, 30,D67/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>22.751999999999999</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G67" s="11">
         <f>IF(F67&gt;0, IF(F67&lt;25, 30, IF(F67&gt;75, 10, (1-(F67-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H67" s="12">
         <f>B67+C67+E67+G67</f>
-        <v>88</v>
+        <v>78.141999999999996</v>
       </c>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B68" s="7">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1">
-        <v>9809</v>
-      </c>
-      <c r="E68" s="15">
-        <f>IF(D68/10000*30&gt;=29.7, 30,D68/10000*30)</f>
-        <v>29.427</v>
-      </c>
-      <c r="F68" s="5">
-        <v>16.161000000000001</v>
-      </c>
-      <c r="G68" s="11">
+        <v>18</v>
+      </c>
+      <c r="C68" s="7">
+        <v>8</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
         <f>IF(F68&gt;0, IF(F68&lt;25, 30, IF(F68&gt;75, 10, (1-(F68-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H68" s="12">
         <f>B68+C68+E68+G68</f>
-        <v>99.426999999999992</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2">
-        <v>9998</v>
+        <v>9989</v>
       </c>
       <c r="E69" s="15">
         <f>IF(D69/10000*30&gt;=29.7, 30,D69/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F69" s="5">
-        <v>6.4329999999999998</v>
+        <v>245.38</v>
       </c>
       <c r="G69" s="11">
         <f>IF(F69&gt;0, IF(F69&lt;25, 30, IF(F69&gt;75, 10, (1-(F69-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H69" s="12">
         <f>B69+C69+E69+G69</f>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B70" s="7">
-        <v>28</v>
-      </c>
-      <c r="C70" s="1">
+        <v>18</v>
+      </c>
+      <c r="C70" s="2">
         <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>9990</v>
+        <v>9996</v>
       </c>
       <c r="E70" s="15">
         <f>IF(D70/10000*30&gt;=29.7, 30,D70/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F70" s="5">
-        <v>39.073</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="G70" s="11">
         <f>IF(F70&gt;0, IF(F70&lt;25, 30, IF(F70&gt;75, 10, (1-(F70-25)/(75-25))*20+10)), 0)</f>
-        <v>24.370799999999999</v>
+        <v>30</v>
       </c>
       <c r="H70" s="12">
         <f>B70+C70+E70+G70</f>
-        <v>92.370800000000003</v>
+        <v>88</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="2">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2">
-        <v>9989</v>
+        <v>64</v>
+      </c>
+      <c r="B71" s="7">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>9385</v>
       </c>
       <c r="E71" s="15">
         <f>IF(D71/10000*30&gt;=29.7, 30,D71/10000*30)</f>
-        <v>30</v>
+        <v>28.155000000000001</v>
       </c>
       <c r="F71" s="5">
-        <v>14.784000000000001</v>
+        <v>26.401</v>
       </c>
       <c r="G71" s="11">
         <f>IF(F71&gt;0, IF(F71&lt;25, 30, IF(F71&gt;75, 10, (1-(F71-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.439599999999999</v>
       </c>
       <c r="H71" s="12">
         <f>B71+C71+E71+G71</f>
-        <v>95</v>
+        <v>89.5946</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="7">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1">
-        <v>9994</v>
+        <v>109</v>
+      </c>
+      <c r="B72" s="2">
+        <v>21</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
+        <v>9990</v>
       </c>
       <c r="E72" s="15">
         <f>IF(D72/10000*30&gt;=29.7, 30,D72/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F72" s="5">
-        <v>48.128999999999998</v>
+        <v>24.544</v>
       </c>
       <c r="G72" s="11">
         <f>IF(F72&gt;0, IF(F72&lt;25, 30, IF(F72&gt;75, 10, (1-(F72-25)/(75-25))*20+10)), 0)</f>
-        <v>20.7484</v>
+        <v>30</v>
       </c>
       <c r="H72" s="12">
         <f>B72+C72+E72+G72</f>
-        <v>60.748400000000004</v>
+        <v>90</v>
       </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B73" s="7">
-        <v>22</v>
-      </c>
-      <c r="C73" s="9">
+        <v>30</v>
+      </c>
+      <c r="C73" s="2">
         <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>9984</v>
+        <v>9982</v>
       </c>
       <c r="E73" s="15">
         <f>IF(D73/10000*30&gt;=29.7, 30,D73/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F73" s="5">
-        <v>16.608000000000001</v>
+        <v>20.096</v>
       </c>
       <c r="G73" s="11">
         <f>IF(F73&gt;0, IF(F73&lt;25, 30, IF(F73&gt;75, 10, (1-(F73-25)/(75-25))*20+10)), 0)</f>
@@ -4844,179 +4895,179 @@
       </c>
       <c r="H73" s="12">
         <f>B73+C73+E73+G73</f>
-        <v>92</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="25" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="1">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B74" s="7">
+        <v>20</v>
       </c>
       <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
-        <v>9988</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="20">
+        <v>9991</v>
       </c>
       <c r="E74" s="15">
-        <f>IF(D74/10000*30&gt;=29.7, 30,D74/10000*30)</f>
-        <v>30</v>
-      </c>
-      <c r="F74" s="5">
-        <v>57.953000000000003</v>
+        <v>30</v>
+      </c>
+      <c r="F74" s="19">
+        <v>16.256</v>
       </c>
       <c r="G74" s="11">
         <f>IF(F74&gt;0, IF(F74&lt;25, 30, IF(F74&gt;75, 10, (1-(F74-25)/(75-25))*20+10)), 0)</f>
-        <v>16.818799999999996</v>
+        <v>30</v>
       </c>
       <c r="H74" s="12">
-        <f>B74+C74+E74+G74</f>
-        <v>83.818799999999996</v>
-      </c>
-      <c r="I74" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1">
       <c r="A75" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="2">
         <v>28</v>
       </c>
-      <c r="B75" s="7">
-        <v>23</v>
-      </c>
-      <c r="C75" s="1">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1">
-        <v>9989</v>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>9990</v>
       </c>
       <c r="E75" s="15">
         <f>IF(D75/10000*30&gt;=29.7, 30,D75/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F75" s="5">
-        <v>42.145000000000003</v>
+        <v>32.031999999999996</v>
       </c>
       <c r="G75" s="11">
         <f>IF(F75&gt;0, IF(F75&lt;25, 30, IF(F75&gt;75, 10, (1-(F75-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>27.187200000000004</v>
       </c>
       <c r="H75" s="12">
         <f>B75+C75+E75+G75</f>
-        <v>86.141999999999996</v>
+        <v>95.187200000000004</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B76" s="7">
         <v>30</v>
       </c>
-      <c r="C76" s="1">
-        <v>10</v>
-      </c>
-      <c r="D76" s="1">
-        <v>9993</v>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="14">
+        <v>9991</v>
       </c>
       <c r="E76" s="15">
         <f>IF(D76/10000*30&gt;=29.7, 30,D76/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F76" s="5">
-        <v>33.984000000000002</v>
+        <v>23.36</v>
       </c>
       <c r="G76" s="11">
         <f>IF(F76&gt;0, IF(F76&lt;25, 30, IF(F76&gt;75, 10, (1-(F76-25)/(75-25))*20+10)), 0)</f>
-        <v>26.406399999999998</v>
+        <v>30</v>
       </c>
       <c r="H76" s="12">
         <f>B76+C76+E76+G76</f>
-        <v>96.406399999999991</v>
+        <v>100</v>
       </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="7">
-        <v>17</v>
-      </c>
-      <c r="C77" s="1">
-        <v>10</v>
-      </c>
-      <c r="D77" s="14">
-        <v>9991</v>
+        <v>113</v>
+      </c>
+      <c r="B77" s="2">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2">
+        <v>9999</v>
       </c>
       <c r="E77" s="15">
-        <v>25</v>
+        <f>IF(D77/10000*30&gt;=29.7, 30,D77/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F77" s="5">
-        <v>47.488999999999997</v>
+        <v>9.8239999999999998</v>
       </c>
       <c r="G77" s="11">
         <f>IF(F77&gt;0, IF(F77&lt;25, 30, IF(F77&gt;75, 10, (1-(F77-25)/(75-25))*20+10)), 0)</f>
-        <v>21.0044</v>
+        <v>30</v>
       </c>
       <c r="H77" s="12">
         <f>B77+C77+E77+G77</f>
-        <v>73.004400000000004</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="7">
-        <v>17</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1">
-        <v>9998</v>
+        <v>84</v>
+      </c>
+      <c r="B78" s="2">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10000</v>
       </c>
       <c r="E78" s="15">
         <f>IF(D78/10000*30&gt;=29.7, 30,D78/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F78" s="5">
-        <v>11.904999999999999</v>
+        <v>36.064</v>
       </c>
       <c r="G78" s="11">
         <f>IF(F78&gt;0, IF(F78&lt;25, 30, IF(F78&gt;75, 10, (1-(F78-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.574399999999997</v>
       </c>
       <c r="H78" s="12">
         <f>B78+C78+E78+G78</f>
-        <v>87</v>
+        <v>79.574399999999997</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B79" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1">
-        <v>9995</v>
+        <v>9981</v>
       </c>
       <c r="E79" s="15">
         <f>IF(D79/10000*30&gt;=29.7, 30,D79/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F79" s="5">
-        <v>667.09</v>
+        <v>273.89</v>
       </c>
       <c r="G79" s="11">
         <f>IF(F79&gt;0, IF(F79&lt;25, 30, IF(F79&gt;75, 10, (1-(F79-25)/(75-25))*20+10)), 0)</f>
@@ -5024,243 +5075,242 @@
       </c>
       <c r="H79" s="12">
         <f>B79+C79+E79+G79</f>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B80" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
       </c>
-      <c r="D80" s="14">
-        <v>0</v>
+      <c r="D80" s="1">
+        <v>9992</v>
       </c>
       <c r="E80" s="15">
         <f>IF(D80/10000*30&gt;=29.7, 30,D80/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>18.753</v>
       </c>
       <c r="G80" s="11">
         <f>IF(F80&gt;0, IF(F80&lt;25, 30, IF(F80&gt;75, 10, (1-(F80-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H80" s="12">
         <f>B80+C80+E80+G80</f>
-        <v>38</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="2">
-        <v>28</v>
-      </c>
-      <c r="C81" s="2">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2">
-        <v>9993</v>
+        <v>62</v>
+      </c>
+      <c r="B81" s="7">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9992</v>
       </c>
       <c r="E81" s="15">
         <f>IF(D81/10000*30&gt;=29.7, 30,D81/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F81" s="5">
-        <v>61.569000000000003</v>
+        <v>15.456</v>
       </c>
       <c r="G81" s="11">
         <f>IF(F81&gt;0, IF(F81&lt;25, 30, IF(F81&gt;75, 10, (1-(F81-25)/(75-25))*20+10)), 0)</f>
-        <v>15.372399999999999</v>
+        <v>30</v>
       </c>
       <c r="H81" s="12">
         <f>B81+C81+E81+G81</f>
-        <v>82.372399999999999</v>
+        <v>97</v>
       </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="2">
-        <v>18</v>
-      </c>
-      <c r="C82" s="2">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2">
-        <v>9989</v>
+        <v>57</v>
+      </c>
+      <c r="B82" s="7">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10</v>
+      </c>
+      <c r="D82" s="14">
+        <v>9990</v>
       </c>
       <c r="E82" s="15">
         <f>IF(D82/10000*30&gt;=29.7, 30,D82/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F82" s="5">
-        <v>133.94999999999999</v>
+        <v>21.696999999999999</v>
       </c>
       <c r="G82" s="11">
         <f>IF(F82&gt;0, IF(F82&lt;25, 30, IF(F82&gt;75, 10, (1-(F82-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H82" s="12">
         <f>B82+C82+E82+G82</f>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="1">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B83" s="7">
+        <v>23</v>
       </c>
       <c r="C83" s="1">
         <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>9987</v>
+        <v>9992</v>
       </c>
       <c r="E83" s="15">
         <f>IF(D83/10000*30&gt;=29.7, 30,D83/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F83" s="5">
-        <v>16.864000000000001</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="G83" s="11">
         <f>IF(F83&gt;0, IF(F83&lt;25, 30, IF(F83&gt;75, 10, (1-(F83-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.484399999999997</v>
       </c>
       <c r="H83" s="12">
         <f>B83+C83+E83+G83</f>
-        <v>100</v>
+        <v>88.484399999999994</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="25" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="2">
-        <v>15</v>
-      </c>
-      <c r="C84" s="2">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+      <c r="D84" s="18">
+        <v>9983</v>
       </c>
       <c r="E84" s="15">
         <f>IF(D84/10000*30&gt;=29.7, 30,D84/10000*30)</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F84" s="19">
+        <v>52.161000000000001</v>
       </c>
       <c r="G84" s="11">
         <f>IF(F84&gt;0, IF(F84&lt;25, 30, IF(F84&gt;75, 10, (1-(F84-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>19.1356</v>
       </c>
       <c r="H84" s="12">
-        <f>B84+C84+E84+G84</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="2">
+        <v>44</v>
+      </c>
+      <c r="B85" s="7">
         <v>19</v>
       </c>
-      <c r="C85" s="2">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2">
-        <v>9994</v>
+      <c r="C85" s="1">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9992</v>
       </c>
       <c r="E85" s="15">
         <f>IF(D85/10000*30&gt;=29.7, 30,D85/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F85" s="5">
-        <v>3.2959999999999998</v>
+        <v>666.16</v>
       </c>
       <c r="G85" s="11">
         <f>IF(F85&gt;0, IF(F85&lt;25, 30, IF(F85&gt;75, 10, (1-(F85-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H85" s="12">
         <f>B85+C85+E85+G85</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="7">
-        <v>8</v>
-      </c>
-      <c r="C86" s="1">
-        <v>5</v>
-      </c>
-      <c r="D86" s="1">
-        <v>9991</v>
+        <v>105</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
       </c>
       <c r="E86" s="15">
         <f>IF(D86/10000*30&gt;=29.7, 30,D86/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F86" s="5">
-        <v>47.713000000000001</v>
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <f>IF(F86&gt;0, IF(F86&lt;25, 30, IF(F86&gt;75, 10, (1-(F86-25)/(75-25))*20+10)), 0)</f>
-        <v>20.9148</v>
+        <v>0</v>
       </c>
       <c r="H86" s="12">
         <f>B86+C86+E86+G86</f>
-        <v>63.9148</v>
-      </c>
-      <c r="I86" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>10000</v>
+        <v>9593</v>
       </c>
       <c r="E87" s="15">
         <f>IF(D87/10000*30&gt;=29.7, 30,D87/10000*30)</f>
-        <v>30</v>
+        <v>28.779</v>
       </c>
       <c r="F87" s="5">
-        <v>24.416</v>
+        <v>10.08</v>
       </c>
       <c r="G87" s="11">
         <f>IF(F87&gt;0, IF(F87&lt;25, 30, IF(F87&gt;75, 10, (1-(F87-25)/(75-25))*20+10)), 0)</f>
@@ -5268,91 +5318,90 @@
       </c>
       <c r="H87" s="12">
         <f>B87+C87+E87+G87</f>
-        <v>96</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2">
-        <v>9991</v>
+        <v>0</v>
       </c>
       <c r="E88" s="15">
         <f>IF(D88/10000*30&gt;=29.7, 30,D88/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>30.367999999999999</v>
+        <v>0</v>
       </c>
       <c r="G88" s="11">
         <f>IF(F88&gt;0, IF(F88&lt;25, 30, IF(F88&gt;75, 10, (1-(F88-25)/(75-25))*20+10)), 0)</f>
-        <v>27.852799999999998</v>
+        <v>0</v>
       </c>
       <c r="H88" s="12">
         <f>B88+C88+E88+G88</f>
-        <v>96.852800000000002</v>
-      </c>
-      <c r="I88" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="2">
-        <v>18</v>
-      </c>
-      <c r="C89" s="2">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B89" s="7">
+        <v>19</v>
+      </c>
+      <c r="C89" s="9">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9972</v>
       </c>
       <c r="E89" s="15">
         <f>IF(D89/10000*30&gt;=29.7, 30,D89/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>29.888999999999999</v>
       </c>
       <c r="G89" s="11">
         <f>IF(F89&gt;0, IF(F89&lt;25, 30, IF(F89&gt;75, 10, (1-(F89-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>28.0444</v>
       </c>
       <c r="H89" s="12">
         <f>B89+C89+E89+G89</f>
-        <v>28</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>1</v>
+        <v>87.044399999999996</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" s="2">
-        <v>16</v>
-      </c>
-      <c r="C90" s="2">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2">
-        <v>9990</v>
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+      <c r="C90" s="1">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9987</v>
       </c>
       <c r="E90" s="15">
         <f>IF(D90/10000*30&gt;=29.7, 30,D90/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F90" s="5">
-        <v>15.135999999999999</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="G90" s="11">
         <f>IF(F90&gt;0, IF(F90&lt;25, 30, IF(F90&gt;75, 10, (1-(F90-25)/(75-25))*20+10)), 0)</f>
@@ -5360,79 +5409,80 @@
       </c>
       <c r="H90" s="12">
         <f>B90+C90+E90+G90</f>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B91" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>9990</v>
+        <v>9985</v>
       </c>
       <c r="E91" s="15">
         <f>IF(D91/10000*30&gt;=29.7, 30,D91/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F91" s="5">
-        <v>14.945</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="G91" s="11">
         <f>IF(F91&gt;0, IF(F91&lt;25, 30, IF(F91&gt;75, 10, (1-(F91-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.831600000000002</v>
       </c>
       <c r="H91" s="12">
         <f>B91+C91+E91+G91</f>
-        <v>100</v>
+        <v>84.831600000000009</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="7">
-        <v>26</v>
-      </c>
-      <c r="C92" s="1">
-        <v>10</v>
-      </c>
-      <c r="D92" s="1">
-        <v>100</v>
-      </c>
-      <c r="E92" s="15">
+        <v>145</v>
+      </c>
+      <c r="B92" s="21">
+        <v>10</v>
+      </c>
+      <c r="C92" s="21">
+        <v>8</v>
+      </c>
+      <c r="D92" s="21">
+        <v>9994</v>
+      </c>
+      <c r="E92" s="22">
         <f>IF(D92/10000*30&gt;=29.7, 30,D92/10000*30)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F92" s="5">
-        <v>25.440999999999999</v>
-      </c>
-      <c r="G92" s="11">
+        <v>30</v>
+      </c>
+      <c r="F92" s="23">
+        <v>52.640999999999998</v>
+      </c>
+      <c r="G92" s="24">
         <f>IF(F92&gt;0, IF(F92&lt;25, 30, IF(F92&gt;75, 10, (1-(F92-25)/(75-25))*20+10)), 0)</f>
-        <v>29.823600000000003</v>
-      </c>
-      <c r="H92" s="12">
-        <f>B92+C92+E92+G92</f>
-        <v>66.123599999999996</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>18.9436</v>
+      </c>
+      <c r="H92" s="25">
+        <v>62</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B93" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C93" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2">
         <v>9994</v>
@@ -5442,132 +5492,127 @@
         <v>30</v>
       </c>
       <c r="F93" s="5">
-        <v>26.113</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="G93" s="11">
         <f>IF(F93&gt;0, IF(F93&lt;25, 30, IF(F93&gt;75, 10, (1-(F93-25)/(75-25))*20+10)), 0)</f>
-        <v>29.5548</v>
+        <v>30</v>
       </c>
       <c r="H93" s="12">
-        <v>77</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>138</v>
-      </c>
+        <f>B93+C93+E93+G93</f>
+        <v>88</v>
+      </c>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" s="7">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2">
         <v>28</v>
       </c>
       <c r="C94" s="2">
         <v>10</v>
       </c>
-      <c r="D94" s="14">
-        <v>0</v>
+      <c r="D94" s="2">
+        <v>9988</v>
       </c>
       <c r="E94" s="15">
         <f>IF(D94/10000*30&gt;=29.7, 30,D94/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F94" s="5">
-        <v>0</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G94" s="11">
         <f>IF(F94&gt;0, IF(F94&lt;25, 30, IF(F94&gt;75, 10, (1-(F94-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>24.921199999999999</v>
       </c>
       <c r="H94" s="12">
         <f>B94+C94+E94+G94</f>
-        <v>38</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>92.921199999999999</v>
+      </c>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="2">
-        <v>28</v>
-      </c>
-      <c r="C95" s="2">
-        <v>10</v>
-      </c>
-      <c r="D95" s="2">
-        <v>9988</v>
+        <v>49</v>
+      </c>
+      <c r="B95" s="7">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>9784</v>
       </c>
       <c r="E95" s="15">
         <f>IF(D95/10000*30&gt;=29.7, 30,D95/10000*30)</f>
-        <v>30</v>
+        <v>29.352</v>
       </c>
       <c r="F95" s="5">
-        <v>37.697000000000003</v>
+        <v>23.36</v>
       </c>
       <c r="G95" s="11">
         <f>IF(F95&gt;0, IF(F95&lt;25, 30, IF(F95&gt;75, 10, (1-(F95-25)/(75-25))*20+10)), 0)</f>
-        <v>24.921199999999999</v>
+        <v>30</v>
       </c>
       <c r="H95" s="12">
         <f>B95+C95+E95+G95</f>
-        <v>92.921199999999999</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="2">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2">
+        <v>51</v>
+      </c>
+      <c r="B96" s="7">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1">
         <v>8</v>
       </c>
-      <c r="D96" s="2">
-        <v>0</v>
+      <c r="D96" s="1">
+        <v>9987</v>
       </c>
       <c r="E96" s="15">
         <f>IF(D96/10000*30&gt;=29.7, 30,D96/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>120.07</v>
       </c>
       <c r="G96" s="11">
         <f>IF(F96&gt;0, IF(F96&lt;25, 30, IF(F96&gt;75, 10, (1-(F96-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H96" s="12">
         <f>B96+C96+E96+G96</f>
-        <v>17</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B97" s="7">
-        <v>19</v>
-      </c>
-      <c r="C97" s="9">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C97" s="1">
+        <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>9988</v>
+        <v>9995</v>
       </c>
       <c r="E97" s="15">
         <f>IF(D97/10000*30&gt;=29.7, 30,D97/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F97" s="5">
-        <v>1.1431</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G97" s="11">
         <f>IF(F97&gt;0, IF(F97&lt;25, 30, IF(F97&gt;75, 10, (1-(F97-25)/(75-25))*20+10)), 0)</f>
@@ -5575,88 +5620,89 @@
       </c>
       <c r="H97" s="12">
         <f>B97+C97+E97+G97</f>
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>9981</v>
+        <v>9986</v>
       </c>
       <c r="E98" s="15">
         <f>IF(D98/10000*30&gt;=29.7, 30,D98/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F98" s="5">
-        <v>42.145000000000003</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="G98" s="11">
         <f>IF(F98&gt;0, IF(F98&lt;25, 30, IF(F98&gt;75, 10, (1-(F98-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>17.701999999999998</v>
       </c>
       <c r="H98" s="12">
         <f>B98+C98+E98+G98</f>
-        <v>78.141999999999996</v>
+        <v>74.701999999999998</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2">
-        <v>6641</v>
+        <v>9999</v>
       </c>
       <c r="E99" s="15">
         <f>IF(D99/10000*30&gt;=29.7, 30,D99/10000*30)</f>
-        <v>19.923000000000002</v>
+        <v>30</v>
       </c>
       <c r="F99" s="5">
-        <v>16.128</v>
+        <v>198.27</v>
       </c>
       <c r="G99" s="11">
         <f>IF(F99&gt;0, IF(F99&lt;25, 30, IF(F99&gt;75, 10, (1-(F99-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H99" s="12">
         <f>B99+C99+E99+G99</f>
-        <v>77.923000000000002</v>
+        <v>65</v>
       </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="7">
-        <v>24</v>
-      </c>
-      <c r="C100" s="1">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1">
-        <v>9989</v>
+        <v>95</v>
+      </c>
+      <c r="B100" s="2">
+        <v>23</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2">
+        <v>9994</v>
       </c>
       <c r="E100" s="15">
         <f>IF(D100/10000*30&gt;=29.7, 30,D100/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F100" s="5">
-        <v>19.841000000000001</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="G100" s="11">
         <f>IF(F100&gt;0, IF(F100&lt;25, 30, IF(F100&gt;75, 10, (1-(F100-25)/(75-25))*20+10)), 0)</f>
@@ -5664,178 +5710,181 @@
       </c>
       <c r="H100" s="12">
         <f>B100+C100+E100+G100</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="7">
-        <v>28</v>
-      </c>
-      <c r="C101" s="9">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1">
-        <v>9987</v>
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>9992</v>
       </c>
       <c r="E101" s="15">
         <f>IF(D101/10000*30&gt;=29.7, 30,D101/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F101" s="5">
-        <v>35.616</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="G101" s="11">
         <f>IF(F101&gt;0, IF(F101&lt;25, 30, IF(F101&gt;75, 10, (1-(F101-25)/(75-25))*20+10)), 0)</f>
-        <v>25.753599999999999</v>
+        <v>20.761600000000001</v>
       </c>
       <c r="H101" s="12">
         <f>B101+C101+E101+G101</f>
-        <v>93.753600000000006</v>
-      </c>
+        <v>68.761600000000001</v>
+      </c>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="1">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="B102" s="7">
+        <v>20</v>
       </c>
       <c r="C102" s="1">
         <v>10</v>
       </c>
-      <c r="D102" s="1">
-        <v>9993</v>
+      <c r="D102" s="14">
+        <v>0</v>
       </c>
       <c r="E102" s="15">
         <f>IF(D102/10000*30&gt;=29.7, 30,D102/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F102" s="5">
-        <v>18.369</v>
+        <v>0</v>
       </c>
       <c r="G102" s="11">
         <f>IF(F102&gt;0, IF(F102&lt;25, 30, IF(F102&gt;75, 10, (1-(F102-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H102" s="12">
         <f>B102+C102+E102+G102</f>
-        <v>100</v>
-      </c>
-      <c r="I102" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="7">
-        <v>20</v>
-      </c>
-      <c r="C103" s="1">
-        <v>10</v>
-      </c>
-      <c r="D103" s="14">
-        <v>10000</v>
+        <v>93</v>
+      </c>
+      <c r="B103" s="2">
+        <v>25</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10</v>
+      </c>
+      <c r="D103" s="2">
+        <v>9991</v>
       </c>
       <c r="E103" s="15">
         <f>IF(D103/10000*30&gt;=29.7, 30,D103/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F103" s="5">
-        <v>755.91</v>
+        <v>21.600999999999999</v>
       </c>
       <c r="G103" s="11">
         <f>IF(F103&gt;0, IF(F103&lt;25, 30, IF(F103&gt;75, 10, (1-(F103-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H103" s="12">
         <f>B103+C103+E103+G103</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C104" s="2">
         <v>10</v>
       </c>
       <c r="D104" s="2">
-        <v>9957</v>
+        <v>9990</v>
       </c>
       <c r="E104" s="15">
         <f>IF(D104/10000*30&gt;=29.7, 30,D104/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F104" s="5">
-        <v>67.584999999999994</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="G104" s="11">
         <f>IF(F104&gt;0, IF(F104&lt;25, 30, IF(F104&gt;75, 10, (1-(F104-25)/(75-25))*20+10)), 0)</f>
-        <v>12.966000000000001</v>
+        <v>30</v>
       </c>
       <c r="H104" s="12">
         <f>B104+C104+E104+G104</f>
-        <v>62.966000000000001</v>
+        <v>86</v>
       </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2">
-        <v>9989</v>
+        <v>9997</v>
       </c>
       <c r="E105" s="15">
         <f>IF(D105/10000*30&gt;=29.7, 30,D105/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F105" s="5">
-        <v>148.26</v>
+        <v>64.384</v>
       </c>
       <c r="G105" s="11">
         <f>IF(F105&gt;0, IF(F105&lt;25, 30, IF(F105&gt;75, 10, (1-(F105-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>14.2464</v>
       </c>
       <c r="H105" s="12">
         <f>B105+C105+E105+G105</f>
-        <v>65</v>
+        <v>69.246399999999994</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B106" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1">
         <v>10</v>
       </c>
       <c r="D106" s="1">
-        <v>9992</v>
+        <v>9993</v>
       </c>
       <c r="E106" s="15">
         <f>IF(D106/10000*30&gt;=29.7, 30,D106/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F106" s="5">
-        <v>21.44</v>
+        <v>18.369</v>
       </c>
       <c r="G106" s="11">
         <f>IF(F106&gt;0, IF(F106&lt;25, 30, IF(F106&gt;75, 10, (1-(F106-25)/(75-25))*20+10)), 0)</f>
@@ -5843,29 +5892,29 @@
       </c>
       <c r="H106" s="12">
         <f>B106+C106+E106+G106</f>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B107" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C107" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
-        <v>9992</v>
+        <v>9994</v>
       </c>
       <c r="E107" s="15">
         <f>IF(D107/10000*30&gt;=29.7, 30,D107/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F107" s="5">
-        <v>15.456</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="G107" s="11">
         <f>IF(F107&gt;0, IF(F107&lt;25, 30, IF(F107&gt;75, 10, (1-(F107-25)/(75-25))*20+10)), 0)</f>
@@ -5873,59 +5922,59 @@
       </c>
       <c r="H107" s="12">
         <f>B107+C107+E107+G107</f>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="2">
-        <v>23</v>
-      </c>
-      <c r="C108" s="2">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2">
-        <v>9593</v>
+        <v>26</v>
+      </c>
+      <c r="B108" s="7">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9993</v>
       </c>
       <c r="E108" s="15">
         <f>IF(D108/10000*30&gt;=29.7, 30,D108/10000*30)</f>
-        <v>28.779</v>
+        <v>30</v>
       </c>
       <c r="F108" s="5">
-        <v>10.08</v>
+        <v>33.984000000000002</v>
       </c>
       <c r="G108" s="11">
         <f>IF(F108&gt;0, IF(F108&lt;25, 30, IF(F108&gt;75, 10, (1-(F108-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>26.406399999999998</v>
       </c>
       <c r="H108" s="12">
         <f>B108+C108+E108+G108</f>
-        <v>90.778999999999996</v>
+        <v>96.406399999999991</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B109" s="2">
-        <v>23</v>
-      </c>
-      <c r="C109" s="2">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2">
-        <v>9994</v>
+        <v>59</v>
+      </c>
+      <c r="B109" s="7">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9998</v>
       </c>
       <c r="E109" s="15">
         <f>IF(D109/10000*30&gt;=29.7, 30,D109/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F109" s="5">
-        <v>16.576000000000001</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="G109" s="11">
         <f>IF(F109&gt;0, IF(F109&lt;25, 30, IF(F109&gt;75, 10, (1-(F109-25)/(75-25))*20+10)), 0)</f>
@@ -5933,59 +5982,60 @@
       </c>
       <c r="H109" s="12">
         <f>B109+C109+E109+G109</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="2">
-        <v>24</v>
-      </c>
-      <c r="C110" s="2">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2">
-        <v>9992</v>
+        <v>43</v>
+      </c>
+      <c r="B110" s="7">
+        <v>18</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10</v>
+      </c>
+      <c r="D110" s="14">
+        <v>9995</v>
       </c>
       <c r="E110" s="15">
         <f>IF(D110/10000*30&gt;=29.7, 30,D110/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F110" s="5">
-        <v>25.888000000000002</v>
+        <v>92.45</v>
       </c>
       <c r="G110" s="11">
         <f>IF(F110&gt;0, IF(F110&lt;25, 30, IF(F110&gt;75, 10, (1-(F110-25)/(75-25))*20+10)), 0)</f>
-        <v>29.6448</v>
+        <v>10</v>
       </c>
       <c r="H110" s="12">
-        <f>B110+C110+E110+G110</f>
-        <v>93.644800000000004</v>
-      </c>
-      <c r="I110" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2">
         <v>9</v>
       </c>
       <c r="D111" s="2">
-        <v>9988</v>
+        <v>9998</v>
       </c>
       <c r="E111" s="15">
         <f>IF(D111/10000*30&gt;=29.7, 30,D111/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F111" s="5">
-        <v>23.744</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G111" s="11">
         <f>IF(F111&gt;0, IF(F111&lt;25, 30, IF(F111&gt;75, 10, (1-(F111-25)/(75-25))*20+10)), 0)</f>
@@ -5993,201 +6043,268 @@
       </c>
       <c r="H111" s="12">
         <f>B111+C111+E111+G111</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B112" s="7">
-        <v>20</v>
-      </c>
-      <c r="C112" s="1">
-        <v>10</v>
-      </c>
-      <c r="D112" s="14">
-        <v>9990</v>
+        <v>28</v>
+      </c>
+      <c r="C112" s="9">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1">
+        <v>9987</v>
       </c>
       <c r="E112" s="15">
         <f>IF(D112/10000*30&gt;=29.7, 30,D112/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F112" s="5">
-        <v>21.696999999999999</v>
+        <v>35.616</v>
       </c>
       <c r="G112" s="11">
         <f>IF(F112&gt;0, IF(F112&lt;25, 30, IF(F112&gt;75, 10, (1-(F112-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.753599999999999</v>
       </c>
       <c r="H112" s="12">
         <f>B112+C112+E112+G112</f>
-        <v>90</v>
-      </c>
-      <c r="I112" s="6"/>
+        <v>93.753600000000006</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B113" s="2">
-        <v>12</v>
-      </c>
-      <c r="C113" s="2">
-        <v>10</v>
-      </c>
-      <c r="D113" s="2">
-        <v>9992</v>
+        <v>19</v>
+      </c>
+      <c r="B113" s="1">
+        <v>27</v>
+      </c>
+      <c r="C113" s="1">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9988</v>
       </c>
       <c r="E113" s="15">
         <f>IF(D113/10000*30&gt;=29.7, 30,D113/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F113" s="5">
-        <v>20.288</v>
+        <v>57.953000000000003</v>
       </c>
       <c r="G113" s="11">
         <f>IF(F113&gt;0, IF(F113&lt;25, 30, IF(F113&gt;75, 10, (1-(F113-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.818799999999996</v>
       </c>
       <c r="H113" s="12">
         <f>B113+C113+E113+G113</f>
-        <v>82</v>
+        <v>83.818799999999996</v>
       </c>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="1">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="B114" s="7">
+        <v>22</v>
       </c>
       <c r="C114" s="1">
         <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>9995</v>
+        <v>9991</v>
       </c>
       <c r="E114" s="15">
         <f>IF(D114/10000*30&gt;=29.7, 30,D114/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F114" s="5">
-        <v>7.9039999999999999</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="G114" s="11">
         <f>IF(F114&gt;0, IF(F114&lt;25, 30, IF(F114&gt;75, 10, (1-(F114-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H114" s="12">
         <f>B114+C114+E114+G114</f>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="7">
-        <v>19</v>
-      </c>
-      <c r="C115" s="1">
-        <v>10</v>
-      </c>
-      <c r="D115" s="1">
-        <v>9992</v>
+        <v>87</v>
+      </c>
+      <c r="B115" s="2">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10</v>
+      </c>
+      <c r="D115" s="2">
+        <v>9955</v>
       </c>
       <c r="E115" s="15">
         <f>IF(D115/10000*30&gt;=29.7, 30,D115/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F115" s="5">
-        <v>666.16</v>
+        <v>56.512999999999998</v>
       </c>
       <c r="G115" s="11">
         <f>IF(F115&gt;0, IF(F115&lt;25, 30, IF(F115&gt;75, 10, (1-(F115-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>17.394800000000004</v>
       </c>
       <c r="H115" s="12">
         <f>B115+C115+E115+G115</f>
-        <v>69</v>
+        <v>72.394800000000004</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="25" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B116" s="7">
-        <v>26</v>
-      </c>
-      <c r="C116" s="1">
-        <v>10</v>
-      </c>
-      <c r="D116" s="1">
-        <v>9996</v>
+        <v>96</v>
+      </c>
+      <c r="B116" s="2">
+        <v>21</v>
+      </c>
+      <c r="C116" s="2">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2">
+        <v>9987</v>
       </c>
       <c r="E116" s="15">
         <f>IF(D116/10000*30&gt;=29.7, 30,D116/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F116" s="5">
-        <v>17.920999999999999</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G116" s="11">
-        <v>25</v>
+        <f>IF(F116&gt;0, IF(F116&lt;25, 30, IF(F116&gt;75, 10, (1-(F116-25)/(75-25))*20+10)), 0)</f>
+        <v>20.223599999999998</v>
       </c>
       <c r="H116" s="12">
         <f>B116+C116+E116+G116</f>
-        <v>91</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>80.223600000000005</v>
+      </c>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="25" customHeight="1">
+      <c r="A117" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117" s="2">
+        <v>28</v>
+      </c>
+      <c r="C117" s="2">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
+        <v>9993</v>
+      </c>
+      <c r="E117" s="15">
+        <f>IF(D117/10000*30&gt;=29.7, 30,D117/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F117" s="5">
+        <v>61.569000000000003</v>
+      </c>
+      <c r="G117" s="11">
+        <f>IF(F117&gt;0, IF(F117&lt;25, 30, IF(F117&gt;75, 10, (1-(F117-25)/(75-25))*20+10)), 0)</f>
+        <v>15.372399999999999</v>
+      </c>
+      <c r="H117" s="12">
+        <f>B117+C117+E117+G117</f>
+        <v>82.372399999999999</v>
+      </c>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1">
-      <c r="E118" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" s="10">
-        <f>AVERAGE(F2:F116)</f>
-        <v>63.167513913043486</v>
-      </c>
+      <c r="A118" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="2">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2">
+        <v>9992</v>
+      </c>
+      <c r="E118" s="15">
+        <f>IF(D118/10000*30&gt;=29.7, 30,D118/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F118" s="5">
+        <v>20.288</v>
+      </c>
+      <c r="G118" s="11">
+        <f>IF(F118&gt;0, IF(F118&lt;25, 30, IF(F118&gt;75, 10, (1-(F118-25)/(75-25))*20+10)), 0)</f>
+        <v>30</v>
+      </c>
+      <c r="H118" s="12">
+        <f>B118+C118+E118+G118</f>
+        <v>82</v>
+      </c>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="25" customHeight="1">
-      <c r="E119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" s="10">
-        <v>30</v>
-      </c>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:9" ht="25" customHeight="1">
       <c r="E120" s="2" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="F120" s="10">
-        <v>10</v>
+        <f>AVERAGE(F2:F117)</f>
+        <v>62.961181896551722</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1">
       <c r="E121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="25" customHeight="1">
+      <c r="E122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="25" customHeight="1">
+      <c r="E123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F123" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Supplements/homework-02-final-grade.xlsx
+++ b/Supplements/homework-02-final-grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC36AAA-9702-5640-9433-8E83AE616DD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED681A-9DD0-1A48-9A33-6A03EE7CF337}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1980" windowWidth="29040" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="1740" windowWidth="29040" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - hw2-grade-william" sheetId="1" r:id="rId1"/>
@@ -2569,7 +2569,7 @@
   <dimension ref="A1:IW123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -2620,31 +2620,31 @@
     </row>
     <row r="2" spans="1:257" ht="25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>9957</v>
+        <v>9988</v>
       </c>
       <c r="E2" s="15">
         <f>IF(D2/10000*30&gt;=29.7, 30,D2/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F2" s="5">
-        <v>67.584999999999994</v>
+        <v>153.41</v>
       </c>
       <c r="G2" s="11">
         <f>IF(F2&gt;0, IF(F2&lt;25, 30, IF(F2&gt;75, 10, (1-(F2-25)/(75-25))*20+10)), 0)</f>
-        <v>12.966000000000001</v>
+        <v>10</v>
       </c>
       <c r="H2" s="12">
         <f>B2+C2+E2+G2</f>
-        <v>62.966000000000001</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6"/>
       <c r="IV2" s="3"/>
@@ -2652,23 +2652,23 @@
     </row>
     <row r="3" spans="1:257" ht="25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>9809</v>
+        <v>9940</v>
       </c>
       <c r="E3" s="15">
         <f>IF(D3/10000*30&gt;=29.7, 30,D3/10000*30)</f>
-        <v>29.427</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5">
-        <v>16.161000000000001</v>
+        <v>19.488</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;0, IF(F3&lt;25, 30, IF(F3&gt;75, 10, (1-(F3-25)/(75-25))*20+10)), 0)</f>
@@ -2676,31 +2676,30 @@
       </c>
       <c r="H3" s="12">
         <f>B3+C3+E3+G3</f>
-        <v>99.426999999999992</v>
-      </c>
-      <c r="I3" s="6"/>
+        <v>80</v>
+      </c>
       <c r="IV3" s="3"/>
       <c r="IW3" s="3"/>
     </row>
     <row r="4" spans="1:257" ht="25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>9988</v>
+        <v>6641</v>
       </c>
       <c r="E4" s="15">
         <f>IF(D4/10000*30&gt;=29.7, 30,D4/10000*30)</f>
-        <v>30</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="F4" s="5">
-        <v>23.744</v>
+        <v>16.128</v>
       </c>
       <c r="G4" s="11">
         <f>IF(F4&gt;0, IF(F4&lt;25, 30, IF(F4&gt;75, 10, (1-(F4-25)/(75-25))*20+10)), 0)</f>
@@ -2708,7 +2707,7 @@
       </c>
       <c r="H4" s="12">
         <f>B4+C4+E4+G4</f>
-        <v>95</v>
+        <v>77.923000000000002</v>
       </c>
       <c r="I4" s="6"/>
       <c r="IV4" s="3"/>
@@ -2716,15 +2715,15 @@
     </row>
     <row r="5" spans="1:257" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
         <v>9992</v>
       </c>
       <c r="E5" s="15">
@@ -2732,15 +2731,15 @@
         <v>30</v>
       </c>
       <c r="F5" s="5">
-        <v>36.993000000000002</v>
+        <v>32.737000000000002</v>
       </c>
       <c r="G5" s="11">
         <f>IF(F5&gt;0, IF(F5&lt;25, 30, IF(F5&gt;75, 10, (1-(F5-25)/(75-25))*20+10)), 0)</f>
-        <v>25.202799999999996</v>
+        <v>26.905199999999997</v>
       </c>
       <c r="H5" s="12">
         <f>B5+C5+E5+G5</f>
-        <v>87.202799999999996</v>
+        <v>85.905199999999994</v>
       </c>
       <c r="I5" s="6"/>
       <c r="IV5" s="3"/>
@@ -2780,63 +2779,65 @@
     </row>
     <row r="7" spans="1:257" ht="25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>9992</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <f>IF(D7/10000*30&gt;=29.7, 30,D7/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>57.249000000000002</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11">
         <f>IF(F7&gt;0, IF(F7&lt;25, 30, IF(F7&gt;75, 10, (1-(F7-25)/(75-25))*20+10)), 0)</f>
-        <v>17.1004</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <f>B7+C7+E7+G7</f>
-        <v>82.100400000000008</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="IV7" s="3"/>
       <c r="IW7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>9992</v>
+        <v>9989</v>
       </c>
       <c r="E8" s="15">
         <f>IF(D8/10000*30&gt;=29.7, 30,D8/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>61.664000000000001</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="G8" s="11">
         <f>IF(F8&gt;0, IF(F8&lt;25, 30, IF(F8&gt;75, 10, (1-(F8-25)/(75-25))*20+10)), 0)</f>
-        <v>15.334399999999999</v>
+        <v>10</v>
       </c>
       <c r="H8" s="12">
         <f>B8+C8+E8+G8</f>
-        <v>69.334400000000002</v>
+        <v>65</v>
       </c>
       <c r="I8" s="6"/>
       <c r="IV8" s="3"/>
@@ -2844,31 +2845,31 @@
     </row>
     <row r="9" spans="1:257" ht="25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>9993</v>
+        <v>8803</v>
       </c>
       <c r="E9" s="15">
         <f>IF(D9/10000*30&gt;=29.7, 30,D9/10000*30)</f>
-        <v>30</v>
+        <v>26.408999999999999</v>
       </c>
       <c r="F9" s="5">
-        <v>38.753</v>
+        <v>27.552</v>
       </c>
       <c r="G9" s="11">
         <f>IF(F9&gt;0, IF(F9&lt;25, 30, IF(F9&gt;75, 10, (1-(F9-25)/(75-25))*20+10)), 0)</f>
-        <v>24.498799999999999</v>
+        <v>28.979199999999999</v>
       </c>
       <c r="H9" s="12">
         <f>B9+C9+E9+G9</f>
-        <v>90.498800000000003</v>
+        <v>89.388199999999998</v>
       </c>
       <c r="I9" s="6"/>
       <c r="IV9" s="3"/>
@@ -2876,31 +2877,31 @@
     </row>
     <row r="10" spans="1:257" ht="25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>9990</v>
+        <v>9981</v>
       </c>
       <c r="E10" s="15">
         <f>IF(D10/10000*30&gt;=29.7, 30,D10/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F10" s="5">
-        <v>14.945</v>
+        <v>273.89</v>
       </c>
       <c r="G10" s="11">
         <f>IF(F10&gt;0, IF(F10&lt;25, 30, IF(F10&gt;75, 10, (1-(F10-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H10" s="12">
         <f>B10+C10+E10+G10</f>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6"/>
       <c r="IV10" s="3"/>
@@ -2908,57 +2909,55 @@
     </row>
     <row r="11" spans="1:257" ht="25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9991</v>
       </c>
       <c r="E11" s="15">
         <f>IF(D11/10000*30&gt;=29.7, 30,D11/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>21.600999999999999</v>
       </c>
       <c r="G11" s="11">
         <f>IF(F11&gt;0, IF(F11&lt;25, 30, IF(F11&gt;75, 10, (1-(F11-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12">
         <f>B11+C11+E11+G11</f>
-        <v>18</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I11" s="6"/>
       <c r="IV11" s="3"/>
       <c r="IW11" s="3"/>
     </row>
     <row r="12" spans="1:257" ht="25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9989</v>
+        <v>78</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000</v>
       </c>
       <c r="E12" s="15">
         <f>IF(D12/10000*30&gt;=29.7, 30,D12/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F12" s="5">
-        <v>19.841000000000001</v>
+        <v>24.416</v>
       </c>
       <c r="G12" s="11">
         <f>IF(F12&gt;0, IF(F12&lt;25, 30, IF(F12&gt;75, 10, (1-(F12-25)/(75-25))*20+10)), 0)</f>
@@ -2966,7 +2965,7 @@
       </c>
       <c r="H12" s="12">
         <f>B12+C12+E12+G12</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" s="6"/>
       <c r="IV12" s="3"/>
@@ -2974,31 +2973,31 @@
     </row>
     <row r="13" spans="1:257" ht="25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9994</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9958</v>
       </c>
       <c r="E13" s="15">
         <f>IF(D13/10000*30&gt;=29.7, 30,D13/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>48.128999999999998</v>
+        <v>463.43</v>
       </c>
       <c r="G13" s="11">
         <f>IF(F13&gt;0, IF(F13&lt;25, 30, IF(F13&gt;75, 10, (1-(F13-25)/(75-25))*20+10)), 0)</f>
-        <v>20.7484</v>
+        <v>10</v>
       </c>
       <c r="H13" s="12">
         <f>B13+C13+E13+G13</f>
-        <v>60.748400000000004</v>
+        <v>59</v>
       </c>
       <c r="I13" s="6"/>
       <c r="IV13" s="3"/>
@@ -3006,54 +3005,55 @@
     </row>
     <row r="14" spans="1:257" ht="25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>9989</v>
-      </c>
-      <c r="E14" s="16">
+        <v>9993</v>
+      </c>
+      <c r="E14" s="15">
         <f>IF(D14/10000*30&gt;=29.7, 30,D14/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F14" s="10">
-        <v>14.816000000000001</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14" s="5">
+        <v>38.753</v>
+      </c>
+      <c r="G14" s="11">
         <f>IF(F14&gt;0, IF(F14&lt;25, 30, IF(F14&gt;75, 10, (1-(F14-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.498799999999999</v>
       </c>
       <c r="H14" s="12">
         <f>B14+C14+E14+G14</f>
-        <v>94</v>
-      </c>
+        <v>90.498800000000003</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="IV14" s="3"/>
       <c r="IW14" s="3"/>
     </row>
     <row r="15" spans="1:257" ht="25" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6641</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="7">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9992</v>
       </c>
       <c r="E15" s="15">
         <f>IF(D15/10000*30&gt;=29.7, 30,D15/10000*30)</f>
-        <v>19.923000000000002</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5">
-        <v>16.128</v>
+        <v>18.753</v>
       </c>
       <c r="G15" s="11">
         <f>IF(F15&gt;0, IF(F15&lt;25, 30, IF(F15&gt;75, 10, (1-(F15-25)/(75-25))*20+10)), 0)</f>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H15" s="12">
         <f>B15+C15+E15+G15</f>
-        <v>77.923000000000002</v>
+        <v>94</v>
       </c>
       <c r="I15" s="6"/>
       <c r="IV15" s="3"/>
@@ -3069,64 +3069,63 @@
     </row>
     <row r="16" spans="1:257" ht="25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>9996</v>
+        <v>9988</v>
       </c>
       <c r="E16" s="15">
         <f>IF(D16/10000*30&gt;=29.7, 30,D16/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F16" s="5">
-        <v>17.920999999999999</v>
+        <v>57.953000000000003</v>
       </c>
       <c r="G16" s="11">
-        <v>25</v>
+        <f>IF(F16&gt;0, IF(F16&lt;25, 30, IF(F16&gt;75, 10, (1-(F16-25)/(75-25))*20+10)), 0)</f>
+        <v>16.818799999999996</v>
       </c>
       <c r="H16" s="12">
         <f>B16+C16+E16+G16</f>
-        <v>91</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>83.818799999999996</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="IV16" s="3"/>
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257" ht="25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9991</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9994</v>
       </c>
       <c r="E17" s="15">
         <f>IF(D17/10000*30&gt;=29.7, 30,D17/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F17" s="5">
-        <v>30.367999999999999</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="G17" s="11">
         <f>IF(F17&gt;0, IF(F17&lt;25, 30, IF(F17&gt;75, 10, (1-(F17-25)/(75-25))*20+10)), 0)</f>
-        <v>27.852799999999998</v>
+        <v>30</v>
       </c>
       <c r="H17" s="12">
         <f>B17+C17+E17+G17</f>
-        <v>96.852800000000002</v>
+        <v>88</v>
       </c>
       <c r="I17" s="6"/>
       <c r="IV17" s="3"/>
@@ -3134,23 +3133,23 @@
     </row>
     <row r="18" spans="1:257" ht="25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3419</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9992</v>
       </c>
       <c r="E18" s="15">
         <f>IF(D18/10000*30&gt;=29.7, 30,D18/10000*30)</f>
-        <v>10.257</v>
+        <v>30</v>
       </c>
       <c r="F18" s="5">
-        <v>23.616</v>
+        <v>20.16</v>
       </c>
       <c r="G18" s="11">
         <f>IF(F18&gt;0, IF(F18&lt;25, 30, IF(F18&gt;75, 10, (1-(F18-25)/(75-25))*20+10)), 0)</f>
@@ -3158,137 +3157,134 @@
       </c>
       <c r="H18" s="12">
         <f>B18+C18+E18+G18</f>
-        <v>67.257000000000005</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>95</v>
+      </c>
       <c r="IV18" s="3"/>
       <c r="IW18" s="3"/>
     </row>
     <row r="19" spans="1:257" ht="25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="2">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>9989</v>
+        <v>68</v>
+      </c>
+      <c r="B19" s="7">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9987</v>
       </c>
       <c r="E19" s="15">
         <f>IF(D19/10000*30&gt;=29.7, 30,D19/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>148.26</v>
+        <v>35.616</v>
       </c>
       <c r="G19" s="11">
         <f>IF(F19&gt;0, IF(F19&lt;25, 30, IF(F19&gt;75, 10, (1-(F19-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25.753599999999999</v>
       </c>
       <c r="H19" s="12">
         <f>B19+C19+E19+G19</f>
-        <v>65</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>93.753600000000006</v>
+      </c>
       <c r="IV19" s="3"/>
       <c r="IW19" s="3"/>
     </row>
     <row r="20" spans="1:257" ht="25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D20" s="1">
-        <v>9989</v>
+      <c r="D20" s="14">
+        <v>9991</v>
       </c>
       <c r="E20" s="15">
-        <f>IF(D20/10000*30&gt;=29.7, 30,D20/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5">
-        <v>42.145000000000003</v>
+        <v>47.488999999999997</v>
       </c>
       <c r="G20" s="11">
         <f>IF(F20&gt;0, IF(F20&lt;25, 30, IF(F20&gt;75, 10, (1-(F20-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>21.0044</v>
       </c>
       <c r="H20" s="12">
         <f>B20+C20+E20+G20</f>
-        <v>86.141999999999996</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>73.004400000000004</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="IV20" s="3"/>
       <c r="IW20" s="3"/>
     </row>
     <row r="21" spans="1:257" ht="25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="7">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>7</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10000</v>
       </c>
       <c r="E21" s="15">
         <f>IF(D21/10000*30&gt;=29.7, 30,D21/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="G21" s="11">
         <f>IF(F21&gt;0, IF(F21&lt;25, 30, IF(F21&gt;75, 10, (1-(F21-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>28.825199999999999</v>
       </c>
       <c r="H21" s="12">
         <f>B21+C21+E21+G21</f>
-        <v>22</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>85.825199999999995</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="IV21" s="3"/>
       <c r="IW21" s="3"/>
     </row>
     <row r="22" spans="1:257" ht="25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9989</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="7">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9990</v>
       </c>
       <c r="E22" s="15">
         <f>IF(D22/10000*30&gt;=29.7, 30,D22/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>133.94999999999999</v>
+        <v>39.073</v>
       </c>
       <c r="G22" s="11">
         <f>IF(F22&gt;0, IF(F22&lt;25, 30, IF(F22&gt;75, 10, (1-(F22-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>24.370799999999999</v>
       </c>
       <c r="H22" s="12">
         <f>B22+C22+E22+G22</f>
-        <v>65</v>
+        <v>92.370800000000003</v>
       </c>
       <c r="I22" s="6"/>
       <c r="IV22" s="3"/>
@@ -3296,129 +3292,127 @@
     </row>
     <row r="23" spans="1:257" ht="25" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="7">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>9988</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9990</v>
       </c>
       <c r="E23" s="15">
         <f>IF(D23/10000*30&gt;=29.7, 30,D23/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>1.1431</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="G23" s="11">
         <f>IF(F23&gt;0, IF(F23&lt;25, 30, IF(F23&gt;75, 10, (1-(F23-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.414400000000001</v>
       </c>
       <c r="H23" s="12">
         <f>B23+C23+E23+G23</f>
-        <v>87</v>
-      </c>
+        <v>83.414400000000001</v>
+      </c>
+      <c r="I23" s="6"/>
       <c r="IV23" s="3"/>
       <c r="IW23" s="3"/>
     </row>
     <row r="24" spans="1:257" ht="25" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>9</v>
-      </c>
-      <c r="D24" s="17">
-        <v>10000</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9957</v>
       </c>
       <c r="E24" s="15">
-        <v>25</v>
+        <f>IF(D24/10000*30&gt;=29.7, 30,D24/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F24" s="5">
-        <v>17.376000000000001</v>
+        <v>67.584999999999994</v>
       </c>
       <c r="G24" s="11">
         <f>IF(F24&gt;0, IF(F24&lt;25, 30, IF(F24&gt;75, 10, (1-(F24-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>12.966000000000001</v>
       </c>
       <c r="H24" s="12">
         <f>B24+C24+E24+G24</f>
-        <v>79</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>62.966000000000001</v>
+      </c>
+      <c r="I24" s="6"/>
       <c r="IV24" s="3"/>
       <c r="IW24" s="3"/>
     </row>
     <row r="25" spans="1:257" ht="25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="2">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9994</v>
       </c>
       <c r="E25" s="15">
         <f>IF(D25/10000*30&gt;=29.7, 30,D25/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>48.128999999999998</v>
       </c>
       <c r="G25" s="11">
         <f>IF(F25&gt;0, IF(F25&lt;25, 30, IF(F25&gt;75, 10, (1-(F25-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>20.7484</v>
       </c>
       <c r="H25" s="12">
         <f>B25+C25+E25+G25</f>
-        <v>24</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>60.748400000000004</v>
+      </c>
+      <c r="I25" s="6"/>
       <c r="IV25" s="3"/>
       <c r="IW25" s="3"/>
     </row>
     <row r="26" spans="1:257" ht="25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>9990</v>
+        <v>9991</v>
       </c>
       <c r="E26" s="15">
         <f>IF(D26/10000*30&gt;=29.7, 30,D26/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F26" s="5">
-        <v>335.08</v>
+        <v>30.367999999999999</v>
       </c>
       <c r="G26" s="11">
         <f>IF(F26&gt;0, IF(F26&lt;25, 30, IF(F26&gt;75, 10, (1-(F26-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>27.852799999999998</v>
       </c>
       <c r="H26" s="12">
         <f>B26+C26+E26+G26</f>
-        <v>69</v>
+        <v>96.852800000000002</v>
       </c>
       <c r="I26" s="6"/>
       <c r="IV26" s="3"/>
@@ -3426,62 +3420,63 @@
     </row>
     <row r="27" spans="1:257" ht="25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="7">
-        <v>10</v>
-      </c>
-      <c r="C27" s="9">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>9940</v>
+        <v>124</v>
+      </c>
+      <c r="B27" s="2">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9986</v>
       </c>
       <c r="E27" s="15">
         <f>IF(D27/10000*30&gt;=29.7, 30,D27/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>19.488</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="G27" s="11">
         <f>IF(F27&gt;0, IF(F27&lt;25, 30, IF(F27&gt;75, 10, (1-(F27-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.701999999999998</v>
       </c>
       <c r="H27" s="12">
         <f>B27+C27+E27+G27</f>
-        <v>80</v>
-      </c>
+        <v>74.701999999999998</v>
+      </c>
+      <c r="I27" s="6"/>
       <c r="IV27" s="3"/>
       <c r="IW27" s="3"/>
     </row>
     <row r="28" spans="1:257" ht="25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>10000</v>
+        <v>9593</v>
       </c>
       <c r="E28" s="15">
         <f>IF(D28/10000*30&gt;=29.7, 30,D28/10000*30)</f>
-        <v>30</v>
+        <v>28.779</v>
       </c>
       <c r="F28" s="5">
-        <v>61.024999999999999</v>
+        <v>10.08</v>
       </c>
       <c r="G28" s="11">
         <f>IF(F28&gt;0, IF(F28&lt;25, 30, IF(F28&gt;75, 10, (1-(F28-25)/(75-25))*20+10)), 0)</f>
-        <v>15.590000000000002</v>
+        <v>30</v>
       </c>
       <c r="H28" s="12">
         <f>B28+C28+E28+G28</f>
-        <v>72.59</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="I28" s="6"/>
       <c r="IV28" s="3"/>
@@ -3489,129 +3484,129 @@
     </row>
     <row r="29" spans="1:257" ht="25" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="2">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2">
-        <v>8803</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="7">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9996</v>
       </c>
       <c r="E29" s="15">
         <f>IF(D29/10000*30&gt;=29.7, 30,D29/10000*30)</f>
-        <v>26.408999999999999</v>
+        <v>30</v>
       </c>
       <c r="F29" s="5">
-        <v>27.552</v>
+        <v>17.920999999999999</v>
       </c>
       <c r="G29" s="11">
-        <f>IF(F29&gt;0, IF(F29&lt;25, 30, IF(F29&gt;75, 10, (1-(F29-25)/(75-25))*20+10)), 0)</f>
-        <v>28.979199999999999</v>
+        <v>25</v>
       </c>
       <c r="H29" s="12">
         <f>B29+C29+E29+G29</f>
-        <v>89.388199999999998</v>
-      </c>
-      <c r="I29" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="IV29" s="3"/>
       <c r="IW29" s="3"/>
     </row>
     <row r="30" spans="1:257" ht="25" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="14">
+        <v>10000</v>
       </c>
       <c r="E30" s="15">
         <f>IF(D30/10000*30&gt;=29.7, 30,D30/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>755.91</v>
       </c>
       <c r="G30" s="11">
         <f>IF(F30&gt;0, IF(F30&lt;25, 30, IF(F30&gt;75, 10, (1-(F30-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12">
         <f>B30+C30+E30+G30</f>
-        <v>27</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>142</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I30" s="6"/>
       <c r="IV30" s="3"/>
       <c r="IW30" s="3"/>
     </row>
     <row r="31" spans="1:257" ht="25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>9995</v>
+        <v>9994</v>
       </c>
       <c r="E31" s="15">
         <f>IF(D31/10000*30&gt;=29.7, 30,D31/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F31" s="5">
-        <v>16.32</v>
+        <v>26.113</v>
       </c>
       <c r="G31" s="11">
         <f>IF(F31&gt;0, IF(F31&lt;25, 30, IF(F31&gt;75, 10, (1-(F31-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.5548</v>
       </c>
       <c r="H31" s="12">
-        <f>B31+C31+E31+G31</f>
-        <v>87</v>
-      </c>
-      <c r="I31" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="IV31" s="3"/>
       <c r="IW31" s="3"/>
     </row>
     <row r="32" spans="1:257" ht="25" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>10000</v>
+        <v>9993</v>
       </c>
       <c r="E32" s="15">
         <f>IF(D32/10000*30&gt;=29.7, 30,D32/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>27.937000000000001</v>
+        <v>18.369</v>
       </c>
       <c r="G32" s="11">
         <f>IF(F32&gt;0, IF(F32&lt;25, 30, IF(F32&gt;75, 10, (1-(F32-25)/(75-25))*20+10)), 0)</f>
-        <v>28.825199999999999</v>
+        <v>30</v>
       </c>
       <c r="H32" s="12">
         <f>B32+C32+E32+G32</f>
-        <v>85.825199999999995</v>
+        <v>100</v>
       </c>
       <c r="I32" s="6"/>
       <c r="IV32" s="3"/>
@@ -3619,62 +3614,65 @@
     </row>
     <row r="33" spans="1:257" ht="25" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="7">
-        <v>19</v>
-      </c>
-      <c r="C33" s="9">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9996</v>
+        <v>127</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
       </c>
       <c r="E33" s="15">
         <f>IF(D33/10000*30&gt;=29.7, 30,D33/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>24.928000000000001</v>
+        <v>0</v>
       </c>
       <c r="G33" s="11">
         <f>IF(F33&gt;0, IF(F33&lt;25, 30, IF(F33&gt;75, 10, (1-(F33-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f>B33+C33+E33+G33</f>
-        <v>89</v>
+        <v>17</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="IV33" s="3"/>
       <c r="IW33" s="3"/>
     </row>
     <row r="34" spans="1:257" ht="25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>9995</v>
+        <v>9992</v>
       </c>
       <c r="E34" s="15">
         <f>IF(D34/10000*30&gt;=29.7, 30,D34/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F34" s="5">
-        <v>8.5440000000000005</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;0, IF(F34&lt;25, 30, IF(F34&gt;75, 10, (1-(F34-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.202799999999996</v>
       </c>
       <c r="H34" s="12">
         <f>B34+C34+E34+G34</f>
-        <v>90</v>
+        <v>87.202799999999996</v>
       </c>
       <c r="I34" s="6"/>
       <c r="IV34" s="3"/>
@@ -3682,97 +3680,95 @@
     </row>
     <row r="35" spans="1:257" ht="25" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="7">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1">
-        <v>9999</v>
+        <v>117</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9989</v>
       </c>
       <c r="E35" s="15">
-        <v>25</v>
+        <f>IF(D35/10000*30&gt;=29.7, 30,D35/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F35" s="5">
-        <v>22.463999999999999</v>
+        <v>245.38</v>
       </c>
       <c r="G35" s="11">
         <f>IF(F35&gt;0, IF(F35&lt;25, 30, IF(F35&gt;75, 10, (1-(F35-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H35" s="12">
         <f>B35+C35+E35+G35</f>
-        <v>94</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I35" s="6"/>
       <c r="IV35" s="3"/>
       <c r="IW35" s="3"/>
     </row>
     <row r="36" spans="1:257" ht="25" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B36" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
       </c>
-      <c r="D36" s="14">
-        <v>9991</v>
+      <c r="D36" s="1">
+        <v>9989</v>
       </c>
       <c r="E36" s="15">
-        <v>25</v>
+        <f>IF(D36/10000*30&gt;=29.7, 30,D36/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F36" s="5">
-        <v>47.488999999999997</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G36" s="11">
         <f>IF(F36&gt;0, IF(F36&lt;25, 30, IF(F36&gt;75, 10, (1-(F36-25)/(75-25))*20+10)), 0)</f>
-        <v>21.0044</v>
+        <v>30</v>
       </c>
       <c r="H36" s="12">
         <f>B36+C36+E36+G36</f>
-        <v>73.004400000000004</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I36" s="6"/>
       <c r="IV36" s="3"/>
       <c r="IW36" s="3"/>
     </row>
     <row r="37" spans="1:257" ht="25" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B37" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>9992</v>
       </c>
       <c r="E37" s="15">
         <f>IF(D37/10000*30&gt;=29.7, 30,D37/10000*30)</f>
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="F37" s="5">
-        <v>25.440999999999999</v>
+        <v>15.456</v>
       </c>
       <c r="G37" s="11">
         <f>IF(F37&gt;0, IF(F37&lt;25, 30, IF(F37&gt;75, 10, (1-(F37-25)/(75-25))*20+10)), 0)</f>
-        <v>29.823600000000003</v>
+        <v>30</v>
       </c>
       <c r="H37" s="12">
         <f>B37+C37+E37+G37</f>
-        <v>66.123599999999996</v>
+        <v>95</v>
       </c>
       <c r="I37" s="6"/>
       <c r="IV37" s="3"/>
@@ -3780,31 +3776,31 @@
     </row>
     <row r="38" spans="1:257" ht="25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="7">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2">
         <v>28</v>
       </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <v>9990</v>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9993</v>
       </c>
       <c r="E38" s="15">
         <f>IF(D38/10000*30&gt;=29.7, 30,D38/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F38" s="5">
-        <v>39.073</v>
+        <v>61.569000000000003</v>
       </c>
       <c r="G38" s="11">
         <f>IF(F38&gt;0, IF(F38&lt;25, 30, IF(F38&gt;75, 10, (1-(F38-25)/(75-25))*20+10)), 0)</f>
-        <v>24.370799999999999</v>
+        <v>15.372399999999999</v>
       </c>
       <c r="H38" s="12">
         <f>B38+C38+E38+G38</f>
-        <v>92.370800000000003</v>
+        <v>82.372399999999999</v>
       </c>
       <c r="I38" s="6"/>
       <c r="IV38" s="3"/>
@@ -3812,31 +3808,31 @@
     </row>
     <row r="39" spans="1:257" ht="25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
       </c>
-      <c r="D39" s="14">
-        <v>10000</v>
+      <c r="D39" s="1">
+        <v>404</v>
       </c>
       <c r="E39" s="15">
         <f>IF(D39/10000*30&gt;=29.7, 30,D39/10000*30)</f>
-        <v>30</v>
+        <v>1.212</v>
       </c>
       <c r="F39" s="5">
-        <v>755.91</v>
+        <v>25.440999999999999</v>
       </c>
       <c r="G39" s="11">
         <f>IF(F39&gt;0, IF(F39&lt;25, 30, IF(F39&gt;75, 10, (1-(F39-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>29.823600000000003</v>
       </c>
       <c r="H39" s="12">
         <f>B39+C39+E39+G39</f>
-        <v>70</v>
+        <v>67.035600000000002</v>
       </c>
       <c r="I39" s="6"/>
       <c r="IV39" s="3"/>
@@ -3844,31 +3840,31 @@
     </row>
     <row r="40" spans="1:257" ht="25" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
         <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>9958</v>
+        <v>9981</v>
       </c>
       <c r="E40" s="15">
         <f>IF(D40/10000*30&gt;=29.7, 30,D40/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F40" s="5">
-        <v>463.43</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G40" s="11">
         <f>IF(F40&gt;0, IF(F40&lt;25, 30, IF(F40&gt;75, 10, (1-(F40-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H40" s="12">
         <f>B40+C40+E40+G40</f>
-        <v>59</v>
+        <v>78.141999999999996</v>
       </c>
       <c r="I40" s="6"/>
       <c r="IV40" s="3"/>
@@ -3876,10 +3872,10 @@
     </row>
     <row r="41" spans="1:257" ht="25" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
         <v>10</v>
@@ -3892,15 +3888,15 @@
         <v>30</v>
       </c>
       <c r="F41" s="5">
-        <v>15.456</v>
+        <v>666.16</v>
       </c>
       <c r="G41" s="11">
         <f>IF(F41&gt;0, IF(F41&lt;25, 30, IF(F41&gt;75, 10, (1-(F41-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H41" s="12">
         <f>B41+C41+E41+G41</f>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I41" s="6"/>
       <c r="IV41" s="3"/>
@@ -3908,31 +3904,31 @@
     </row>
     <row r="42" spans="1:257" ht="25" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>9</v>
       </c>
       <c r="D42" s="2">
-        <v>9975</v>
+        <v>9999</v>
       </c>
       <c r="E42" s="15">
         <f>IF(D42/10000*30&gt;=29.7, 30,D42/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F42" s="5">
-        <v>42.369</v>
+        <v>118.91</v>
       </c>
       <c r="G42" s="11">
         <f>IF(F42&gt;0, IF(F42&lt;25, 30, IF(F42&gt;75, 10, (1-(F42-25)/(75-25))*20+10)), 0)</f>
-        <v>23.052399999999999</v>
+        <v>10</v>
       </c>
       <c r="H42" s="12">
         <f>B42+C42+E42+G42</f>
-        <v>82.052400000000006</v>
+        <v>68</v>
       </c>
       <c r="I42" s="6"/>
       <c r="IV42" s="3"/>
@@ -3940,64 +3936,63 @@
     </row>
     <row r="43" spans="1:257" ht="25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B43" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
       </c>
-      <c r="D43" s="20">
-        <v>9979</v>
+      <c r="D43" s="1">
+        <v>9991</v>
       </c>
       <c r="E43" s="15">
         <f>IF(D43/10000*30&gt;=29.7, 30,D43/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F43" s="19">
-        <v>19.969000000000001</v>
+      <c r="F43" s="5">
+        <v>149.83000000000001</v>
       </c>
       <c r="G43" s="11">
         <f>IF(F43&gt;0, IF(F43&lt;25, 30, IF(F43&gt;75, 10, (1-(F43-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H43" s="12">
-        <v>93</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>143</v>
-      </c>
+        <f>B43+C43+E43+G43</f>
+        <v>72</v>
+      </c>
+      <c r="I43" s="6"/>
       <c r="IV43" s="3"/>
       <c r="IW43" s="3"/>
     </row>
     <row r="44" spans="1:257" ht="25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>10000</v>
+        <v>9955</v>
       </c>
       <c r="E44" s="15">
         <f>IF(D44/10000*30&gt;=29.7, 30,D44/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F44" s="5">
-        <v>24.416</v>
+        <v>56.512999999999998</v>
       </c>
       <c r="G44" s="11">
         <f>IF(F44&gt;0, IF(F44&lt;25, 30, IF(F44&gt;75, 10, (1-(F44-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.394800000000004</v>
       </c>
       <c r="H44" s="12">
         <f>B44+C44+E44+G44</f>
-        <v>96</v>
+        <v>72.394800000000004</v>
       </c>
       <c r="I44" s="6"/>
       <c r="IV44" s="3"/>
@@ -4005,63 +4000,64 @@
     </row>
     <row r="45" spans="1:257" ht="25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B45" s="7">
+        <v>28</v>
       </c>
       <c r="C45" s="1">
         <v>10</v>
       </c>
-      <c r="D45" s="1">
-        <v>9995</v>
+      <c r="D45" s="20">
+        <v>9979</v>
       </c>
       <c r="E45" s="15">
         <f>IF(D45/10000*30&gt;=29.7, 30,D45/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F45" s="5">
-        <v>7.9039999999999999</v>
+      <c r="F45" s="19">
+        <v>19.969000000000001</v>
       </c>
       <c r="G45" s="11">
         <f>IF(F45&gt;0, IF(F45&lt;25, 30, IF(F45&gt;75, 10, (1-(F45-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H45" s="12">
-        <f>B45+C45+E45+G45</f>
-        <v>100</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="IV45" s="3"/>
       <c r="IW45" s="3"/>
     </row>
     <row r="46" spans="1:257" ht="25" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B46" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
         <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>9992</v>
+        <v>9995</v>
       </c>
       <c r="E46" s="15">
         <f>IF(D46/10000*30&gt;=29.7, 30,D46/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F46" s="5">
-        <v>32.737000000000002</v>
+        <v>16.32</v>
       </c>
       <c r="G46" s="11">
         <f>IF(F46&gt;0, IF(F46&lt;25, 30, IF(F46&gt;75, 10, (1-(F46-25)/(75-25))*20+10)), 0)</f>
-        <v>26.905199999999997</v>
+        <v>30</v>
       </c>
       <c r="H46" s="12">
         <f>B46+C46+E46+G46</f>
-        <v>85.905199999999994</v>
+        <v>87</v>
       </c>
       <c r="I46" s="6"/>
       <c r="IV46" s="3"/>
@@ -4069,62 +4065,63 @@
     </row>
     <row r="47" spans="1:257" ht="25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B47" s="7">
-        <v>18</v>
-      </c>
-      <c r="C47" s="9">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>9995</v>
+        <v>9989</v>
       </c>
       <c r="E47" s="15">
         <f>IF(D47/10000*30&gt;=29.7, 30,D47/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F47" s="5">
-        <v>36.351999999999997</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G47" s="11">
         <f>IF(F47&gt;0, IF(F47&lt;25, 30, IF(F47&gt;75, 10, (1-(F47-25)/(75-25))*20+10)), 0)</f>
-        <v>25.459200000000003</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H47" s="12">
         <f>B47+C47+E47+G47</f>
-        <v>80.45920000000001</v>
-      </c>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="I47" s="6"/>
       <c r="IV47" s="3"/>
       <c r="IW47" s="3"/>
     </row>
     <row r="48" spans="1:257" ht="25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>9988</v>
+        <v>9994</v>
       </c>
       <c r="E48" s="15">
         <f>IF(D48/10000*30&gt;=29.7, 30,D48/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F48" s="5">
-        <v>153.41</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="G48" s="11">
         <f>IF(F48&gt;0, IF(F48&lt;25, 30, IF(F48&gt;75, 10, (1-(F48-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H48" s="12">
         <f>B48+C48+E48+G48</f>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="I48" s="6"/>
       <c r="IV48" s="3"/>
@@ -4132,63 +4129,62 @@
     </row>
     <row r="49" spans="1:257" ht="25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B49" s="7">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C49" s="9">
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>9991</v>
+        <v>9996</v>
       </c>
       <c r="E49" s="15">
         <f>IF(D49/10000*30&gt;=29.7, 30,D49/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F49" s="5">
-        <v>47.713000000000001</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="G49" s="11">
         <f>IF(F49&gt;0, IF(F49&lt;25, 30, IF(F49&gt;75, 10, (1-(F49-25)/(75-25))*20+10)), 0)</f>
-        <v>20.9148</v>
+        <v>30</v>
       </c>
       <c r="H49" s="12">
         <f>B49+C49+E49+G49</f>
-        <v>63.9148</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>89</v>
+      </c>
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
     <row r="50" spans="1:257" ht="25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="7">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>9985</v>
+        <v>9995</v>
       </c>
       <c r="E50" s="15">
         <f>IF(D50/10000*30&gt;=29.7, 30,D50/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>47.872999999999998</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="G50" s="11">
         <f>IF(F50&gt;0, IF(F50&lt;25, 30, IF(F50&gt;75, 10, (1-(F50-25)/(75-25))*20+10)), 0)</f>
-        <v>20.8508</v>
+        <v>30</v>
       </c>
       <c r="H50" s="12">
         <f>B50+C50+E50+G50</f>
-        <v>65.850799999999992</v>
+        <v>90</v>
       </c>
       <c r="I50" s="6"/>
       <c r="IV50" s="3"/>
@@ -4196,55 +4192,57 @@
     </row>
     <row r="51" spans="1:257" ht="25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="1">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1">
-        <v>9992</v>
+        <v>53</v>
+      </c>
+      <c r="B51" s="7">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
       </c>
       <c r="E51" s="15">
         <f>IF(D51/10000*30&gt;=29.7, 30,D51/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>21.44</v>
+        <v>0</v>
       </c>
       <c r="G51" s="11">
         <f>IF(F51&gt;0, IF(F51&lt;25, 30, IF(F51&gt;75, 10, (1-(F51-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H51" s="12">
         <f>B51+C51+E51+G51</f>
-        <v>88</v>
-      </c>
-      <c r="I51" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="IV51" s="3"/>
       <c r="IW51" s="3"/>
     </row>
     <row r="52" spans="1:257" ht="25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="7">
-        <v>25</v>
-      </c>
-      <c r="C52" s="9">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1">
-        <v>9984</v>
+        <v>101</v>
+      </c>
+      <c r="B52" s="2">
+        <v>26</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
+        <v>9988</v>
       </c>
       <c r="E52" s="15">
         <f>IF(D52/10000*30&gt;=29.7, 30,D52/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F52" s="5">
-        <v>18.975999999999999</v>
+        <v>23.744</v>
       </c>
       <c r="G52" s="11">
         <f>IF(F52&gt;0, IF(F52&lt;25, 30, IF(F52&gt;75, 10, (1-(F52-25)/(75-25))*20+10)), 0)</f>
@@ -4254,20 +4252,21 @@
         <f>B52+C52+E52+G52</f>
         <v>95</v>
       </c>
+      <c r="I52" s="6"/>
       <c r="IV52" s="3"/>
       <c r="IW52" s="3"/>
     </row>
     <row r="53" spans="1:257" ht="25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="2">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
+        <v>74</v>
+      </c>
+      <c r="B53" s="7">
+        <v>17</v>
+      </c>
+      <c r="C53" s="9">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
         <v>9992</v>
       </c>
       <c r="E53" s="15">
@@ -4275,70 +4274,69 @@
         <v>30</v>
       </c>
       <c r="F53" s="5">
-        <v>25.888000000000002</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="G53" s="11">
         <f>IF(F53&gt;0, IF(F53&lt;25, 30, IF(F53&gt;75, 10, (1-(F53-25)/(75-25))*20+10)), 0)</f>
-        <v>29.6448</v>
+        <v>30</v>
       </c>
       <c r="H53" s="12">
         <f>B53+C53+E53+G53</f>
-        <v>93.644800000000004</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>87</v>
+      </c>
       <c r="IV53" s="3"/>
       <c r="IW53" s="3"/>
     </row>
     <row r="54" spans="1:257" ht="25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
       </c>
       <c r="D54" s="2">
-        <v>9993</v>
+        <v>9992</v>
       </c>
       <c r="E54" s="15">
         <f>IF(D54/10000*30&gt;=29.7, 30,D54/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F54" s="5">
-        <v>65.025000000000006</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;0, IF(F54&lt;25, 30, IF(F54&gt;75, 10, (1-(F54-25)/(75-25))*20+10)), 0)</f>
-        <v>13.989999999999998</v>
+        <v>17.1004</v>
       </c>
       <c r="H54" s="12">
         <f>B54+C54+E54+G54</f>
-        <v>74.989999999999995</v>
+        <v>82.100400000000008</v>
       </c>
       <c r="I54" s="6"/>
       <c r="IV54" s="3"/>
     </row>
     <row r="55" spans="1:257" ht="25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="2">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="B55" s="7">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9995</v>
       </c>
       <c r="E55" s="15">
         <f>IF(D55/10000*30&gt;=29.7, 30,D55/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F55" s="5">
-        <v>118.91</v>
+        <v>667.09</v>
       </c>
       <c r="G55" s="11">
         <f>IF(F55&gt;0, IF(F55&lt;25, 30, IF(F55&gt;75, 10, (1-(F55-25)/(75-25))*20+10)), 0)</f>
@@ -4346,30 +4344,30 @@
       </c>
       <c r="H55" s="12">
         <f>B55+C55+E55+G55</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I55" s="6"/>
       <c r="IV55" s="3"/>
     </row>
     <row r="56" spans="1:257" ht="25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B56" s="7">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
+        <v>25</v>
+      </c>
+      <c r="C56" s="9">
         <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>9994</v>
+        <v>9984</v>
       </c>
       <c r="E56" s="15">
         <f>IF(D56/10000*30&gt;=29.7, 30,D56/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F56" s="5">
-        <v>5.8879999999999999</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G56" s="11">
         <f>IF(F56&gt;0, IF(F56&lt;25, 30, IF(F56&gt;75, 10, (1-(F56-25)/(75-25))*20+10)), 0)</f>
@@ -4377,30 +4375,29 @@
       </c>
       <c r="H56" s="12">
         <f>B56+C56+E56+G56</f>
-        <v>94</v>
-      </c>
-      <c r="I56" s="6"/>
+        <v>95</v>
+      </c>
       <c r="IV56" s="3"/>
     </row>
     <row r="57" spans="1:257" ht="25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B57" s="7">
-        <v>22</v>
-      </c>
-      <c r="C57" s="9">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>9984</v>
+        <v>9992</v>
       </c>
       <c r="E57" s="15">
         <f>IF(D57/10000*30&gt;=29.7, 30,D57/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F57" s="5">
-        <v>16.608000000000001</v>
+        <v>15.456</v>
       </c>
       <c r="G57" s="11">
         <f>IF(F57&gt;0, IF(F57&lt;25, 30, IF(F57&gt;75, 10, (1-(F57-25)/(75-25))*20+10)), 0)</f>
@@ -4408,61 +4405,60 @@
       </c>
       <c r="H57" s="12">
         <f>B57+C57+E57+G57</f>
-        <v>92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I57" s="6"/>
       <c r="IV57" s="3"/>
     </row>
     <row r="58" spans="1:257" ht="25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C58" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2">
-        <v>9994</v>
-      </c>
-      <c r="E58" s="15">
+        <v>9989</v>
+      </c>
+      <c r="E58" s="16">
         <f>IF(D58/10000*30&gt;=29.7, 30,D58/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F58" s="5">
-        <v>26.113</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="F58" s="10">
+        <v>14.816000000000001</v>
+      </c>
+      <c r="G58" s="12">
         <f>IF(F58&gt;0, IF(F58&lt;25, 30, IF(F58&gt;75, 10, (1-(F58-25)/(75-25))*20+10)), 0)</f>
-        <v>29.5548</v>
+        <v>30</v>
       </c>
       <c r="H58" s="12">
-        <v>77</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>138</v>
+        <f>B58+C58+E58+G58</f>
+        <v>94</v>
       </c>
       <c r="IV58" s="3"/>
     </row>
     <row r="59" spans="1:257" ht="25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="7">
+        <v>79</v>
+      </c>
+      <c r="B59" s="2">
         <v>17</v>
       </c>
-      <c r="C59" s="9">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9992</v>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3419</v>
       </c>
       <c r="E59" s="15">
         <f>IF(D59/10000*30&gt;=29.7, 30,D59/10000*30)</f>
-        <v>30</v>
+        <v>10.257</v>
       </c>
       <c r="F59" s="5">
-        <v>21.696000000000002</v>
+        <v>23.616</v>
       </c>
       <c r="G59" s="11">
         <f>IF(F59&gt;0, IF(F59&lt;25, 30, IF(F59&gt;75, 10, (1-(F59-25)/(75-25))*20+10)), 0)</f>
@@ -4470,173 +4466,174 @@
       </c>
       <c r="H59" s="12">
         <f>B59+C59+E59+G59</f>
-        <v>87</v>
-      </c>
+        <v>67.257000000000005</v>
+      </c>
+      <c r="I59" s="6"/>
       <c r="IV59" s="3"/>
     </row>
     <row r="60" spans="1:257" ht="25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="7">
-        <v>28</v>
-      </c>
-      <c r="C60" s="1">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1">
-        <v>9989</v>
+        <v>84</v>
+      </c>
+      <c r="B60" s="2">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>10000</v>
       </c>
       <c r="E60" s="15">
         <f>IF(D60/10000*30&gt;=29.7, 30,D60/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F60" s="5">
-        <v>16.928000000000001</v>
+        <v>36.064</v>
       </c>
       <c r="G60" s="11">
         <f>IF(F60&gt;0, IF(F60&lt;25, 30, IF(F60&gt;75, 10, (1-(F60-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.574399999999997</v>
       </c>
       <c r="H60" s="12">
         <f>B60+C60+E60+G60</f>
-        <v>98</v>
+        <v>79.574399999999997</v>
       </c>
       <c r="I60" s="6"/>
       <c r="IV60" s="3"/>
     </row>
     <row r="61" spans="1:257" ht="25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="7">
-        <v>28</v>
+        <v>99</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
       </c>
       <c r="C61" s="2">
-        <v>10</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9992</v>
       </c>
       <c r="E61" s="15">
         <f>IF(D61/10000*30&gt;=29.7, 30,D61/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F61" s="5">
-        <v>0</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="G61" s="11">
         <f>IF(F61&gt;0, IF(F61&lt;25, 30, IF(F61&gt;75, 10, (1-(F61-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>20.761600000000001</v>
       </c>
       <c r="H61" s="12">
         <f>B61+C61+E61+G61</f>
-        <v>38</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>68.761600000000001</v>
+      </c>
+      <c r="I61" s="6"/>
       <c r="IV61" s="3"/>
     </row>
     <row r="62" spans="1:257" ht="25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="7">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1">
-        <v>9992</v>
+        <v>102</v>
+      </c>
+      <c r="B62" s="2">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9993</v>
       </c>
       <c r="E62" s="15">
         <f>IF(D62/10000*30&gt;=29.7, 30,D62/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F62" s="5">
-        <v>20.16</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G62" s="11">
         <f>IF(F62&gt;0, IF(F62&lt;25, 30, IF(F62&gt;75, 10, (1-(F62-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>13.989999999999998</v>
       </c>
       <c r="H62" s="12">
         <f>B62+C62+E62+G62</f>
-        <v>95</v>
-      </c>
+        <v>74.989999999999995</v>
+      </c>
+      <c r="I62" s="6"/>
       <c r="IV62" s="3"/>
     </row>
     <row r="63" spans="1:257" ht="25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="2">
-        <v>15</v>
-      </c>
-      <c r="C63" s="2">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2">
-        <v>9990</v>
-      </c>
-      <c r="E63" s="15">
+        <v>145</v>
+      </c>
+      <c r="B63" s="21">
+        <v>10</v>
+      </c>
+      <c r="C63" s="21">
+        <v>8</v>
+      </c>
+      <c r="D63" s="21">
+        <v>9994</v>
+      </c>
+      <c r="E63" s="22">
         <f>IF(D63/10000*30&gt;=29.7, 30,D63/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F63" s="5">
-        <v>26.463999999999999</v>
-      </c>
-      <c r="G63" s="11">
+      <c r="F63" s="23">
+        <v>52.640999999999998</v>
+      </c>
+      <c r="G63" s="24">
         <f>IF(F63&gt;0, IF(F63&lt;25, 30, IF(F63&gt;75, 10, (1-(F63-25)/(75-25))*20+10)), 0)</f>
-        <v>29.414400000000001</v>
-      </c>
-      <c r="H63" s="12">
-        <f>B63+C63+E63+G63</f>
-        <v>83.414400000000001</v>
-      </c>
-      <c r="I63" s="6"/>
+        <v>18.9436</v>
+      </c>
+      <c r="H63" s="25">
+        <v>62</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="64" spans="1:257" ht="25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2">
         <v>10</v>
       </c>
       <c r="D64" s="2">
-        <v>9989</v>
+        <v>9990</v>
       </c>
       <c r="E64" s="15">
         <f>IF(D64/10000*30&gt;=29.7, 30,D64/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F64" s="5">
-        <v>14.784000000000001</v>
+        <v>32.031999999999996</v>
       </c>
       <c r="G64" s="11">
         <f>IF(F64&gt;0, IF(F64&lt;25, 30, IF(F64&gt;75, 10, (1-(F64-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>27.187200000000004</v>
       </c>
       <c r="H64" s="12">
         <f>B64+C64+E64+G64</f>
-        <v>95</v>
+        <v>95.187200000000004</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B65" s="7">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C65" s="9">
+        <v>7</v>
       </c>
       <c r="D65" s="1">
         <v>9995</v>
@@ -4646,37 +4643,36 @@
         <v>30</v>
       </c>
       <c r="F65" s="5">
-        <v>667.09</v>
+        <v>36.351999999999997</v>
       </c>
       <c r="G65" s="11">
         <f>IF(F65&gt;0, IF(F65&lt;25, 30, IF(F65&gt;75, 10, (1-(F65-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25.459200000000003</v>
       </c>
       <c r="H65" s="12">
         <f>B65+C65+E65+G65</f>
-        <v>65</v>
-      </c>
-      <c r="I65" s="6"/>
+        <v>80.45920000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2">
         <v>10</v>
       </c>
       <c r="D66" s="2">
-        <v>9997</v>
+        <v>9990</v>
       </c>
       <c r="E66" s="15">
         <f>IF(D66/10000*30&gt;=29.7, 30,D66/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F66" s="5">
-        <v>9.2479999999999993</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="G66" s="11">
         <f>IF(F66&gt;0, IF(F66&lt;25, 30, IF(F66&gt;75, 10, (1-(F66-25)/(75-25))*20+10)), 0)</f>
@@ -4684,300 +4680,300 @@
       </c>
       <c r="H66" s="12">
         <f>B66+C66+E66+G66</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="2">
-        <v>16</v>
-      </c>
-      <c r="C67" s="2">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2">
-        <v>9981</v>
+        <v>21</v>
+      </c>
+      <c r="B67" s="1">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9992</v>
       </c>
       <c r="E67" s="15">
         <f>IF(D67/10000*30&gt;=29.7, 30,D67/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>42.145000000000003</v>
+        <v>21.44</v>
       </c>
       <c r="G67" s="11">
         <f>IF(F67&gt;0, IF(F67&lt;25, 30, IF(F67&gt;75, 10, (1-(F67-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>30</v>
       </c>
       <c r="H67" s="12">
         <f>B67+C67+E67+G67</f>
-        <v>78.141999999999996</v>
+        <v>88</v>
       </c>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B68" s="7">
-        <v>18</v>
-      </c>
-      <c r="C68" s="7">
+        <v>23</v>
+      </c>
+      <c r="C68" s="1">
         <v>8</v>
       </c>
-      <c r="D68" s="7">
-        <v>0</v>
-      </c>
-      <c r="E68" s="16">
-        <v>0</v>
-      </c>
-      <c r="F68" s="10">
-        <v>0</v>
-      </c>
-      <c r="G68" s="12">
+      <c r="D68" s="1">
+        <v>9987</v>
+      </c>
+      <c r="E68" s="15">
+        <f>IF(D68/10000*30&gt;=29.7, 30,D68/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F68" s="5">
+        <v>120.07</v>
+      </c>
+      <c r="G68" s="11">
         <f>IF(F68&gt;0, IF(F68&lt;25, 30, IF(F68&gt;75, 10, (1-(F68-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H68" s="12">
         <f>B68+C68+E68+G68</f>
-        <v>26</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>147</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="2">
-        <v>10</v>
-      </c>
-      <c r="C69" s="2">
-        <v>7</v>
-      </c>
-      <c r="D69" s="2">
-        <v>9989</v>
+        <v>30</v>
+      </c>
+      <c r="B69" s="7">
+        <v>20</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
       </c>
       <c r="E69" s="15">
         <f>IF(D69/10000*30&gt;=29.7, 30,D69/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F69" s="5">
-        <v>245.38</v>
+        <v>0</v>
       </c>
       <c r="G69" s="11">
         <f>IF(F69&gt;0, IF(F69&lt;25, 30, IF(F69&gt;75, 10, (1-(F69-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H69" s="12">
         <f>B69+C69+E69+G69</f>
-        <v>57</v>
-      </c>
-      <c r="I69" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="7">
-        <v>18</v>
+        <v>96</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21</v>
       </c>
       <c r="C70" s="2">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1">
-        <v>9996</v>
+        <v>9</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9987</v>
       </c>
       <c r="E70" s="15">
         <f>IF(D70/10000*30&gt;=29.7, 30,D70/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F70" s="5">
-        <v>22.751999999999999</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G70" s="11">
         <f>IF(F70&gt;0, IF(F70&lt;25, 30, IF(F70&gt;75, 10, (1-(F70-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.223599999999998</v>
       </c>
       <c r="H70" s="12">
         <f>B70+C70+E70+G70</f>
-        <v>88</v>
+        <v>80.223600000000005</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="7">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1">
-        <v>9385</v>
+        <v>104</v>
+      </c>
+      <c r="B71" s="2">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9989</v>
       </c>
       <c r="E71" s="15">
         <f>IF(D71/10000*30&gt;=29.7, 30,D71/10000*30)</f>
-        <v>28.155000000000001</v>
+        <v>30</v>
       </c>
       <c r="F71" s="5">
-        <v>26.401</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="G71" s="11">
         <f>IF(F71&gt;0, IF(F71&lt;25, 30, IF(F71&gt;75, 10, (1-(F71-25)/(75-25))*20+10)), 0)</f>
-        <v>29.439599999999999</v>
+        <v>30</v>
       </c>
       <c r="H71" s="12">
         <f>B71+C71+E71+G71</f>
-        <v>89.5946</v>
+        <v>95</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C72" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2">
-        <v>9990</v>
+        <v>9992</v>
       </c>
       <c r="E72" s="15">
         <f>IF(D72/10000*30&gt;=29.7, 30,D72/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F72" s="5">
-        <v>24.544</v>
+        <v>61.664000000000001</v>
       </c>
       <c r="G72" s="11">
         <f>IF(F72&gt;0, IF(F72&lt;25, 30, IF(F72&gt;75, 10, (1-(F72-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.334399999999999</v>
       </c>
       <c r="H72" s="12">
         <f>B72+C72+E72+G72</f>
-        <v>90</v>
+        <v>69.334400000000002</v>
       </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="7">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="B73" s="2">
+        <v>24</v>
       </c>
       <c r="C73" s="2">
         <v>10</v>
       </c>
-      <c r="D73" s="1">
-        <v>9982</v>
+      <c r="D73" s="2">
+        <v>9992</v>
       </c>
       <c r="E73" s="15">
         <f>IF(D73/10000*30&gt;=29.7, 30,D73/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F73" s="5">
-        <v>20.096</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="G73" s="11">
         <f>IF(F73&gt;0, IF(F73&lt;25, 30, IF(F73&gt;75, 10, (1-(F73-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.6448</v>
       </c>
       <c r="H73" s="12">
         <f>B73+C73+E73+G73</f>
-        <v>100</v>
+        <v>93.644800000000004</v>
       </c>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="25" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B74" s="7">
-        <v>20</v>
-      </c>
-      <c r="C74" s="1">
-        <v>6</v>
-      </c>
-      <c r="D74" s="20">
-        <v>9991</v>
+        <v>19</v>
+      </c>
+      <c r="C74" s="9">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9972</v>
       </c>
       <c r="E74" s="15">
-        <v>30</v>
-      </c>
-      <c r="F74" s="19">
-        <v>16.256</v>
+        <f>IF(D74/10000*30&gt;=29.7, 30,D74/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F74" s="5">
+        <v>29.888999999999999</v>
       </c>
       <c r="G74" s="11">
         <f>IF(F74&gt;0, IF(F74&lt;25, 30, IF(F74&gt;75, 10, (1-(F74-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>28.0444</v>
       </c>
       <c r="H74" s="12">
-        <v>81</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>144</v>
+        <f>B74+C74+E74+G74</f>
+        <v>87.044399999999996</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>9990</v>
+        <v>9998</v>
       </c>
       <c r="E75" s="15">
         <f>IF(D75/10000*30&gt;=29.7, 30,D75/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F75" s="5">
-        <v>32.031999999999996</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G75" s="11">
         <f>IF(F75&gt;0, IF(F75&lt;25, 30, IF(F75&gt;75, 10, (1-(F75-25)/(75-25))*20+10)), 0)</f>
-        <v>27.187200000000004</v>
+        <v>30</v>
       </c>
       <c r="H75" s="12">
         <f>B75+C75+E75+G75</f>
-        <v>95.187200000000004</v>
+        <v>94</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="7">
-        <v>30</v>
+        <v>89</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12</v>
       </c>
       <c r="C76" s="2">
         <v>10</v>
       </c>
-      <c r="D76" s="14">
-        <v>9991</v>
+      <c r="D76" s="2">
+        <v>9992</v>
       </c>
       <c r="E76" s="15">
         <f>IF(D76/10000*30&gt;=29.7, 30,D76/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F76" s="5">
-        <v>23.36</v>
+        <v>20.288</v>
       </c>
       <c r="G76" s="11">
         <f>IF(F76&gt;0, IF(F76&lt;25, 30, IF(F76&gt;75, 10, (1-(F76-25)/(75-25))*20+10)), 0)</f>
@@ -4985,103 +4981,105 @@
       </c>
       <c r="H76" s="12">
         <f>B76+C76+E76+G76</f>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E77" s="15">
         <f>IF(D77/10000*30&gt;=29.7, 30,D77/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>9.8239999999999998</v>
+        <v>0</v>
       </c>
       <c r="G77" s="11">
         <f>IF(F77&gt;0, IF(F77&lt;25, 30, IF(F77&gt;75, 10, (1-(F77-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H77" s="12">
         <f>B77+C77+E77+G77</f>
-        <v>88</v>
-      </c>
-      <c r="I77" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2">
-        <v>10000</v>
+        <v>9999</v>
       </c>
       <c r="E78" s="15">
         <f>IF(D78/10000*30&gt;=29.7, 30,D78/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F78" s="5">
-        <v>36.064</v>
+        <v>9.8239999999999998</v>
       </c>
       <c r="G78" s="11">
         <f>IF(F78&gt;0, IF(F78&lt;25, 30, IF(F78&gt;75, 10, (1-(F78-25)/(75-25))*20+10)), 0)</f>
-        <v>25.574399999999997</v>
+        <v>30</v>
       </c>
       <c r="H78" s="12">
         <f>B78+C78+E78+G78</f>
-        <v>79.574399999999997</v>
+        <v>88</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="7">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1">
-        <v>9981</v>
+        <v>123</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9997</v>
       </c>
       <c r="E79" s="15">
         <f>IF(D79/10000*30&gt;=29.7, 30,D79/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F79" s="5">
-        <v>273.89</v>
+        <v>64.384</v>
       </c>
       <c r="G79" s="11">
         <f>IF(F79&gt;0, IF(F79&lt;25, 30, IF(F79&gt;75, 10, (1-(F79-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>14.2464</v>
       </c>
       <c r="H79" s="12">
         <f>B79+C79+E79+G79</f>
-        <v>58</v>
+        <v>69.246399999999994</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B80" s="7">
         <v>24</v>
@@ -5090,14 +5088,14 @@
         <v>10</v>
       </c>
       <c r="D80" s="1">
-        <v>9992</v>
+        <v>9994</v>
       </c>
       <c r="E80" s="15">
         <f>IF(D80/10000*30&gt;=29.7, 30,D80/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F80" s="5">
-        <v>18.753</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G80" s="11">
         <f>IF(F80&gt;0, IF(F80&lt;25, 30, IF(F80&gt;75, 10, (1-(F80-25)/(75-25))*20+10)), 0)</f>
@@ -5111,53 +5109,53 @@
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="7">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9992</v>
+        <v>91</v>
+      </c>
+      <c r="B81" s="2">
+        <v>28</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9988</v>
       </c>
       <c r="E81" s="15">
         <f>IF(D81/10000*30&gt;=29.7, 30,D81/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F81" s="5">
-        <v>15.456</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G81" s="11">
         <f>IF(F81&gt;0, IF(F81&lt;25, 30, IF(F81&gt;75, 10, (1-(F81-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.921199999999999</v>
       </c>
       <c r="H81" s="12">
         <f>B81+C81+E81+G81</f>
-        <v>97</v>
+        <v>92.921199999999999</v>
       </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B82" s="7">
-        <v>20</v>
-      </c>
-      <c r="C82" s="1">
-        <v>10</v>
-      </c>
-      <c r="D82" s="14">
-        <v>9990</v>
+        <v>18</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9996</v>
       </c>
       <c r="E82" s="15">
         <f>IF(D82/10000*30&gt;=29.7, 30,D82/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F82" s="5">
-        <v>21.696999999999999</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="G82" s="11">
         <f>IF(F82&gt;0, IF(F82&lt;25, 30, IF(F82&gt;75, 10, (1-(F82-25)/(75-25))*20+10)), 0)</f>
@@ -5165,152 +5163,150 @@
       </c>
       <c r="H82" s="12">
         <f>B82+C82+E82+G82</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="7">
-        <v>23</v>
-      </c>
-      <c r="C83" s="1">
-        <v>10</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9992</v>
+        <v>76</v>
+      </c>
+      <c r="B83" s="2">
+        <v>19</v>
+      </c>
+      <c r="C83" s="2">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9994</v>
       </c>
       <c r="E83" s="15">
         <f>IF(D83/10000*30&gt;=29.7, 30,D83/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F83" s="5">
-        <v>36.289000000000001</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="G83" s="11">
         <f>IF(F83&gt;0, IF(F83&lt;25, 30, IF(F83&gt;75, 10, (1-(F83-25)/(75-25))*20+10)), 0)</f>
-        <v>25.484399999999997</v>
+        <v>30</v>
       </c>
       <c r="H83" s="12">
         <f>B83+C83+E83+G83</f>
-        <v>88.484399999999994</v>
+        <v>88</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="25" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="1">
-        <v>20</v>
-      </c>
-      <c r="C84" s="1">
-        <v>10</v>
-      </c>
-      <c r="D84" s="18">
-        <v>9983</v>
+        <v>109</v>
+      </c>
+      <c r="B84" s="2">
+        <v>21</v>
+      </c>
+      <c r="C84" s="2">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9990</v>
       </c>
       <c r="E84" s="15">
         <f>IF(D84/10000*30&gt;=29.7, 30,D84/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F84" s="19">
-        <v>52.161000000000001</v>
+      <c r="F84" s="5">
+        <v>24.544</v>
       </c>
       <c r="G84" s="11">
         <f>IF(F84&gt;0, IF(F84&lt;25, 30, IF(F84&gt;75, 10, (1-(F84-25)/(75-25))*20+10)), 0)</f>
-        <v>19.1356</v>
+        <v>30</v>
       </c>
       <c r="H84" s="12">
-        <v>74</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>144</v>
-      </c>
+        <f>B84+C84+E84+G84</f>
+        <v>90</v>
+      </c>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="7">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
       </c>
-      <c r="D85" s="1">
-        <v>9992</v>
+      <c r="D85" s="18">
+        <v>9983</v>
       </c>
       <c r="E85" s="15">
         <f>IF(D85/10000*30&gt;=29.7, 30,D85/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F85" s="5">
-        <v>666.16</v>
+      <c r="F85" s="19">
+        <v>52.161000000000001</v>
       </c>
       <c r="G85" s="11">
         <f>IF(F85&gt;0, IF(F85&lt;25, 30, IF(F85&gt;75, 10, (1-(F85-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>19.1356</v>
       </c>
       <c r="H85" s="12">
-        <f>B85+C85+E85+G85</f>
-        <v>69</v>
-      </c>
-      <c r="I85" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C86" s="2">
         <v>10</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="E86" s="15">
         <f>IF(D86/10000*30&gt;=29.7, 30,D86/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="G86" s="11">
         <f>IF(F86&gt;0, IF(F86&lt;25, 30, IF(F86&gt;75, 10, (1-(F86-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H86" s="12">
         <f>B86+C86+E86+G86</f>
-        <v>28</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="2">
-        <v>23</v>
-      </c>
-      <c r="C87" s="2">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2">
-        <v>9593</v>
+        <v>18</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9995</v>
       </c>
       <c r="E87" s="15">
         <f>IF(D87/10000*30&gt;=29.7, 30,D87/10000*30)</f>
-        <v>28.779</v>
+        <v>30</v>
       </c>
       <c r="F87" s="5">
-        <v>10.08</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="G87" s="11">
         <f>IF(F87&gt;0, IF(F87&lt;25, 30, IF(F87&gt;75, 10, (1-(F87-25)/(75-25))*20+10)), 0)</f>
@@ -5318,181 +5314,180 @@
       </c>
       <c r="H87" s="12">
         <f>B87+C87+E87+G87</f>
-        <v>90.778999999999996</v>
+        <v>100</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="2">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2">
+        <v>146</v>
+      </c>
+      <c r="B88" s="7">
+        <v>18</v>
+      </c>
+      <c r="C88" s="7">
         <v>8</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="7">
         <v>0</v>
       </c>
-      <c r="E88" s="15">
-        <f>IF(D88/10000*30&gt;=29.7, 30,D88/10000*30)</f>
+      <c r="E88" s="16">
         <v>0</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="10">
         <v>0</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="12">
         <f>IF(F88&gt;0, IF(F88&lt;25, 30, IF(F88&gt;75, 10, (1-(F88-25)/(75-25))*20+10)), 0)</f>
         <v>0</v>
       </c>
       <c r="H88" s="12">
         <f>B88+C88+E88+G88</f>
-        <v>17</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B89" s="7">
-        <v>19</v>
-      </c>
-      <c r="C89" s="9">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>9972</v>
+        <v>9995</v>
       </c>
       <c r="E89" s="15">
         <f>IF(D89/10000*30&gt;=29.7, 30,D89/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F89" s="5">
-        <v>29.888999999999999</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G89" s="11">
         <f>IF(F89&gt;0, IF(F89&lt;25, 30, IF(F89&gt;75, 10, (1-(F89-25)/(75-25))*20+10)), 0)</f>
-        <v>28.0444</v>
+        <v>30</v>
       </c>
       <c r="H89" s="12">
         <f>B89+C89+E89+G89</f>
-        <v>87.044399999999996</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="1">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B90" s="7">
+        <v>18</v>
       </c>
       <c r="C90" s="1">
         <v>10</v>
       </c>
-      <c r="D90" s="1">
-        <v>9987</v>
+      <c r="D90" s="14">
+        <v>9995</v>
       </c>
       <c r="E90" s="15">
         <f>IF(D90/10000*30&gt;=29.7, 30,D90/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F90" s="5">
-        <v>16.864000000000001</v>
+        <v>92.45</v>
       </c>
       <c r="G90" s="11">
         <f>IF(F90&gt;0, IF(F90&lt;25, 30, IF(F90&gt;75, 10, (1-(F90-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H90" s="12">
-        <f>B90+C90+E90+G90</f>
-        <v>100</v>
-      </c>
-      <c r="I90" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B91" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>9985</v>
+        <v>9998</v>
       </c>
       <c r="E91" s="15">
         <f>IF(D91/10000*30&gt;=29.7, 30,D91/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F91" s="5">
-        <v>57.920999999999999</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="G91" s="11">
         <f>IF(F91&gt;0, IF(F91&lt;25, 30, IF(F91&gt;75, 10, (1-(F91-25)/(75-25))*20+10)), 0)</f>
-        <v>16.831600000000002</v>
+        <v>30</v>
       </c>
       <c r="H91" s="12">
         <f>B91+C91+E91+G91</f>
-        <v>84.831600000000009</v>
+        <v>87</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="21">
-        <v>10</v>
-      </c>
-      <c r="C92" s="21">
-        <v>8</v>
-      </c>
-      <c r="D92" s="21">
-        <v>9994</v>
-      </c>
-      <c r="E92" s="22">
+        <v>54</v>
+      </c>
+      <c r="B92" s="7">
+        <v>30</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10</v>
+      </c>
+      <c r="D92" s="14">
+        <v>9991</v>
+      </c>
+      <c r="E92" s="15">
         <f>IF(D92/10000*30&gt;=29.7, 30,D92/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F92" s="23">
-        <v>52.640999999999998</v>
-      </c>
-      <c r="G92" s="24">
+      <c r="F92" s="5">
+        <v>23.36</v>
+      </c>
+      <c r="G92" s="11">
         <f>IF(F92&gt;0, IF(F92&lt;25, 30, IF(F92&gt;75, 10, (1-(F92-25)/(75-25))*20+10)), 0)</f>
-        <v>18.9436</v>
-      </c>
-      <c r="H92" s="25">
-        <v>62</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H92" s="12">
+        <f>B92+C92+E92+G92</f>
+        <v>100</v>
+      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B93" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C93" s="2">
         <v>9</v>
       </c>
-      <c r="D93" s="2">
-        <v>9994</v>
+      <c r="D93" s="17">
+        <v>10000</v>
       </c>
       <c r="E93" s="15">
-        <f>IF(D93/10000*30&gt;=29.7, 30,D93/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F93" s="5">
-        <v>3.2959999999999998</v>
+        <v>17.376000000000001</v>
       </c>
       <c r="G93" s="11">
         <f>IF(F93&gt;0, IF(F93&lt;25, 30, IF(F93&gt;75, 10, (1-(F93-25)/(75-25))*20+10)), 0)</f>
@@ -5500,43 +5495,45 @@
       </c>
       <c r="H93" s="12">
         <f>B93+C93+E93+G93</f>
-        <v>88</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>9988</v>
+        <v>10000</v>
       </c>
       <c r="E94" s="15">
         <f>IF(D94/10000*30&gt;=29.7, 30,D94/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F94" s="5">
-        <v>37.697000000000003</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="G94" s="11">
         <f>IF(F94&gt;0, IF(F94&lt;25, 30, IF(F94&gt;75, 10, (1-(F94-25)/(75-25))*20+10)), 0)</f>
-        <v>24.921199999999999</v>
+        <v>15.590000000000002</v>
       </c>
       <c r="H94" s="12">
         <f>B94+C94+E94+G94</f>
-        <v>92.921199999999999</v>
+        <v>72.59</v>
       </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B95" s="7">
         <v>30</v>
@@ -5545,164 +5542,165 @@
         <v>10</v>
       </c>
       <c r="D95" s="1">
-        <v>9784</v>
+        <v>9993</v>
       </c>
       <c r="E95" s="15">
         <f>IF(D95/10000*30&gt;=29.7, 30,D95/10000*30)</f>
-        <v>29.352</v>
+        <v>30</v>
       </c>
       <c r="F95" s="5">
-        <v>23.36</v>
+        <v>33.984000000000002</v>
       </c>
       <c r="G95" s="11">
         <f>IF(F95&gt;0, IF(F95&lt;25, 30, IF(F95&gt;75, 10, (1-(F95-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>26.406399999999998</v>
       </c>
       <c r="H95" s="12">
         <f>B95+C95+E95+G95</f>
-        <v>99.352000000000004</v>
+        <v>96.406399999999991</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B96" s="7">
-        <v>23</v>
-      </c>
-      <c r="C96" s="1">
+        <v>19</v>
+      </c>
+      <c r="C96" s="2">
         <v>8</v>
       </c>
-      <c r="D96" s="1">
-        <v>9987</v>
+      <c r="D96" s="17">
+        <v>0</v>
       </c>
       <c r="E96" s="15">
         <f>IF(D96/10000*30&gt;=29.7, 30,D96/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>120.07</v>
+        <v>0</v>
       </c>
       <c r="G96" s="11">
         <f>IF(F96&gt;0, IF(F96&lt;25, 30, IF(F96&gt;75, 10, (1-(F96-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H96" s="12">
         <f>B96+C96+E96+G96</f>
-        <v>71</v>
-      </c>
-      <c r="I96" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B97" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1">
-        <v>9995</v>
+        <v>9991</v>
       </c>
       <c r="E97" s="15">
         <f>IF(D97/10000*30&gt;=29.7, 30,D97/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F97" s="5">
-        <v>18.975999999999999</v>
+        <v>47.713000000000001</v>
       </c>
       <c r="G97" s="11">
         <f>IF(F97&gt;0, IF(F97&lt;25, 30, IF(F97&gt;75, 10, (1-(F97-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.9148</v>
       </c>
       <c r="H97" s="12">
         <f>B97+C97+E97+G97</f>
-        <v>86</v>
+        <v>63.9148</v>
       </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" s="2">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>9986</v>
+        <v>9999</v>
       </c>
       <c r="E98" s="15">
         <f>IF(D98/10000*30&gt;=29.7, 30,D98/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F98" s="5">
-        <v>55.744999999999997</v>
+        <v>198.27</v>
       </c>
       <c r="G98" s="11">
         <f>IF(F98&gt;0, IF(F98&lt;25, 30, IF(F98&gt;75, 10, (1-(F98-25)/(75-25))*20+10)), 0)</f>
-        <v>17.701999999999998</v>
+        <v>10</v>
       </c>
       <c r="H98" s="12">
         <f>B98+C98+E98+G98</f>
-        <v>74.701999999999998</v>
+        <v>65</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2">
-        <v>16</v>
-      </c>
-      <c r="C99" s="2">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2">
-        <v>9999</v>
+        <v>75</v>
+      </c>
+      <c r="B99" s="7">
+        <v>22</v>
+      </c>
+      <c r="C99" s="9">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>9984</v>
       </c>
       <c r="E99" s="15">
         <f>IF(D99/10000*30&gt;=29.7, 30,D99/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F99" s="5">
-        <v>198.27</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="G99" s="11">
         <f>IF(F99&gt;0, IF(F99&lt;25, 30, IF(F99&gt;75, 10, (1-(F99-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H99" s="12">
         <f>B99+C99+E99+G99</f>
-        <v>65</v>
-      </c>
-      <c r="I99" s="6"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" s="2">
-        <v>23</v>
-      </c>
-      <c r="C100" s="2">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2">
-        <v>9994</v>
+        <v>29</v>
+      </c>
+      <c r="B100" s="7">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9990</v>
       </c>
       <c r="E100" s="15">
         <f>IF(D100/10000*30&gt;=29.7, 30,D100/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F100" s="5">
-        <v>16.576000000000001</v>
+        <v>14.945</v>
       </c>
       <c r="G100" s="11">
         <f>IF(F100&gt;0, IF(F100&lt;25, 30, IF(F100&gt;75, 10, (1-(F100-25)/(75-25))*20+10)), 0)</f>
@@ -5710,43 +5708,43 @@
       </c>
       <c r="H100" s="12">
         <f>B100+C100+E100+G100</f>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>10</v>
-      </c>
-      <c r="C101" s="2">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2">
-        <v>9992</v>
+        <v>64</v>
+      </c>
+      <c r="B101" s="7">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>9385</v>
       </c>
       <c r="E101" s="15">
         <f>IF(D101/10000*30&gt;=29.7, 30,D101/10000*30)</f>
-        <v>30</v>
+        <v>28.155000000000001</v>
       </c>
       <c r="F101" s="5">
-        <v>48.095999999999997</v>
+        <v>26.401</v>
       </c>
       <c r="G101" s="11">
         <f>IF(F101&gt;0, IF(F101&lt;25, 30, IF(F101&gt;75, 10, (1-(F101-25)/(75-25))*20+10)), 0)</f>
-        <v>20.761600000000001</v>
+        <v>29.439599999999999</v>
       </c>
       <c r="H101" s="12">
         <f>B101+C101+E101+G101</f>
-        <v>68.761600000000001</v>
+        <v>89.5946</v>
       </c>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B102" s="7">
         <v>20</v>
@@ -5755,46 +5753,44 @@
         <v>10</v>
       </c>
       <c r="D102" s="14">
-        <v>0</v>
+        <v>9990</v>
       </c>
       <c r="E102" s="15">
         <f>IF(D102/10000*30&gt;=29.7, 30,D102/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F102" s="5">
-        <v>0</v>
+        <v>21.696999999999999</v>
       </c>
       <c r="G102" s="11">
         <f>IF(F102&gt;0, IF(F102&lt;25, 30, IF(F102&gt;75, 10, (1-(F102-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H102" s="12">
         <f>B102+C102+E102+G102</f>
-        <v>30</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="2">
-        <v>25</v>
-      </c>
-      <c r="C103" s="2">
-        <v>10</v>
-      </c>
-      <c r="D103" s="2">
-        <v>9991</v>
+        <v>72</v>
+      </c>
+      <c r="B103" s="7">
+        <v>19</v>
+      </c>
+      <c r="C103" s="9">
+        <v>8</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9988</v>
       </c>
       <c r="E103" s="15">
         <f>IF(D103/10000*30&gt;=29.7, 30,D103/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F103" s="5">
-        <v>21.600999999999999</v>
+        <v>1.1431</v>
       </c>
       <c r="G103" s="11">
         <f>IF(F103&gt;0, IF(F103&lt;25, 30, IF(F103&gt;75, 10, (1-(F103-25)/(75-25))*20+10)), 0)</f>
@@ -5802,449 +5798,453 @@
       </c>
       <c r="H103" s="12">
         <f>B103+C103+E103+G103</f>
-        <v>95</v>
-      </c>
-      <c r="I103" s="6"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="2">
-        <v>16</v>
-      </c>
-      <c r="C104" s="2">
-        <v>10</v>
-      </c>
-      <c r="D104" s="2">
-        <v>9990</v>
+        <v>23</v>
+      </c>
+      <c r="B104" s="7">
+        <v>20</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104" s="20">
+        <v>9991</v>
       </c>
       <c r="E104" s="15">
-        <f>IF(D104/10000*30&gt;=29.7, 30,D104/10000*30)</f>
-        <v>30</v>
-      </c>
-      <c r="F104" s="5">
-        <v>15.135999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="F104" s="19">
+        <v>16.256</v>
       </c>
       <c r="G104" s="11">
         <f>IF(F104&gt;0, IF(F104&lt;25, 30, IF(F104&gt;75, 10, (1-(F104-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H104" s="12">
-        <f>B104+C104+E104+G104</f>
-        <v>86</v>
-      </c>
-      <c r="I104" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="2">
-        <v>16</v>
-      </c>
-      <c r="C105" s="2">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2">
-        <v>9997</v>
+        <v>14</v>
+      </c>
+      <c r="B105" s="1">
+        <v>30</v>
+      </c>
+      <c r="C105" s="1">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>9987</v>
       </c>
       <c r="E105" s="15">
         <f>IF(D105/10000*30&gt;=29.7, 30,D105/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F105" s="5">
-        <v>64.384</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="G105" s="11">
         <f>IF(F105&gt;0, IF(F105&lt;25, 30, IF(F105&gt;75, 10, (1-(F105-25)/(75-25))*20+10)), 0)</f>
-        <v>14.2464</v>
+        <v>30</v>
       </c>
       <c r="H105" s="12">
         <f>B105+C105+E105+G105</f>
-        <v>69.246399999999994</v>
+        <v>100</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="1">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B106" s="7">
+        <v>23</v>
       </c>
       <c r="C106" s="1">
         <v>10</v>
       </c>
       <c r="D106" s="1">
-        <v>9993</v>
+        <v>9992</v>
       </c>
       <c r="E106" s="15">
         <f>IF(D106/10000*30&gt;=29.7, 30,D106/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F106" s="5">
-        <v>18.369</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="G106" s="11">
         <f>IF(F106&gt;0, IF(F106&lt;25, 30, IF(F106&gt;75, 10, (1-(F106-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.484399999999997</v>
       </c>
       <c r="H106" s="12">
         <f>B106+C106+E106+G106</f>
-        <v>100</v>
+        <v>88.484399999999994</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B107" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1">
         <v>10</v>
       </c>
       <c r="D107" s="1">
-        <v>9994</v>
+        <v>9985</v>
       </c>
       <c r="E107" s="15">
         <f>IF(D107/10000*30&gt;=29.7, 30,D107/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F107" s="5">
-        <v>24.417000000000002</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="G107" s="11">
         <f>IF(F107&gt;0, IF(F107&lt;25, 30, IF(F107&gt;75, 10, (1-(F107-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.831600000000002</v>
       </c>
       <c r="H107" s="12">
         <f>B107+C107+E107+G107</f>
-        <v>88</v>
+        <v>84.831600000000009</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B108" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>9993</v>
+        <v>9985</v>
       </c>
       <c r="E108" s="15">
         <f>IF(D108/10000*30&gt;=29.7, 30,D108/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F108" s="5">
-        <v>33.984000000000002</v>
+        <v>47.872999999999998</v>
       </c>
       <c r="G108" s="11">
         <f>IF(F108&gt;0, IF(F108&lt;25, 30, IF(F108&gt;75, 10, (1-(F108-25)/(75-25))*20+10)), 0)</f>
-        <v>26.406399999999998</v>
+        <v>20.8508</v>
       </c>
       <c r="H108" s="12">
         <f>B108+C108+E108+G108</f>
-        <v>96.406399999999991</v>
+        <v>80.850799999999992</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" s="7">
-        <v>17</v>
-      </c>
-      <c r="C109" s="1">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1">
-        <v>9998</v>
+        <v>88</v>
+      </c>
+      <c r="B109" s="2">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9989</v>
       </c>
       <c r="E109" s="15">
         <f>IF(D109/10000*30&gt;=29.7, 30,D109/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F109" s="5">
-        <v>11.904999999999999</v>
+        <v>148.26</v>
       </c>
       <c r="G109" s="11">
         <f>IF(F109&gt;0, IF(F109&lt;25, 30, IF(F109&gt;75, 10, (1-(F109-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H109" s="12">
         <f>B109+C109+E109+G109</f>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="7">
-        <v>18</v>
-      </c>
-      <c r="C110" s="1">
-        <v>10</v>
-      </c>
-      <c r="D110" s="14">
-        <v>9995</v>
+        <v>81</v>
+      </c>
+      <c r="B110" s="2">
+        <v>20</v>
+      </c>
+      <c r="C110" s="2">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2">
+        <v>9990</v>
       </c>
       <c r="E110" s="15">
         <f>IF(D110/10000*30&gt;=29.7, 30,D110/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F110" s="5">
-        <v>92.45</v>
+        <v>335.08</v>
       </c>
       <c r="G110" s="11">
         <f>IF(F110&gt;0, IF(F110&lt;25, 30, IF(F110&gt;75, 10, (1-(F110-25)/(75-25))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H110" s="12">
-        <v>63</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>141</v>
-      </c>
+        <f>B110+C110+E110+G110</f>
+        <v>69</v>
+      </c>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="2">
-        <v>25</v>
-      </c>
-      <c r="C111" s="2">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2">
-        <v>9998</v>
+        <v>56</v>
+      </c>
+      <c r="B111" s="7">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>7</v>
+      </c>
+      <c r="D111" s="14">
+        <v>0</v>
       </c>
       <c r="E111" s="15">
         <f>IF(D111/10000*30&gt;=29.7, 30,D111/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>6.4329999999999998</v>
+        <v>0</v>
       </c>
       <c r="G111" s="11">
         <f>IF(F111&gt;0, IF(F111&lt;25, 30, IF(F111&gt;75, 10, (1-(F111-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H111" s="12">
         <f>B111+C111+E111+G111</f>
-        <v>94</v>
-      </c>
-      <c r="I111" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B112" s="7">
-        <v>28</v>
-      </c>
-      <c r="C112" s="9">
+        <v>29</v>
+      </c>
+      <c r="C112" s="1">
         <v>10</v>
       </c>
       <c r="D112" s="1">
-        <v>9987</v>
+        <v>9999</v>
       </c>
       <c r="E112" s="15">
-        <f>IF(D112/10000*30&gt;=29.7, 30,D112/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F112" s="5">
-        <v>35.616</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="G112" s="11">
         <f>IF(F112&gt;0, IF(F112&lt;25, 30, IF(F112&gt;75, 10, (1-(F112-25)/(75-25))*20+10)), 0)</f>
-        <v>25.753599999999999</v>
+        <v>30</v>
       </c>
       <c r="H112" s="12">
         <f>B112+C112+E112+G112</f>
-        <v>93.753600000000006</v>
+        <v>94</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="1">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="B113" s="7">
+        <v>8</v>
       </c>
       <c r="C113" s="1">
         <v>10</v>
       </c>
-      <c r="D113" s="1">
-        <v>9988</v>
+      <c r="D113" s="14">
+        <v>0</v>
       </c>
       <c r="E113" s="15">
         <f>IF(D113/10000*30&gt;=29.7, 30,D113/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F113" s="5">
-        <v>57.953000000000003</v>
+        <v>0</v>
       </c>
       <c r="G113" s="11">
         <f>IF(F113&gt;0, IF(F113&lt;25, 30, IF(F113&gt;75, 10, (1-(F113-25)/(75-25))*20+10)), 0)</f>
-        <v>16.818799999999996</v>
+        <v>0</v>
       </c>
       <c r="H113" s="12">
         <f>B113+C113+E113+G113</f>
-        <v>83.818799999999996</v>
-      </c>
-      <c r="I113" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B114" s="7">
-        <v>22</v>
-      </c>
-      <c r="C114" s="1">
+        <v>30</v>
+      </c>
+      <c r="C114" s="2">
         <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>9991</v>
+        <v>9982</v>
       </c>
       <c r="E114" s="15">
         <f>IF(D114/10000*30&gt;=29.7, 30,D114/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F114" s="5">
-        <v>149.83000000000001</v>
+        <v>20.096</v>
       </c>
       <c r="G114" s="11">
         <f>IF(F114&gt;0, IF(F114&lt;25, 30, IF(F114&gt;75, 10, (1-(F114-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H114" s="12">
         <f>B114+C114+E114+G114</f>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C115" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2">
-        <v>9955</v>
+        <v>9975</v>
       </c>
       <c r="E115" s="15">
         <f>IF(D115/10000*30&gt;=29.7, 30,D115/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F115" s="5">
-        <v>56.512999999999998</v>
+        <v>42.369</v>
       </c>
       <c r="G115" s="11">
         <f>IF(F115&gt;0, IF(F115&lt;25, 30, IF(F115&gt;75, 10, (1-(F115-25)/(75-25))*20+10)), 0)</f>
-        <v>17.394800000000004</v>
+        <v>23.052399999999999</v>
       </c>
       <c r="H115" s="12">
         <f>B115+C115+E115+G115</f>
-        <v>72.394800000000004</v>
+        <v>82.052400000000006</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="25" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" s="2">
-        <v>21</v>
-      </c>
-      <c r="C116" s="2">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2">
-        <v>9987</v>
+        <v>49</v>
+      </c>
+      <c r="B116" s="7">
+        <v>30</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9784</v>
       </c>
       <c r="E116" s="15">
         <f>IF(D116/10000*30&gt;=29.7, 30,D116/10000*30)</f>
-        <v>30</v>
+        <v>29.352</v>
       </c>
       <c r="F116" s="5">
-        <v>49.441000000000003</v>
+        <v>23.36</v>
       </c>
       <c r="G116" s="11">
         <f>IF(F116&gt;0, IF(F116&lt;25, 30, IF(F116&gt;75, 10, (1-(F116-25)/(75-25))*20+10)), 0)</f>
-        <v>20.223599999999998</v>
+        <v>30</v>
       </c>
       <c r="H116" s="12">
         <f>B116+C116+E116+G116</f>
-        <v>80.223600000000005</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="25" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="2">
-        <v>28</v>
-      </c>
-      <c r="C117" s="2">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2">
-        <v>9993</v>
+        <v>32</v>
+      </c>
+      <c r="B117" s="7">
+        <v>30</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1">
+        <v>9809</v>
       </c>
       <c r="E117" s="15">
         <f>IF(D117/10000*30&gt;=29.7, 30,D117/10000*30)</f>
-        <v>30</v>
+        <v>29.427</v>
       </c>
       <c r="F117" s="5">
-        <v>61.569000000000003</v>
+        <v>16.161000000000001</v>
       </c>
       <c r="G117" s="11">
         <f>IF(F117&gt;0, IF(F117&lt;25, 30, IF(F117&gt;75, 10, (1-(F117-25)/(75-25))*20+10)), 0)</f>
-        <v>15.372399999999999</v>
+        <v>30</v>
       </c>
       <c r="H117" s="12">
         <f>B117+C117+E117+G117</f>
-        <v>82.372399999999999</v>
+        <v>99.426999999999992</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="2">
-        <v>12</v>
-      </c>
-      <c r="C118" s="2">
-        <v>10</v>
-      </c>
-      <c r="D118" s="2">
-        <v>9992</v>
+        <v>27</v>
+      </c>
+      <c r="B118" s="7">
+        <v>24</v>
+      </c>
+      <c r="C118" s="1">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9989</v>
       </c>
       <c r="E118" s="15">
         <f>IF(D118/10000*30&gt;=29.7, 30,D118/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F118" s="5">
-        <v>20.288</v>
+        <v>19.841000000000001</v>
       </c>
       <c r="G118" s="11">
         <f>IF(F118&gt;0, IF(F118&lt;25, 30, IF(F118&gt;75, 10, (1-(F118-25)/(75-25))*20+10)), 0)</f>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H118" s="12">
         <f>B118+C118+E118+G118</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="F120" s="10">
         <f>AVERAGE(F2:F117)</f>
-        <v>62.961181896551722</v>
+        <v>62.965035344827527</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1">

--- a/Supplements/homework-02-final-grade.xlsx
+++ b/Supplements/homework-02-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED681A-9DD0-1A48-9A33-6A03EE7CF337}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FE965-7521-384D-BFD6-4CD4E3C34D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1740" windowWidth="29040" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,10 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出结果全为0。原因：虽然程序在20*20的样例数据中运行正确，但是测试数据为重新生成的100*100数据，程序输出结果为0。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2569,7 +2565,7 @@
   <dimension ref="A1:IW123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -2620,31 +2616,31 @@
     </row>
     <row r="2" spans="1:257" ht="25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9988</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="7">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9985</v>
       </c>
       <c r="E2" s="15">
         <f>IF(D2/10000*30&gt;=29.7, 30,D2/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F2" s="5">
-        <v>153.41</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="G2" s="11">
         <f>IF(F2&gt;0, IF(F2&lt;25, 30, IF(F2&gt;75, 10, (1-(F2-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>16.831600000000002</v>
       </c>
       <c r="H2" s="12">
         <f>B2+C2+E2+G2</f>
-        <v>70</v>
+        <v>84.831600000000009</v>
       </c>
       <c r="I2" s="6"/>
       <c r="IV2" s="3"/>
@@ -2652,54 +2648,55 @@
     </row>
     <row r="3" spans="1:257" ht="25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B3" s="7">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>9940</v>
+        <v>9992</v>
       </c>
       <c r="E3" s="15">
         <f>IF(D3/10000*30&gt;=29.7, 30,D3/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F3" s="5">
-        <v>19.488</v>
+        <v>666.16</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;0, IF(F3&lt;25, 30, IF(F3&gt;75, 10, (1-(F3-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3" s="12">
         <f>B3+C3+E3+G3</f>
-        <v>80</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I3" s="6"/>
       <c r="IV3" s="3"/>
       <c r="IW3" s="3"/>
     </row>
     <row r="4" spans="1:257" ht="25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6641</v>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9995</v>
       </c>
       <c r="E4" s="15">
         <f>IF(D4/10000*30&gt;=29.7, 30,D4/10000*30)</f>
-        <v>19.923000000000002</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>16.128</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="G4" s="11">
         <f>IF(F4&gt;0, IF(F4&lt;25, 30, IF(F4&gt;75, 10, (1-(F4-25)/(75-25))*20+10)), 0)</f>
@@ -2707,7 +2704,7 @@
       </c>
       <c r="H4" s="12">
         <f>B4+C4+E4+G4</f>
-        <v>77.923000000000002</v>
+        <v>100</v>
       </c>
       <c r="I4" s="6"/>
       <c r="IV4" s="3"/>
@@ -2715,31 +2712,31 @@
     </row>
     <row r="5" spans="1:257" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9992</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9994</v>
       </c>
       <c r="E5" s="15">
         <f>IF(D5/10000*30&gt;=29.7, 30,D5/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F5" s="5">
-        <v>32.737000000000002</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="G5" s="11">
         <f>IF(F5&gt;0, IF(F5&lt;25, 30, IF(F5&gt;75, 10, (1-(F5-25)/(75-25))*20+10)), 0)</f>
-        <v>26.905199999999997</v>
+        <v>30</v>
       </c>
       <c r="H5" s="12">
         <f>B5+C5+E5+G5</f>
-        <v>85.905199999999994</v>
+        <v>88</v>
       </c>
       <c r="I5" s="6"/>
       <c r="IV5" s="3"/>
@@ -2747,89 +2744,86 @@
     </row>
     <row r="6" spans="1:257" ht="25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="15">
+        <v>9989</v>
+      </c>
+      <c r="E6" s="16">
         <f>IF(D6/10000*30&gt;=29.7, 30,D6/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="5">
-        <v>122.27</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10">
+        <v>14.816000000000001</v>
+      </c>
+      <c r="G6" s="12">
         <f>IF(F6&gt;0, IF(F6&lt;25, 30, IF(F6&gt;75, 10, (1-(F6-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="12">
         <f>B6+C6+E6+G6</f>
-        <v>69</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>94</v>
+      </c>
       <c r="IV6" s="3"/>
       <c r="IW6" s="3"/>
     </row>
     <row r="7" spans="1:257" ht="25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>9989</v>
       </c>
       <c r="E7" s="15">
         <f>IF(D7/10000*30&gt;=29.7, 30,D7/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>148.26</v>
       </c>
       <c r="G7" s="11">
         <f>IF(F7&gt;0, IF(F7&lt;25, 30, IF(F7&gt;75, 10, (1-(F7-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="12">
         <f>B7+C7+E7+G7</f>
-        <v>28</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="IV7" s="3"/>
       <c r="IW7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9989</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9995</v>
       </c>
       <c r="E8" s="15">
         <f>IF(D8/10000*30&gt;=29.7, 30,D8/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>133.94999999999999</v>
+        <v>667.09</v>
       </c>
       <c r="G8" s="11">
         <f>IF(F8&gt;0, IF(F8&lt;25, 30, IF(F8&gt;75, 10, (1-(F8-25)/(75-25))*20+10)), 0)</f>
@@ -2845,31 +2839,31 @@
     </row>
     <row r="9" spans="1:257" ht="25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>8803</v>
+        <v>9990</v>
       </c>
       <c r="E9" s="15">
         <f>IF(D9/10000*30&gt;=29.7, 30,D9/10000*30)</f>
-        <v>26.408999999999999</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5">
-        <v>27.552</v>
+        <v>24.544</v>
       </c>
       <c r="G9" s="11">
         <f>IF(F9&gt;0, IF(F9&lt;25, 30, IF(F9&gt;75, 10, (1-(F9-25)/(75-25))*20+10)), 0)</f>
-        <v>28.979199999999999</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12">
         <f>B9+C9+E9+G9</f>
-        <v>89.388199999999998</v>
+        <v>90</v>
       </c>
       <c r="I9" s="6"/>
       <c r="IV9" s="3"/>
@@ -2877,31 +2871,31 @@
     </row>
     <row r="10" spans="1:257" ht="25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9981</v>
+        <v>89</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9992</v>
       </c>
       <c r="E10" s="15">
         <f>IF(D10/10000*30&gt;=29.7, 30,D10/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F10" s="5">
-        <v>273.89</v>
+        <v>20.288</v>
       </c>
       <c r="G10" s="11">
         <f>IF(F10&gt;0, IF(F10&lt;25, 30, IF(F10&gt;75, 10, (1-(F10-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H10" s="12">
         <f>B10+C10+E10+G10</f>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I10" s="6"/>
       <c r="IV10" s="3"/>
@@ -2909,31 +2903,31 @@
     </row>
     <row r="11" spans="1:257" ht="25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="2">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9991</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9985</v>
       </c>
       <c r="E11" s="15">
         <f>IF(D11/10000*30&gt;=29.7, 30,D11/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F11" s="5">
-        <v>21.600999999999999</v>
+        <v>47.872999999999998</v>
       </c>
       <c r="G11" s="11">
         <f>IF(F11&gt;0, IF(F11&lt;25, 30, IF(F11&gt;75, 10, (1-(F11-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.8508</v>
       </c>
       <c r="H11" s="12">
         <f>B11+C11+E11+G11</f>
-        <v>95</v>
+        <v>80.850799999999992</v>
       </c>
       <c r="I11" s="6"/>
       <c r="IV11" s="3"/>
@@ -2941,23 +2935,23 @@
     </row>
     <row r="12" spans="1:257" ht="25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10000</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9996</v>
       </c>
       <c r="E12" s="15">
         <f>IF(D12/10000*30&gt;=29.7, 30,D12/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F12" s="5">
-        <v>24.416</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="G12" s="11">
         <f>IF(F12&gt;0, IF(F12&lt;25, 30, IF(F12&gt;75, 10, (1-(F12-25)/(75-25))*20+10)), 0)</f>
@@ -2965,39 +2959,38 @@
       </c>
       <c r="H12" s="12">
         <f>B12+C12+E12+G12</f>
-        <v>96</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>89</v>
+      </c>
       <c r="IV12" s="3"/>
       <c r="IW12" s="3"/>
     </row>
     <row r="13" spans="1:257" ht="25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>9958</v>
+        <v>8803</v>
       </c>
       <c r="E13" s="15">
         <f>IF(D13/10000*30&gt;=29.7, 30,D13/10000*30)</f>
-        <v>30</v>
+        <v>26.408999999999999</v>
       </c>
       <c r="F13" s="5">
-        <v>463.43</v>
+        <v>27.552</v>
       </c>
       <c r="G13" s="11">
         <f>IF(F13&gt;0, IF(F13&lt;25, 30, IF(F13&gt;75, 10, (1-(F13-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>28.979199999999999</v>
       </c>
       <c r="H13" s="12">
         <f>B13+C13+E13+G13</f>
-        <v>59</v>
+        <v>89.388199999999998</v>
       </c>
       <c r="I13" s="6"/>
       <c r="IV13" s="3"/>
@@ -3005,31 +2998,31 @@
     </row>
     <row r="14" spans="1:257" ht="25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="2">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9993</v>
+        <v>45</v>
+      </c>
+      <c r="B14" s="7">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9989</v>
       </c>
       <c r="E14" s="15">
         <f>IF(D14/10000*30&gt;=29.7, 30,D14/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F14" s="5">
-        <v>38.753</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G14" s="11">
         <f>IF(F14&gt;0, IF(F14&lt;25, 30, IF(F14&gt;75, 10, (1-(F14-25)/(75-25))*20+10)), 0)</f>
-        <v>24.498799999999999</v>
+        <v>30</v>
       </c>
       <c r="H14" s="12">
         <f>B14+C14+E14+G14</f>
-        <v>90.498800000000003</v>
+        <v>98</v>
       </c>
       <c r="I14" s="6"/>
       <c r="IV14" s="3"/>
@@ -3037,31 +3030,31 @@
     </row>
     <row r="15" spans="1:257" ht="25" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="7">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9992</v>
+        <v>117</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9989</v>
       </c>
       <c r="E15" s="15">
         <f>IF(D15/10000*30&gt;=29.7, 30,D15/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F15" s="5">
-        <v>18.753</v>
+        <v>245.38</v>
       </c>
       <c r="G15" s="11">
         <f>IF(F15&gt;0, IF(F15&lt;25, 30, IF(F15&gt;75, 10, (1-(F15-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H15" s="12">
         <f>B15+C15+E15+G15</f>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I15" s="6"/>
       <c r="IV15" s="3"/>
@@ -3069,55 +3062,56 @@
     </row>
     <row r="16" spans="1:257" ht="25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9988</v>
-      </c>
-      <c r="E16" s="15">
-        <f>IF(D16/10000*30&gt;=29.7, 30,D16/10000*30)</f>
-        <v>30</v>
-      </c>
-      <c r="F16" s="5">
-        <v>57.953000000000003</v>
-      </c>
-      <c r="G16" s="11">
+        <v>145</v>
+      </c>
+      <c r="B16" s="7">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
         <f>IF(F16&gt;0, IF(F16&lt;25, 30, IF(F16&gt;75, 10, (1-(F16-25)/(75-25))*20+10)), 0)</f>
-        <v>16.818799999999996</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
         <f>B16+C16+E16+G16</f>
-        <v>83.818799999999996</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>146</v>
+      </c>
       <c r="IV16" s="3"/>
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257" ht="25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>9994</v>
+        <v>122</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9995</v>
       </c>
       <c r="E17" s="15">
         <f>IF(D17/10000*30&gt;=29.7, 30,D17/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F17" s="5">
-        <v>24.417000000000002</v>
+        <v>16.32</v>
       </c>
       <c r="G17" s="11">
         <f>IF(F17&gt;0, IF(F17&lt;25, 30, IF(F17&gt;75, 10, (1-(F17-25)/(75-25))*20+10)), 0)</f>
@@ -3125,7 +3119,7 @@
       </c>
       <c r="H17" s="12">
         <f>B17+C17+E17+G17</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="6"/>
       <c r="IV17" s="3"/>
@@ -3133,46 +3127,48 @@
     </row>
     <row r="18" spans="1:257" ht="25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9992</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14">
+        <v>9990</v>
       </c>
       <c r="E18" s="15">
         <f>IF(D18/10000*30&gt;=29.7, 30,D18/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F18" s="5">
-        <v>20.16</v>
+        <v>44.414999999999999</v>
       </c>
       <c r="G18" s="11">
         <f>IF(F18&gt;0, IF(F18&lt;25, 30, IF(F18&gt;75, 10, (1-(F18-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>22.234000000000002</v>
       </c>
       <c r="H18" s="12">
-        <f>B18+C18+E18+G18</f>
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="IV18" s="3"/>
       <c r="IW18" s="3"/>
     </row>
     <row r="19" spans="1:257" ht="25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="7">
-        <v>28</v>
-      </c>
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
         <v>9987</v>
       </c>
       <c r="E19" s="15">
@@ -3180,111 +3176,112 @@
         <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>35.616</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G19" s="11">
         <f>IF(F19&gt;0, IF(F19&lt;25, 30, IF(F19&gt;75, 10, (1-(F19-25)/(75-25))*20+10)), 0)</f>
-        <v>25.753599999999999</v>
+        <v>20.223599999999998</v>
       </c>
       <c r="H19" s="12">
         <f>B19+C19+E19+G19</f>
-        <v>93.753600000000006</v>
-      </c>
+        <v>80.223600000000005</v>
+      </c>
+      <c r="I19" s="6"/>
       <c r="IV19" s="3"/>
       <c r="IW19" s="3"/>
     </row>
     <row r="20" spans="1:257" ht="25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="7">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
-        <v>9991</v>
+      <c r="D20" s="1">
+        <v>9988</v>
       </c>
       <c r="E20" s="15">
-        <v>25</v>
+        <f>IF(D20/10000*30&gt;=29.7, 30,D20/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F20" s="5">
-        <v>47.488999999999997</v>
+        <v>57.953000000000003</v>
       </c>
       <c r="G20" s="11">
         <f>IF(F20&gt;0, IF(F20&lt;25, 30, IF(F20&gt;75, 10, (1-(F20-25)/(75-25))*20+10)), 0)</f>
-        <v>21.0044</v>
+        <v>16.818799999999996</v>
       </c>
       <c r="H20" s="12">
         <f>B20+C20+E20+G20</f>
-        <v>73.004400000000004</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>83.818799999999996</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="IV20" s="3"/>
       <c r="IW20" s="3"/>
     </row>
     <row r="21" spans="1:257" ht="25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="7">
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>10000</v>
+        <v>9996</v>
       </c>
       <c r="E21" s="15">
         <f>IF(D21/10000*30&gt;=29.7, 30,D21/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F21" s="5">
-        <v>27.937000000000001</v>
+        <v>17.920999999999999</v>
       </c>
       <c r="G21" s="11">
-        <f>IF(F21&gt;0, IF(F21&lt;25, 30, IF(F21&gt;75, 10, (1-(F21-25)/(75-25))*20+10)), 0)</f>
-        <v>28.825199999999999</v>
+        <v>25</v>
       </c>
       <c r="H21" s="12">
         <f>B21+C21+E21+G21</f>
-        <v>85.825199999999995</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="IV21" s="3"/>
       <c r="IW21" s="3"/>
     </row>
     <row r="22" spans="1:257" ht="25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9990</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14">
+        <v>9991</v>
       </c>
       <c r="E22" s="15">
         <f>IF(D22/10000*30&gt;=29.7, 30,D22/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>39.073</v>
+        <v>23.36</v>
       </c>
       <c r="G22" s="11">
         <f>IF(F22&gt;0, IF(F22&lt;25, 30, IF(F22&gt;75, 10, (1-(F22-25)/(75-25))*20+10)), 0)</f>
-        <v>24.370799999999999</v>
+        <v>30</v>
       </c>
       <c r="H22" s="12">
         <f>B22+C22+E22+G22</f>
-        <v>92.370800000000003</v>
+        <v>100</v>
       </c>
       <c r="I22" s="6"/>
       <c r="IV22" s="3"/>
@@ -3292,31 +3289,31 @@
     </row>
     <row r="23" spans="1:257" ht="25" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>9990</v>
+        <v>9992</v>
       </c>
       <c r="E23" s="15">
         <f>IF(D23/10000*30&gt;=29.7, 30,D23/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>26.463999999999999</v>
+        <v>32.737000000000002</v>
       </c>
       <c r="G23" s="11">
         <f>IF(F23&gt;0, IF(F23&lt;25, 30, IF(F23&gt;75, 10, (1-(F23-25)/(75-25))*20+10)), 0)</f>
-        <v>29.414400000000001</v>
+        <v>26.905199999999997</v>
       </c>
       <c r="H23" s="12">
         <f>B23+C23+E23+G23</f>
-        <v>83.414400000000001</v>
+        <v>85.905199999999994</v>
       </c>
       <c r="I23" s="6"/>
       <c r="IV23" s="3"/>
@@ -3324,31 +3321,31 @@
     </row>
     <row r="24" spans="1:257" ht="25" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9957</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9987</v>
       </c>
       <c r="E24" s="15">
         <f>IF(D24/10000*30&gt;=29.7, 30,D24/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F24" s="5">
-        <v>67.584999999999994</v>
+        <v>120.07</v>
       </c>
       <c r="G24" s="11">
         <f>IF(F24&gt;0, IF(F24&lt;25, 30, IF(F24&gt;75, 10, (1-(F24-25)/(75-25))*20+10)), 0)</f>
-        <v>12.966000000000001</v>
+        <v>10</v>
       </c>
       <c r="H24" s="12">
         <f>B24+C24+E24+G24</f>
-        <v>62.966000000000001</v>
+        <v>71</v>
       </c>
       <c r="I24" s="6"/>
       <c r="IV24" s="3"/>
@@ -3356,31 +3353,31 @@
     </row>
     <row r="25" spans="1:257" ht="25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="7">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>9994</v>
+        <v>97</v>
+      </c>
+      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9990</v>
       </c>
       <c r="E25" s="15">
         <f>IF(D25/10000*30&gt;=29.7, 30,D25/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F25" s="5">
-        <v>48.128999999999998</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="G25" s="11">
         <f>IF(F25&gt;0, IF(F25&lt;25, 30, IF(F25&gt;75, 10, (1-(F25-25)/(75-25))*20+10)), 0)</f>
-        <v>20.7484</v>
+        <v>30</v>
       </c>
       <c r="H25" s="12">
         <f>B25+C25+E25+G25</f>
-        <v>60.748400000000004</v>
+        <v>86</v>
       </c>
       <c r="I25" s="6"/>
       <c r="IV25" s="3"/>
@@ -3388,31 +3385,31 @@
     </row>
     <row r="26" spans="1:257" ht="25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="2">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2">
-        <v>9991</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="7">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9385</v>
       </c>
       <c r="E26" s="15">
         <f>IF(D26/10000*30&gt;=29.7, 30,D26/10000*30)</f>
-        <v>30</v>
+        <v>28.155000000000001</v>
       </c>
       <c r="F26" s="5">
-        <v>30.367999999999999</v>
+        <v>26.401</v>
       </c>
       <c r="G26" s="11">
         <f>IF(F26&gt;0, IF(F26&lt;25, 30, IF(F26&gt;75, 10, (1-(F26-25)/(75-25))*20+10)), 0)</f>
-        <v>27.852799999999998</v>
+        <v>29.439599999999999</v>
       </c>
       <c r="H26" s="12">
         <f>B26+C26+E26+G26</f>
-        <v>96.852800000000002</v>
+        <v>89.5946</v>
       </c>
       <c r="I26" s="6"/>
       <c r="IV26" s="3"/>
@@ -3420,31 +3417,31 @@
     </row>
     <row r="27" spans="1:257" ht="25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9986</v>
+        <v>62</v>
+      </c>
+      <c r="B27" s="7">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9992</v>
       </c>
       <c r="E27" s="15">
         <f>IF(D27/10000*30&gt;=29.7, 30,D27/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>55.744999999999997</v>
+        <v>15.456</v>
       </c>
       <c r="G27" s="11">
         <f>IF(F27&gt;0, IF(F27&lt;25, 30, IF(F27&gt;75, 10, (1-(F27-25)/(75-25))*20+10)), 0)</f>
-        <v>17.701999999999998</v>
+        <v>30</v>
       </c>
       <c r="H27" s="12">
         <f>B27+C27+E27+G27</f>
-        <v>74.701999999999998</v>
+        <v>97</v>
       </c>
       <c r="I27" s="6"/>
       <c r="IV27" s="3"/>
@@ -3452,23 +3449,23 @@
     </row>
     <row r="28" spans="1:257" ht="25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>9593</v>
+        <v>9989</v>
       </c>
       <c r="E28" s="15">
         <f>IF(D28/10000*30&gt;=29.7, 30,D28/10000*30)</f>
-        <v>28.779</v>
+        <v>30</v>
       </c>
       <c r="F28" s="5">
-        <v>10.08</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="G28" s="11">
         <f>IF(F28&gt;0, IF(F28&lt;25, 30, IF(F28&gt;75, 10, (1-(F28-25)/(75-25))*20+10)), 0)</f>
@@ -3476,7 +3473,7 @@
       </c>
       <c r="H28" s="12">
         <f>B28+C28+E28+G28</f>
-        <v>90.778999999999996</v>
+        <v>95</v>
       </c>
       <c r="I28" s="6"/>
       <c r="IV28" s="3"/>
@@ -3484,48 +3481,47 @@
     </row>
     <row r="29" spans="1:257" ht="25" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9996</v>
+        <v>106</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9989</v>
       </c>
       <c r="E29" s="15">
         <f>IF(D29/10000*30&gt;=29.7, 30,D29/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F29" s="5">
-        <v>17.920999999999999</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="G29" s="11">
-        <v>25</v>
+        <f>IF(F29&gt;0, IF(F29&lt;25, 30, IF(F29&gt;75, 10, (1-(F29-25)/(75-25))*20+10)), 0)</f>
+        <v>10</v>
       </c>
       <c r="H29" s="12">
         <f>B29+C29+E29+G29</f>
-        <v>91</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I29" s="6"/>
       <c r="IV29" s="3"/>
       <c r="IW29" s="3"/>
     </row>
     <row r="30" spans="1:257" ht="25" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="7">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="14">
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
         <v>10000</v>
       </c>
       <c r="E30" s="15">
@@ -3533,7 +3529,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="5">
-        <v>755.91</v>
+        <v>122.27</v>
       </c>
       <c r="G30" s="11">
         <f>IF(F30&gt;0, IF(F30&lt;25, 30, IF(F30&gt;75, 10, (1-(F30-25)/(75-25))*20+10)), 0)</f>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="H30" s="12">
         <f>B30+C30+E30+G30</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="6"/>
       <c r="IV30" s="3"/>
@@ -3549,64 +3545,64 @@
     </row>
     <row r="31" spans="1:257" ht="25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="2">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2">
+        <v>144</v>
+      </c>
+      <c r="B31" s="21">
+        <v>10</v>
+      </c>
+      <c r="C31" s="21">
+        <v>8</v>
+      </c>
+      <c r="D31" s="21">
         <v>9994</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="22">
         <f>IF(D31/10000*30&gt;=29.7, 30,D31/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F31" s="5">
-        <v>26.113</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="F31" s="23">
+        <v>52.640999999999998</v>
+      </c>
+      <c r="G31" s="24">
         <f>IF(F31&gt;0, IF(F31&lt;25, 30, IF(F31&gt;75, 10, (1-(F31-25)/(75-25))*20+10)), 0)</f>
-        <v>29.5548</v>
-      </c>
-      <c r="H31" s="12">
-        <v>77</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>138</v>
+        <v>18.9436</v>
+      </c>
+      <c r="H31" s="25">
+        <v>62</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="IV31" s="3"/>
       <c r="IW31" s="3"/>
     </row>
     <row r="32" spans="1:257" ht="25" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2">
         <v>15</v>
       </c>
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9993</v>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10000</v>
       </c>
       <c r="E32" s="15">
         <f>IF(D32/10000*30&gt;=29.7, 30,D32/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>18.369</v>
+        <v>36.064</v>
       </c>
       <c r="G32" s="11">
         <f>IF(F32&gt;0, IF(F32&lt;25, 30, IF(F32&gt;75, 10, (1-(F32-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.574399999999997</v>
       </c>
       <c r="H32" s="12">
         <f>B32+C32+E32+G32</f>
-        <v>100</v>
+        <v>79.574399999999997</v>
       </c>
       <c r="I32" s="6"/>
       <c r="IV32" s="3"/>
@@ -3614,65 +3610,62 @@
     </row>
     <row r="33" spans="1:257" ht="25" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="2">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2">
+        <v>72</v>
+      </c>
+      <c r="B33" s="7">
+        <v>19</v>
+      </c>
+      <c r="C33" s="9">
         <v>8</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
+      <c r="D33" s="1">
+        <v>9988</v>
       </c>
       <c r="E33" s="15">
         <f>IF(D33/10000*30&gt;=29.7, 30,D33/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>1.1431</v>
       </c>
       <c r="G33" s="11">
         <f>IF(F33&gt;0, IF(F33&lt;25, 30, IF(F33&gt;75, 10, (1-(F33-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H33" s="12">
         <f>B33+C33+E33+G33</f>
-        <v>17</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="IV33" s="3"/>
       <c r="IW33" s="3"/>
     </row>
     <row r="34" spans="1:257" ht="25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="1">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="7">
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>9992</v>
+        <v>9990</v>
       </c>
       <c r="E34" s="15">
         <f>IF(D34/10000*30&gt;=29.7, 30,D34/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F34" s="5">
-        <v>36.993000000000002</v>
+        <v>14.945</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;0, IF(F34&lt;25, 30, IF(F34&gt;75, 10, (1-(F34-25)/(75-25))*20+10)), 0)</f>
-        <v>25.202799999999996</v>
+        <v>30</v>
       </c>
       <c r="H34" s="12">
         <f>B34+C34+E34+G34</f>
-        <v>87.202799999999996</v>
+        <v>100</v>
       </c>
       <c r="I34" s="6"/>
       <c r="IV34" s="3"/>
@@ -3680,31 +3673,31 @@
     </row>
     <row r="35" spans="1:257" ht="25" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>9989</v>
+        <v>9998</v>
       </c>
       <c r="E35" s="15">
         <f>IF(D35/10000*30&gt;=29.7, 30,D35/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F35" s="5">
-        <v>245.38</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G35" s="11">
         <f>IF(F35&gt;0, IF(F35&lt;25, 30, IF(F35&gt;75, 10, (1-(F35-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H35" s="12">
         <f>B35+C35+E35+G35</f>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I35" s="6"/>
       <c r="IV35" s="3"/>
@@ -3712,31 +3705,31 @@
     </row>
     <row r="36" spans="1:257" ht="25" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="7">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1">
-        <v>9989</v>
+        <v>125</v>
+      </c>
+      <c r="B36" s="2">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9999</v>
       </c>
       <c r="E36" s="15">
         <f>IF(D36/10000*30&gt;=29.7, 30,D36/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F36" s="5">
-        <v>16.928000000000001</v>
+        <v>118.91</v>
       </c>
       <c r="G36" s="11">
         <f>IF(F36&gt;0, IF(F36&lt;25, 30, IF(F36&gt;75, 10, (1-(F36-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H36" s="12">
         <f>B36+C36+E36+G36</f>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I36" s="6"/>
       <c r="IV36" s="3"/>
@@ -3744,95 +3737,95 @@
     </row>
     <row r="37" spans="1:257" ht="25" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="14">
+        <v>9991</v>
+      </c>
+      <c r="E37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>9992</v>
-      </c>
-      <c r="E37" s="15">
-        <f>IF(D37/10000*30&gt;=29.7, 30,D37/10000*30)</f>
-        <v>30</v>
-      </c>
       <c r="F37" s="5">
-        <v>15.456</v>
+        <v>47.488999999999997</v>
       </c>
       <c r="G37" s="11">
         <f>IF(F37&gt;0, IF(F37&lt;25, 30, IF(F37&gt;75, 10, (1-(F37-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>21.0044</v>
       </c>
       <c r="H37" s="12">
         <f>B37+C37+E37+G37</f>
-        <v>95</v>
-      </c>
-      <c r="I37" s="6"/>
+        <v>73.004400000000004</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="IV37" s="3"/>
       <c r="IW37" s="3"/>
     </row>
     <row r="38" spans="1:257" ht="25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="2">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2">
-        <v>9993</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="7">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9984</v>
       </c>
       <c r="E38" s="15">
         <f>IF(D38/10000*30&gt;=29.7, 30,D38/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F38" s="5">
-        <v>61.569000000000003</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="G38" s="11">
         <f>IF(F38&gt;0, IF(F38&lt;25, 30, IF(F38&gt;75, 10, (1-(F38-25)/(75-25))*20+10)), 0)</f>
-        <v>15.372399999999999</v>
+        <v>30</v>
       </c>
       <c r="H38" s="12">
         <f>B38+C38+E38+G38</f>
-        <v>82.372399999999999</v>
-      </c>
-      <c r="I38" s="6"/>
+        <v>92</v>
+      </c>
       <c r="IV38" s="3"/>
       <c r="IW38" s="3"/>
     </row>
     <row r="39" spans="1:257" ht="25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="7">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2">
         <v>26</v>
       </c>
-      <c r="C39" s="1">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>404</v>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9993</v>
       </c>
       <c r="E39" s="15">
         <f>IF(D39/10000*30&gt;=29.7, 30,D39/10000*30)</f>
-        <v>1.212</v>
+        <v>30</v>
       </c>
       <c r="F39" s="5">
-        <v>25.440999999999999</v>
+        <v>38.753</v>
       </c>
       <c r="G39" s="11">
         <f>IF(F39&gt;0, IF(F39&lt;25, 30, IF(F39&gt;75, 10, (1-(F39-25)/(75-25))*20+10)), 0)</f>
-        <v>29.823600000000003</v>
+        <v>24.498799999999999</v>
       </c>
       <c r="H39" s="12">
         <f>B39+C39+E39+G39</f>
-        <v>67.035600000000002</v>
+        <v>90.498800000000003</v>
       </c>
       <c r="I39" s="6"/>
       <c r="IV39" s="3"/>
@@ -3872,31 +3865,31 @@
     </row>
     <row r="41" spans="1:257" ht="25" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>9992</v>
+        <v>404</v>
       </c>
       <c r="E41" s="15">
         <f>IF(D41/10000*30&gt;=29.7, 30,D41/10000*30)</f>
-        <v>30</v>
+        <v>1.212</v>
       </c>
       <c r="F41" s="5">
-        <v>666.16</v>
+        <v>25.440999999999999</v>
       </c>
       <c r="G41" s="11">
         <f>IF(F41&gt;0, IF(F41&lt;25, 30, IF(F41&gt;75, 10, (1-(F41-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>29.823600000000003</v>
       </c>
       <c r="H41" s="12">
         <f>B41+C41+E41+G41</f>
-        <v>69</v>
+        <v>67.035600000000002</v>
       </c>
       <c r="I41" s="6"/>
       <c r="IV41" s="3"/>
@@ -3904,63 +3897,65 @@
     </row>
     <row r="42" spans="1:257" ht="25" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="2">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2">
-        <v>9999</v>
+        <v>30</v>
+      </c>
+      <c r="B42" s="7">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
       </c>
       <c r="E42" s="15">
         <f>IF(D42/10000*30&gt;=29.7, 30,D42/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>118.91</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <f>IF(F42&gt;0, IF(F42&lt;25, 30, IF(F42&gt;75, 10, (1-(F42-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12">
         <f>B42+C42+E42+G42</f>
-        <v>68</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="IV42" s="3"/>
       <c r="IW42" s="3"/>
     </row>
     <row r="43" spans="1:257" ht="25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>9991</v>
+        <v>9992</v>
       </c>
       <c r="E43" s="15">
         <f>IF(D43/10000*30&gt;=29.7, 30,D43/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F43" s="5">
-        <v>149.83000000000001</v>
+        <v>18.753</v>
       </c>
       <c r="G43" s="11">
         <f>IF(F43&gt;0, IF(F43&lt;25, 30, IF(F43&gt;75, 10, (1-(F43-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H43" s="12">
         <f>B43+C43+E43+G43</f>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I43" s="6"/>
       <c r="IV43" s="3"/>
@@ -3968,88 +3963,89 @@
     </row>
     <row r="44" spans="1:257" ht="25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B44" s="7">
+        <v>19</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>9955</v>
+        <v>8</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
       </c>
       <c r="E44" s="15">
         <f>IF(D44/10000*30&gt;=29.7, 30,D44/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>56.512999999999998</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
         <f>IF(F44&gt;0, IF(F44&lt;25, 30, IF(F44&gt;75, 10, (1-(F44-25)/(75-25))*20+10)), 0)</f>
-        <v>17.394800000000004</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>B44+C44+E44+G44</f>
-        <v>72.394800000000004</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="IV44" s="3"/>
       <c r="IW44" s="3"/>
     </row>
     <row r="45" spans="1:257" ht="25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B45" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>10</v>
       </c>
-      <c r="D45" s="20">
-        <v>9979</v>
+      <c r="D45" s="1">
+        <v>9989</v>
       </c>
       <c r="E45" s="15">
         <f>IF(D45/10000*30&gt;=29.7, 30,D45/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F45" s="19">
-        <v>19.969000000000001</v>
+      <c r="F45" s="5">
+        <v>19.841000000000001</v>
       </c>
       <c r="G45" s="11">
         <f>IF(F45&gt;0, IF(F45&lt;25, 30, IF(F45&gt;75, 10, (1-(F45-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H45" s="12">
-        <v>93</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>143</v>
-      </c>
+        <f>B45+C45+E45+G45</f>
+        <v>94</v>
+      </c>
+      <c r="I45" s="6"/>
       <c r="IV45" s="3"/>
       <c r="IW45" s="3"/>
     </row>
     <row r="46" spans="1:257" ht="25" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2">
-        <v>9995</v>
+        <v>9988</v>
       </c>
       <c r="E46" s="15">
         <f>IF(D46/10000*30&gt;=29.7, 30,D46/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F46" s="5">
-        <v>16.32</v>
+        <v>23.744</v>
       </c>
       <c r="G46" s="11">
         <f>IF(F46&gt;0, IF(F46&lt;25, 30, IF(F46&gt;75, 10, (1-(F46-25)/(75-25))*20+10)), 0)</f>
@@ -4057,7 +4053,7 @@
       </c>
       <c r="H46" s="12">
         <f>B46+C46+E46+G46</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I46" s="6"/>
       <c r="IV46" s="3"/>
@@ -4065,31 +4061,31 @@
     </row>
     <row r="47" spans="1:257" ht="25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B47" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
         <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>9989</v>
+        <v>9992</v>
       </c>
       <c r="E47" s="15">
         <f>IF(D47/10000*30&gt;=29.7, 30,D47/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F47" s="5">
-        <v>42.145000000000003</v>
+        <v>15.456</v>
       </c>
       <c r="G47" s="11">
         <f>IF(F47&gt;0, IF(F47&lt;25, 30, IF(F47&gt;75, 10, (1-(F47-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>30</v>
       </c>
       <c r="H47" s="12">
         <f>B47+C47+E47+G47</f>
-        <v>86.141999999999996</v>
+        <v>95</v>
       </c>
       <c r="I47" s="6"/>
       <c r="IV47" s="3"/>
@@ -4097,94 +4093,94 @@
     </row>
     <row r="48" spans="1:257" ht="25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="2">
-        <v>23</v>
-      </c>
-      <c r="C48" s="2">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2">
-        <v>9994</v>
+        <v>68</v>
+      </c>
+      <c r="B48" s="7">
+        <v>28</v>
+      </c>
+      <c r="C48" s="9">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9987</v>
       </c>
       <c r="E48" s="15">
         <f>IF(D48/10000*30&gt;=29.7, 30,D48/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F48" s="5">
-        <v>16.576000000000001</v>
+        <v>35.616</v>
       </c>
       <c r="G48" s="11">
         <f>IF(F48&gt;0, IF(F48&lt;25, 30, IF(F48&gt;75, 10, (1-(F48-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.753599999999999</v>
       </c>
       <c r="H48" s="12">
         <f>B48+C48+E48+G48</f>
-        <v>93</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>93.753600000000006</v>
+      </c>
       <c r="IV48" s="3"/>
       <c r="IW48" s="3"/>
     </row>
     <row r="49" spans="1:257" ht="25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="7">
-        <v>19</v>
-      </c>
-      <c r="C49" s="9">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>9996</v>
+        <v>92</v>
+      </c>
+      <c r="B49" s="2">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9991</v>
       </c>
       <c r="E49" s="15">
         <f>IF(D49/10000*30&gt;=29.7, 30,D49/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F49" s="5">
-        <v>24.928000000000001</v>
+        <v>30.367999999999999</v>
       </c>
       <c r="G49" s="11">
         <f>IF(F49&gt;0, IF(F49&lt;25, 30, IF(F49&gt;75, 10, (1-(F49-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>27.852799999999998</v>
       </c>
       <c r="H49" s="12">
         <f>B49+C49+E49+G49</f>
-        <v>89</v>
-      </c>
+        <v>96.852800000000002</v>
+      </c>
+      <c r="I49" s="6"/>
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
     <row r="50" spans="1:257" ht="25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="1">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="B50" s="7">
+        <v>28</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>9995</v>
+        <v>9990</v>
       </c>
       <c r="E50" s="15">
         <f>IF(D50/10000*30&gt;=29.7, 30,D50/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>8.5440000000000005</v>
+        <v>39.073</v>
       </c>
       <c r="G50" s="11">
         <f>IF(F50&gt;0, IF(F50&lt;25, 30, IF(F50&gt;75, 10, (1-(F50-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.370799999999999</v>
       </c>
       <c r="H50" s="12">
         <f>B50+C50+E50+G50</f>
-        <v>90</v>
+        <v>92.370800000000003</v>
       </c>
       <c r="I50" s="6"/>
       <c r="IV50" s="3"/>
@@ -4192,65 +4188,63 @@
     </row>
     <row r="51" spans="1:257" ht="25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="7">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="B51" s="2">
+        <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9986</v>
       </c>
       <c r="E51" s="15">
         <f>IF(D51/10000*30&gt;=29.7, 30,D51/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F51" s="5">
-        <v>0</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="G51" s="11">
         <f>IF(F51&gt;0, IF(F51&lt;25, 30, IF(F51&gt;75, 10, (1-(F51-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>17.701999999999998</v>
       </c>
       <c r="H51" s="12">
         <f>B51+C51+E51+G51</f>
-        <v>38</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>74.701999999999998</v>
+      </c>
+      <c r="I51" s="6"/>
       <c r="IV51" s="3"/>
       <c r="IW51" s="3"/>
     </row>
     <row r="52" spans="1:257" ht="25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
         <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>9988</v>
+        <v>9997</v>
       </c>
       <c r="E52" s="15">
         <f>IF(D52/10000*30&gt;=29.7, 30,D52/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F52" s="5">
-        <v>23.744</v>
+        <v>64.384</v>
       </c>
       <c r="G52" s="11">
         <f>IF(F52&gt;0, IF(F52&lt;25, 30, IF(F52&gt;75, 10, (1-(F52-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>14.2464</v>
       </c>
       <c r="H52" s="12">
         <f>B52+C52+E52+G52</f>
-        <v>95</v>
+        <v>69.246399999999994</v>
       </c>
       <c r="I52" s="6"/>
       <c r="IV52" s="3"/>
@@ -4258,75 +4252,78 @@
     </row>
     <row r="53" spans="1:257" ht="25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B53" s="7">
-        <v>17</v>
-      </c>
-      <c r="C53" s="9">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1">
         <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>9992</v>
+        <v>9989</v>
       </c>
       <c r="E53" s="15">
         <f>IF(D53/10000*30&gt;=29.7, 30,D53/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F53" s="5">
-        <v>21.696000000000002</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G53" s="11">
         <f>IF(F53&gt;0, IF(F53&lt;25, 30, IF(F53&gt;75, 10, (1-(F53-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H53" s="12">
         <f>B53+C53+E53+G53</f>
-        <v>87</v>
-      </c>
+        <v>86.141999999999996</v>
+      </c>
+      <c r="I53" s="6"/>
       <c r="IV53" s="3"/>
       <c r="IW53" s="3"/>
     </row>
     <row r="54" spans="1:257" ht="25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
       </c>
       <c r="D54" s="2">
-        <v>9992</v>
+        <v>0</v>
       </c>
       <c r="E54" s="15">
         <f>IF(D54/10000*30&gt;=29.7, 30,D54/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>57.249000000000002</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;0, IF(F54&lt;25, 30, IF(F54&gt;75, 10, (1-(F54-25)/(75-25))*20+10)), 0)</f>
-        <v>17.1004</v>
+        <v>0</v>
       </c>
       <c r="H54" s="12">
         <f>B54+C54+E54+G54</f>
-        <v>82.100400000000008</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="IV54" s="3"/>
     </row>
     <row r="55" spans="1:257" ht="25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B55" s="7">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C55" s="9">
+        <v>7</v>
       </c>
       <c r="D55" s="1">
         <v>9995</v>
@@ -4336,38 +4333,37 @@
         <v>30</v>
       </c>
       <c r="F55" s="5">
-        <v>667.09</v>
+        <v>36.351999999999997</v>
       </c>
       <c r="G55" s="11">
         <f>IF(F55&gt;0, IF(F55&lt;25, 30, IF(F55&gt;75, 10, (1-(F55-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25.459200000000003</v>
       </c>
       <c r="H55" s="12">
         <f>B55+C55+E55+G55</f>
-        <v>65</v>
-      </c>
-      <c r="I55" s="6"/>
+        <v>80.45920000000001</v>
+      </c>
       <c r="IV55" s="3"/>
     </row>
     <row r="56" spans="1:257" ht="25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7">
-        <v>25</v>
-      </c>
-      <c r="C56" s="9">
-        <v>10</v>
-      </c>
-      <c r="D56" s="1">
-        <v>9984</v>
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="14">
+        <v>9990</v>
       </c>
       <c r="E56" s="15">
         <f>IF(D56/10000*30&gt;=29.7, 30,D56/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F56" s="5">
-        <v>18.975999999999999</v>
+        <v>21.696999999999999</v>
       </c>
       <c r="G56" s="11">
         <f>IF(F56&gt;0, IF(F56&lt;25, 30, IF(F56&gt;75, 10, (1-(F56-25)/(75-25))*20+10)), 0)</f>
@@ -4375,21 +4371,22 @@
       </c>
       <c r="H56" s="12">
         <f>B56+C56+E56+G56</f>
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I56" s="6"/>
       <c r="IV56" s="3"/>
     </row>
     <row r="57" spans="1:257" ht="25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="7">
-        <v>30</v>
-      </c>
-      <c r="C57" s="1">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
         <v>9992</v>
       </c>
       <c r="E57" s="15">
@@ -4397,122 +4394,123 @@
         <v>30</v>
       </c>
       <c r="F57" s="5">
-        <v>15.456</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="G57" s="11">
         <f>IF(F57&gt;0, IF(F57&lt;25, 30, IF(F57&gt;75, 10, (1-(F57-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.761600000000001</v>
       </c>
       <c r="H57" s="12">
         <f>B57+C57+E57+G57</f>
-        <v>97</v>
+        <v>68.761600000000001</v>
       </c>
       <c r="I57" s="6"/>
       <c r="IV57" s="3"/>
     </row>
     <row r="58" spans="1:257" ht="25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2">
         <v>26</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
-        <v>9989</v>
-      </c>
-      <c r="E58" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="15">
         <f>IF(D58/10000*30&gt;=29.7, 30,D58/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F58" s="10">
-        <v>14.816000000000001</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="F58" s="5">
+        <v>24.416</v>
+      </c>
+      <c r="G58" s="11">
         <f>IF(F58&gt;0, IF(F58&lt;25, 30, IF(F58&gt;75, 10, (1-(F58-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H58" s="12">
         <f>B58+C58+E58+G58</f>
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I58" s="6"/>
       <c r="IV58" s="3"/>
     </row>
     <row r="59" spans="1:257" ht="25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="2">
-        <v>17</v>
-      </c>
-      <c r="C59" s="2">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3419</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="7">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9991</v>
       </c>
       <c r="E59" s="15">
         <f>IF(D59/10000*30&gt;=29.7, 30,D59/10000*30)</f>
-        <v>10.257</v>
+        <v>30</v>
       </c>
       <c r="F59" s="5">
-        <v>23.616</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="G59" s="11">
         <f>IF(F59&gt;0, IF(F59&lt;25, 30, IF(F59&gt;75, 10, (1-(F59-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H59" s="12">
         <f>B59+C59+E59+G59</f>
-        <v>67.257000000000005</v>
+        <v>72</v>
       </c>
       <c r="I59" s="6"/>
       <c r="IV59" s="3"/>
     </row>
     <row r="60" spans="1:257" ht="25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="2">
-        <v>15</v>
-      </c>
-      <c r="C60" s="2">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2">
-        <v>10000</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="7">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9994</v>
       </c>
       <c r="E60" s="15">
         <f>IF(D60/10000*30&gt;=29.7, 30,D60/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F60" s="5">
-        <v>36.064</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G60" s="11">
         <f>IF(F60&gt;0, IF(F60&lt;25, 30, IF(F60&gt;75, 10, (1-(F60-25)/(75-25))*20+10)), 0)</f>
-        <v>25.574399999999997</v>
+        <v>30</v>
       </c>
       <c r="H60" s="12">
         <f>B60+C60+E60+G60</f>
-        <v>79.574399999999997</v>
+        <v>94</v>
       </c>
       <c r="I60" s="6"/>
       <c r="IV60" s="3"/>
     </row>
     <row r="61" spans="1:257" ht="25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="2">
-        <v>10</v>
-      </c>
-      <c r="C61" s="2">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
         <v>9992</v>
       </c>
       <c r="E61" s="15">
@@ -4520,159 +4518,159 @@
         <v>30</v>
       </c>
       <c r="F61" s="5">
-        <v>48.095999999999997</v>
+        <v>21.44</v>
       </c>
       <c r="G61" s="11">
         <f>IF(F61&gt;0, IF(F61&lt;25, 30, IF(F61&gt;75, 10, (1-(F61-25)/(75-25))*20+10)), 0)</f>
-        <v>20.761600000000001</v>
+        <v>30</v>
       </c>
       <c r="H61" s="12">
         <f>B61+C61+E61+G61</f>
-        <v>68.761600000000001</v>
+        <v>88</v>
       </c>
       <c r="I61" s="6"/>
       <c r="IV61" s="3"/>
     </row>
     <row r="62" spans="1:257" ht="25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="2">
         <v>10</v>
       </c>
       <c r="D62" s="2">
-        <v>9993</v>
+        <v>9997</v>
       </c>
       <c r="E62" s="15">
         <f>IF(D62/10000*30&gt;=29.7, 30,D62/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F62" s="5">
-        <v>65.025000000000006</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="G62" s="11">
         <f>IF(F62&gt;0, IF(F62&lt;25, 30, IF(F62&gt;75, 10, (1-(F62-25)/(75-25))*20+10)), 0)</f>
-        <v>13.989999999999998</v>
+        <v>30</v>
       </c>
       <c r="H62" s="12">
         <f>B62+C62+E62+G62</f>
-        <v>74.989999999999995</v>
+        <v>90</v>
       </c>
       <c r="I62" s="6"/>
       <c r="IV62" s="3"/>
     </row>
     <row r="63" spans="1:257" ht="25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="21">
-        <v>10</v>
-      </c>
-      <c r="C63" s="21">
-        <v>8</v>
-      </c>
-      <c r="D63" s="21">
-        <v>9994</v>
-      </c>
-      <c r="E63" s="22">
+        <v>26</v>
+      </c>
+      <c r="B63" s="7">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9993</v>
+      </c>
+      <c r="E63" s="15">
         <f>IF(D63/10000*30&gt;=29.7, 30,D63/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F63" s="23">
-        <v>52.640999999999998</v>
-      </c>
-      <c r="G63" s="24">
+      <c r="F63" s="5">
+        <v>33.984000000000002</v>
+      </c>
+      <c r="G63" s="11">
         <f>IF(F63&gt;0, IF(F63&lt;25, 30, IF(F63&gt;75, 10, (1-(F63-25)/(75-25))*20+10)), 0)</f>
-        <v>18.9436</v>
-      </c>
-      <c r="H63" s="25">
-        <v>62</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>26.406399999999998</v>
+      </c>
+      <c r="H63" s="12">
+        <f>B63+C63+E63+G63</f>
+        <v>96.406399999999991</v>
+      </c>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:257" ht="25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>9990</v>
+        <v>9593</v>
       </c>
       <c r="E64" s="15">
         <f>IF(D64/10000*30&gt;=29.7, 30,D64/10000*30)</f>
-        <v>30</v>
+        <v>28.779</v>
       </c>
       <c r="F64" s="5">
-        <v>32.031999999999996</v>
+        <v>10.08</v>
       </c>
       <c r="G64" s="11">
         <f>IF(F64&gt;0, IF(F64&lt;25, 30, IF(F64&gt;75, 10, (1-(F64-25)/(75-25))*20+10)), 0)</f>
-        <v>27.187200000000004</v>
+        <v>30</v>
       </c>
       <c r="H64" s="12">
         <f>B64+C64+E64+G64</f>
-        <v>95.187200000000004</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B65" s="7">
-        <v>18</v>
-      </c>
-      <c r="C65" s="9">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
       </c>
       <c r="D65" s="1">
-        <v>9995</v>
+        <v>9982</v>
       </c>
       <c r="E65" s="15">
         <f>IF(D65/10000*30&gt;=29.7, 30,D65/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F65" s="5">
-        <v>36.351999999999997</v>
+        <v>20.096</v>
       </c>
       <c r="G65" s="11">
         <f>IF(F65&gt;0, IF(F65&lt;25, 30, IF(F65&gt;75, 10, (1-(F65-25)/(75-25))*20+10)), 0)</f>
-        <v>25.459200000000003</v>
+        <v>30</v>
       </c>
       <c r="H65" s="12">
         <f>B65+C65+E65+G65</f>
-        <v>80.45920000000001</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="2">
-        <v>16</v>
-      </c>
-      <c r="C66" s="2">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2">
-        <v>9990</v>
+        <v>32</v>
+      </c>
+      <c r="B66" s="7">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9809</v>
       </c>
       <c r="E66" s="15">
         <f>IF(D66/10000*30&gt;=29.7, 30,D66/10000*30)</f>
-        <v>30</v>
+        <v>29.427</v>
       </c>
       <c r="F66" s="5">
-        <v>15.135999999999999</v>
+        <v>16.161000000000001</v>
       </c>
       <c r="G66" s="11">
         <f>IF(F66&gt;0, IF(F66&lt;25, 30, IF(F66&gt;75, 10, (1-(F66-25)/(75-25))*20+10)), 0)</f>
@@ -4680,29 +4678,29 @@
       </c>
       <c r="H66" s="12">
         <f>B66+C66+E66+G66</f>
-        <v>86</v>
+        <v>99.426999999999992</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="1">
+        <v>113</v>
+      </c>
+      <c r="B67" s="2">
         <v>18</v>
       </c>
-      <c r="C67" s="1">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1">
-        <v>9992</v>
+      <c r="C67" s="2">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>9999</v>
       </c>
       <c r="E67" s="15">
         <f>IF(D67/10000*30&gt;=29.7, 30,D67/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>21.44</v>
+        <v>9.8239999999999998</v>
       </c>
       <c r="G67" s="11">
         <f>IF(F67&gt;0, IF(F67&lt;25, 30, IF(F67&gt;75, 10, (1-(F67-25)/(75-25))*20+10)), 0)</f>
@@ -4716,45 +4714,47 @@
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B68" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1">
-        <v>9987</v>
+        <v>10</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0</v>
       </c>
       <c r="E68" s="15">
         <f>IF(D68/10000*30&gt;=29.7, 30,D68/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F68" s="5">
-        <v>120.07</v>
+        <v>0</v>
       </c>
       <c r="G68" s="11">
         <f>IF(F68&gt;0, IF(F68&lt;25, 30, IF(F68&gt;75, 10, (1-(F68-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H68" s="12">
         <f>B68+C68+E68+G68</f>
-        <v>71</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="7">
-        <v>20</v>
-      </c>
-      <c r="C69" s="1">
-        <v>10</v>
-      </c>
-      <c r="D69" s="14">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
         <v>0</v>
       </c>
       <c r="E69" s="15">
@@ -4770,61 +4770,61 @@
       </c>
       <c r="H69" s="12">
         <f>B69+C69+E69+G69</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="2">
-        <v>21</v>
-      </c>
-      <c r="C70" s="2">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2">
-        <v>9987</v>
+        <v>16</v>
+      </c>
+      <c r="B70" s="1">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10000</v>
       </c>
       <c r="E70" s="15">
         <f>IF(D70/10000*30&gt;=29.7, 30,D70/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F70" s="5">
-        <v>49.441000000000003</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="G70" s="11">
         <f>IF(F70&gt;0, IF(F70&lt;25, 30, IF(F70&gt;75, 10, (1-(F70-25)/(75-25))*20+10)), 0)</f>
-        <v>20.223599999999998</v>
+        <v>28.825199999999999</v>
       </c>
       <c r="H70" s="12">
         <f>B70+C70+E70+G70</f>
-        <v>80.223600000000005</v>
+        <v>85.825199999999995</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="2">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="B71" s="7">
+        <v>18</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="2">
-        <v>9989</v>
+      <c r="D71" s="1">
+        <v>9996</v>
       </c>
       <c r="E71" s="15">
         <f>IF(D71/10000*30&gt;=29.7, 30,D71/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F71" s="5">
-        <v>14.784000000000001</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="G71" s="11">
         <f>IF(F71&gt;0, IF(F71&lt;25, 30, IF(F71&gt;75, 10, (1-(F71-25)/(75-25))*20+10)), 0)</f>
@@ -4832,19 +4832,19 @@
       </c>
       <c r="H71" s="12">
         <f>B71+C71+E71+G71</f>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
         <v>9992</v>
@@ -4854,29 +4854,29 @@
         <v>30</v>
       </c>
       <c r="F72" s="5">
-        <v>61.664000000000001</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="G72" s="11">
         <f>IF(F72&gt;0, IF(F72&lt;25, 30, IF(F72&gt;75, 10, (1-(F72-25)/(75-25))*20+10)), 0)</f>
-        <v>15.334399999999999</v>
+        <v>17.1004</v>
       </c>
       <c r="H72" s="12">
         <f>B72+C72+E72+G72</f>
-        <v>69.334400000000002</v>
+        <v>82.100400000000008</v>
       </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="2">
         <v>24</v>
       </c>
-      <c r="C73" s="2">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="B73" s="7">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
         <v>9992</v>
       </c>
       <c r="E73" s="15">
@@ -4884,15 +4884,15 @@
         <v>30</v>
       </c>
       <c r="F73" s="5">
-        <v>25.888000000000002</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="G73" s="11">
         <f>IF(F73&gt;0, IF(F73&lt;25, 30, IF(F73&gt;75, 10, (1-(F73-25)/(75-25))*20+10)), 0)</f>
-        <v>29.6448</v>
+        <v>25.484399999999997</v>
       </c>
       <c r="H73" s="12">
         <f>B73+C73+E73+G73</f>
-        <v>93.644800000000004</v>
+        <v>88.484399999999994</v>
       </c>
       <c r="I73" s="6"/>
     </row>
@@ -4927,53 +4927,53 @@
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>9998</v>
+        <v>9999</v>
       </c>
       <c r="E75" s="15">
         <f>IF(D75/10000*30&gt;=29.7, 30,D75/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F75" s="5">
-        <v>6.4329999999999998</v>
+        <v>198.27</v>
       </c>
       <c r="G75" s="11">
         <f>IF(F75&gt;0, IF(F75&lt;25, 30, IF(F75&gt;75, 10, (1-(F75-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H75" s="12">
         <f>B75+C75+E75+G75</f>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="2">
-        <v>12</v>
-      </c>
-      <c r="C76" s="2">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
-        <v>9992</v>
+        <v>71</v>
+      </c>
+      <c r="B76" s="7">
+        <v>25</v>
+      </c>
+      <c r="C76" s="9">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>9984</v>
       </c>
       <c r="E76" s="15">
         <f>IF(D76/10000*30&gt;=29.7, 30,D76/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F76" s="5">
-        <v>20.288</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G76" s="11">
         <f>IF(F76&gt;0, IF(F76&lt;25, 30, IF(F76&gt;75, 10, (1-(F76-25)/(75-25))*20+10)), 0)</f>
@@ -4981,121 +4981,118 @@
       </c>
       <c r="H76" s="12">
         <f>B76+C76+E76+G76</f>
-        <v>82</v>
-      </c>
-      <c r="I76" s="6"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="2">
         <v>15</v>
       </c>
-      <c r="C77" s="2">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>9993</v>
       </c>
       <c r="E77" s="15">
         <f>IF(D77/10000*30&gt;=29.7, 30,D77/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F77" s="5">
-        <v>0</v>
+        <v>18.369</v>
       </c>
       <c r="G77" s="11">
         <f>IF(F77&gt;0, IF(F77&lt;25, 30, IF(F77&gt;75, 10, (1-(F77-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H77" s="12">
         <f>B77+C77+E77+G77</f>
-        <v>24</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>9999</v>
+        <v>9990</v>
       </c>
       <c r="E78" s="15">
         <f>IF(D78/10000*30&gt;=29.7, 30,D78/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F78" s="5">
-        <v>9.8239999999999998</v>
+        <v>335.08</v>
       </c>
       <c r="G78" s="11">
         <f>IF(F78&gt;0, IF(F78&lt;25, 30, IF(F78&gt;75, 10, (1-(F78-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H78" s="12">
         <f>B78+C78+E78+G78</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="2">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2">
-        <v>9997</v>
+        <v>35</v>
+      </c>
+      <c r="B79" s="7">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9981</v>
       </c>
       <c r="E79" s="15">
         <f>IF(D79/10000*30&gt;=29.7, 30,D79/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F79" s="5">
-        <v>64.384</v>
+        <v>273.89</v>
       </c>
       <c r="G79" s="11">
         <f>IF(F79&gt;0, IF(F79&lt;25, 30, IF(F79&gt;75, 10, (1-(F79-25)/(75-25))*20+10)), 0)</f>
-        <v>14.2464</v>
+        <v>10</v>
       </c>
       <c r="H79" s="12">
         <f>B79+C79+E79+G79</f>
-        <v>69.246399999999994</v>
+        <v>58</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
       </c>
       <c r="D80" s="1">
-        <v>9994</v>
+        <v>9998</v>
       </c>
       <c r="E80" s="15">
         <f>IF(D80/10000*30&gt;=29.7, 30,D80/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F80" s="5">
-        <v>5.8879999999999999</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="G80" s="11">
         <f>IF(F80&gt;0, IF(F80&lt;25, 30, IF(F80&gt;75, 10, (1-(F80-25)/(75-25))*20+10)), 0)</f>
@@ -5103,59 +5100,58 @@
       </c>
       <c r="H80" s="12">
         <f>B80+C80+E80+G80</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="2">
-        <v>28</v>
-      </c>
-      <c r="C81" s="2">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2">
-        <v>9988</v>
+        <v>66</v>
+      </c>
+      <c r="B81" s="7">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9992</v>
       </c>
       <c r="E81" s="15">
         <f>IF(D81/10000*30&gt;=29.7, 30,D81/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F81" s="5">
-        <v>37.697000000000003</v>
+        <v>20.16</v>
       </c>
       <c r="G81" s="11">
         <f>IF(F81&gt;0, IF(F81&lt;25, 30, IF(F81&gt;75, 10, (1-(F81-25)/(75-25))*20+10)), 0)</f>
-        <v>24.921199999999999</v>
+        <v>30</v>
       </c>
       <c r="H81" s="12">
         <f>B81+C81+E81+G81</f>
-        <v>92.921199999999999</v>
-      </c>
-      <c r="I81" s="6"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
         <v>18</v>
       </c>
       <c r="C82" s="2">
         <v>10</v>
       </c>
-      <c r="D82" s="1">
-        <v>9996</v>
+      <c r="D82" s="2">
+        <v>6641</v>
       </c>
       <c r="E82" s="15">
         <f>IF(D82/10000*30&gt;=29.7, 30,D82/10000*30)</f>
-        <v>30</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="F82" s="5">
-        <v>22.751999999999999</v>
+        <v>16.128</v>
       </c>
       <c r="G82" s="11">
         <f>IF(F82&gt;0, IF(F82&lt;25, 30, IF(F82&gt;75, 10, (1-(F82-25)/(75-25))*20+10)), 0)</f>
@@ -5163,29 +5159,29 @@
       </c>
       <c r="H82" s="12">
         <f>B82+C82+E82+G82</f>
-        <v>88</v>
+        <v>77.923000000000002</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="2">
-        <v>19</v>
-      </c>
-      <c r="C83" s="2">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2">
-        <v>9994</v>
+        <v>49</v>
+      </c>
+      <c r="B83" s="7">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9784</v>
       </c>
       <c r="E83" s="15">
         <f>IF(D83/10000*30&gt;=29.7, 30,D83/10000*30)</f>
-        <v>30</v>
+        <v>29.352</v>
       </c>
       <c r="F83" s="5">
-        <v>3.2959999999999998</v>
+        <v>23.36</v>
       </c>
       <c r="G83" s="11">
         <f>IF(F83&gt;0, IF(F83&lt;25, 30, IF(F83&gt;75, 10, (1-(F83-25)/(75-25))*20+10)), 0)</f>
@@ -5193,90 +5189,90 @@
       </c>
       <c r="H83" s="12">
         <f>B83+C83+E83+G83</f>
-        <v>88</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="25" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="2">
-        <v>21</v>
-      </c>
-      <c r="C84" s="2">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2">
-        <v>9990</v>
+        <v>17</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+      <c r="D84" s="18">
+        <v>9983</v>
       </c>
       <c r="E84" s="15">
         <f>IF(D84/10000*30&gt;=29.7, 30,D84/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F84" s="5">
-        <v>24.544</v>
+      <c r="F84" s="19">
+        <v>52.161000000000001</v>
       </c>
       <c r="G84" s="11">
         <f>IF(F84&gt;0, IF(F84&lt;25, 30, IF(F84&gt;75, 10, (1-(F84-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>19.1356</v>
       </c>
       <c r="H84" s="12">
-        <f>B84+C84+E84+G84</f>
-        <v>90</v>
-      </c>
-      <c r="I84" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
       </c>
-      <c r="D85" s="18">
-        <v>9983</v>
+      <c r="D85" s="1">
+        <v>9987</v>
       </c>
       <c r="E85" s="15">
         <f>IF(D85/10000*30&gt;=29.7, 30,D85/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F85" s="19">
-        <v>52.161000000000001</v>
+      <c r="F85" s="5">
+        <v>16.864000000000001</v>
       </c>
       <c r="G85" s="11">
         <f>IF(F85&gt;0, IF(F85&lt;25, 30, IF(F85&gt;75, 10, (1-(F85-25)/(75-25))*20+10)), 0)</f>
-        <v>19.1356</v>
+        <v>30</v>
       </c>
       <c r="H85" s="12">
-        <v>74</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>144</v>
-      </c>
+        <f>B85+C85+E85+G85</f>
+        <v>100</v>
+      </c>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>9997</v>
+        <v>9994</v>
       </c>
       <c r="E86" s="15">
         <f>IF(D86/10000*30&gt;=29.7, 30,D86/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F86" s="5">
-        <v>9.2479999999999993</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="G86" s="11">
         <f>IF(F86&gt;0, IF(F86&lt;25, 30, IF(F86&gt;75, 10, (1-(F86-25)/(75-25))*20+10)), 0)</f>
@@ -5284,82 +5280,81 @@
       </c>
       <c r="H86" s="12">
         <f>B86+C86+E86+G86</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="1">
-        <v>30</v>
-      </c>
-      <c r="C87" s="1">
-        <v>10</v>
-      </c>
-      <c r="D87" s="1">
-        <v>9995</v>
+        <v>91</v>
+      </c>
+      <c r="B87" s="2">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9988</v>
       </c>
       <c r="E87" s="15">
         <f>IF(D87/10000*30&gt;=29.7, 30,D87/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F87" s="5">
-        <v>7.9039999999999999</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G87" s="11">
         <f>IF(F87&gt;0, IF(F87&lt;25, 30, IF(F87&gt;75, 10, (1-(F87-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.921199999999999</v>
       </c>
       <c r="H87" s="12">
         <f>B87+C87+E87+G87</f>
-        <v>100</v>
+        <v>92.921199999999999</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="B88" s="7">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7">
-        <v>8</v>
-      </c>
-      <c r="D88" s="7">
-        <v>0</v>
-      </c>
-      <c r="E88" s="16">
-        <v>0</v>
-      </c>
-      <c r="F88" s="10">
-        <v>0</v>
-      </c>
-      <c r="G88" s="12">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1">
+        <v>10</v>
+      </c>
+      <c r="D88" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E88" s="15">
+        <f>IF(D88/10000*30&gt;=29.7, 30,D88/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F88" s="5">
+        <v>755.91</v>
+      </c>
+      <c r="G88" s="11">
         <f>IF(F88&gt;0, IF(F88&lt;25, 30, IF(F88&gt;75, 10, (1-(F88-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H88" s="12">
         <f>B88+C88+E88+G88</f>
-        <v>26</v>
-      </c>
-      <c r="I88" s="26" t="s">
-        <v>147</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B89" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1">
         <v>10</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="14">
         <v>9995</v>
       </c>
       <c r="E89" s="15">
@@ -5367,68 +5362,68 @@
         <v>30</v>
       </c>
       <c r="F89" s="5">
-        <v>18.975999999999999</v>
+        <v>92.45</v>
       </c>
       <c r="G89" s="11">
         <f>IF(F89&gt;0, IF(F89&lt;25, 30, IF(F89&gt;75, 10, (1-(F89-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H89" s="12">
-        <f>B89+C89+E89+G89</f>
-        <v>86</v>
-      </c>
-      <c r="I89" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="7">
-        <v>18</v>
-      </c>
-      <c r="C90" s="1">
-        <v>10</v>
-      </c>
-      <c r="D90" s="14">
-        <v>9995</v>
+        <v>115</v>
+      </c>
+      <c r="B90" s="2">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2">
+        <v>9990</v>
       </c>
       <c r="E90" s="15">
         <f>IF(D90/10000*30&gt;=29.7, 30,D90/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F90" s="5">
-        <v>92.45</v>
+        <v>32.031999999999996</v>
       </c>
       <c r="G90" s="11">
         <f>IF(F90&gt;0, IF(F90&lt;25, 30, IF(F90&gt;75, 10, (1-(F90-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>27.187200000000004</v>
       </c>
       <c r="H90" s="12">
-        <v>63</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>141</v>
-      </c>
+        <f>B90+C90+E90+G90</f>
+        <v>95.187200000000004</v>
+      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B91" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>9998</v>
+        <v>9995</v>
       </c>
       <c r="E91" s="15">
         <f>IF(D91/10000*30&gt;=29.7, 30,D91/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F91" s="5">
-        <v>11.904999999999999</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G91" s="11">
         <f>IF(F91&gt;0, IF(F91&lt;25, 30, IF(F91&gt;75, 10, (1-(F91-25)/(75-25))*20+10)), 0)</f>
@@ -5436,29 +5431,29 @@
       </c>
       <c r="H91" s="12">
         <f>B91+C91+E91+G91</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B92" s="7">
-        <v>30</v>
-      </c>
-      <c r="C92" s="2">
-        <v>10</v>
-      </c>
-      <c r="D92" s="14">
-        <v>9991</v>
+        <v>17</v>
+      </c>
+      <c r="C92" s="9">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>9992</v>
       </c>
       <c r="E92" s="15">
         <f>IF(D92/10000*30&gt;=29.7, 30,D92/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F92" s="5">
-        <v>23.36</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="G92" s="11">
         <f>IF(F92&gt;0, IF(F92&lt;25, 30, IF(F92&gt;75, 10, (1-(F92-25)/(75-25))*20+10)), 0)</f>
@@ -5466,13 +5461,12 @@
       </c>
       <c r="H92" s="12">
         <f>B92+C92+E92+G92</f>
-        <v>100</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2">
         <v>15</v>
@@ -5480,198 +5474,196 @@
       <c r="C93" s="2">
         <v>9</v>
       </c>
-      <c r="D93" s="17">
-        <v>10000</v>
+      <c r="D93" s="2">
+        <v>9990</v>
       </c>
       <c r="E93" s="15">
-        <v>25</v>
+        <f>IF(D93/10000*30&gt;=29.7, 30,D93/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F93" s="5">
-        <v>17.376000000000001</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="G93" s="11">
         <f>IF(F93&gt;0, IF(F93&lt;25, 30, IF(F93&gt;75, 10, (1-(F93-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.414400000000001</v>
       </c>
       <c r="H93" s="12">
         <f>B93+C93+E93+G93</f>
-        <v>79</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>83.414400000000001</v>
+      </c>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2">
-        <v>10000</v>
+        <v>3419</v>
       </c>
       <c r="E94" s="15">
         <f>IF(D94/10000*30&gt;=29.7, 30,D94/10000*30)</f>
-        <v>30</v>
+        <v>10.257</v>
       </c>
       <c r="F94" s="5">
-        <v>61.024999999999999</v>
+        <v>23.616</v>
       </c>
       <c r="G94" s="11">
         <f>IF(F94&gt;0, IF(F94&lt;25, 30, IF(F94&gt;75, 10, (1-(F94-25)/(75-25))*20+10)), 0)</f>
-        <v>15.590000000000002</v>
+        <v>30</v>
       </c>
       <c r="H94" s="12">
         <f>B94+C94+E94+G94</f>
-        <v>72.59</v>
+        <v>67.257000000000005</v>
       </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="7">
-        <v>30</v>
-      </c>
-      <c r="C95" s="1">
-        <v>10</v>
-      </c>
-      <c r="D95" s="1">
-        <v>9993</v>
+        <v>87</v>
+      </c>
+      <c r="B95" s="2">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2">
+        <v>9955</v>
       </c>
       <c r="E95" s="15">
         <f>IF(D95/10000*30&gt;=29.7, 30,D95/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F95" s="5">
-        <v>33.984000000000002</v>
+        <v>56.512999999999998</v>
       </c>
       <c r="G95" s="11">
         <f>IF(F95&gt;0, IF(F95&lt;25, 30, IF(F95&gt;75, 10, (1-(F95-25)/(75-25))*20+10)), 0)</f>
-        <v>26.406399999999998</v>
+        <v>17.394800000000004</v>
       </c>
       <c r="H95" s="12">
         <f>B95+C95+E95+G95</f>
-        <v>96.406399999999991</v>
+        <v>72.394800000000004</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="7">
-        <v>19</v>
+        <v>118</v>
+      </c>
+      <c r="B96" s="2">
+        <v>12</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
-      </c>
-      <c r="D96" s="17">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D96" s="2">
+        <v>9994</v>
       </c>
       <c r="E96" s="15">
         <f>IF(D96/10000*30&gt;=29.7, 30,D96/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>26.113</v>
       </c>
       <c r="G96" s="11">
         <f>IF(F96&gt;0, IF(F96&lt;25, 30, IF(F96&gt;75, 10, (1-(F96-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>29.5548</v>
       </c>
       <c r="H96" s="12">
-        <f>B96+C96+E96+G96</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <v>9991</v>
+        <v>9994</v>
       </c>
       <c r="E97" s="15">
         <f>IF(D97/10000*30&gt;=29.7, 30,D97/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F97" s="5">
-        <v>47.713000000000001</v>
+        <v>48.128999999999998</v>
       </c>
       <c r="G97" s="11">
         <f>IF(F97&gt;0, IF(F97&lt;25, 30, IF(F97&gt;75, 10, (1-(F97-25)/(75-25))*20+10)), 0)</f>
-        <v>20.9148</v>
+        <v>20.7484</v>
       </c>
       <c r="H97" s="12">
         <f>B97+C97+E97+G97</f>
-        <v>63.9148</v>
+        <v>60.748400000000004</v>
       </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2">
-        <v>9999</v>
+        <v>9991</v>
       </c>
       <c r="E98" s="15">
         <f>IF(D98/10000*30&gt;=29.7, 30,D98/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F98" s="5">
-        <v>198.27</v>
+        <v>21.600999999999999</v>
       </c>
       <c r="G98" s="11">
         <f>IF(F98&gt;0, IF(F98&lt;25, 30, IF(F98&gt;75, 10, (1-(F98-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H98" s="12">
         <f>B98+C98+E98+G98</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B99" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C99" s="9">
         <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>9984</v>
+        <v>9940</v>
       </c>
       <c r="E99" s="15">
         <f>IF(D99/10000*30&gt;=29.7, 30,D99/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F99" s="5">
-        <v>16.608000000000001</v>
+        <v>19.488</v>
       </c>
       <c r="G99" s="11">
         <f>IF(F99&gt;0, IF(F99&lt;25, 30, IF(F99&gt;75, 10, (1-(F99-25)/(75-25))*20+10)), 0)</f>
@@ -5679,327 +5671,333 @@
       </c>
       <c r="H99" s="12">
         <f>B99+C99+E99+G99</f>
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="7">
-        <v>30</v>
-      </c>
-      <c r="C100" s="1">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1">
-        <v>9990</v>
+        <v>82</v>
+      </c>
+      <c r="B100" s="2">
+        <v>18</v>
+      </c>
+      <c r="C100" s="2">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10000</v>
       </c>
       <c r="E100" s="15">
         <f>IF(D100/10000*30&gt;=29.7, 30,D100/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F100" s="5">
-        <v>14.945</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="G100" s="11">
         <f>IF(F100&gt;0, IF(F100&lt;25, 30, IF(F100&gt;75, 10, (1-(F100-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.590000000000002</v>
       </c>
       <c r="H100" s="12">
         <f>B100+C100+E100+G100</f>
-        <v>100</v>
+        <v>72.59</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B101" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
         <v>10</v>
       </c>
-      <c r="D101" s="1">
-        <v>9385</v>
+      <c r="D101" s="20">
+        <v>9979</v>
       </c>
       <c r="E101" s="15">
         <f>IF(D101/10000*30&gt;=29.7, 30,D101/10000*30)</f>
-        <v>28.155000000000001</v>
-      </c>
-      <c r="F101" s="5">
-        <v>26.401</v>
+        <v>30</v>
+      </c>
+      <c r="F101" s="19">
+        <v>19.969000000000001</v>
       </c>
       <c r="G101" s="11">
         <f>IF(F101&gt;0, IF(F101&lt;25, 30, IF(F101&gt;75, 10, (1-(F101-25)/(75-25))*20+10)), 0)</f>
-        <v>29.439599999999999</v>
+        <v>30</v>
       </c>
       <c r="H101" s="12">
-        <f>B101+C101+E101+G101</f>
-        <v>89.5946</v>
-      </c>
-      <c r="I101" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="7">
-        <v>20</v>
-      </c>
-      <c r="C102" s="1">
-        <v>10</v>
-      </c>
-      <c r="D102" s="14">
-        <v>9990</v>
+        <v>102</v>
+      </c>
+      <c r="B102" s="2">
+        <v>21</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2">
+        <v>9993</v>
       </c>
       <c r="E102" s="15">
         <f>IF(D102/10000*30&gt;=29.7, 30,D102/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F102" s="5">
-        <v>21.696999999999999</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G102" s="11">
         <f>IF(F102&gt;0, IF(F102&lt;25, 30, IF(F102&gt;75, 10, (1-(F102-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>13.989999999999998</v>
       </c>
       <c r="H102" s="12">
         <f>B102+C102+E102+G102</f>
-        <v>90</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" s="7">
-        <v>19</v>
-      </c>
-      <c r="C103" s="9">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1">
-        <v>9988</v>
+        <v>108</v>
+      </c>
+      <c r="B103" s="2">
+        <v>20</v>
+      </c>
+      <c r="C103" s="2">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2">
+        <v>9975</v>
       </c>
       <c r="E103" s="15">
         <f>IF(D103/10000*30&gt;=29.7, 30,D103/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F103" s="5">
-        <v>1.1431</v>
+        <v>42.369</v>
       </c>
       <c r="G103" s="11">
         <f>IF(F103&gt;0, IF(F103&lt;25, 30, IF(F103&gt;75, 10, (1-(F103-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>23.052399999999999</v>
       </c>
       <c r="H103" s="12">
         <f>B103+C103+E103+G103</f>
-        <v>87</v>
-      </c>
+        <v>82.052400000000006</v>
+      </c>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="7">
-        <v>20</v>
-      </c>
-      <c r="C104" s="1">
-        <v>6</v>
-      </c>
-      <c r="D104" s="20">
-        <v>9991</v>
+        <v>100</v>
+      </c>
+      <c r="B104" s="2">
+        <v>28</v>
+      </c>
+      <c r="C104" s="2">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9993</v>
       </c>
       <c r="E104" s="15">
-        <v>30</v>
-      </c>
-      <c r="F104" s="19">
-        <v>16.256</v>
+        <f>IF(D104/10000*30&gt;=29.7, 30,D104/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F104" s="5">
+        <v>61.569000000000003</v>
       </c>
       <c r="G104" s="11">
         <f>IF(F104&gt;0, IF(F104&lt;25, 30, IF(F104&gt;75, 10, (1-(F104-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.372399999999999</v>
       </c>
       <c r="H104" s="12">
-        <v>81</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>144</v>
-      </c>
+        <f>B104+C104+E104+G104</f>
+        <v>82.372399999999999</v>
+      </c>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="1">
-        <v>30</v>
-      </c>
-      <c r="C105" s="1">
-        <v>10</v>
-      </c>
-      <c r="D105" s="1">
-        <v>9987</v>
+        <v>126</v>
+      </c>
+      <c r="B105" s="2">
+        <v>15</v>
+      </c>
+      <c r="C105" s="2">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
       </c>
       <c r="E105" s="15">
         <f>IF(D105/10000*30&gt;=29.7, 30,D105/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F105" s="5">
-        <v>16.864000000000001</v>
+        <v>0</v>
       </c>
       <c r="G105" s="11">
         <f>IF(F105&gt;0, IF(F105&lt;25, 30, IF(F105&gt;75, 10, (1-(F105-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H105" s="12">
         <f>B105+C105+E105+G105</f>
-        <v>100</v>
-      </c>
-      <c r="I105" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B106" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1">
-        <v>10</v>
-      </c>
-      <c r="D106" s="1">
-        <v>9992</v>
+        <v>7</v>
+      </c>
+      <c r="D106" s="14">
+        <v>0</v>
       </c>
       <c r="E106" s="15">
         <f>IF(D106/10000*30&gt;=29.7, 30,D106/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F106" s="5">
-        <v>36.289000000000001</v>
+        <v>0</v>
       </c>
       <c r="G106" s="11">
         <f>IF(F106&gt;0, IF(F106&lt;25, 30, IF(F106&gt;75, 10, (1-(F106-25)/(75-25))*20+10)), 0)</f>
-        <v>25.484399999999997</v>
+        <v>0</v>
       </c>
       <c r="H106" s="12">
         <f>B106+C106+E106+G106</f>
-        <v>88.484399999999994</v>
-      </c>
-      <c r="I106" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" s="7">
-        <v>28</v>
-      </c>
-      <c r="C107" s="1">
-        <v>10</v>
-      </c>
-      <c r="D107" s="1">
-        <v>9985</v>
+        <v>95</v>
+      </c>
+      <c r="B107" s="2">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>9994</v>
       </c>
       <c r="E107" s="15">
         <f>IF(D107/10000*30&gt;=29.7, 30,D107/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F107" s="5">
-        <v>57.920999999999999</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="G107" s="11">
         <f>IF(F107&gt;0, IF(F107&lt;25, 30, IF(F107&gt;75, 10, (1-(F107-25)/(75-25))*20+10)), 0)</f>
-        <v>16.831600000000002</v>
+        <v>30</v>
       </c>
       <c r="H107" s="12">
         <f>B107+C107+E107+G107</f>
-        <v>84.831600000000009</v>
+        <v>93</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="7">
-        <v>20</v>
-      </c>
-      <c r="C108" s="1">
-        <v>10</v>
-      </c>
-      <c r="D108" s="1">
-        <v>9985</v>
+        <v>90</v>
+      </c>
+      <c r="B108" s="2">
+        <v>24</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9992</v>
       </c>
       <c r="E108" s="15">
         <f>IF(D108/10000*30&gt;=29.7, 30,D108/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F108" s="5">
-        <v>47.872999999999998</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="G108" s="11">
         <f>IF(F108&gt;0, IF(F108&lt;25, 30, IF(F108&gt;75, 10, (1-(F108-25)/(75-25))*20+10)), 0)</f>
-        <v>20.8508</v>
+        <v>29.6448</v>
       </c>
       <c r="H108" s="12">
         <f>B108+C108+E108+G108</f>
-        <v>80.850799999999992</v>
+        <v>93.644800000000004</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B109" s="2">
-        <v>15</v>
-      </c>
-      <c r="C109" s="2">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2">
-        <v>9989</v>
+        <v>22</v>
+      </c>
+      <c r="B109" s="1">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9992</v>
       </c>
       <c r="E109" s="15">
         <f>IF(D109/10000*30&gt;=29.7, 30,D109/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F109" s="5">
-        <v>148.26</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="G109" s="11">
         <f>IF(F109&gt;0, IF(F109&lt;25, 30, IF(F109&gt;75, 10, (1-(F109-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25.202799999999996</v>
       </c>
       <c r="H109" s="12">
         <f>B109+C109+E109+G109</f>
-        <v>65</v>
+        <v>87.202799999999996</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B110" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2">
         <v>9</v>
       </c>
       <c r="D110" s="2">
-        <v>9990</v>
+        <v>9958</v>
       </c>
       <c r="E110" s="15">
         <f>IF(D110/10000*30&gt;=29.7, 30,D110/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F110" s="5">
-        <v>335.08</v>
+        <v>463.43</v>
       </c>
       <c r="G110" s="11">
         <f>IF(F110&gt;0, IF(F110&lt;25, 30, IF(F110&gt;75, 10, (1-(F110-25)/(75-25))*20+10)), 0)</f>
@@ -6007,214 +6005,211 @@
       </c>
       <c r="H110" s="12">
         <f>B110+C110+E110+G110</f>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B111" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" s="1">
-        <v>7</v>
-      </c>
-      <c r="D111" s="14">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D111" s="20">
+        <v>9991</v>
       </c>
       <c r="E111" s="15">
-        <f>IF(D111/10000*30&gt;=29.7, 30,D111/10000*30)</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F111" s="19">
+        <v>16.256</v>
       </c>
       <c r="G111" s="11">
         <f>IF(F111&gt;0, IF(F111&lt;25, 30, IF(F111&gt;75, 10, (1-(F111-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H111" s="12">
-        <f>B111+C111+E111+G111</f>
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="7">
-        <v>29</v>
-      </c>
-      <c r="C112" s="1">
-        <v>10</v>
-      </c>
-      <c r="D112" s="1">
-        <v>9999</v>
+        <v>121</v>
+      </c>
+      <c r="B112" s="2">
+        <v>21</v>
+      </c>
+      <c r="C112" s="2">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2">
+        <v>9988</v>
       </c>
       <c r="E112" s="15">
-        <v>25</v>
+        <f>IF(D112/10000*30&gt;=29.7, 30,D112/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F112" s="5">
-        <v>22.463999999999999</v>
+        <v>153.41</v>
       </c>
       <c r="G112" s="11">
         <f>IF(F112&gt;0, IF(F112&lt;25, 30, IF(F112&gt;75, 10, (1-(F112-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H112" s="12">
         <f>B112+C112+E112+G112</f>
-        <v>94</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B113" s="7">
-        <v>8</v>
-      </c>
-      <c r="C113" s="1">
-        <v>10</v>
-      </c>
-      <c r="D113" s="14">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B113" s="2">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2">
+        <v>9</v>
+      </c>
+      <c r="D113" s="17">
+        <v>10000</v>
       </c>
       <c r="E113" s="15">
-        <f>IF(D113/10000*30&gt;=29.7, 30,D113/10000*30)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F113" s="5">
-        <v>0</v>
+        <v>17.376000000000001</v>
       </c>
       <c r="G113" s="11">
         <f>IF(F113&gt;0, IF(F113&lt;25, 30, IF(F113&gt;75, 10, (1-(F113-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H113" s="12">
         <f>B113+C113+E113+G113</f>
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B114" s="7">
-        <v>30</v>
-      </c>
-      <c r="C114" s="2">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
       </c>
       <c r="D114" s="1">
-        <v>9982</v>
+        <v>9991</v>
       </c>
       <c r="E114" s="15">
         <f>IF(D114/10000*30&gt;=29.7, 30,D114/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F114" s="5">
-        <v>20.096</v>
+        <v>47.713000000000001</v>
       </c>
       <c r="G114" s="11">
         <f>IF(F114&gt;0, IF(F114&lt;25, 30, IF(F114&gt;75, 10, (1-(F114-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.9148</v>
       </c>
       <c r="H114" s="12">
         <f>B114+C114+E114+G114</f>
-        <v>100</v>
+        <v>63.9148</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B115" s="2">
-        <v>20</v>
-      </c>
-      <c r="C115" s="2">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2">
-        <v>9975</v>
+        <v>50</v>
+      </c>
+      <c r="B115" s="7">
+        <v>29</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1">
+        <v>9999</v>
       </c>
       <c r="E115" s="15">
-        <f>IF(D115/10000*30&gt;=29.7, 30,D115/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F115" s="5">
-        <v>42.369</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="G115" s="11">
         <f>IF(F115&gt;0, IF(F115&lt;25, 30, IF(F115&gt;75, 10, (1-(F115-25)/(75-25))*20+10)), 0)</f>
-        <v>23.052399999999999</v>
+        <v>30</v>
       </c>
       <c r="H115" s="12">
         <f>B115+C115+E115+G115</f>
-        <v>82.052400000000006</v>
-      </c>
-      <c r="I115" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="25" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" s="7">
-        <v>30</v>
-      </c>
-      <c r="C116" s="1">
-        <v>10</v>
-      </c>
-      <c r="D116" s="1">
-        <v>9784</v>
+        <v>86</v>
+      </c>
+      <c r="B116" s="2">
+        <v>10</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10</v>
+      </c>
+      <c r="D116" s="2">
+        <v>9957</v>
       </c>
       <c r="E116" s="15">
         <f>IF(D116/10000*30&gt;=29.7, 30,D116/10000*30)</f>
-        <v>29.352</v>
+        <v>30</v>
       </c>
       <c r="F116" s="5">
-        <v>23.36</v>
+        <v>67.584999999999994</v>
       </c>
       <c r="G116" s="11">
         <f>IF(F116&gt;0, IF(F116&lt;25, 30, IF(F116&gt;75, 10, (1-(F116-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>12.966000000000001</v>
       </c>
       <c r="H116" s="12">
         <f>B116+C116+E116+G116</f>
-        <v>99.352000000000004</v>
+        <v>62.966000000000001</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="25" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="7">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B117" s="1">
+        <v>20</v>
       </c>
       <c r="C117" s="1">
         <v>10</v>
       </c>
       <c r="D117" s="1">
-        <v>9809</v>
+        <v>9995</v>
       </c>
       <c r="E117" s="15">
         <f>IF(D117/10000*30&gt;=29.7, 30,D117/10000*30)</f>
-        <v>29.427</v>
+        <v>30</v>
       </c>
       <c r="F117" s="5">
-        <v>16.161000000000001</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="G117" s="11">
         <f>IF(F117&gt;0, IF(F117&lt;25, 30, IF(F117&gt;75, 10, (1-(F117-25)/(75-25))*20+10)), 0)</f>
@@ -6222,37 +6217,37 @@
       </c>
       <c r="H117" s="12">
         <f>B117+C117+E117+G117</f>
-        <v>99.426999999999992</v>
+        <v>90</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" s="7">
-        <v>24</v>
-      </c>
-      <c r="C118" s="1">
-        <v>10</v>
-      </c>
-      <c r="D118" s="1">
-        <v>9989</v>
+        <v>112</v>
+      </c>
+      <c r="B118" s="2">
+        <v>16</v>
+      </c>
+      <c r="C118" s="2">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2">
+        <v>9992</v>
       </c>
       <c r="E118" s="15">
         <f>IF(D118/10000*30&gt;=29.7, 30,D118/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F118" s="5">
-        <v>19.841000000000001</v>
+        <v>61.664000000000001</v>
       </c>
       <c r="G118" s="11">
         <f>IF(F118&gt;0, IF(F118&lt;25, 30, IF(F118&gt;75, 10, (1-(F118-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.334399999999999</v>
       </c>
       <c r="H118" s="12">
         <f>B118+C118+E118+G118</f>
-        <v>94</v>
+        <v>69.334400000000002</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -6271,7 +6266,7 @@
       </c>
       <c r="F120" s="10">
         <f>AVERAGE(F2:F117)</f>
-        <v>62.965035344827527</v>
+        <v>62.987380172413779</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1">

--- a/Supplements/homework-02-final-grade.xlsx
+++ b/Supplements/homework-02-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FE965-7521-384D-BFD6-4CD4E3C34D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967F3A95-0A9E-B14B-92FF-797ACF0E1B6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1740" windowWidth="29040" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>归一化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序输出结果错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2565,7 +2561,7 @@
   <dimension ref="A1:IW123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -2585,28 +2581,28 @@
   <sheetData>
     <row r="1" spans="1:257" ht="44">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -2616,63 +2612,65 @@
     </row>
     <row r="2" spans="1:257" ht="25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9985</v>
+        <v>104</v>
+      </c>
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2" s="15">
         <f>IF(D2/10000*30&gt;=29.7, 30,D2/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>57.920999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" s="11">
         <f>IF(F2&gt;0, IF(F2&lt;25, 30, IF(F2&gt;75, 10, (1-(F2-25)/(75-25))*20+10)), 0)</f>
-        <v>16.831600000000002</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>B2+C2+E2+G2</f>
-        <v>84.831600000000009</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="IV2" s="3"/>
       <c r="IW2" s="3"/>
     </row>
     <row r="3" spans="1:257" ht="25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>9992</v>
+        <v>9989</v>
       </c>
       <c r="E3" s="15">
         <f>IF(D3/10000*30&gt;=29.7, 30,D3/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F3" s="5">
-        <v>666.16</v>
+        <v>19.841000000000001</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;0, IF(F3&lt;25, 30, IF(F3&gt;75, 10, (1-(F3-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" s="12">
         <f>B3+C3+E3+G3</f>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I3" s="6"/>
       <c r="IV3" s="3"/>
@@ -2680,23 +2678,23 @@
     </row>
     <row r="4" spans="1:257" ht="25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="7">
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>9995</v>
+        <v>9992</v>
       </c>
       <c r="E4" s="15">
         <f>IF(D4/10000*30&gt;=29.7, 30,D4/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>7.9039999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="G4" s="11">
         <f>IF(F4&gt;0, IF(F4&lt;25, 30, IF(F4&gt;75, 10, (1-(F4-25)/(75-25))*20+10)), 0)</f>
@@ -2704,31 +2702,29 @@
       </c>
       <c r="H4" s="12">
         <f>B4+C4+E4+G4</f>
-        <v>100</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>95</v>
+      </c>
       <c r="IV4" s="3"/>
       <c r="IW4" s="3"/>
     </row>
     <row r="5" spans="1:257" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9994</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10000</v>
       </c>
       <c r="E5" s="15">
-        <f>IF(D5/10000*30&gt;=29.7, 30,D5/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5">
-        <v>24.417000000000002</v>
+        <v>17.376000000000001</v>
       </c>
       <c r="G5" s="11">
         <f>IF(F5&gt;0, IF(F5&lt;25, 30, IF(F5&gt;75, 10, (1-(F5-25)/(75-25))*20+10)), 0)</f>
@@ -2736,70 +2732,73 @@
       </c>
       <c r="H5" s="12">
         <f>B5+C5+E5+G5</f>
-        <v>88</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="IV5" s="3"/>
       <c r="IW5" s="3"/>
     </row>
     <row r="6" spans="1:257" ht="25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="2">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9989</v>
-      </c>
-      <c r="E6" s="16">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9988</v>
+      </c>
+      <c r="E6" s="15">
         <f>IF(D6/10000*30&gt;=29.7, 30,D6/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="10">
-        <v>14.816000000000001</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="5">
+        <v>57.953000000000003</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(F6&gt;0, IF(F6&lt;25, 30, IF(F6&gt;75, 10, (1-(F6-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.818799999999996</v>
       </c>
       <c r="H6" s="12">
         <f>B6+C6+E6+G6</f>
-        <v>94</v>
-      </c>
+        <v>83.818799999999996</v>
+      </c>
+      <c r="I6" s="6"/>
       <c r="IV6" s="3"/>
       <c r="IW6" s="3"/>
     </row>
     <row r="7" spans="1:257" ht="25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9989</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9784</v>
       </c>
       <c r="E7" s="15">
         <f>IF(D7/10000*30&gt;=29.7, 30,D7/10000*30)</f>
-        <v>30</v>
+        <v>29.352</v>
       </c>
       <c r="F7" s="5">
-        <v>148.26</v>
+        <v>23.36</v>
       </c>
       <c r="G7" s="11">
         <f>IF(F7&gt;0, IF(F7&lt;25, 30, IF(F7&gt;75, 10, (1-(F7-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H7" s="12">
         <f>B7+C7+E7+G7</f>
-        <v>65</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="I7" s="6"/>
       <c r="IV7" s="3"/>
@@ -2807,31 +2806,31 @@
     </row>
     <row r="8" spans="1:257" ht="25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>9995</v>
+        <v>9992</v>
       </c>
       <c r="E8" s="15">
         <f>IF(D8/10000*30&gt;=29.7, 30,D8/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>667.09</v>
+        <v>21.44</v>
       </c>
       <c r="G8" s="11">
         <f>IF(F8&gt;0, IF(F8&lt;25, 30, IF(F8&gt;75, 10, (1-(F8-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H8" s="12">
         <f>B8+C8+E8+G8</f>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I8" s="6"/>
       <c r="IV8" s="3"/>
@@ -2839,55 +2838,56 @@
     </row>
     <row r="9" spans="1:257" ht="25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9990</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9995</v>
       </c>
       <c r="E9" s="15">
         <f>IF(D9/10000*30&gt;=29.7, 30,D9/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F9" s="5">
-        <v>24.544</v>
+        <v>92.45</v>
       </c>
       <c r="G9" s="11">
         <f>IF(F9&gt;0, IF(F9&lt;25, 30, IF(F9&gt;75, 10, (1-(F9-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H9" s="12">
-        <f>B9+C9+E9+G9</f>
-        <v>90</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="IV9" s="3"/>
       <c r="IW9" s="3"/>
     </row>
     <row r="10" spans="1:257" ht="25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>9992</v>
+        <v>9994</v>
       </c>
       <c r="E10" s="15">
         <f>IF(D10/10000*30&gt;=29.7, 30,D10/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F10" s="5">
-        <v>20.288</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="G10" s="11">
         <f>IF(F10&gt;0, IF(F10&lt;25, 30, IF(F10&gt;75, 10, (1-(F10-25)/(75-25))*20+10)), 0)</f>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="H10" s="12">
         <f>B10+C10+E10+G10</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I10" s="6"/>
       <c r="IV10" s="3"/>
@@ -2903,102 +2903,104 @@
     </row>
     <row r="11" spans="1:257" ht="25" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>9985</v>
+        <v>9988</v>
       </c>
       <c r="E11" s="15">
         <f>IF(D11/10000*30&gt;=29.7, 30,D11/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F11" s="5">
-        <v>47.872999999999998</v>
+        <v>1.1431</v>
       </c>
       <c r="G11" s="11">
         <f>IF(F11&gt;0, IF(F11&lt;25, 30, IF(F11&gt;75, 10, (1-(F11-25)/(75-25))*20+10)), 0)</f>
-        <v>20.8508</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12">
         <f>B11+C11+E11+G11</f>
-        <v>80.850799999999992</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>87</v>
+      </c>
       <c r="IV11" s="3"/>
       <c r="IW11" s="3"/>
     </row>
     <row r="12" spans="1:257" ht="25" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9996</v>
+        <v>117</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9994</v>
       </c>
       <c r="E12" s="15">
         <f>IF(D12/10000*30&gt;=29.7, 30,D12/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F12" s="5">
-        <v>24.928000000000001</v>
+        <v>26.113</v>
       </c>
       <c r="G12" s="11">
         <f>IF(F12&gt;0, IF(F12&lt;25, 30, IF(F12&gt;75, 10, (1-(F12-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>29.5548</v>
       </c>
       <c r="H12" s="12">
-        <f>B12+C12+E12+G12</f>
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="IV12" s="3"/>
       <c r="IW12" s="3"/>
     </row>
     <row r="13" spans="1:257" ht="25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="2">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="7">
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>8803</v>
+      <c r="D13" s="14">
+        <v>9990</v>
       </c>
       <c r="E13" s="15">
         <f>IF(D13/10000*30&gt;=29.7, 30,D13/10000*30)</f>
-        <v>26.408999999999999</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>27.552</v>
+        <v>44.414999999999999</v>
       </c>
       <c r="G13" s="11">
         <f>IF(F13&gt;0, IF(F13&lt;25, 30, IF(F13&gt;75, 10, (1-(F13-25)/(75-25))*20+10)), 0)</f>
-        <v>28.979199999999999</v>
+        <v>22.234000000000002</v>
       </c>
       <c r="H13" s="12">
-        <f>B13+C13+E13+G13</f>
-        <v>89.388199999999998</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="IV13" s="3"/>
       <c r="IW13" s="3"/>
     </row>
     <row r="14" spans="1:257" ht="25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7">
         <v>28</v>
@@ -3007,22 +3009,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>9989</v>
+        <v>9985</v>
       </c>
       <c r="E14" s="15">
         <f>IF(D14/10000*30&gt;=29.7, 30,D14/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F14" s="5">
-        <v>16.928000000000001</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="G14" s="11">
         <f>IF(F14&gt;0, IF(F14&lt;25, 30, IF(F14&gt;75, 10, (1-(F14-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>16.831600000000002</v>
       </c>
       <c r="H14" s="12">
         <f>B14+C14+E14+G14</f>
-        <v>98</v>
+        <v>84.831600000000009</v>
       </c>
       <c r="I14" s="6"/>
       <c r="IV14" s="3"/>
@@ -3030,31 +3032,31 @@
     </row>
     <row r="15" spans="1:257" ht="25" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9989</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9993</v>
       </c>
       <c r="E15" s="15">
         <f>IF(D15/10000*30&gt;=29.7, 30,D15/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F15" s="5">
-        <v>245.38</v>
+        <v>18.369</v>
       </c>
       <c r="G15" s="11">
         <f>IF(F15&gt;0, IF(F15&lt;25, 30, IF(F15&gt;75, 10, (1-(F15-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12">
         <f>B15+C15+E15+G15</f>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I15" s="6"/>
       <c r="IV15" s="3"/>
@@ -3062,113 +3064,112 @@
     </row>
     <row r="16" spans="1:257" ht="25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9994</v>
+      </c>
+      <c r="E16" s="15">
+        <f>IF(D16/10000*30&gt;=29.7, 30,D16/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F16" s="5">
+        <v>48.128999999999998</v>
+      </c>
+      <c r="G16" s="11">
         <f>IF(F16&gt;0, IF(F16&lt;25, 30, IF(F16&gt;75, 10, (1-(F16-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>20.7484</v>
       </c>
       <c r="H16" s="12">
         <f>B16+C16+E16+G16</f>
-        <v>26</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>146</v>
-      </c>
+        <v>60.748400000000004</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="IV16" s="3"/>
       <c r="IW16" s="3"/>
     </row>
     <row r="17" spans="1:257" ht="25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="2">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9995</v>
-      </c>
-      <c r="E17" s="15">
-        <f>IF(D17/10000*30&gt;=29.7, 30,D17/10000*30)</f>
-        <v>30</v>
-      </c>
-      <c r="F17" s="5">
-        <v>16.32</v>
-      </c>
-      <c r="G17" s="11">
+        <v>144</v>
+      </c>
+      <c r="B17" s="7">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
         <f>IF(F17&gt;0, IF(F17&lt;25, 30, IF(F17&gt;75, 10, (1-(F17-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>B17+C17+E17+G17</f>
-        <v>87</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="IV17" s="3"/>
       <c r="IW17" s="3"/>
     </row>
     <row r="18" spans="1:257" ht="25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
       </c>
-      <c r="D18" s="14">
-        <v>9990</v>
+      <c r="D18" s="1">
+        <v>9996</v>
       </c>
       <c r="E18" s="15">
         <f>IF(D18/10000*30&gt;=29.7, 30,D18/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F18" s="5">
-        <v>44.414999999999999</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="G18" s="11">
         <f>IF(F18&gt;0, IF(F18&lt;25, 30, IF(F18&gt;75, 10, (1-(F18-25)/(75-25))*20+10)), 0)</f>
-        <v>22.234000000000002</v>
+        <v>30</v>
       </c>
       <c r="H18" s="12">
-        <v>85</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>143</v>
-      </c>
+        <f>B18+C18+E18+G18</f>
+        <v>88</v>
+      </c>
+      <c r="I18" s="6"/>
       <c r="IV18" s="3"/>
       <c r="IW18" s="3"/>
     </row>
     <row r="19" spans="1:257" ht="25" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="2">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
         <v>9987</v>
       </c>
       <c r="E19" s="15">
@@ -3176,47 +3177,46 @@
         <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>49.441000000000003</v>
+        <v>35.616</v>
       </c>
       <c r="G19" s="11">
         <f>IF(F19&gt;0, IF(F19&lt;25, 30, IF(F19&gt;75, 10, (1-(F19-25)/(75-25))*20+10)), 0)</f>
-        <v>20.223599999999998</v>
+        <v>25.753599999999999</v>
       </c>
       <c r="H19" s="12">
         <f>B19+C19+E19+G19</f>
-        <v>80.223600000000005</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>93.753600000000006</v>
+      </c>
       <c r="IV19" s="3"/>
       <c r="IW19" s="3"/>
     </row>
     <row r="20" spans="1:257" ht="25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="7">
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D20" s="1">
-        <v>9988</v>
+      <c r="D20" s="14">
+        <v>10000</v>
       </c>
       <c r="E20" s="15">
         <f>IF(D20/10000*30&gt;=29.7, 30,D20/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F20" s="5">
-        <v>57.953000000000003</v>
+        <v>755.91</v>
       </c>
       <c r="G20" s="11">
         <f>IF(F20&gt;0, IF(F20&lt;25, 30, IF(F20&gt;75, 10, (1-(F20-25)/(75-25))*20+10)), 0)</f>
-        <v>16.818799999999996</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12">
         <f>B20+C20+E20+G20</f>
-        <v>83.818799999999996</v>
+        <v>70</v>
       </c>
       <c r="I20" s="6"/>
       <c r="IV20" s="3"/>
@@ -3224,56 +3224,56 @@
     </row>
     <row r="21" spans="1:257" ht="25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="7">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
-        <v>9996</v>
+      <c r="D21" s="18">
+        <v>9983</v>
       </c>
       <c r="E21" s="15">
         <f>IF(D21/10000*30&gt;=29.7, 30,D21/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F21" s="5">
-        <v>17.920999999999999</v>
+      <c r="F21" s="19">
+        <v>52.161000000000001</v>
       </c>
       <c r="G21" s="11">
-        <v>25</v>
+        <f>IF(F21&gt;0, IF(F21&lt;25, 30, IF(F21&gt;75, 10, (1-(F21-25)/(75-25))*20+10)), 0)</f>
+        <v>19.1356</v>
       </c>
       <c r="H21" s="12">
-        <f>B21+C21+E21+G21</f>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="IV21" s="3"/>
       <c r="IW21" s="3"/>
     </row>
     <row r="22" spans="1:257" ht="25" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14">
-        <v>9991</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9996</v>
       </c>
       <c r="E22" s="15">
         <f>IF(D22/10000*30&gt;=29.7, 30,D22/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>23.36</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="G22" s="11">
         <f>IF(F22&gt;0, IF(F22&lt;25, 30, IF(F22&gt;75, 10, (1-(F22-25)/(75-25))*20+10)), 0)</f>
@@ -3281,39 +3281,38 @@
       </c>
       <c r="H22" s="12">
         <f>B22+C22+E22+G22</f>
-        <v>100</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>89</v>
+      </c>
       <c r="IV22" s="3"/>
       <c r="IW22" s="3"/>
     </row>
     <row r="23" spans="1:257" ht="25" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>9992</v>
+        <v>9990</v>
       </c>
       <c r="E23" s="15">
         <f>IF(D23/10000*30&gt;=29.7, 30,D23/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F23" s="5">
-        <v>32.737000000000002</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="G23" s="11">
         <f>IF(F23&gt;0, IF(F23&lt;25, 30, IF(F23&gt;75, 10, (1-(F23-25)/(75-25))*20+10)), 0)</f>
-        <v>26.905199999999997</v>
+        <v>29.414400000000001</v>
       </c>
       <c r="H23" s="12">
         <f>B23+C23+E23+G23</f>
-        <v>85.905199999999994</v>
+        <v>83.414400000000001</v>
       </c>
       <c r="I23" s="6"/>
       <c r="IV23" s="3"/>
@@ -3321,7 +3320,7 @@
     </row>
     <row r="24" spans="1:257" ht="25" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
@@ -3353,31 +3352,31 @@
     </row>
     <row r="25" spans="1:257" ht="25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
-        <v>9990</v>
+        <v>9958</v>
       </c>
       <c r="E25" s="15">
         <f>IF(D25/10000*30&gt;=29.7, 30,D25/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F25" s="5">
-        <v>15.135999999999999</v>
+        <v>463.43</v>
       </c>
       <c r="G25" s="11">
         <f>IF(F25&gt;0, IF(F25&lt;25, 30, IF(F25&gt;75, 10, (1-(F25-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H25" s="12">
         <f>B25+C25+E25+G25</f>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I25" s="6"/>
       <c r="IV25" s="3"/>
@@ -3385,55 +3384,57 @@
     </row>
     <row r="26" spans="1:257" ht="25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="7">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>9385</v>
+        <v>125</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
       </c>
       <c r="E26" s="15">
         <f>IF(D26/10000*30&gt;=29.7, 30,D26/10000*30)</f>
-        <v>28.155000000000001</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>26.401</v>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
         <f>IF(F26&gt;0, IF(F26&lt;25, 30, IF(F26&gt;75, 10, (1-(F26-25)/(75-25))*20+10)), 0)</f>
-        <v>29.439599999999999</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
         <f>B26+C26+E26+G26</f>
-        <v>89.5946</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="IV26" s="3"/>
       <c r="IW26" s="3"/>
     </row>
     <row r="27" spans="1:257" ht="25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
-        <v>7</v>
+      <c r="C27" s="2">
+        <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>9992</v>
+        <v>9982</v>
       </c>
       <c r="E27" s="15">
         <f>IF(D27/10000*30&gt;=29.7, 30,D27/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F27" s="5">
-        <v>15.456</v>
+        <v>20.096</v>
       </c>
       <c r="G27" s="11">
         <f>IF(F27&gt;0, IF(F27&lt;25, 30, IF(F27&gt;75, 10, (1-(F27-25)/(75-25))*20+10)), 0)</f>
@@ -3441,7 +3442,7 @@
       </c>
       <c r="H27" s="12">
         <f>B27+C27+E27+G27</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I27" s="6"/>
       <c r="IV27" s="3"/>
@@ -3449,31 +3450,31 @@
     </row>
     <row r="28" spans="1:257" ht="25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>9989</v>
+        <v>9987</v>
       </c>
       <c r="E28" s="15">
         <f>IF(D28/10000*30&gt;=29.7, 30,D28/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F28" s="5">
-        <v>14.784000000000001</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G28" s="11">
         <f>IF(F28&gt;0, IF(F28&lt;25, 30, IF(F28&gt;75, 10, (1-(F28-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.223599999999998</v>
       </c>
       <c r="H28" s="12">
         <f>B28+C28+E28+G28</f>
-        <v>95</v>
+        <v>80.223600000000005</v>
       </c>
       <c r="I28" s="6"/>
       <c r="IV28" s="3"/>
@@ -3481,23 +3482,23 @@
     </row>
     <row r="29" spans="1:257" ht="25" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="2">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9989</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="7">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9991</v>
       </c>
       <c r="E29" s="15">
         <f>IF(D29/10000*30&gt;=29.7, 30,D29/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F29" s="5">
-        <v>133.94999999999999</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="G29" s="11">
         <f>IF(F29&gt;0, IF(F29&lt;25, 30, IF(F29&gt;75, 10, (1-(F29-25)/(75-25))*20+10)), 0)</f>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="H29" s="12">
         <f>B29+C29+E29+G29</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I29" s="6"/>
       <c r="IV29" s="3"/>
@@ -3513,96 +3514,94 @@
     </row>
     <row r="30" spans="1:257" ht="25" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="2">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
-        <v>10000</v>
+        <v>74</v>
+      </c>
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9984</v>
       </c>
       <c r="E30" s="15">
         <f>IF(D30/10000*30&gt;=29.7, 30,D30/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F30" s="5">
-        <v>122.27</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="G30" s="11">
         <f>IF(F30&gt;0, IF(F30&lt;25, 30, IF(F30&gt;75, 10, (1-(F30-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H30" s="12">
         <f>B30+C30+E30+G30</f>
-        <v>69</v>
-      </c>
-      <c r="I30" s="6"/>
+        <v>92</v>
+      </c>
       <c r="IV30" s="3"/>
       <c r="IW30" s="3"/>
     </row>
     <row r="31" spans="1:257" ht="25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="21">
-        <v>10</v>
-      </c>
-      <c r="C31" s="21">
-        <v>8</v>
-      </c>
-      <c r="D31" s="21">
-        <v>9994</v>
-      </c>
-      <c r="E31" s="22">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9995</v>
+      </c>
+      <c r="E31" s="15">
         <f>IF(D31/10000*30&gt;=29.7, 30,D31/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F31" s="23">
-        <v>52.640999999999998</v>
-      </c>
-      <c r="G31" s="24">
+      <c r="F31" s="5">
+        <v>667.09</v>
+      </c>
+      <c r="G31" s="11">
         <f>IF(F31&gt;0, IF(F31&lt;25, 30, IF(F31&gt;75, 10, (1-(F31-25)/(75-25))*20+10)), 0)</f>
-        <v>18.9436</v>
-      </c>
-      <c r="H31" s="25">
-        <v>62</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>142</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H31" s="12">
+        <f>B31+C31+E31+G31</f>
+        <v>65</v>
+      </c>
+      <c r="I31" s="6"/>
       <c r="IV31" s="3"/>
       <c r="IW31" s="3"/>
     </row>
     <row r="32" spans="1:257" ht="25" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="2">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>10000</v>
+        <v>25</v>
+      </c>
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9993</v>
       </c>
       <c r="E32" s="15">
         <f>IF(D32/10000*30&gt;=29.7, 30,D32/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>36.064</v>
+        <v>33.984000000000002</v>
       </c>
       <c r="G32" s="11">
         <f>IF(F32&gt;0, IF(F32&lt;25, 30, IF(F32&gt;75, 10, (1-(F32-25)/(75-25))*20+10)), 0)</f>
-        <v>25.574399999999997</v>
+        <v>26.406399999999998</v>
       </c>
       <c r="H32" s="12">
         <f>B32+C32+E32+G32</f>
-        <v>79.574399999999997</v>
+        <v>96.406399999999991</v>
       </c>
       <c r="I32" s="6"/>
       <c r="IV32" s="3"/>
@@ -3610,23 +3609,23 @@
     </row>
     <row r="33" spans="1:257" ht="25" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B33" s="7">
-        <v>19</v>
-      </c>
-      <c r="C33" s="9">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9988</v>
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="14">
+        <v>9990</v>
       </c>
       <c r="E33" s="15">
         <f>IF(D33/10000*30&gt;=29.7, 30,D33/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F33" s="5">
-        <v>1.1431</v>
+        <v>21.696999999999999</v>
       </c>
       <c r="G33" s="11">
         <f>IF(F33&gt;0, IF(F33&lt;25, 30, IF(F33&gt;75, 10, (1-(F33-25)/(75-25))*20+10)), 0)</f>
@@ -3634,38 +3633,39 @@
       </c>
       <c r="H33" s="12">
         <f>B33+C33+E33+G33</f>
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I33" s="6"/>
       <c r="IV33" s="3"/>
       <c r="IW33" s="3"/>
     </row>
     <row r="34" spans="1:257" ht="25" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="7">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>9990</v>
+        <v>123</v>
+      </c>
+      <c r="B34" s="2">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9986</v>
       </c>
       <c r="E34" s="15">
         <f>IF(D34/10000*30&gt;=29.7, 30,D34/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F34" s="5">
-        <v>14.945</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;0, IF(F34&lt;25, 30, IF(F34&gt;75, 10, (1-(F34-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.701999999999998</v>
       </c>
       <c r="H34" s="12">
         <f>B34+C34+E34+G34</f>
-        <v>100</v>
+        <v>74.701999999999998</v>
       </c>
       <c r="I34" s="6"/>
       <c r="IV34" s="3"/>
@@ -3673,31 +3673,31 @@
     </row>
     <row r="35" spans="1:257" ht="25" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>9998</v>
+        <v>9990</v>
       </c>
       <c r="E35" s="15">
         <f>IF(D35/10000*30&gt;=29.7, 30,D35/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F35" s="5">
-        <v>6.4329999999999998</v>
+        <v>32.031999999999996</v>
       </c>
       <c r="G35" s="11">
         <f>IF(F35&gt;0, IF(F35&lt;25, 30, IF(F35&gt;75, 10, (1-(F35-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>27.187200000000004</v>
       </c>
       <c r="H35" s="12">
         <f>B35+C35+E35+G35</f>
-        <v>94</v>
+        <v>95.187200000000004</v>
       </c>
       <c r="I35" s="6"/>
       <c r="IV35" s="3"/>
@@ -3705,127 +3705,130 @@
     </row>
     <row r="36" spans="1:257" ht="25" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="2">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9999</v>
+        <v>30</v>
+      </c>
+      <c r="B36" s="7">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9996</v>
       </c>
       <c r="E36" s="15">
         <f>IF(D36/10000*30&gt;=29.7, 30,D36/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F36" s="5">
-        <v>118.91</v>
+        <v>17.920999999999999</v>
       </c>
       <c r="G36" s="11">
-        <f>IF(F36&gt;0, IF(F36&lt;25, 30, IF(F36&gt;75, 10, (1-(F36-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H36" s="12">
         <f>B36+C36+E36+G36</f>
-        <v>68</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="IV36" s="3"/>
       <c r="IW36" s="3"/>
     </row>
     <row r="37" spans="1:257" ht="25" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="7">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-      <c r="D37" s="14">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
         <v>9991</v>
       </c>
       <c r="E37" s="15">
-        <v>25</v>
+        <f>IF(D37/10000*30&gt;=29.7, 30,D37/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F37" s="5">
-        <v>47.488999999999997</v>
+        <v>30.367999999999999</v>
       </c>
       <c r="G37" s="11">
         <f>IF(F37&gt;0, IF(F37&lt;25, 30, IF(F37&gt;75, 10, (1-(F37-25)/(75-25))*20+10)), 0)</f>
-        <v>21.0044</v>
+        <v>27.852799999999998</v>
       </c>
       <c r="H37" s="12">
         <f>B37+C37+E37+G37</f>
-        <v>73.004400000000004</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>96.852800000000002</v>
+      </c>
+      <c r="I37" s="6"/>
       <c r="IV37" s="3"/>
       <c r="IW37" s="3"/>
     </row>
     <row r="38" spans="1:257" ht="25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="7">
-        <v>22</v>
-      </c>
-      <c r="C38" s="9">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <v>9984</v>
+        <v>126</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
       </c>
       <c r="E38" s="15">
         <f>IF(D38/10000*30&gt;=29.7, 30,D38/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>16.608000000000001</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <f>IF(F38&gt;0, IF(F38&lt;25, 30, IF(F38&gt;75, 10, (1-(F38-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
         <f>B38+C38+E38+G38</f>
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="IV38" s="3"/>
       <c r="IW38" s="3"/>
     </row>
     <row r="39" spans="1:257" ht="25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B39" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>9993</v>
+        <v>9997</v>
       </c>
       <c r="E39" s="15">
         <f>IF(D39/10000*30&gt;=29.7, 30,D39/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F39" s="5">
-        <v>38.753</v>
+        <v>64.384</v>
       </c>
       <c r="G39" s="11">
         <f>IF(F39&gt;0, IF(F39&lt;25, 30, IF(F39&gt;75, 10, (1-(F39-25)/(75-25))*20+10)), 0)</f>
-        <v>24.498799999999999</v>
+        <v>14.2464</v>
       </c>
       <c r="H39" s="12">
         <f>B39+C39+E39+G39</f>
-        <v>90.498800000000003</v>
+        <v>69.246399999999994</v>
       </c>
       <c r="I39" s="6"/>
       <c r="IV39" s="3"/>
@@ -3833,63 +3836,64 @@
     </row>
     <row r="40" spans="1:257" ht="25" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="2">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2">
-        <v>9981</v>
-      </c>
-      <c r="E40" s="15">
+        <v>143</v>
+      </c>
+      <c r="B40" s="21">
+        <v>10</v>
+      </c>
+      <c r="C40" s="21">
+        <v>8</v>
+      </c>
+      <c r="D40" s="21">
+        <v>9994</v>
+      </c>
+      <c r="E40" s="22">
         <f>IF(D40/10000*30&gt;=29.7, 30,D40/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F40" s="5">
-        <v>42.145000000000003</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="23">
+        <v>52.640999999999998</v>
+      </c>
+      <c r="G40" s="24">
         <f>IF(F40&gt;0, IF(F40&lt;25, 30, IF(F40&gt;75, 10, (1-(F40-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
-      </c>
-      <c r="H40" s="12">
-        <f>B40+C40+E40+G40</f>
-        <v>78.141999999999996</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>18.9436</v>
+      </c>
+      <c r="H40" s="25">
+        <v>62</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="IV40" s="3"/>
       <c r="IW40" s="3"/>
     </row>
     <row r="41" spans="1:257" ht="25" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B41" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>404</v>
+        <v>9990</v>
       </c>
       <c r="E41" s="15">
         <f>IF(D41/10000*30&gt;=29.7, 30,D41/10000*30)</f>
-        <v>1.212</v>
+        <v>30</v>
       </c>
       <c r="F41" s="5">
-        <v>25.440999999999999</v>
+        <v>14.945</v>
       </c>
       <c r="G41" s="11">
         <f>IF(F41&gt;0, IF(F41&lt;25, 30, IF(F41&gt;75, 10, (1-(F41-25)/(75-25))*20+10)), 0)</f>
-        <v>29.823600000000003</v>
+        <v>30</v>
       </c>
       <c r="H41" s="12">
         <f>B41+C41+E41+G41</f>
-        <v>67.035600000000002</v>
+        <v>100</v>
       </c>
       <c r="I41" s="6"/>
       <c r="IV41" s="3"/>
@@ -3897,65 +3901,62 @@
     </row>
     <row r="42" spans="1:257" ht="25" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="7">
-        <v>20</v>
-      </c>
-      <c r="C42" s="1">
-        <v>10</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9989</v>
+      </c>
+      <c r="E42" s="16">
         <f>IF(D42/10000*30&gt;=29.7, 30,D42/10000*30)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11">
+        <v>30</v>
+      </c>
+      <c r="F42" s="10">
+        <v>14.816000000000001</v>
+      </c>
+      <c r="G42" s="12">
         <f>IF(F42&gt;0, IF(F42&lt;25, 30, IF(F42&gt;75, 10, (1-(F42-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H42" s="12">
         <f>B42+C42+E42+G42</f>
-        <v>30</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="IV42" s="3"/>
       <c r="IW42" s="3"/>
     </row>
     <row r="43" spans="1:257" ht="25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="7">
+        <v>119</v>
+      </c>
+      <c r="B43" s="2">
         <v>24</v>
       </c>
-      <c r="C43" s="1">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9992</v>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8803</v>
       </c>
       <c r="E43" s="15">
         <f>IF(D43/10000*30&gt;=29.7, 30,D43/10000*30)</f>
-        <v>30</v>
+        <v>26.408999999999999</v>
       </c>
       <c r="F43" s="5">
-        <v>18.753</v>
+        <v>27.552</v>
       </c>
       <c r="G43" s="11">
         <f>IF(F43&gt;0, IF(F43&lt;25, 30, IF(F43&gt;75, 10, (1-(F43-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>28.979199999999999</v>
       </c>
       <c r="H43" s="12">
         <f>B43+C43+E43+G43</f>
-        <v>94</v>
+        <v>89.388199999999998</v>
       </c>
       <c r="I43" s="6"/>
       <c r="IV43" s="3"/>
@@ -3963,57 +3964,55 @@
     </row>
     <row r="44" spans="1:257" ht="25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B44" s="7">
-        <v>19</v>
-      </c>
-      <c r="C44" s="2">
-        <v>8</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9992</v>
       </c>
       <c r="E44" s="15">
         <f>IF(D44/10000*30&gt;=29.7, 30,D44/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F44" s="5">
-        <v>0</v>
+        <v>15.456</v>
       </c>
       <c r="G44" s="11">
         <f>IF(F44&gt;0, IF(F44&lt;25, 30, IF(F44&gt;75, 10, (1-(F44-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H44" s="12">
         <f>B44+C44+E44+G44</f>
-        <v>27</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I44" s="6"/>
       <c r="IV44" s="3"/>
       <c r="IW44" s="3"/>
     </row>
     <row r="45" spans="1:257" ht="25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="7">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
-        <v>9989</v>
+        <v>109</v>
+      </c>
+      <c r="B45" s="2">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9997</v>
       </c>
       <c r="E45" s="15">
         <f>IF(D45/10000*30&gt;=29.7, 30,D45/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F45" s="5">
-        <v>19.841000000000001</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="G45" s="11">
         <f>IF(F45&gt;0, IF(F45&lt;25, 30, IF(F45&gt;75, 10, (1-(F45-25)/(75-25))*20+10)), 0)</f>
@@ -4021,7 +4020,7 @@
       </c>
       <c r="H45" s="12">
         <f>B45+C45+E45+G45</f>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I45" s="6"/>
       <c r="IV45" s="3"/>
@@ -4029,31 +4028,31 @@
     </row>
     <row r="46" spans="1:257" ht="25" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2">
         <v>26</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>9988</v>
+        <v>9993</v>
       </c>
       <c r="E46" s="15">
         <f>IF(D46/10000*30&gt;=29.7, 30,D46/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F46" s="5">
-        <v>23.744</v>
+        <v>38.753</v>
       </c>
       <c r="G46" s="11">
         <f>IF(F46&gt;0, IF(F46&lt;25, 30, IF(F46&gt;75, 10, (1-(F46-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>24.498799999999999</v>
       </c>
       <c r="H46" s="12">
         <f>B46+C46+E46+G46</f>
-        <v>95</v>
+        <v>90.498800000000003</v>
       </c>
       <c r="I46" s="6"/>
       <c r="IV46" s="3"/>
@@ -4061,23 +4060,23 @@
     </row>
     <row r="47" spans="1:257" ht="25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="7">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9992</v>
+        <v>78</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3419</v>
       </c>
       <c r="E47" s="15">
         <f>IF(D47/10000*30&gt;=29.7, 30,D47/10000*30)</f>
-        <v>30</v>
+        <v>10.257</v>
       </c>
       <c r="F47" s="5">
-        <v>15.456</v>
+        <v>23.616</v>
       </c>
       <c r="G47" s="11">
         <f>IF(F47&gt;0, IF(F47&lt;25, 30, IF(F47&gt;75, 10, (1-(F47-25)/(75-25))*20+10)), 0)</f>
@@ -4085,7 +4084,7 @@
       </c>
       <c r="H47" s="12">
         <f>B47+C47+E47+G47</f>
-        <v>95</v>
+        <v>67.257000000000005</v>
       </c>
       <c r="I47" s="6"/>
       <c r="IV47" s="3"/>
@@ -4093,94 +4092,96 @@
     </row>
     <row r="48" spans="1:257" ht="25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7">
-        <v>28</v>
-      </c>
-      <c r="C48" s="9">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1">
-        <v>9987</v>
+        <v>111</v>
+      </c>
+      <c r="B48" s="2">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9992</v>
       </c>
       <c r="E48" s="15">
         <f>IF(D48/10000*30&gt;=29.7, 30,D48/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F48" s="5">
-        <v>35.616</v>
+        <v>61.664000000000001</v>
       </c>
       <c r="G48" s="11">
         <f>IF(F48&gt;0, IF(F48&lt;25, 30, IF(F48&gt;75, 10, (1-(F48-25)/(75-25))*20+10)), 0)</f>
-        <v>25.753599999999999</v>
+        <v>15.334399999999999</v>
       </c>
       <c r="H48" s="12">
         <f>B48+C48+E48+G48</f>
-        <v>93.753600000000006</v>
-      </c>
+        <v>69.334400000000002</v>
+      </c>
+      <c r="I48" s="6"/>
       <c r="IV48" s="3"/>
       <c r="IW48" s="3"/>
     </row>
     <row r="49" spans="1:257" ht="25" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="7">
         <v>29</v>
       </c>
-      <c r="C49" s="2">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2">
-        <v>9991</v>
+      <c r="C49" s="1">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9999</v>
       </c>
       <c r="E49" s="15">
-        <f>IF(D49/10000*30&gt;=29.7, 30,D49/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F49" s="5">
-        <v>30.367999999999999</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="G49" s="11">
         <f>IF(F49&gt;0, IF(F49&lt;25, 30, IF(F49&gt;75, 10, (1-(F49-25)/(75-25))*20+10)), 0)</f>
-        <v>27.852799999999998</v>
+        <v>30</v>
       </c>
       <c r="H49" s="12">
         <f>B49+C49+E49+G49</f>
-        <v>96.852800000000002</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="IV49" s="3"/>
       <c r="IW49" s="3"/>
     </row>
     <row r="50" spans="1:257" ht="25" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="7">
-        <v>28</v>
-      </c>
-      <c r="C50" s="1">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1">
-        <v>9990</v>
+        <v>106</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2">
+        <v>9981</v>
       </c>
       <c r="E50" s="15">
         <f>IF(D50/10000*30&gt;=29.7, 30,D50/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>39.073</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G50" s="11">
         <f>IF(F50&gt;0, IF(F50&lt;25, 30, IF(F50&gt;75, 10, (1-(F50-25)/(75-25))*20+10)), 0)</f>
-        <v>24.370799999999999</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H50" s="12">
         <f>B50+C50+E50+G50</f>
-        <v>92.370800000000003</v>
+        <v>78.141999999999996</v>
       </c>
       <c r="I50" s="6"/>
       <c r="IV50" s="3"/>
@@ -4188,31 +4189,31 @@
     </row>
     <row r="51" spans="1:257" ht="25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="2">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2">
-        <v>9986</v>
+        <v>64</v>
+      </c>
+      <c r="B51" s="7">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9992</v>
       </c>
       <c r="E51" s="15">
         <f>IF(D51/10000*30&gt;=29.7, 30,D51/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F51" s="5">
-        <v>55.744999999999997</v>
+        <v>15.456</v>
       </c>
       <c r="G51" s="11">
         <f>IF(F51&gt;0, IF(F51&lt;25, 30, IF(F51&gt;75, 10, (1-(F51-25)/(75-25))*20+10)), 0)</f>
-        <v>17.701999999999998</v>
+        <v>30</v>
       </c>
       <c r="H51" s="12">
         <f>B51+C51+E51+G51</f>
-        <v>74.701999999999998</v>
+        <v>95</v>
       </c>
       <c r="I51" s="6"/>
       <c r="IV51" s="3"/>
@@ -4220,31 +4221,31 @@
     </row>
     <row r="52" spans="1:257" ht="25" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="2">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2">
-        <v>9997</v>
+        <v>31</v>
+      </c>
+      <c r="B52" s="7">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9809</v>
       </c>
       <c r="E52" s="15">
         <f>IF(D52/10000*30&gt;=29.7, 30,D52/10000*30)</f>
-        <v>30</v>
+        <v>29.427</v>
       </c>
       <c r="F52" s="5">
-        <v>64.384</v>
+        <v>16.161000000000001</v>
       </c>
       <c r="G52" s="11">
         <f>IF(F52&gt;0, IF(F52&lt;25, 30, IF(F52&gt;75, 10, (1-(F52-25)/(75-25))*20+10)), 0)</f>
-        <v>14.2464</v>
+        <v>30</v>
       </c>
       <c r="H52" s="12">
         <f>B52+C52+E52+G52</f>
-        <v>69.246399999999994</v>
+        <v>99.426999999999992</v>
       </c>
       <c r="I52" s="6"/>
       <c r="IV52" s="3"/>
@@ -4252,31 +4253,31 @@
     </row>
     <row r="53" spans="1:257" ht="25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="7">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>30</v>
       </c>
       <c r="C53" s="1">
         <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>9989</v>
+        <v>9987</v>
       </c>
       <c r="E53" s="15">
         <f>IF(D53/10000*30&gt;=29.7, 30,D53/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F53" s="5">
-        <v>42.145000000000003</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="G53" s="11">
         <f>IF(F53&gt;0, IF(F53&lt;25, 30, IF(F53&gt;75, 10, (1-(F53-25)/(75-25))*20+10)), 0)</f>
-        <v>23.141999999999999</v>
+        <v>30</v>
       </c>
       <c r="H53" s="12">
         <f>B53+C53+E53+G53</f>
-        <v>86.141999999999996</v>
+        <v>100</v>
       </c>
       <c r="I53" s="6"/>
       <c r="IV53" s="3"/>
@@ -4284,210 +4285,210 @@
     </row>
     <row r="54" spans="1:257" ht="25" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="2">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B54" s="7">
+        <v>28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9989</v>
       </c>
       <c r="E54" s="15">
         <f>IF(D54/10000*30&gt;=29.7, 30,D54/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F54" s="5">
-        <v>0</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;0, IF(F54&lt;25, 30, IF(F54&gt;75, 10, (1-(F54-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H54" s="12">
         <f>B54+C54+E54+G54</f>
-        <v>28</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I54" s="6"/>
       <c r="IV54" s="3"/>
     </row>
     <row r="55" spans="1:257" ht="25" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="7">
-        <v>18</v>
-      </c>
-      <c r="C55" s="9">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1">
-        <v>9995</v>
+        <v>107</v>
+      </c>
+      <c r="B55" s="2">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9975</v>
       </c>
       <c r="E55" s="15">
         <f>IF(D55/10000*30&gt;=29.7, 30,D55/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F55" s="5">
-        <v>36.351999999999997</v>
+        <v>42.369</v>
       </c>
       <c r="G55" s="11">
         <f>IF(F55&gt;0, IF(F55&lt;25, 30, IF(F55&gt;75, 10, (1-(F55-25)/(75-25))*20+10)), 0)</f>
-        <v>25.459200000000003</v>
+        <v>23.052399999999999</v>
       </c>
       <c r="H55" s="12">
         <f>B55+C55+E55+G55</f>
-        <v>80.45920000000001</v>
-      </c>
+        <v>82.052400000000006</v>
+      </c>
+      <c r="I55" s="6"/>
       <c r="IV55" s="3"/>
     </row>
     <row r="56" spans="1:257" ht="25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B56" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>10</v>
-      </c>
-      <c r="D56" s="14">
-        <v>9990</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9991</v>
       </c>
       <c r="E56" s="15">
         <f>IF(D56/10000*30&gt;=29.7, 30,D56/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F56" s="5">
-        <v>21.696999999999999</v>
+        <v>47.713000000000001</v>
       </c>
       <c r="G56" s="11">
         <f>IF(F56&gt;0, IF(F56&lt;25, 30, IF(F56&gt;75, 10, (1-(F56-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>20.9148</v>
       </c>
       <c r="H56" s="12">
         <f>B56+C56+E56+G56</f>
-        <v>90</v>
+        <v>63.9148</v>
       </c>
       <c r="I56" s="6"/>
       <c r="IV56" s="3"/>
     </row>
     <row r="57" spans="1:257" ht="25" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="2">
-        <v>10</v>
-      </c>
-      <c r="C57" s="2">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2">
-        <v>9992</v>
+        <v>24</v>
+      </c>
+      <c r="B57" s="7">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="20">
+        <v>9979</v>
       </c>
       <c r="E57" s="15">
         <f>IF(D57/10000*30&gt;=29.7, 30,D57/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F57" s="5">
-        <v>48.095999999999997</v>
+      <c r="F57" s="19">
+        <v>19.969000000000001</v>
       </c>
       <c r="G57" s="11">
         <f>IF(F57&gt;0, IF(F57&lt;25, 30, IF(F57&gt;75, 10, (1-(F57-25)/(75-25))*20+10)), 0)</f>
-        <v>20.761600000000001</v>
+        <v>30</v>
       </c>
       <c r="H57" s="12">
-        <f>B57+C57+E57+G57</f>
-        <v>68.761600000000001</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="IV57" s="3"/>
     </row>
     <row r="58" spans="1:257" ht="25" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2">
         <v>10</v>
       </c>
       <c r="D58" s="2">
-        <v>10000</v>
+        <v>9955</v>
       </c>
       <c r="E58" s="15">
         <f>IF(D58/10000*30&gt;=29.7, 30,D58/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F58" s="5">
-        <v>24.416</v>
+        <v>56.512999999999998</v>
       </c>
       <c r="G58" s="11">
         <f>IF(F58&gt;0, IF(F58&lt;25, 30, IF(F58&gt;75, 10, (1-(F58-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>17.394800000000004</v>
       </c>
       <c r="H58" s="12">
         <f>B58+C58+E58+G58</f>
-        <v>96</v>
+        <v>72.394800000000004</v>
       </c>
       <c r="I58" s="6"/>
       <c r="IV58" s="3"/>
     </row>
     <row r="59" spans="1:257" ht="25" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="7">
-        <v>22</v>
-      </c>
-      <c r="C59" s="1">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9991</v>
+        <v>98</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9992</v>
       </c>
       <c r="E59" s="15">
         <f>IF(D59/10000*30&gt;=29.7, 30,D59/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F59" s="5">
-        <v>149.83000000000001</v>
+        <v>48.095999999999997</v>
       </c>
       <c r="G59" s="11">
         <f>IF(F59&gt;0, IF(F59&lt;25, 30, IF(F59&gt;75, 10, (1-(F59-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>20.761600000000001</v>
       </c>
       <c r="H59" s="12">
         <f>B59+C59+E59+G59</f>
-        <v>72</v>
+        <v>68.761600000000001</v>
       </c>
       <c r="I59" s="6"/>
       <c r="IV59" s="3"/>
     </row>
     <row r="60" spans="1:257" ht="25" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="7">
-        <v>24</v>
-      </c>
-      <c r="C60" s="1">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1">
-        <v>9994</v>
+        <v>108</v>
+      </c>
+      <c r="B60" s="2">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9990</v>
       </c>
       <c r="E60" s="15">
         <f>IF(D60/10000*30&gt;=29.7, 30,D60/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F60" s="5">
-        <v>5.8879999999999999</v>
+        <v>24.544</v>
       </c>
       <c r="G60" s="11">
         <f>IF(F60&gt;0, IF(F60&lt;25, 30, IF(F60&gt;75, 10, (1-(F60-25)/(75-25))*20+10)), 0)</f>
@@ -4495,30 +4496,30 @@
       </c>
       <c r="H60" s="12">
         <f>B60+C60+E60+G60</f>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I60" s="6"/>
       <c r="IV60" s="3"/>
     </row>
     <row r="61" spans="1:257" ht="25" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="1">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1">
-        <v>10</v>
-      </c>
-      <c r="D61" s="1">
-        <v>9992</v>
+        <v>77</v>
+      </c>
+      <c r="B61" s="2">
+        <v>26</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2">
+        <v>10000</v>
       </c>
       <c r="E61" s="15">
         <f>IF(D61/10000*30&gt;=29.7, 30,D61/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F61" s="5">
-        <v>21.44</v>
+        <v>24.416</v>
       </c>
       <c r="G61" s="11">
         <f>IF(F61&gt;0, IF(F61&lt;25, 30, IF(F61&gt;75, 10, (1-(F61-25)/(75-25))*20+10)), 0)</f>
@@ -4526,30 +4527,30 @@
       </c>
       <c r="H61" s="12">
         <f>B61+C61+E61+G61</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I61" s="6"/>
       <c r="IV61" s="3"/>
     </row>
     <row r="62" spans="1:257" ht="25" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="2">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2">
-        <v>10</v>
-      </c>
-      <c r="D62" s="2">
-        <v>9997</v>
+        <v>45</v>
+      </c>
+      <c r="B62" s="7">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9995</v>
       </c>
       <c r="E62" s="15">
         <f>IF(D62/10000*30&gt;=29.7, 30,D62/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F62" s="5">
-        <v>9.2479999999999993</v>
+        <v>18.975999999999999</v>
       </c>
       <c r="G62" s="11">
         <f>IF(F62&gt;0, IF(F62&lt;25, 30, IF(F62&gt;75, 10, (1-(F62-25)/(75-25))*20+10)), 0)</f>
@@ -4557,120 +4558,120 @@
       </c>
       <c r="H62" s="12">
         <f>B62+C62+E62+G62</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I62" s="6"/>
       <c r="IV62" s="3"/>
     </row>
     <row r="63" spans="1:257" ht="25" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="7">
-        <v>30</v>
-      </c>
-      <c r="C63" s="1">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1">
-        <v>9993</v>
+        <v>85</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2">
+        <v>9957</v>
       </c>
       <c r="E63" s="15">
         <f>IF(D63/10000*30&gt;=29.7, 30,D63/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F63" s="5">
-        <v>33.984000000000002</v>
+        <v>67.584999999999994</v>
       </c>
       <c r="G63" s="11">
         <f>IF(F63&gt;0, IF(F63&lt;25, 30, IF(F63&gt;75, 10, (1-(F63-25)/(75-25))*20+10)), 0)</f>
-        <v>26.406399999999998</v>
+        <v>12.966000000000001</v>
       </c>
       <c r="H63" s="12">
         <f>B63+C63+E63+G63</f>
-        <v>96.406399999999991</v>
+        <v>62.966000000000001</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:257" ht="25" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>9593</v>
+        <v>9999</v>
       </c>
       <c r="E64" s="15">
         <f>IF(D64/10000*30&gt;=29.7, 30,D64/10000*30)</f>
-        <v>28.779</v>
+        <v>30</v>
       </c>
       <c r="F64" s="5">
-        <v>10.08</v>
+        <v>198.27</v>
       </c>
       <c r="G64" s="11">
         <f>IF(F64&gt;0, IF(F64&lt;25, 30, IF(F64&gt;75, 10, (1-(F64-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H64" s="12">
         <f>B64+C64+E64+G64</f>
-        <v>90.778999999999996</v>
+        <v>65</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B65" s="7">
-        <v>30</v>
-      </c>
-      <c r="C65" s="2">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8</v>
       </c>
       <c r="D65" s="1">
-        <v>9982</v>
+        <v>9981</v>
       </c>
       <c r="E65" s="15">
         <f>IF(D65/10000*30&gt;=29.7, 30,D65/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F65" s="5">
-        <v>20.096</v>
+        <v>273.89</v>
       </c>
       <c r="G65" s="11">
         <f>IF(F65&gt;0, IF(F65&lt;25, 30, IF(F65&gt;75, 10, (1-(F65-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H65" s="12">
         <f>B65+C65+E65+G65</f>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="7">
-        <v>30</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9809</v>
+        <v>88</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9992</v>
       </c>
       <c r="E66" s="15">
         <f>IF(D66/10000*30&gt;=29.7, 30,D66/10000*30)</f>
-        <v>29.427</v>
+        <v>30</v>
       </c>
       <c r="F66" s="5">
-        <v>16.161000000000001</v>
+        <v>20.288</v>
       </c>
       <c r="G66" s="11">
         <f>IF(F66&gt;0, IF(F66&lt;25, 30, IF(F66&gt;75, 10, (1-(F66-25)/(75-25))*20+10)), 0)</f>
@@ -4678,13 +4679,13 @@
       </c>
       <c r="H66" s="12">
         <f>B66+C66+E66+G66</f>
-        <v>99.426999999999992</v>
+        <v>82</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2">
         <v>18</v>
@@ -4714,117 +4715,113 @@
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="7">
-        <v>8</v>
-      </c>
-      <c r="C68" s="1">
-        <v>10</v>
-      </c>
-      <c r="D68" s="14">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B68" s="2">
+        <v>26</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
+        <v>9988</v>
       </c>
       <c r="E68" s="15">
         <f>IF(D68/10000*30&gt;=29.7, 30,D68/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68" s="5">
-        <v>0</v>
+        <v>23.744</v>
       </c>
       <c r="G68" s="11">
         <f>IF(F68&gt;0, IF(F68&lt;25, 30, IF(F68&gt;75, 10, (1-(F68-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H68" s="12">
         <f>B68+C68+E68+G68</f>
-        <v>18</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B69" s="7">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>404</v>
       </c>
       <c r="E69" s="15">
         <f>IF(D69/10000*30&gt;=29.7, 30,D69/10000*30)</f>
-        <v>0</v>
+        <v>1.212</v>
       </c>
       <c r="F69" s="5">
-        <v>0</v>
+        <v>25.440999999999999</v>
       </c>
       <c r="G69" s="11">
         <f>IF(F69&gt;0, IF(F69&lt;25, 30, IF(F69&gt;75, 10, (1-(F69-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>29.823600000000003</v>
       </c>
       <c r="H69" s="12">
         <f>B69+C69+E69+G69</f>
-        <v>17</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>67.035600000000002</v>
+      </c>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="1">
-        <v>17</v>
-      </c>
-      <c r="C70" s="1">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1">
-        <v>10000</v>
+        <v>93</v>
+      </c>
+      <c r="B70" s="2">
+        <v>25</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9992</v>
       </c>
       <c r="E70" s="15">
         <f>IF(D70/10000*30&gt;=29.7, 30,D70/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F70" s="5">
-        <v>27.937000000000001</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="G70" s="11">
         <f>IF(F70&gt;0, IF(F70&lt;25, 30, IF(F70&gt;75, 10, (1-(F70-25)/(75-25))*20+10)), 0)</f>
-        <v>28.825199999999999</v>
+        <v>17.1004</v>
       </c>
       <c r="H70" s="12">
         <f>B70+C70+E70+G70</f>
-        <v>85.825199999999995</v>
+        <v>82.100400000000008</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="7">
+        <v>79</v>
+      </c>
+      <c r="B71" s="2">
         <v>18</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="1">
-        <v>9996</v>
+      <c r="D71" s="2">
+        <v>6641</v>
       </c>
       <c r="E71" s="15">
         <f>IF(D71/10000*30&gt;=29.7, 30,D71/10000*30)</f>
-        <v>30</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="F71" s="5">
-        <v>22.751999999999999</v>
+        <v>16.128</v>
       </c>
       <c r="G71" s="11">
         <f>IF(F71&gt;0, IF(F71&lt;25, 30, IF(F71&gt;75, 10, (1-(F71-25)/(75-25))*20+10)), 0)</f>
@@ -4832,297 +4829,302 @@
       </c>
       <c r="H71" s="12">
         <f>B71+C71+E71+G71</f>
-        <v>88</v>
+        <v>77.923000000000002</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="2">
-        <v>25</v>
-      </c>
-      <c r="C72" s="2">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2">
-        <v>9992</v>
+        <v>72</v>
+      </c>
+      <c r="B72" s="7">
+        <v>10</v>
+      </c>
+      <c r="C72" s="9">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9940</v>
       </c>
       <c r="E72" s="15">
         <f>IF(D72/10000*30&gt;=29.7, 30,D72/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F72" s="5">
-        <v>57.249000000000002</v>
+        <v>19.488</v>
       </c>
       <c r="G72" s="11">
         <f>IF(F72&gt;0, IF(F72&lt;25, 30, IF(F72&gt;75, 10, (1-(F72-25)/(75-25))*20+10)), 0)</f>
-        <v>17.1004</v>
+        <v>30</v>
       </c>
       <c r="H72" s="12">
         <f>B72+C72+E72+G72</f>
-        <v>82.100400000000008</v>
-      </c>
-      <c r="I72" s="6"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="7">
-        <v>23</v>
-      </c>
-      <c r="C73" s="1">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1">
-        <v>9992</v>
+        <v>115</v>
+      </c>
+      <c r="B73" s="2">
+        <v>25</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>9998</v>
       </c>
       <c r="E73" s="15">
         <f>IF(D73/10000*30&gt;=29.7, 30,D73/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F73" s="5">
-        <v>36.289000000000001</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="G73" s="11">
         <f>IF(F73&gt;0, IF(F73&lt;25, 30, IF(F73&gt;75, 10, (1-(F73-25)/(75-25))*20+10)), 0)</f>
-        <v>25.484399999999997</v>
+        <v>30</v>
       </c>
       <c r="H73" s="12">
         <f>B73+C73+E73+G73</f>
-        <v>88.484399999999994</v>
+        <v>94</v>
       </c>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="25" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="7">
-        <v>19</v>
-      </c>
-      <c r="C74" s="9">
+        <v>15</v>
+      </c>
+      <c r="B74" s="1">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1">
         <v>10</v>
       </c>
       <c r="D74" s="1">
-        <v>9972</v>
+        <v>10000</v>
       </c>
       <c r="E74" s="15">
         <f>IF(D74/10000*30&gt;=29.7, 30,D74/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F74" s="5">
-        <v>29.888999999999999</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="G74" s="11">
         <f>IF(F74&gt;0, IF(F74&lt;25, 30, IF(F74&gt;75, 10, (1-(F74-25)/(75-25))*20+10)), 0)</f>
-        <v>28.0444</v>
+        <v>28.825199999999999</v>
       </c>
       <c r="H74" s="12">
         <f>B74+C74+E74+G74</f>
-        <v>87.044399999999996</v>
-      </c>
+        <v>85.825199999999995</v>
+      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
-        <v>9999</v>
+        <v>9993</v>
       </c>
       <c r="E75" s="15">
         <f>IF(D75/10000*30&gt;=29.7, 30,D75/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F75" s="5">
-        <v>198.27</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G75" s="11">
         <f>IF(F75&gt;0, IF(F75&lt;25, 30, IF(F75&gt;75, 10, (1-(F75-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>13.989999999999998</v>
       </c>
       <c r="H75" s="12">
         <f>B75+C75+E75+G75</f>
-        <v>65</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="7">
-        <v>25</v>
-      </c>
-      <c r="C76" s="9">
+        <v>21</v>
+      </c>
+      <c r="B76" s="1">
+        <v>22</v>
+      </c>
+      <c r="C76" s="1">
         <v>10</v>
       </c>
       <c r="D76" s="1">
-        <v>9984</v>
+        <v>9992</v>
       </c>
       <c r="E76" s="15">
         <f>IF(D76/10000*30&gt;=29.7, 30,D76/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F76" s="5">
-        <v>18.975999999999999</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="G76" s="11">
         <f>IF(F76&gt;0, IF(F76&lt;25, 30, IF(F76&gt;75, 10, (1-(F76-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.202799999999996</v>
       </c>
       <c r="H76" s="12">
         <f>B76+C76+E76+G76</f>
-        <v>95</v>
-      </c>
+        <v>87.202799999999996</v>
+      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="1">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="B77" s="7">
+        <v>8</v>
       </c>
       <c r="C77" s="1">
         <v>10</v>
       </c>
-      <c r="D77" s="1">
-        <v>9993</v>
+      <c r="D77" s="14">
+        <v>0</v>
       </c>
       <c r="E77" s="15">
         <f>IF(D77/10000*30&gt;=29.7, 30,D77/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>18.369</v>
+        <v>0</v>
       </c>
       <c r="G77" s="11">
         <f>IF(F77&gt;0, IF(F77&lt;25, 30, IF(F77&gt;75, 10, (1-(F77-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H77" s="12">
         <f>B77+C77+E77+G77</f>
-        <v>100</v>
-      </c>
-      <c r="I77" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="2">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1">
         <v>20</v>
       </c>
-      <c r="C78" s="2">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2">
-        <v>9990</v>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9995</v>
       </c>
       <c r="E78" s="15">
         <f>IF(D78/10000*30&gt;=29.7, 30,D78/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F78" s="5">
-        <v>335.08</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="G78" s="11">
         <f>IF(F78&gt;0, IF(F78&lt;25, 30, IF(F78&gt;75, 10, (1-(F78-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H78" s="12">
         <f>B78+C78+E78+G78</f>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B79" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
-        <v>9981</v>
+        <v>9989</v>
       </c>
       <c r="E79" s="15">
         <f>IF(D79/10000*30&gt;=29.7, 30,D79/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F79" s="5">
-        <v>273.89</v>
+        <v>42.145000000000003</v>
       </c>
       <c r="G79" s="11">
         <f>IF(F79&gt;0, IF(F79&lt;25, 30, IF(F79&gt;75, 10, (1-(F79-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>23.141999999999999</v>
       </c>
       <c r="H79" s="12">
         <f>B79+C79+E79+G79</f>
-        <v>58</v>
+        <v>86.141999999999996</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B80" s="7">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1">
-        <v>9998</v>
+        <v>19</v>
+      </c>
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
       </c>
       <c r="E80" s="15">
         <f>IF(D80/10000*30&gt;=29.7, 30,D80/10000*30)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F80" s="5">
-        <v>11.904999999999999</v>
+        <v>0</v>
       </c>
       <c r="G80" s="11">
         <f>IF(F80&gt;0, IF(F80&lt;25, 30, IF(F80&gt;75, 10, (1-(F80-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H80" s="12">
         <f>B80+C80+E80+G80</f>
-        <v>87</v>
-      </c>
-      <c r="I80" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B81" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1">
         <v>10</v>
       </c>
       <c r="D81" s="1">
-        <v>9992</v>
+        <v>9994</v>
       </c>
       <c r="E81" s="15">
         <f>IF(D81/10000*30&gt;=29.7, 30,D81/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F81" s="5">
-        <v>20.16</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="G81" s="11">
         <f>IF(F81&gt;0, IF(F81&lt;25, 30, IF(F81&gt;75, 10, (1-(F81-25)/(75-25))*20+10)), 0)</f>
@@ -5130,58 +5132,59 @@
       </c>
       <c r="H81" s="12">
         <f>B81+C81+E81+G81</f>
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2">
-        <v>6641</v>
+        <v>9988</v>
       </c>
       <c r="E82" s="15">
         <f>IF(D82/10000*30&gt;=29.7, 30,D82/10000*30)</f>
-        <v>19.923000000000002</v>
+        <v>30</v>
       </c>
       <c r="F82" s="5">
-        <v>16.128</v>
+        <v>153.41</v>
       </c>
       <c r="G82" s="11">
         <f>IF(F82&gt;0, IF(F82&lt;25, 30, IF(F82&gt;75, 10, (1-(F82-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H82" s="12">
         <f>B82+C82+E82+G82</f>
-        <v>77.923000000000002</v>
+        <v>70</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="7">
-        <v>30</v>
-      </c>
-      <c r="C83" s="1">
-        <v>10</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9784</v>
+        <v>94</v>
+      </c>
+      <c r="B83" s="2">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9994</v>
       </c>
       <c r="E83" s="15">
         <f>IF(D83/10000*30&gt;=29.7, 30,D83/10000*30)</f>
-        <v>29.352</v>
+        <v>30</v>
       </c>
       <c r="F83" s="5">
-        <v>23.36</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="G83" s="11">
         <f>IF(F83&gt;0, IF(F83&lt;25, 30, IF(F83&gt;75, 10, (1-(F83-25)/(75-25))*20+10)), 0)</f>
@@ -5189,90 +5192,90 @@
       </c>
       <c r="H83" s="12">
         <f>B83+C83+E83+G83</f>
-        <v>99.352000000000004</v>
+        <v>93</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="25" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="1">
-        <v>20</v>
-      </c>
-      <c r="C84" s="1">
-        <v>10</v>
-      </c>
-      <c r="D84" s="18">
-        <v>9983</v>
+        <v>53</v>
+      </c>
+      <c r="B84" s="7">
+        <v>30</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10</v>
+      </c>
+      <c r="D84" s="14">
+        <v>9991</v>
       </c>
       <c r="E84" s="15">
         <f>IF(D84/10000*30&gt;=29.7, 30,D84/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F84" s="19">
-        <v>52.161000000000001</v>
+      <c r="F84" s="5">
+        <v>23.36</v>
       </c>
       <c r="G84" s="11">
         <f>IF(F84&gt;0, IF(F84&lt;25, 30, IF(F84&gt;75, 10, (1-(F84-25)/(75-25))*20+10)), 0)</f>
-        <v>19.1356</v>
+        <v>30</v>
       </c>
       <c r="H84" s="12">
-        <v>74</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>143</v>
-      </c>
+        <f>B84+C84+E84+G84</f>
+        <v>100</v>
+      </c>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B85" s="7">
+        <v>17</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
       </c>
-      <c r="D85" s="1">
-        <v>9987</v>
+      <c r="D85" s="14">
+        <v>9991</v>
       </c>
       <c r="E85" s="15">
-        <f>IF(D85/10000*30&gt;=29.7, 30,D85/10000*30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F85" s="5">
-        <v>16.864000000000001</v>
+        <v>47.488999999999997</v>
       </c>
       <c r="G85" s="11">
         <f>IF(F85&gt;0, IF(F85&lt;25, 30, IF(F85&gt;75, 10, (1-(F85-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>21.0044</v>
       </c>
       <c r="H85" s="12">
         <f>B85+C85+E85+G85</f>
-        <v>100</v>
-      </c>
-      <c r="I85" s="6"/>
+        <v>73.004400000000004</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="2">
-        <v>19</v>
-      </c>
-      <c r="C86" s="2">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2">
-        <v>9994</v>
+        <v>73</v>
+      </c>
+      <c r="B86" s="7">
+        <v>17</v>
+      </c>
+      <c r="C86" s="9">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>9992</v>
       </c>
       <c r="E86" s="15">
         <f>IF(D86/10000*30&gt;=29.7, 30,D86/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F86" s="5">
-        <v>3.2959999999999998</v>
+        <v>21.696000000000002</v>
       </c>
       <c r="G86" s="11">
         <f>IF(F86&gt;0, IF(F86&lt;25, 30, IF(F86&gt;75, 10, (1-(F86-25)/(75-25))*20+10)), 0)</f>
@@ -5280,180 +5283,178 @@
       </c>
       <c r="H86" s="12">
         <f>B86+C86+E86+G86</f>
-        <v>88</v>
-      </c>
-      <c r="I86" s="6"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2">
-        <v>9988</v>
+        <v>9989</v>
       </c>
       <c r="E87" s="15">
         <f>IF(D87/10000*30&gt;=29.7, 30,D87/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F87" s="5">
-        <v>37.697000000000003</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="G87" s="11">
         <f>IF(F87&gt;0, IF(F87&lt;25, 30, IF(F87&gt;75, 10, (1-(F87-25)/(75-25))*20+10)), 0)</f>
-        <v>24.921199999999999</v>
+        <v>10</v>
       </c>
       <c r="H87" s="12">
         <f>B87+C87+E87+G87</f>
-        <v>92.921199999999999</v>
+        <v>65</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="7">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B88" s="1">
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
       </c>
-      <c r="D88" s="14">
-        <v>10000</v>
+      <c r="D88" s="1">
+        <v>9995</v>
       </c>
       <c r="E88" s="15">
         <f>IF(D88/10000*30&gt;=29.7, 30,D88/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F88" s="5">
-        <v>755.91</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="G88" s="11">
         <f>IF(F88&gt;0, IF(F88&lt;25, 30, IF(F88&gt;75, 10, (1-(F88-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H88" s="12">
         <f>B88+C88+E88+G88</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B89" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1">
-        <v>10</v>
-      </c>
-      <c r="D89" s="14">
-        <v>9995</v>
+        <v>6</v>
+      </c>
+      <c r="D89" s="20">
+        <v>9991</v>
       </c>
       <c r="E89" s="15">
-        <f>IF(D89/10000*30&gt;=29.7, 30,D89/10000*30)</f>
-        <v>30</v>
-      </c>
-      <c r="F89" s="5">
-        <v>92.45</v>
+        <v>30</v>
+      </c>
+      <c r="F89" s="19">
+        <v>16.256</v>
       </c>
       <c r="G89" s="11">
         <f>IF(F89&gt;0, IF(F89&lt;25, 30, IF(F89&gt;75, 10, (1-(F89-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H89" s="12">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B90" s="2">
-        <v>28</v>
-      </c>
-      <c r="C90" s="2">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2">
-        <v>9990</v>
+        <v>62</v>
+      </c>
+      <c r="B90" s="7">
+        <v>24</v>
+      </c>
+      <c r="C90" s="1">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9992</v>
       </c>
       <c r="E90" s="15">
         <f>IF(D90/10000*30&gt;=29.7, 30,D90/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F90" s="5">
-        <v>32.031999999999996</v>
+        <v>18.753</v>
       </c>
       <c r="G90" s="11">
         <f>IF(F90&gt;0, IF(F90&lt;25, 30, IF(F90&gt;75, 10, (1-(F90-25)/(75-25))*20+10)), 0)</f>
-        <v>27.187200000000004</v>
+        <v>30</v>
       </c>
       <c r="H90" s="12">
         <f>B90+C90+E90+G90</f>
-        <v>95.187200000000004</v>
+        <v>94</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="7">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1">
-        <v>10</v>
-      </c>
-      <c r="D91" s="1">
-        <v>9995</v>
+        <v>81</v>
+      </c>
+      <c r="B91" s="2">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2">
+        <v>10000</v>
       </c>
       <c r="E91" s="15">
         <f>IF(D91/10000*30&gt;=29.7, 30,D91/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F91" s="5">
-        <v>18.975999999999999</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="G91" s="11">
         <f>IF(F91&gt;0, IF(F91&lt;25, 30, IF(F91&gt;75, 10, (1-(F91-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.590000000000002</v>
       </c>
       <c r="H91" s="12">
         <f>B91+C91+E91+G91</f>
-        <v>86</v>
+        <v>72.59</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="7">
-        <v>17</v>
-      </c>
-      <c r="C92" s="9">
-        <v>10</v>
-      </c>
-      <c r="D92" s="1">
-        <v>9992</v>
+        <v>103</v>
+      </c>
+      <c r="B92" s="2">
+        <v>25</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2">
+        <v>9989</v>
       </c>
       <c r="E92" s="15">
         <f>IF(D92/10000*30&gt;=29.7, 30,D92/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F92" s="5">
-        <v>21.696000000000002</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="G92" s="11">
         <f>IF(F92&gt;0, IF(F92&lt;25, 30, IF(F92&gt;75, 10, (1-(F92-25)/(75-25))*20+10)), 0)</f>
@@ -5461,225 +5462,225 @@
       </c>
       <c r="H92" s="12">
         <f>B92+C92+E92+G92</f>
-        <v>87</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="2">
-        <v>15</v>
-      </c>
-      <c r="C93" s="2">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2">
-        <v>9990</v>
+        <v>66</v>
+      </c>
+      <c r="B93" s="7">
+        <v>18</v>
+      </c>
+      <c r="C93" s="9">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9995</v>
       </c>
       <c r="E93" s="15">
         <f>IF(D93/10000*30&gt;=29.7, 30,D93/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F93" s="5">
-        <v>26.463999999999999</v>
+        <v>36.351999999999997</v>
       </c>
       <c r="G93" s="11">
         <f>IF(F93&gt;0, IF(F93&lt;25, 30, IF(F93&gt;75, 10, (1-(F93-25)/(75-25))*20+10)), 0)</f>
-        <v>29.414400000000001</v>
+        <v>25.459200000000003</v>
       </c>
       <c r="H93" s="12">
         <f>B93+C93+E93+G93</f>
-        <v>83.414400000000001</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>80.45920000000001</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>3419</v>
+        <v>9999</v>
       </c>
       <c r="E94" s="15">
         <f>IF(D94/10000*30&gt;=29.7, 30,D94/10000*30)</f>
-        <v>10.257</v>
+        <v>30</v>
       </c>
       <c r="F94" s="5">
-        <v>23.616</v>
+        <v>118.91</v>
       </c>
       <c r="G94" s="11">
         <f>IF(F94&gt;0, IF(F94&lt;25, 30, IF(F94&gt;75, 10, (1-(F94-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H94" s="12">
         <f>B94+C94+E94+G94</f>
-        <v>67.257000000000005</v>
+        <v>68</v>
       </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="2">
-        <v>15</v>
-      </c>
-      <c r="C95" s="2">
-        <v>10</v>
-      </c>
-      <c r="D95" s="2">
-        <v>9955</v>
+        <v>32</v>
+      </c>
+      <c r="B95" s="7">
+        <v>20</v>
+      </c>
+      <c r="C95" s="1">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>9985</v>
       </c>
       <c r="E95" s="15">
         <f>IF(D95/10000*30&gt;=29.7, 30,D95/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F95" s="5">
-        <v>56.512999999999998</v>
+        <v>47.872999999999998</v>
       </c>
       <c r="G95" s="11">
         <f>IF(F95&gt;0, IF(F95&lt;25, 30, IF(F95&gt;75, 10, (1-(F95-25)/(75-25))*20+10)), 0)</f>
-        <v>17.394800000000004</v>
+        <v>20.8508</v>
       </c>
       <c r="H95" s="12">
         <f>B95+C95+E95+G95</f>
-        <v>72.394800000000004</v>
+        <v>80.850799999999992</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" s="2">
-        <v>12</v>
-      </c>
-      <c r="C96" s="2">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2">
-        <v>9994</v>
+        <v>43</v>
+      </c>
+      <c r="B96" s="7">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1">
+        <v>9992</v>
       </c>
       <c r="E96" s="15">
         <f>IF(D96/10000*30&gt;=29.7, 30,D96/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F96" s="5">
-        <v>26.113</v>
+        <v>666.16</v>
       </c>
       <c r="G96" s="11">
         <f>IF(F96&gt;0, IF(F96&lt;25, 30, IF(F96&gt;75, 10, (1-(F96-25)/(75-25))*20+10)), 0)</f>
-        <v>29.5548</v>
+        <v>10</v>
       </c>
       <c r="H96" s="12">
-        <v>77</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>138</v>
-      </c>
+        <f>B96+C96+E96+G96</f>
+        <v>69</v>
+      </c>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="7">
-        <v>5</v>
-      </c>
-      <c r="C97" s="1">
-        <v>5</v>
-      </c>
-      <c r="D97" s="1">
-        <v>9994</v>
+        <v>80</v>
+      </c>
+      <c r="B97" s="2">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2">
+        <v>9990</v>
       </c>
       <c r="E97" s="15">
         <f>IF(D97/10000*30&gt;=29.7, 30,D97/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F97" s="5">
-        <v>48.128999999999998</v>
+        <v>335.08</v>
       </c>
       <c r="G97" s="11">
         <f>IF(F97&gt;0, IF(F97&lt;25, 30, IF(F97&gt;75, 10, (1-(F97-25)/(75-25))*20+10)), 0)</f>
-        <v>20.7484</v>
+        <v>10</v>
       </c>
       <c r="H97" s="12">
         <f>B97+C97+E97+G97</f>
-        <v>60.748400000000004</v>
+        <v>69</v>
       </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="2">
-        <v>25</v>
-      </c>
-      <c r="C98" s="2">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2">
-        <v>9991</v>
+        <v>23</v>
+      </c>
+      <c r="B98" s="7">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1">
+        <v>9992</v>
       </c>
       <c r="E98" s="15">
         <f>IF(D98/10000*30&gt;=29.7, 30,D98/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F98" s="5">
-        <v>21.600999999999999</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="G98" s="11">
         <f>IF(F98&gt;0, IF(F98&lt;25, 30, IF(F98&gt;75, 10, (1-(F98-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>25.484399999999997</v>
       </c>
       <c r="H98" s="12">
         <f>B98+C98+E98+G98</f>
-        <v>95</v>
+        <v>88.484399999999994</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="7">
-        <v>10</v>
-      </c>
-      <c r="C99" s="9">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1">
-        <v>9940</v>
+        <v>116</v>
+      </c>
+      <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2">
+        <v>9989</v>
       </c>
       <c r="E99" s="15">
         <f>IF(D99/10000*30&gt;=29.7, 30,D99/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F99" s="5">
-        <v>19.488</v>
+        <v>245.38</v>
       </c>
       <c r="G99" s="11">
         <f>IF(F99&gt;0, IF(F99&lt;25, 30, IF(F99&gt;75, 10, (1-(F99-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H99" s="12">
         <f>B99+C99+E99+G99</f>
-        <v>80</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B100" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2">
         <v>9</v>
@@ -5692,222 +5693,217 @@
         <v>30</v>
       </c>
       <c r="F100" s="5">
-        <v>61.024999999999999</v>
+        <v>36.064</v>
       </c>
       <c r="G100" s="11">
         <f>IF(F100&gt;0, IF(F100&lt;25, 30, IF(F100&gt;75, 10, (1-(F100-25)/(75-25))*20+10)), 0)</f>
-        <v>15.590000000000002</v>
+        <v>25.574399999999997</v>
       </c>
       <c r="H100" s="12">
         <f>B100+C100+E100+G100</f>
-        <v>72.59</v>
+        <v>79.574399999999997</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="7">
-        <v>28</v>
-      </c>
-      <c r="C101" s="1">
-        <v>10</v>
-      </c>
-      <c r="D101" s="20">
-        <v>9979</v>
+        <v>121</v>
+      </c>
+      <c r="B101" s="2">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10</v>
+      </c>
+      <c r="D101" s="2">
+        <v>9995</v>
       </c>
       <c r="E101" s="15">
         <f>IF(D101/10000*30&gt;=29.7, 30,D101/10000*30)</f>
         <v>30</v>
       </c>
-      <c r="F101" s="19">
-        <v>19.969000000000001</v>
+      <c r="F101" s="5">
+        <v>16.32</v>
       </c>
       <c r="G101" s="11">
         <f>IF(F101&gt;0, IF(F101&lt;25, 30, IF(F101&gt;75, 10, (1-(F101-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H101" s="12">
-        <v>93</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>142</v>
-      </c>
+        <f>B101+C101+E101+G101</f>
+        <v>87</v>
+      </c>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2">
-        <v>9993</v>
+        <v>9593</v>
       </c>
       <c r="E102" s="15">
         <f>IF(D102/10000*30&gt;=29.7, 30,D102/10000*30)</f>
-        <v>30</v>
+        <v>28.779</v>
       </c>
       <c r="F102" s="5">
-        <v>65.025000000000006</v>
+        <v>10.08</v>
       </c>
       <c r="G102" s="11">
         <f>IF(F102&gt;0, IF(F102&lt;25, 30, IF(F102&gt;75, 10, (1-(F102-25)/(75-25))*20+10)), 0)</f>
-        <v>13.989999999999998</v>
+        <v>30</v>
       </c>
       <c r="H102" s="12">
         <f>B102+C102+E102+G102</f>
-        <v>74.989999999999995</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="2">
-        <v>20</v>
-      </c>
-      <c r="C103" s="2">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2">
-        <v>9975</v>
+        <v>58</v>
+      </c>
+      <c r="B103" s="7">
+        <v>17</v>
+      </c>
+      <c r="C103" s="1">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9998</v>
       </c>
       <c r="E103" s="15">
         <f>IF(D103/10000*30&gt;=29.7, 30,D103/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F103" s="5">
-        <v>42.369</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="G103" s="11">
         <f>IF(F103&gt;0, IF(F103&lt;25, 30, IF(F103&gt;75, 10, (1-(F103-25)/(75-25))*20+10)), 0)</f>
-        <v>23.052399999999999</v>
+        <v>30</v>
       </c>
       <c r="H103" s="12">
         <f>B103+C103+E103+G103</f>
-        <v>82.052400000000006</v>
+        <v>87</v>
       </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2">
         <v>28</v>
       </c>
       <c r="C104" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2">
-        <v>9993</v>
+        <v>9988</v>
       </c>
       <c r="E104" s="15">
         <f>IF(D104/10000*30&gt;=29.7, 30,D104/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F104" s="5">
-        <v>61.569000000000003</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G104" s="11">
         <f>IF(F104&gt;0, IF(F104&lt;25, 30, IF(F104&gt;75, 10, (1-(F104-25)/(75-25))*20+10)), 0)</f>
-        <v>15.372399999999999</v>
+        <v>24.921199999999999</v>
       </c>
       <c r="H104" s="12">
         <f>B104+C104+E104+G104</f>
-        <v>82.372399999999999</v>
+        <v>92.921199999999999</v>
       </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C105" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2">
-        <v>0</v>
+        <v>9992</v>
       </c>
       <c r="E105" s="15">
         <f>IF(D105/10000*30&gt;=29.7, 30,D105/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F105" s="5">
-        <v>0</v>
+        <v>32.737000000000002</v>
       </c>
       <c r="G105" s="11">
         <f>IF(F105&gt;0, IF(F105&lt;25, 30, IF(F105&gt;75, 10, (1-(F105-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>26.905199999999997</v>
       </c>
       <c r="H105" s="12">
         <f>B105+C105+E105+G105</f>
-        <v>24</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>85.905199999999994</v>
+      </c>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B106" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C106" s="1">
-        <v>7</v>
-      </c>
-      <c r="D106" s="14">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>9990</v>
       </c>
       <c r="E106" s="15">
         <f>IF(D106/10000*30&gt;=29.7, 30,D106/10000*30)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F106" s="5">
-        <v>0</v>
+        <v>39.073</v>
       </c>
       <c r="G106" s="11">
         <f>IF(F106&gt;0, IF(F106&lt;25, 30, IF(F106&gt;75, 10, (1-(F106-25)/(75-25))*20+10)), 0)</f>
-        <v>0</v>
+        <v>24.370799999999999</v>
       </c>
       <c r="H106" s="12">
         <f>B106+C106+E106+G106</f>
-        <v>22</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>92.370800000000003</v>
+      </c>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C107" s="2">
         <v>10</v>
       </c>
       <c r="D107" s="2">
-        <v>9994</v>
+        <v>9990</v>
       </c>
       <c r="E107" s="15">
         <f>IF(D107/10000*30&gt;=29.7, 30,D107/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F107" s="5">
-        <v>16.576000000000001</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="G107" s="11">
         <f>IF(F107&gt;0, IF(F107&lt;25, 30, IF(F107&gt;75, 10, (1-(F107-25)/(75-25))*20+10)), 0)</f>
@@ -5915,149 +5911,147 @@
       </c>
       <c r="H107" s="12">
         <f>B107+C107+E107+G107</f>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C108" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2">
-        <v>9992</v>
+        <v>10000</v>
       </c>
       <c r="E108" s="15">
         <f>IF(D108/10000*30&gt;=29.7, 30,D108/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F108" s="5">
-        <v>25.888000000000002</v>
+        <v>122.27</v>
       </c>
       <c r="G108" s="11">
         <f>IF(F108&gt;0, IF(F108&lt;25, 30, IF(F108&gt;75, 10, (1-(F108-25)/(75-25))*20+10)), 0)</f>
-        <v>29.6448</v>
+        <v>10</v>
       </c>
       <c r="H108" s="12">
         <f>B108+C108+E108+G108</f>
-        <v>93.644800000000004</v>
+        <v>69</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B109" s="1">
-        <v>22</v>
-      </c>
-      <c r="C109" s="1">
+        <v>68</v>
+      </c>
+      <c r="B109" s="7">
+        <v>19</v>
+      </c>
+      <c r="C109" s="9">
         <v>10</v>
       </c>
       <c r="D109" s="1">
-        <v>9992</v>
+        <v>9972</v>
       </c>
       <c r="E109" s="15">
         <f>IF(D109/10000*30&gt;=29.7, 30,D109/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F109" s="5">
-        <v>36.993000000000002</v>
+        <v>29.888999999999999</v>
       </c>
       <c r="G109" s="11">
         <f>IF(F109&gt;0, IF(F109&lt;25, 30, IF(F109&gt;75, 10, (1-(F109-25)/(75-25))*20+10)), 0)</f>
-        <v>25.202799999999996</v>
+        <v>28.0444</v>
       </c>
       <c r="H109" s="12">
         <f>B109+C109+E109+G109</f>
-        <v>87.202799999999996</v>
-      </c>
-      <c r="I109" s="6"/>
+        <v>87.044399999999996</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="2">
-        <v>10</v>
-      </c>
-      <c r="C110" s="2">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2">
-        <v>9958</v>
+        <v>63</v>
+      </c>
+      <c r="B110" s="7">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9385</v>
       </c>
       <c r="E110" s="15">
         <f>IF(D110/10000*30&gt;=29.7, 30,D110/10000*30)</f>
-        <v>30</v>
+        <v>28.155000000000001</v>
       </c>
       <c r="F110" s="5">
-        <v>463.43</v>
+        <v>26.401</v>
       </c>
       <c r="G110" s="11">
         <f>IF(F110&gt;0, IF(F110&lt;25, 30, IF(F110&gt;75, 10, (1-(F110-25)/(75-25))*20+10)), 0)</f>
-        <v>10</v>
+        <v>29.439599999999999</v>
       </c>
       <c r="H110" s="12">
         <f>B110+C110+E110+G110</f>
-        <v>59</v>
+        <v>89.5946</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B111" s="7">
-        <v>20</v>
-      </c>
-      <c r="C111" s="1">
-        <v>6</v>
-      </c>
-      <c r="D111" s="20">
-        <v>9991</v>
+        <v>25</v>
+      </c>
+      <c r="C111" s="9">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9984</v>
       </c>
       <c r="E111" s="15">
-        <v>30</v>
-      </c>
-      <c r="F111" s="19">
-        <v>16.256</v>
+        <f>IF(D111/10000*30&gt;=29.7, 30,D111/10000*30)</f>
+        <v>30</v>
+      </c>
+      <c r="F111" s="5">
+        <v>18.975999999999999</v>
       </c>
       <c r="G111" s="11">
         <f>IF(F111&gt;0, IF(F111&lt;25, 30, IF(F111&gt;75, 10, (1-(F111-25)/(75-25))*20+10)), 0)</f>
         <v>30</v>
       </c>
       <c r="H111" s="12">
-        <v>81</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>143</v>
+        <f>B111+C111+E111+G111</f>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B112" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" s="2">
-        <v>9988</v>
+        <v>9989</v>
       </c>
       <c r="E112" s="15">
         <f>IF(D112/10000*30&gt;=29.7, 30,D112/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F112" s="5">
-        <v>153.41</v>
+        <v>148.26</v>
       </c>
       <c r="G112" s="11">
         <f>IF(F112&gt;0, IF(F112&lt;25, 30, IF(F112&gt;75, 10, (1-(F112-25)/(75-25))*20+10)), 0)</f>
@@ -6065,52 +6059,53 @@
       </c>
       <c r="H112" s="12">
         <f>B112+C112+E112+G112</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" s="2">
+        <v>55</v>
+      </c>
+      <c r="B113" s="7">
         <v>15</v>
       </c>
-      <c r="C113" s="2">
-        <v>9</v>
-      </c>
-      <c r="D113" s="17">
-        <v>10000</v>
+      <c r="C113" s="1">
+        <v>7</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0</v>
       </c>
       <c r="E113" s="15">
-        <v>25</v>
+        <f>IF(D113/10000*30&gt;=29.7, 30,D113/10000*30)</f>
+        <v>0</v>
       </c>
       <c r="F113" s="5">
-        <v>17.376000000000001</v>
+        <v>0</v>
       </c>
       <c r="G113" s="11">
         <f>IF(F113&gt;0, IF(F113&lt;25, 30, IF(F113&gt;75, 10, (1-(F113-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H113" s="12">
         <f>B113+C113+E113+G113</f>
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="7">
-        <v>8</v>
-      </c>
-      <c r="C114" s="1">
-        <v>5</v>
-      </c>
-      <c r="D114" s="1">
+        <v>92</v>
+      </c>
+      <c r="B114" s="2">
+        <v>25</v>
+      </c>
+      <c r="C114" s="2">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2">
         <v>9991</v>
       </c>
       <c r="E114" s="15">
@@ -6118,118 +6113,118 @@
         <v>30</v>
       </c>
       <c r="F114" s="5">
-        <v>47.713000000000001</v>
+        <v>21.600999999999999</v>
       </c>
       <c r="G114" s="11">
         <f>IF(F114&gt;0, IF(F114&lt;25, 30, IF(F114&gt;75, 10, (1-(F114-25)/(75-25))*20+10)), 0)</f>
-        <v>20.9148</v>
+        <v>30</v>
       </c>
       <c r="H114" s="12">
         <f>B114+C114+E114+G114</f>
-        <v>63.9148</v>
+        <v>95</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B115" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
         <v>10</v>
       </c>
-      <c r="D115" s="1">
-        <v>9999</v>
+      <c r="D115" s="14">
+        <v>9990</v>
       </c>
       <c r="E115" s="15">
-        <v>25</v>
+        <f>IF(D115/10000*30&gt;=29.7, 30,D115/10000*30)</f>
+        <v>30</v>
       </c>
       <c r="F115" s="5">
-        <v>22.463999999999999</v>
+        <v>52.640999999999998</v>
       </c>
       <c r="G115" s="11">
         <f>IF(F115&gt;0, IF(F115&lt;25, 30, IF(F115&gt;75, 10, (1-(F115-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>18.9436</v>
       </c>
       <c r="H115" s="12">
-        <f>B115+C115+E115+G115</f>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B116" s="2">
-        <v>10</v>
-      </c>
-      <c r="C116" s="2">
-        <v>10</v>
-      </c>
-      <c r="D116" s="2">
-        <v>9957</v>
+        <v>33</v>
+      </c>
+      <c r="B116" s="7">
+        <v>18</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9994</v>
       </c>
       <c r="E116" s="15">
         <f>IF(D116/10000*30&gt;=29.7, 30,D116/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F116" s="5">
-        <v>67.584999999999994</v>
+        <v>24.417000000000002</v>
       </c>
       <c r="G116" s="11">
         <f>IF(F116&gt;0, IF(F116&lt;25, 30, IF(F116&gt;75, 10, (1-(F116-25)/(75-25))*20+10)), 0)</f>
-        <v>12.966000000000001</v>
+        <v>30</v>
       </c>
       <c r="H116" s="12">
         <f>B116+C116+E116+G116</f>
-        <v>62.966000000000001</v>
+        <v>88</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="25" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="1">
-        <v>20</v>
-      </c>
-      <c r="C117" s="1">
-        <v>10</v>
-      </c>
-      <c r="D117" s="1">
-        <v>9995</v>
+        <v>99</v>
+      </c>
+      <c r="B117" s="2">
+        <v>28</v>
+      </c>
+      <c r="C117" s="2">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
+        <v>9993</v>
       </c>
       <c r="E117" s="15">
         <f>IF(D117/10000*30&gt;=29.7, 30,D117/10000*30)</f>
         <v>30</v>
       </c>
       <c r="F117" s="5">
-        <v>8.5440000000000005</v>
+        <v>61.569000000000003</v>
       </c>
       <c r="G117" s="11">
         <f>IF(F117&gt;0, IF(F117&lt;25, 30, IF(F117&gt;75, 10, (1-(F117-25)/(75-25))*20+10)), 0)</f>
-        <v>30</v>
+        <v>15.372399999999999</v>
       </c>
       <c r="H117" s="12">
         <f>B117+C117+E117+G117</f>
-        <v>90</v>
+        <v>82.372399999999999</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B118" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C118" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D118" s="2">
         <v>9992</v>
@@ -6239,15 +6234,15 @@
         <v>30</v>
       </c>
       <c r="F118" s="5">
-        <v>61.664000000000001</v>
+        <v>25.888000000000002</v>
       </c>
       <c r="G118" s="11">
         <f>IF(F118&gt;0, IF(F118&lt;25, 30, IF(F118&gt;75, 10, (1-(F118-25)/(75-25))*20+10)), 0)</f>
-        <v>15.334399999999999</v>
+        <v>29.6448</v>
       </c>
       <c r="H118" s="12">
         <f>B118+C118+E118+G118</f>
-        <v>69.334400000000002</v>
+        <v>93.644800000000004</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -6262,11 +6257,11 @@
     </row>
     <row r="120" spans="1:9" ht="25" customHeight="1">
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F120" s="10">
         <f>AVERAGE(F2:F117)</f>
-        <v>62.987380172413779</v>
+        <v>63.749595689655159</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1">
